--- a/_GameData/ItemEffectGameData.xlsx
+++ b/_GameData/ItemEffectGameData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon2-400\Desktop\QTGameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{517ADBC9-D8BA-40EC-B8C1-F739CC2C3DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{45AB8340-559D-4FA7-AC7B-649768C0C225}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemEffectGameData" sheetId="1" r:id="rId1"/>
@@ -17,17 +18,50 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="110">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,14 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#개발여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,10 +168,6 @@
     <t>무지개빛 총공격</t>
   </si>
   <si>
-    <t>Weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>롤 - 룰루 맞죠?</t>
   </si>
   <si>
@@ -162,10 +184,6 @@
     <t>트럼펫</t>
   </si>
   <si>
-    <t>Weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ResourceChange</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,10 +192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄱㄱ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DmgPer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,10 +212,6 @@
     <t>미정1</t>
   </si>
   <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AtkCooldown</t>
   </si>
   <si>
@@ -248,10 +258,6 @@
     <t>BlackHole</t>
   </si>
   <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OnCharging</t>
   </si>
   <si>
@@ -409,10 +415,6 @@
   </si>
   <si>
     <t>SwingRigidDmg[1]</t>
-  </si>
-  <si>
-    <t>Cursed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SwingRigidDmg[2]</t>
@@ -424,7 +426,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -700,7 +702,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{361CC9EC-5EA8-48B0-8B2E-76952F5BB826}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -719,8 +721,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="시트별저장버튼"/>
       <sheetName val="아이템 가격 밸런싱"/>
@@ -762,13 +767,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ItemEffectTable" displayName="ItemEffectTable" ref="A2:P55" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A2:P55"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9E5A440-1A06-4EDE-9475-F4E083211CA8}" name="ItemEffectTable" displayName="ItemEffectTable" ref="A2:P55" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A2:P55" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="#개발여부" dataDxfId="11"/>
-    <tableColumn id="12" name="#이름값" dataDxfId="10"/>
-    <tableColumn id="4" name="#Grade" dataDxfId="9"/>
-    <tableColumn id="2" name="Index" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{0F10C019-BB58-4178-B1B4-AB67D6BFA8FE}" name="#개발여부" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{2631F0B5-6CB7-4E1F-91C8-178A8FAD7CFB}" name="#이름값" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{52BE5D6D-2F5E-4E81-971B-D295FE157A0F}" name="#Grade" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{36BEAE7C-1A55-486C-8A41-5E2FAAAF70BF}" name="Index" dataDxfId="8">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
@@ -776,8 +781,8 @@
 + COUNTIF($C$3:C3,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="ApplyType"/>
-    <tableColumn id="3" name="#효과 한글" dataDxfId="7">
+    <tableColumn id="8" xr3:uid="{090B7F00-F9AE-420A-9CC9-EC8151C98E9A}" name="ApplyType"/>
+    <tableColumn id="3" xr3:uid="{FF0433F1-809E-46DB-ACBA-22CE721B9A44}" name="#효과 한글" dataDxfId="7">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
@@ -805,10 +810,10 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="ApplyValue"/>
-    <tableColumn id="9" name="ValueOperatorType"/>
-    <tableColumn id="11" name="ApplyPoint"/>
-    <tableColumn id="14" name="#인덱스 수식용" dataDxfId="6">
+    <tableColumn id="10" xr3:uid="{A75CEE6F-2707-424F-8F88-D16C189CAF27}" name="ApplyValue"/>
+    <tableColumn id="9" xr3:uid="{5E1B2F6F-6650-43C5-9002-9A3842F444F4}" name="ValueOperatorType"/>
+    <tableColumn id="11" xr3:uid="{C61588E3-6197-415B-B70E-3DF638897B8A}" name="ApplyPoint"/>
+    <tableColumn id="14" xr3:uid="{E7583699-99B2-457A-B2B4-B78F7EB5ADE9}" name="#인덱스 수식용" dataDxfId="6">
       <calculatedColumnFormula array="1">_xlfn.IFS(
 ISTEXT(J2),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C2,ItemEffectTable[[#This Row],['#이름값]]=B2),J2+1,
@@ -816,20 +821,20 @@
 ItemEffectTable[[#This Row],['#Grade]]=C2,J2
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="#패러디" dataDxfId="5"/>
-    <tableColumn id="13" name="#이름 일치 여부" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{F354DDAB-CCB8-4DD7-8909-D65B3045122E}" name="#패러디" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{6407FCC4-25BB-45E9-87DF-B2764BC385D3}" name="#이름 일치 여부" dataDxfId="4">
       <calculatedColumnFormula>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="#NameIndex" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{696A25E0-6B2D-4660-A1E6-CF815EA8F93F}" name="#NameIndex" dataDxfId="3">
       <calculatedColumnFormula>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="#DescIndex" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{317F47BC-6F87-4B33-8F95-AF85FEB96001}" name="#DescIndex" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="#Name" dataDxfId="1">
+    <tableColumn id="15" xr3:uid="{7534D651-0F05-4B40-B5E9-2A4360161B50}" name="#Name" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="#Desc" dataDxfId="0">
+    <tableColumn id="16" xr3:uid="{65BFF02A-6F8A-4AE3-B3A6-BEA5D8E15ECD}" name="#Desc" dataDxfId="0">
       <calculatedColumnFormula>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -854,7 +859,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -866,7 +871,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -913,6 +918,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -948,6 +970,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1099,13 +1138,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A05D27B-CB84-46AF-8A98-E6EA8EAD442C}">
   <sheetPr codeName="Sheet7">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -1154,13 +1193,13 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L1" t="s">
         <v>0</v>
@@ -1172,86 +1211,86 @@
         <v>0</v>
       </c>
       <c r="O1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="e">
-        <f t="array" aca="1" ref="D3" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+      <c r="D3" cm="1">
+        <f t="array" ref="D3">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C3,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>6000</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="5" t="e">
-        <f t="array" aca="1" ref="F3" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>23</v>
+      </c>
+      <c r="F3" s="5" t="str" cm="1">
+        <f t="array" ref="F3">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -1277,72 +1316,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>리소스변경</v>
       </c>
       <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="5" t="e">
-        <f t="array" aca="1" ref="J3" ca="1">_xlfn.IFS(
+      <c r="J3" s="5" cm="1">
+        <f t="array" ref="J3">_xlfn.IFS(
 ISTEXT(J2),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C2,ItemEffectTable[[#This Row],['#이름값]]=B2),J2+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C2,0,
 ItemEffectTable[[#This Row],['#Grade]]=C2,J2
 )</f>
-        <v>#NAME?</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4"/>
-      <c r="L3" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M3" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N3" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O3" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P3" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L3" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M3" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>11000</v>
+      </c>
+      <c r="N3" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>21000</v>
+      </c>
+      <c r="O3" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>뾱뾱 슬리퍼</v>
+      </c>
+      <c r="P3" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>아무 능력이 없지만 이동할 때 뾱뾱 소리가 납니다.</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="e">
-        <f t="array" aca="1" ref="D4" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+      <c r="D4" cm="1">
+        <f t="array" ref="D4">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C4,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>6001</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="5" t="e">
-        <f t="array" aca="1" ref="F4" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>23</v>
+      </c>
+      <c r="F4" s="5" t="str" cm="1">
+        <f t="array" ref="F4">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -1368,74 +1407,74 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>리소스변경</v>
       </c>
       <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="5" t="e">
-        <f t="array" aca="1" ref="J4" ca="1">_xlfn.IFS(
+      <c r="J4" s="5" cm="1">
+        <f t="array" ref="J4">_xlfn.IFS(
 ISTEXT(J3),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C3,ItemEffectTable[[#This Row],['#이름값]]=B3),J3+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C3,0,
 ItemEffectTable[[#This Row],['#Grade]]=C3,J3
 )</f>
-        <v>#NAME?</v>
+        <v>0</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M4" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N4" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O4" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P4" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+        <v>28</v>
+      </c>
+      <c r="L4" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M4" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>11001</v>
+      </c>
+      <c r="N4" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>21001</v>
+      </c>
+      <c r="O4" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>무지개빛 총공격</v>
+      </c>
+      <c r="P4" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>냥냥냥. 모든 탄환이 적을 관통합니다.</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="e">
-        <f t="array" aca="1" ref="D5" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+      <c r="D5" cm="1">
+        <f t="array" ref="D5">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C5,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>6001</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="5" t="e">
-        <f t="array" aca="1" ref="F5" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>29</v>
+      </c>
+      <c r="F5" s="5" t="str" cm="1">
+        <f t="array" ref="F5">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -1461,74 +1500,74 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>차징에 따른 관통샷 변경</v>
       </c>
       <c r="G5">
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="5" t="e">
-        <f t="array" aca="1" ref="J5" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J5" s="5" cm="1">
+        <f t="array" ref="J5">_xlfn.IFS(
 ISTEXT(J4),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C4,ItemEffectTable[[#This Row],['#이름값]]=B4),J4+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C4,0,
 ItemEffectTable[[#This Row],['#Grade]]=C4,J4
 )</f>
-        <v>#NAME?</v>
+        <v>1</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M5" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N5" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O5" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P5" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+        <v>28</v>
+      </c>
+      <c r="L5" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M5" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>11001</v>
+      </c>
+      <c r="N5" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>21001</v>
+      </c>
+      <c r="O5" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>무지개빛 총공격</v>
+      </c>
+      <c r="P5" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>냥냥냥. 모든 탄환이 적을 관통합니다.</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="e">
-        <f t="array" aca="1" ref="D6" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>22</v>
+      </c>
+      <c r="D6" cm="1">
+        <f t="array" ref="D6">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C6,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>6002</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="5" t="e">
-        <f t="array" aca="1" ref="F6" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>33</v>
+      </c>
+      <c r="F6" s="5" t="str" cm="1">
+        <f t="array" ref="F6">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -1554,72 +1593,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>리소스변경</v>
       </c>
       <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
         <v>26</v>
       </c>
-      <c r="H6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="5" t="e">
-        <f t="array" aca="1" ref="J6" ca="1">_xlfn.IFS(
+      <c r="J6" s="5" cm="1">
+        <f t="array" ref="J6">_xlfn.IFS(
 ISTEXT(J5),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C5,ItemEffectTable[[#This Row],['#이름값]]=B5),J5+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C5,0,
 ItemEffectTable[[#This Row],['#Grade]]=C5,J5
 )</f>
-        <v>#NAME?</v>
+        <v>1</v>
       </c>
       <c r="K6" s="4"/>
-      <c r="L6" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M6" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N6" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O6" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P6" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L6" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M6" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>11002</v>
+      </c>
+      <c r="N6" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>21002</v>
+      </c>
+      <c r="O6" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>트럼펫</v>
+      </c>
+      <c r="P6" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>트럼펫 소리가 납니다. 공격력이 20%증가합니다.</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="e">
-        <f t="array" aca="1" ref="D7" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>22</v>
+      </c>
+      <c r="D7" cm="1">
+        <f t="array" ref="D7">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C7,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>6002</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="5" t="e">
-        <f t="array" aca="1" ref="F7" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>35</v>
+      </c>
+      <c r="F7" s="5" t="str" cm="1">
+        <f t="array" ref="F7">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -1645,72 +1684,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>공격력변경</v>
       </c>
       <c r="G7">
         <v>1.2</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="5" t="e">
-        <f t="array" aca="1" ref="J7" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J7" s="5" cm="1">
+        <f t="array" ref="J7">_xlfn.IFS(
 ISTEXT(J6),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C6,ItemEffectTable[[#This Row],['#이름값]]=B6),J6+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C6,0,
 ItemEffectTable[[#This Row],['#Grade]]=C6,J6
 )</f>
-        <v>#NAME?</v>
+        <v>2</v>
       </c>
       <c r="K7" s="4"/>
-      <c r="L7" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M7" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N7" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O7" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P7" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L7" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M7" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>11002</v>
+      </c>
+      <c r="N7" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>21002</v>
+      </c>
+      <c r="O7" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>트럼펫</v>
+      </c>
+      <c r="P7" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>트럼펫 소리가 납니다. 공격력이 20%증가합니다.</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" t="e">
-        <f t="array" aca="1" ref="D8" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>38</v>
+      </c>
+      <c r="D8" cm="1">
+        <f t="array" ref="D8">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C8,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>7000</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="5" t="e">
-        <f t="array" aca="1" ref="F8" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>39</v>
+      </c>
+      <c r="F8" s="5" t="str" cm="1">
+        <f t="array" ref="F8">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -1736,72 +1775,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>이동속도변경</v>
       </c>
       <c r="G8">
         <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="5" t="e">
-        <f t="array" aca="1" ref="J8" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J8" s="5" cm="1">
+        <f t="array" ref="J8">_xlfn.IFS(
 ISTEXT(J7),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C7,ItemEffectTable[[#This Row],['#이름값]]=B7),J7+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C7,0,
 ItemEffectTable[[#This Row],['#Grade]]=C7,J7
 )</f>
-        <v>#NAME?</v>
+        <v>0</v>
       </c>
       <c r="K8" s="4"/>
-      <c r="L8" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M8" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N8" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O8" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P8" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L8" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M8" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>12000</v>
+      </c>
+      <c r="N8" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>22000</v>
+      </c>
+      <c r="O8" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>신성한 종</v>
+      </c>
+      <c r="P8" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>이동속도가 조금 빨라집니다.</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" t="e">
-        <f t="array" aca="1" ref="D9" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>38</v>
+      </c>
+      <c r="D9" cm="1">
+        <f t="array" ref="D9">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C9,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>7001</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="5" t="e">
-        <f t="array" aca="1" ref="F9" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>41</v>
+      </c>
+      <c r="F9" s="5" t="str" cm="1">
+        <f t="array" ref="F9">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -1827,72 +1866,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>공격속도변경</v>
       </c>
       <c r="G9">
         <v>0.85</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="5" t="e">
-        <f t="array" aca="1" ref="J9" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J9" s="5" cm="1">
+        <f t="array" ref="J9">_xlfn.IFS(
 ISTEXT(J8),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C8,ItemEffectTable[[#This Row],['#이름값]]=B8),J8+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C8,0,
 ItemEffectTable[[#This Row],['#Grade]]=C8,J8
 )</f>
-        <v>#NAME?</v>
+        <v>0</v>
       </c>
       <c r="K9" s="4"/>
-      <c r="L9" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M9" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N9" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O9" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P9" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L9" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M9" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>12001</v>
+      </c>
+      <c r="N9" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>22001</v>
+      </c>
+      <c r="O9" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>미정1</v>
+      </c>
+      <c r="P9" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>공격 속도 15% 상승</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="e">
-        <f t="array" aca="1" ref="D10" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>38</v>
+      </c>
+      <c r="D10" cm="1">
+        <f t="array" ref="D10">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C10,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>7002</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="5" t="e">
-        <f t="array" aca="1" ref="F10" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>41</v>
+      </c>
+      <c r="F10" s="5" t="str" cm="1">
+        <f t="array" ref="F10">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -1918,72 +1957,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>공격속도변경</v>
       </c>
       <c r="G10">
         <v>0.8</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="5" t="e">
-        <f t="array" aca="1" ref="J10" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J10" s="5" cm="1">
+        <f t="array" ref="J10">_xlfn.IFS(
 ISTEXT(J9),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C9,ItemEffectTable[[#This Row],['#이름값]]=B9),J9+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C9,0,
 ItemEffectTable[[#This Row],['#Grade]]=C9,J9
 )</f>
-        <v>#NAME?</v>
+        <v>0</v>
       </c>
       <c r="K10" s="4"/>
-      <c r="L10" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M10" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N10" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O10" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P10" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L10" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M10" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>12002</v>
+      </c>
+      <c r="N10" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>22002</v>
+      </c>
+      <c r="O10" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>무언가 담긴병</v>
+      </c>
+      <c r="P10" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>차징 속도 20% 상승</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" t="e">
-        <f t="array" aca="1" ref="D11" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>38</v>
+      </c>
+      <c r="D11" cm="1">
+        <f t="array" ref="D11">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C11,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>7003</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="5" t="e">
-        <f t="array" aca="1" ref="F11" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>45</v>
+      </c>
+      <c r="F11" s="5" t="str" cm="1">
+        <f t="array" ref="F11">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -2009,72 +2048,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>공크기변경</v>
       </c>
       <c r="G11">
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="5" t="e">
-        <f t="array" aca="1" ref="J11" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J11" s="5" cm="1">
+        <f t="array" ref="J11">_xlfn.IFS(
 ISTEXT(J10),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C10,ItemEffectTable[[#This Row],['#이름값]]=B10),J10+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C10,0,
 ItemEffectTable[[#This Row],['#Grade]]=C10,J10
 )</f>
-        <v>#NAME?</v>
+        <v>0</v>
       </c>
       <c r="K11" s="4"/>
-      <c r="L11" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M11" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N11" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O11" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P11" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L11" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M11" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>12003</v>
+      </c>
+      <c r="N11" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>22003</v>
+      </c>
+      <c r="O11" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>아저씨의 금구슬</v>
+      </c>
+      <c r="P11" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>공 크기가 3 커집니다.</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="e">
-        <f t="array" aca="1" ref="D12" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>38</v>
+      </c>
+      <c r="D12" cm="1">
+        <f t="array" ref="D12">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C12,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>7004</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="5" t="e">
-        <f t="array" aca="1" ref="F12" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>47</v>
+      </c>
+      <c r="F12" s="5" t="str" cm="1">
+        <f t="array" ref="F12">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -2100,72 +2139,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>공격각도변경</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="5" t="e">
-        <f t="array" aca="1" ref="J12" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J12" s="5" cm="1">
+        <f t="array" ref="J12">_xlfn.IFS(
 ISTEXT(J11),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C11,ItemEffectTable[[#This Row],['#이름값]]=B11),J11+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C11,0,
 ItemEffectTable[[#This Row],['#Grade]]=C11,J11
 )</f>
-        <v>#NAME?</v>
+        <v>0</v>
       </c>
       <c r="K12" s="4"/>
-      <c r="L12" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M12" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N12" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O12" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P12" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L12" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M12" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>12004</v>
+      </c>
+      <c r="N12" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>22004</v>
+      </c>
+      <c r="O12" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>작은 십자가</v>
+      </c>
+      <c r="P12" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>공격 범위가 2 증가합니다.</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" t="e">
-        <f t="array" aca="1" ref="D13" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>38</v>
+      </c>
+      <c r="D13" cm="1">
+        <f t="array" ref="D13">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C13,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>7005</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="5" t="e">
-        <f t="array" aca="1" ref="F13" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>49</v>
+      </c>
+      <c r="F13" s="5" t="str" cm="1">
+        <f t="array" ref="F13">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -2191,72 +2230,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>최대체력변경</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="5" t="e">
-        <f t="array" aca="1" ref="J13" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J13" s="5" cm="1">
+        <f t="array" ref="J13">_xlfn.IFS(
 ISTEXT(J12),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C12,ItemEffectTable[[#This Row],['#이름값]]=B12),J12+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C12,0,
 ItemEffectTable[[#This Row],['#Grade]]=C12,J12
 )</f>
-        <v>#NAME?</v>
+        <v>0</v>
       </c>
       <c r="K13" s="4"/>
-      <c r="L13" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M13" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N13" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O13" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P13" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L13" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M13" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>12005</v>
+      </c>
+      <c r="N13" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>22005</v>
+      </c>
+      <c r="O13" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>목없는 갑옷</v>
+      </c>
+      <c r="P13" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>[하트]가 1개 증가합니다.</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" t="e">
-        <f t="array" aca="1" ref="D14" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>38</v>
+      </c>
+      <c r="D14" cm="1">
+        <f t="array" ref="D14">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C14,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>7006</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="5" t="e">
-        <f t="array" aca="1" ref="F14" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>51</v>
+      </c>
+      <c r="F14" s="5" t="str" cm="1">
+        <f t="array" ref="F14">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -2282,72 +2321,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>공최대소지개수변경</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="5" t="e">
-        <f t="array" aca="1" ref="J14" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J14" s="5" cm="1">
+        <f t="array" ref="J14">_xlfn.IFS(
 ISTEXT(J13),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C13,ItemEffectTable[[#This Row],['#이름값]]=B13),J13+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C13,0,
 ItemEffectTable[[#This Row],['#Grade]]=C13,J13
 )</f>
-        <v>#NAME?</v>
+        <v>0</v>
       </c>
       <c r="K14" s="4"/>
-      <c r="L14" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M14" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N14" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O14" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P14" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L14" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M14" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>12006</v>
+      </c>
+      <c r="N14" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>22006</v>
+      </c>
+      <c r="O14" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>미정2</v>
+      </c>
+      <c r="P14" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>공 던지기 가능 개수가 1개 증가합니다.</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" t="e">
-        <f t="array" aca="1" ref="D15" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>54</v>
+      </c>
+      <c r="D15" cm="1">
+        <f t="array" ref="D15">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C15,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>8000</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="5" t="e">
-        <f t="array" aca="1" ref="F15" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>55</v>
+      </c>
+      <c r="F15" s="5" t="str" cm="1">
+        <f t="array" ref="F15">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -2373,74 +2412,74 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>차징중공끌어당김</v>
       </c>
       <c r="G15">
         <v>5</v>
       </c>
       <c r="H15" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="I15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" s="5" t="e">
-        <f t="array" aca="1" ref="J15" ca="1">_xlfn.IFS(
+        <v>56</v>
+      </c>
+      <c r="J15" s="5" cm="1">
+        <f t="array" ref="J15">_xlfn.IFS(
 ISTEXT(J14),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C14,ItemEffectTable[[#This Row],['#이름값]]=B14),J14+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C14,0,
 ItemEffectTable[[#This Row],['#Grade]]=C14,J14
 )</f>
-        <v>#NAME?</v>
+        <v>0</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L15" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M15" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N15" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O15" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P15" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+        <v>57</v>
+      </c>
+      <c r="L15" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M15" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>13000</v>
+      </c>
+      <c r="N15" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>23000</v>
+      </c>
+      <c r="O15" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>Dys : 0N Mk2</v>
+      </c>
+      <c r="P15" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>차징중에 공을 끌어당김</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" t="e">
-        <f t="array" aca="1" ref="D16" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>54</v>
+      </c>
+      <c r="D16" cm="1">
+        <f t="array" ref="D16">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C16,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>8001</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="5" t="e">
-        <f t="array" aca="1" ref="F16" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>41</v>
+      </c>
+      <c r="F16" s="5" t="str" cm="1">
+        <f t="array" ref="F16">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -2466,72 +2505,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>공격속도변경</v>
       </c>
       <c r="G16" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="5" t="e">
-        <f t="array" aca="1" ref="J16" ca="1">_xlfn.IFS(
+        <v>60</v>
+      </c>
+      <c r="J16" s="5" cm="1">
+        <f t="array" ref="J16">_xlfn.IFS(
 ISTEXT(J15),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C15,ItemEffectTable[[#This Row],['#이름값]]=B15),J15+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C15,0,
 ItemEffectTable[[#This Row],['#Grade]]=C15,J15
 )</f>
-        <v>#NAME?</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4"/>
-      <c r="L16" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M16" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N16" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O16" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P16" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L16" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M16" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>13001</v>
+      </c>
+      <c r="N16" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>23001</v>
+      </c>
+      <c r="O16" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>무해한 불꽃</v>
+      </c>
+      <c r="P16" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>“실례지만 불타고 계십니다” 현재의 이동속도 비례하여 공격속도 증가</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" t="e">
-        <f t="array" aca="1" ref="D17" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>54</v>
+      </c>
+      <c r="D17" cm="1">
+        <f t="array" ref="D17">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C17,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>8002</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="5" t="e">
-        <f t="array" aca="1" ref="F17" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>29</v>
+      </c>
+      <c r="F17" s="5" t="str" cm="1">
+        <f t="array" ref="F17">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -2557,72 +2596,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>차징에 따른 관통샷 변경</v>
       </c>
       <c r="G17">
         <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="5" t="e">
-        <f t="array" aca="1" ref="J17" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J17" s="5" cm="1">
+        <f t="array" ref="J17">_xlfn.IFS(
 ISTEXT(J16),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C16,ItemEffectTable[[#This Row],['#이름값]]=B16),J16+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C16,0,
 ItemEffectTable[[#This Row],['#Grade]]=C16,J16
 )</f>
-        <v>#NAME?</v>
+        <v>0</v>
       </c>
       <c r="K17" s="4"/>
-      <c r="L17" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M17" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N17" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O17" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P17" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L17" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M17" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>13002</v>
+      </c>
+      <c r="N17" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>23002</v>
+      </c>
+      <c r="O17" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>롱기누스</v>
+      </c>
+      <c r="P17" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>[배트]로 쳐낸 공이 적을 관통합니다.</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" t="e">
-        <f t="array" aca="1" ref="D18" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>54</v>
+      </c>
+      <c r="D18" cm="1">
+        <f t="array" ref="D18">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C18,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>8003</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="5" t="e">
-        <f t="array" aca="1" ref="F18" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>49</v>
+      </c>
+      <c r="F18" s="5" t="str" cm="1">
+        <f t="array" ref="F18">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -2648,74 +2687,74 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>최대체력변경</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="5" t="e">
-        <f t="array" aca="1" ref="J18" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J18" s="5" cm="1">
+        <f t="array" ref="J18">_xlfn.IFS(
 ISTEXT(J17),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C17,ItemEffectTable[[#This Row],['#이름값]]=B17),J17+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C17,0,
 ItemEffectTable[[#This Row],['#Grade]]=C17,J17
 )</f>
-        <v>#NAME?</v>
+        <v>0</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L18" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M18" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N18" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O18" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P18" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+        <v>63</v>
+      </c>
+      <c r="L18" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M18" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>13003</v>
+      </c>
+      <c r="N18" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>23003</v>
+      </c>
+      <c r="O18" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>석가면</v>
+      </c>
+      <c r="P18" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>[하트]가 1개 증가합니다. 이동속도, 공격속도가 10% 빨라집니다.</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" t="e">
-        <f t="array" aca="1" ref="D19" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>54</v>
+      </c>
+      <c r="D19" cm="1">
+        <f t="array" ref="D19">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C19,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>8003</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="5" t="e">
-        <f t="array" aca="1" ref="F19" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>39</v>
+      </c>
+      <c r="F19" s="5" t="str" cm="1">
+        <f t="array" ref="F19">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -2741,74 +2780,74 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>이동속도변경</v>
       </c>
       <c r="G19">
         <v>0.9</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="5" t="e">
-        <f t="array" aca="1" ref="J19" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J19" s="5" cm="1">
+        <f t="array" ref="J19">_xlfn.IFS(
 ISTEXT(J18),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C18,ItemEffectTable[[#This Row],['#이름값]]=B18),J18+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C18,0,
 ItemEffectTable[[#This Row],['#Grade]]=C18,J18
 )</f>
-        <v>#NAME?</v>
+        <v>1</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L19" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M19" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N19" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O19" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P19" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+        <v>63</v>
+      </c>
+      <c r="L19" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M19" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>13003</v>
+      </c>
+      <c r="N19" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>23003</v>
+      </c>
+      <c r="O19" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>석가면</v>
+      </c>
+      <c r="P19" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>[하트]가 1개 증가합니다. 이동속도, 공격속도가 10% 빨라집니다.</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" t="e">
-        <f t="array" aca="1" ref="D20" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>54</v>
+      </c>
+      <c r="D20" cm="1">
+        <f t="array" ref="D20">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C20,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>8003</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="5" t="e">
-        <f t="array" aca="1" ref="F20" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>41</v>
+      </c>
+      <c r="F20" s="5" t="str" cm="1">
+        <f t="array" ref="F20">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -2834,74 +2873,74 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>공격속도변경</v>
       </c>
       <c r="G20">
         <v>0.9</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I20" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="5" t="e">
-        <f t="array" aca="1" ref="J20" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J20" s="5" cm="1">
+        <f t="array" ref="J20">_xlfn.IFS(
 ISTEXT(J19),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C19,ItemEffectTable[[#This Row],['#이름값]]=B19),J19+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C19,0,
 ItemEffectTable[[#This Row],['#Grade]]=C19,J19
 )</f>
-        <v>#NAME?</v>
+        <v>2</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L20" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M20" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N20" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O20" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P20" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+        <v>63</v>
+      </c>
+      <c r="L20" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M20" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>13003</v>
+      </c>
+      <c r="N20" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>23003</v>
+      </c>
+      <c r="O20" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>석가면</v>
+      </c>
+      <c r="P20" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>[하트]가 1개 증가합니다. 이동속도, 공격속도가 10% 빨라집니다.</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" t="e">
-        <f t="array" aca="1" ref="D21" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>54</v>
+      </c>
+      <c r="D21" cm="1">
+        <f t="array" ref="D21">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C21,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>8004</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="5" t="e">
-        <f t="array" aca="1" ref="F21" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>35</v>
+      </c>
+      <c r="F21" s="5" t="str" cm="1">
+        <f t="array" ref="F21">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -2927,72 +2966,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>공격력변경</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="5" t="e">
-        <f t="array" aca="1" ref="J21" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J21" s="5" cm="1">
+        <f t="array" ref="J21">_xlfn.IFS(
 ISTEXT(J20),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C20,ItemEffectTable[[#This Row],['#이름값]]=B20),J20+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C20,0,
 ItemEffectTable[[#This Row],['#Grade]]=C20,J20
 )</f>
-        <v>#NAME?</v>
+        <v>2</v>
       </c>
       <c r="K21" s="4"/>
-      <c r="L21" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M21" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N21" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O21" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P21" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L21" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M21" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>13004</v>
+      </c>
+      <c r="N21" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>23004</v>
+      </c>
+      <c r="O21" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>거인의 주먹</v>
+      </c>
+      <c r="P21" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>최대 [하트] 1개 당 5% 만큼 피해량이 증가합니다.</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" t="e">
-        <f t="array" aca="1" ref="D22" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>54</v>
+      </c>
+      <c r="D22" cm="1">
+        <f t="array" ref="D22">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C22,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>8005</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="5" t="e">
-        <f t="array" aca="1" ref="F22" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>67</v>
+      </c>
+      <c r="F22" s="5" t="str" cm="1">
+        <f t="array" ref="F22">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -3018,74 +3057,74 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>골드획득량변경</v>
       </c>
       <c r="G22">
         <v>1.2</v>
       </c>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I22" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="5" t="e">
-        <f t="array" aca="1" ref="J22" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J22" s="5" cm="1">
+        <f t="array" ref="J22">_xlfn.IFS(
 ISTEXT(J21),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C21,ItemEffectTable[[#This Row],['#이름값]]=B21),J21+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C21,0,
 ItemEffectTable[[#This Row],['#Grade]]=C21,J21
 )</f>
-        <v>#NAME?</v>
+        <v>2</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L22" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M22" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N22" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O22" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P22" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+        <v>68</v>
+      </c>
+      <c r="L22" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M22" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>13005</v>
+      </c>
+      <c r="N22" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>23005</v>
+      </c>
+      <c r="O22" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>황금왕의 갑옷</v>
+      </c>
+      <c r="P22" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>골드를 20%씩 더 획득합니다.</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" t="e">
-        <f t="array" aca="1" ref="D23" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>54</v>
+      </c>
+      <c r="D23" cm="1">
+        <f t="array" ref="D23">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C23,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>8006</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="5" t="e">
-        <f t="array" aca="1" ref="F23" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>51</v>
+      </c>
+      <c r="F23" s="5" t="str" cm="1">
+        <f t="array" ref="F23">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -3111,72 +3150,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>공최대소지개수변경</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" s="5" t="e">
-        <f t="array" aca="1" ref="J23" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J23" s="5" cm="1">
+        <f t="array" ref="J23">_xlfn.IFS(
 ISTEXT(J22),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C22,ItemEffectTable[[#This Row],['#이름값]]=B22),J22+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C22,0,
 ItemEffectTable[[#This Row],['#Grade]]=C22,J22
 )</f>
-        <v>#NAME?</v>
+        <v>2</v>
       </c>
       <c r="K23" s="4"/>
-      <c r="L23" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M23" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N23" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O23" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P23" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L23" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M23" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>13006</v>
+      </c>
+      <c r="N23" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>23006</v>
+      </c>
+      <c r="O23" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>복사기</v>
+      </c>
+      <c r="P23" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>“공이 복사가 된다고” 공 던지기 개수가 2개 증가합니다.</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" t="e">
-        <f t="array" aca="1" ref="D24" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>54</v>
+      </c>
+      <c r="D24" cm="1">
+        <f t="array" ref="D24">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C24,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>8007</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="5" t="e">
-        <f t="array" aca="1" ref="F24" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>35</v>
+      </c>
+      <c r="F24" s="5" t="str" cm="1">
+        <f t="array" ref="F24">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -3202,74 +3241,74 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>공격력변경</v>
       </c>
       <c r="G24" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I24" t="s">
-        <v>79</v>
-      </c>
-      <c r="J24" s="5" t="e">
-        <f t="array" aca="1" ref="J24" ca="1">_xlfn.IFS(
+        <v>72</v>
+      </c>
+      <c r="J24" s="5" cm="1">
+        <f t="array" ref="J24">_xlfn.IFS(
 ISTEXT(J23),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C23,ItemEffectTable[[#This Row],['#이름값]]=B23),J23+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C23,0,
 ItemEffectTable[[#This Row],['#Grade]]=C23,J23
 )</f>
-        <v>#NAME?</v>
+        <v>2</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="L24" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M24" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N24" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O24" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P24" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+        <v>73</v>
+      </c>
+      <c r="L24" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M24" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>13007</v>
+      </c>
+      <c r="N24" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>23007</v>
+      </c>
+      <c r="O24" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>어른의 카드</v>
+      </c>
+      <c r="P24" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>소지중인 골드의 1%만큼 데미지 상승</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" t="e">
-        <f t="array" aca="1" ref="D25" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>54</v>
+      </c>
+      <c r="D25" cm="1">
+        <f t="array" ref="D25">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C25,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>8008</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="5" t="e">
-        <f t="array" aca="1" ref="F25" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>35</v>
+      </c>
+      <c r="F25" s="5" t="str" cm="1">
+        <f t="array" ref="F25">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -3295,72 +3334,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>공격력변경</v>
       </c>
       <c r="G25" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I25" t="s">
-        <v>83</v>
-      </c>
-      <c r="J25" s="5" t="e">
-        <f t="array" aca="1" ref="J25" ca="1">_xlfn.IFS(
+        <v>76</v>
+      </c>
+      <c r="J25" s="5" cm="1">
+        <f t="array" ref="J25">_xlfn.IFS(
 ISTEXT(J24),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C24,ItemEffectTable[[#This Row],['#이름값]]=B24),J24+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C24,0,
 ItemEffectTable[[#This Row],['#Grade]]=C24,J24
 )</f>
-        <v>#NAME?</v>
+        <v>2</v>
       </c>
       <c r="K25" s="4"/>
-      <c r="L25" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M25" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N25" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O25" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P25" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L25" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M25" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>13008</v>
+      </c>
+      <c r="N25" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>23008</v>
+      </c>
+      <c r="O25" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>회광반조</v>
+      </c>
+      <c r="P25" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>빈 하트 1개당 피해량 5% 상승</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" t="e">
-        <f t="array" aca="1" ref="D26" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>54</v>
+      </c>
+      <c r="D26" cm="1">
+        <f t="array" ref="D26">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C26,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>8009</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" s="5" t="e">
-        <f t="array" aca="1" ref="F26" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>78</v>
+      </c>
+      <c r="F26" s="5" t="str" cm="1">
+        <f t="array" ref="F26">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -3386,72 +3425,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>비행가능</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" s="5" t="e">
-        <f t="array" aca="1" ref="J26" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J26" s="5" cm="1">
+        <f t="array" ref="J26">_xlfn.IFS(
 ISTEXT(J25),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C25,ItemEffectTable[[#This Row],['#이름값]]=B25),J25+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C25,0,
 ItemEffectTable[[#This Row],['#Grade]]=C25,J25
 )</f>
-        <v>#NAME?</v>
+        <v>2</v>
       </c>
       <c r="K26" s="4"/>
-      <c r="L26" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M26" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N26" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O26" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P26" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L26" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M26" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>13009</v>
+      </c>
+      <c r="N26" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>23009</v>
+      </c>
+      <c r="O26" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>이카루스의 날개</v>
+      </c>
+      <c r="P26" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>RowCollider을 무시하고 이동함.</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" t="e">
-        <f t="array" aca="1" ref="D27" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>54</v>
+      </c>
+      <c r="D27" cm="1">
+        <f t="array" ref="D27">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C27,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>8010</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="5" t="e">
-        <f t="array" aca="1" ref="F27" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>35</v>
+      </c>
+      <c r="F27" s="5" t="str" cm="1">
+        <f t="array" ref="F27">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -3477,74 +3516,74 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>공격력변경</v>
       </c>
       <c r="G27">
         <v>1.2</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J27" s="5" t="e">
-        <f t="array" aca="1" ref="J27" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J27" s="5" cm="1">
+        <f t="array" ref="J27">_xlfn.IFS(
 ISTEXT(J26),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C26,ItemEffectTable[[#This Row],['#이름값]]=B26),J26+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C26,0,
 ItemEffectTable[[#This Row],['#Grade]]=C26,J26
 )</f>
-        <v>#NAME?</v>
+        <v>2</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L27" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M27" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N27" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O27" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P27" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+        <v>80</v>
+      </c>
+      <c r="L27" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M27" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>13010</v>
+      </c>
+      <c r="N27" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>23010</v>
+      </c>
+      <c r="O27" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>신성한 수류탄</v>
+      </c>
+      <c r="P27" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>피해량이 20% 증가합니다.</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" t="e">
-        <f t="array" aca="1" ref="D28" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>54</v>
+      </c>
+      <c r="D28" cm="1">
+        <f t="array" ref="D28">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C28,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>8011</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" s="5" t="e">
-        <f t="array" aca="1" ref="F28" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>82</v>
+      </c>
+      <c r="F28" s="5" t="str" cm="1">
+        <f t="array" ref="F28">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -3570,74 +3609,74 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>미행동중시간정지</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I28" t="s">
-        <v>90</v>
-      </c>
-      <c r="J28" s="5" t="e">
-        <f t="array" aca="1" ref="J28" ca="1">_xlfn.IFS(
+        <v>83</v>
+      </c>
+      <c r="J28" s="5" cm="1">
+        <f t="array" ref="J28">_xlfn.IFS(
 ISTEXT(J27),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C27,ItemEffectTable[[#This Row],['#이름값]]=B27),J27+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C27,0,
 ItemEffectTable[[#This Row],['#Grade]]=C27,J27
 )</f>
-        <v>#NAME?</v>
+        <v>2</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="L28" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M28" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N28" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O28" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P28" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+        <v>84</v>
+      </c>
+      <c r="L28" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M28" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>13011</v>
+      </c>
+      <c r="N28" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>23011</v>
+      </c>
+      <c r="O28" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>슈퍼콜드</v>
+      </c>
+      <c r="P28" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>이동하지 않을 때 시간이 멈춤</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" t="e">
-        <f t="array" aca="1" ref="D29" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>54</v>
+      </c>
+      <c r="D29" cm="1">
+        <f t="array" ref="D29">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C29,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>8012</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" s="5" t="e">
-        <f t="array" aca="1" ref="F29" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>86</v>
+      </c>
+      <c r="F29" s="5" t="str" cm="1">
+        <f t="array" ref="F29">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -3663,72 +3702,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>투사체가유도탄이됨</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I29" t="s">
-        <v>94</v>
-      </c>
-      <c r="J29" s="5" t="e">
-        <f t="array" aca="1" ref="J29" ca="1">_xlfn.IFS(
+        <v>87</v>
+      </c>
+      <c r="J29" s="5" cm="1">
+        <f t="array" ref="J29">_xlfn.IFS(
 ISTEXT(J28),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C28,ItemEffectTable[[#This Row],['#이름값]]=B28),J28+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C28,0,
 ItemEffectTable[[#This Row],['#Grade]]=C28,J28
 )</f>
-        <v>#NAME?</v>
+        <v>2</v>
       </c>
       <c r="K29" s="4"/>
-      <c r="L29" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M29" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N29" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O29" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P29" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L29" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M29" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>13012</v>
+      </c>
+      <c r="N29" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>23012</v>
+      </c>
+      <c r="O29" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>게이볼그</v>
+      </c>
+      <c r="P29" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>공을 칠 때 자동으로 가장 가까운 적을 향해 날라감</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" t="e">
-        <f t="array" aca="1" ref="D30" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>89</v>
+      </c>
+      <c r="D30" cm="1">
+        <f t="array" ref="D30">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C30,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>9000</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="5" t="e">
-        <f t="array" aca="1" ref="F30" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>39</v>
+      </c>
+      <c r="F30" s="5" t="str" cm="1">
+        <f t="array" ref="F30">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -3754,72 +3793,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>이동속도변경</v>
       </c>
       <c r="G30">
         <v>-0.7</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I30" t="s">
-        <v>28</v>
-      </c>
-      <c r="J30" s="5" t="e">
-        <f t="array" aca="1" ref="J30" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J30" s="5" cm="1">
+        <f t="array" ref="J30">_xlfn.IFS(
 ISTEXT(J29),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C29,ItemEffectTable[[#This Row],['#이름값]]=B29),J29+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C29,0,
 ItemEffectTable[[#This Row],['#Grade]]=C29,J29
 )</f>
-        <v>#NAME?</v>
+        <v>0</v>
       </c>
       <c r="K30" s="4"/>
-      <c r="L30" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M30" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N30" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O30" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P30" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L30" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M30" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>14000</v>
+      </c>
+      <c r="N30" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>24000</v>
+      </c>
+      <c r="O30" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>불길한 깃발</v>
+      </c>
+      <c r="P30" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>이동속도가 30% 감소합니다. 차징 속도가 40% 빨라집니다.</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" t="e">
-        <f t="array" aca="1" ref="D31" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>89</v>
+      </c>
+      <c r="D31" cm="1">
+        <f t="array" ref="D31">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C31,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>9000</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31" s="5" t="e">
-        <f t="array" aca="1" ref="F31" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>90</v>
+      </c>
+      <c r="F31" s="5" t="str" cm="1">
+        <f t="array" ref="F31">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -3845,72 +3884,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>차징속도변경-1단계</v>
       </c>
       <c r="G31">
         <v>-0.6</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J31" s="5" t="e">
-        <f t="array" aca="1" ref="J31" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J31" s="5" cm="1">
+        <f t="array" ref="J31">_xlfn.IFS(
 ISTEXT(J30),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C30,ItemEffectTable[[#This Row],['#이름값]]=B30),J30+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C30,0,
 ItemEffectTable[[#This Row],['#Grade]]=C30,J30
 )</f>
-        <v>#NAME?</v>
+        <v>1</v>
       </c>
       <c r="K31" s="4"/>
-      <c r="L31" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M31" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N31" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O31" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P31" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L31" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M31" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>14000</v>
+      </c>
+      <c r="N31" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>24000</v>
+      </c>
+      <c r="O31" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>불길한 깃발</v>
+      </c>
+      <c r="P31" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>이동속도가 30% 감소합니다. 차징 속도가 40% 빨라집니다.</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" t="e">
-        <f t="array" aca="1" ref="D32" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>89</v>
+      </c>
+      <c r="D32" cm="1">
+        <f t="array" ref="D32">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C32,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>9000</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" s="5" t="e">
-        <f t="array" aca="1" ref="F32" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>91</v>
+      </c>
+      <c r="F32" s="5" t="str" cm="1">
+        <f t="array" ref="F32">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -3936,72 +3975,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>차징속도변경-2단계</v>
       </c>
       <c r="G32">
         <v>-0.6</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I32" t="s">
-        <v>28</v>
-      </c>
-      <c r="J32" s="5" t="e">
-        <f t="array" aca="1" ref="J32" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J32" s="5" cm="1">
+        <f t="array" ref="J32">_xlfn.IFS(
 ISTEXT(J31),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C31,ItemEffectTable[[#This Row],['#이름값]]=B31),J31+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C31,0,
 ItemEffectTable[[#This Row],['#Grade]]=C31,J31
 )</f>
-        <v>#NAME?</v>
+        <v>2</v>
       </c>
       <c r="K32" s="4"/>
-      <c r="L32" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M32" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N32" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O32" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P32" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L32" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M32" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>14000</v>
+      </c>
+      <c r="N32" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>24000</v>
+      </c>
+      <c r="O32" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>불길한 깃발</v>
+      </c>
+      <c r="P32" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>이동속도가 30% 감소합니다. 차징 속도가 40% 빨라집니다.</v>
       </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" t="e">
-        <f t="array" aca="1" ref="D33" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>89</v>
+      </c>
+      <c r="D33" cm="1">
+        <f t="array" ref="D33">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C33,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>9000</v>
       </c>
       <c r="E33" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33" s="5" t="e">
-        <f t="array" aca="1" ref="F33" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>92</v>
+      </c>
+      <c r="F33" s="5" t="str" cm="1">
+        <f t="array" ref="F33">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -4027,72 +4066,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>차징속도변경-3단계</v>
       </c>
       <c r="G33">
         <v>-0.6</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I33" t="s">
-        <v>28</v>
-      </c>
-      <c r="J33" s="5" t="e">
-        <f t="array" aca="1" ref="J33" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J33" s="5" cm="1">
+        <f t="array" ref="J33">_xlfn.IFS(
 ISTEXT(J32),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C32,ItemEffectTable[[#This Row],['#이름값]]=B32),J32+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C32,0,
 ItemEffectTable[[#This Row],['#Grade]]=C32,J32
 )</f>
-        <v>#NAME?</v>
+        <v>3</v>
       </c>
       <c r="K33" s="4"/>
-      <c r="L33" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M33" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N33" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O33" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P33" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L33" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M33" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>14000</v>
+      </c>
+      <c r="N33" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>24000</v>
+      </c>
+      <c r="O33" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>불길한 깃발</v>
+      </c>
+      <c r="P33" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>이동속도가 30% 감소합니다. 차징 속도가 40% 빨라집니다.</v>
       </c>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" t="e">
-        <f t="array" aca="1" ref="D34" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>89</v>
+      </c>
+      <c r="D34" cm="1">
+        <f t="array" ref="D34">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C34,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>9001</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="5" t="e">
-        <f t="array" aca="1" ref="F34" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>39</v>
+      </c>
+      <c r="F34" s="5" t="str" cm="1">
+        <f t="array" ref="F34">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -4118,72 +4157,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>이동속도변경</v>
       </c>
       <c r="G34">
         <v>1.4</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I34" t="s">
-        <v>28</v>
-      </c>
-      <c r="J34" s="5" t="e">
-        <f t="array" aca="1" ref="J34" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J34" s="5" cm="1">
+        <f t="array" ref="J34">_xlfn.IFS(
 ISTEXT(J33),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C33,ItemEffectTable[[#This Row],['#이름값]]=B33),J33+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C33,0,
 ItemEffectTable[[#This Row],['#Grade]]=C33,J33
 )</f>
-        <v>#NAME?</v>
+        <v>3</v>
       </c>
       <c r="K34" s="4"/>
-      <c r="L34" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M34" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N34" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O34" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P34" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L34" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M34" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>14001</v>
+      </c>
+      <c r="N34" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>24001</v>
+      </c>
+      <c r="O34" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>빗바랜 천가죽</v>
+      </c>
+      <c r="P34" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>이동속도가 20% 감소합니다. 피해량이 20% 감소합니다.</v>
       </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" t="e">
-        <f t="array" aca="1" ref="D35" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>89</v>
+      </c>
+      <c r="D35" cm="1">
+        <f t="array" ref="D35">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C35,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>9001</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" s="5" t="e">
-        <f t="array" aca="1" ref="F35" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>35</v>
+      </c>
+      <c r="F35" s="5" t="str" cm="1">
+        <f t="array" ref="F35">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -4209,72 +4248,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>공격력변경</v>
       </c>
       <c r="G35">
         <v>-0.2</v>
       </c>
       <c r="H35" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I35" t="s">
-        <v>28</v>
-      </c>
-      <c r="J35" s="5" t="e">
-        <f t="array" aca="1" ref="J35" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J35" s="5" cm="1">
+        <f t="array" ref="J35">_xlfn.IFS(
 ISTEXT(J34),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C34,ItemEffectTable[[#This Row],['#이름값]]=B34),J34+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C34,0,
 ItemEffectTable[[#This Row],['#Grade]]=C34,J34
 )</f>
-        <v>#NAME?</v>
+        <v>4</v>
       </c>
       <c r="K35" s="4"/>
-      <c r="L35" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M35" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N35" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O35" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P35" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L35" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M35" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>14001</v>
+      </c>
+      <c r="N35" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>24001</v>
+      </c>
+      <c r="O35" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>빗바랜 천가죽</v>
+      </c>
+      <c r="P35" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>이동속도가 20% 감소합니다. 피해량이 20% 감소합니다.</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" t="e">
-        <f t="array" aca="1" ref="D36" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>89</v>
+      </c>
+      <c r="D36" cm="1">
+        <f t="array" ref="D36">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C36,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>9002</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
-      </c>
-      <c r="F36" s="5" t="e">
-        <f t="array" aca="1" ref="F36" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>90</v>
+      </c>
+      <c r="F36" s="5" t="str" cm="1">
+        <f t="array" ref="F36">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -4300,72 +4339,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>차징속도변경-1단계</v>
       </c>
       <c r="G36">
         <v>0.6</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J36" s="5" t="e">
-        <f t="array" aca="1" ref="J36" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J36" s="5" cm="1">
+        <f t="array" ref="J36">_xlfn.IFS(
 ISTEXT(J35),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C35,ItemEffectTable[[#This Row],['#이름값]]=B35),J35+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C35,0,
 ItemEffectTable[[#This Row],['#Grade]]=C35,J35
 )</f>
-        <v>#NAME?</v>
+        <v>4</v>
       </c>
       <c r="K36" s="4"/>
-      <c r="L36" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M36" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N36" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O36" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P36" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L36" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M36" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>14002</v>
+      </c>
+      <c r="N36" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>24002</v>
+      </c>
+      <c r="O36" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>나자렛의 몽키스패너</v>
+      </c>
+      <c r="P36" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>차징 속도가 40% 느려집니다. 대신 공을 튕겨내는 속도가 30% 상승합니다.</v>
       </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" t="e">
-        <f t="array" aca="1" ref="D37" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>89</v>
+      </c>
+      <c r="D37" cm="1">
+        <f t="array" ref="D37">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C37,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>9002</v>
       </c>
       <c r="E37" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37" s="5" t="e">
-        <f t="array" aca="1" ref="F37" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>91</v>
+      </c>
+      <c r="F37" s="5" t="str" cm="1">
+        <f t="array" ref="F37">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -4391,72 +4430,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>차징속도변경-2단계</v>
       </c>
       <c r="G37">
         <v>0.6</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I37" t="s">
-        <v>28</v>
-      </c>
-      <c r="J37" s="5" t="e">
-        <f t="array" aca="1" ref="J37" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J37" s="5" cm="1">
+        <f t="array" ref="J37">_xlfn.IFS(
 ISTEXT(J36),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C36,ItemEffectTable[[#This Row],['#이름값]]=B36),J36+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C36,0,
 ItemEffectTable[[#This Row],['#Grade]]=C36,J36
 )</f>
-        <v>#NAME?</v>
+        <v>5</v>
       </c>
       <c r="K37" s="4"/>
-      <c r="L37" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M37" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N37" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O37" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P37" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L37" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M37" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>14002</v>
+      </c>
+      <c r="N37" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>24002</v>
+      </c>
+      <c r="O37" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>나자렛의 몽키스패너</v>
+      </c>
+      <c r="P37" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>차징 속도가 40% 느려집니다. 대신 공을 튕겨내는 속도가 30% 상승합니다.</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" t="e">
-        <f t="array" aca="1" ref="D38" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>89</v>
+      </c>
+      <c r="D38" cm="1">
+        <f t="array" ref="D38">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C38,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>9002</v>
       </c>
       <c r="E38" t="s">
-        <v>99</v>
-      </c>
-      <c r="F38" s="5" t="e">
-        <f t="array" aca="1" ref="F38" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>92</v>
+      </c>
+      <c r="F38" s="5" t="str" cm="1">
+        <f t="array" ref="F38">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -4482,72 +4521,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>차징속도변경-3단계</v>
       </c>
       <c r="G38">
         <v>0.6</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I38" t="s">
-        <v>28</v>
-      </c>
-      <c r="J38" s="5" t="e">
-        <f t="array" aca="1" ref="J38" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J38" s="5" cm="1">
+        <f t="array" ref="J38">_xlfn.IFS(
 ISTEXT(J37),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C37,ItemEffectTable[[#This Row],['#이름값]]=B37),J37+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C37,0,
 ItemEffectTable[[#This Row],['#Grade]]=C37,J37
 )</f>
-        <v>#NAME?</v>
+        <v>6</v>
       </c>
       <c r="K38" s="4"/>
-      <c r="L38" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M38" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N38" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O38" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P38" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L38" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M38" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>14002</v>
+      </c>
+      <c r="N38" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>24002</v>
+      </c>
+      <c r="O38" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>나자렛의 몽키스패너</v>
+      </c>
+      <c r="P38" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>차징 속도가 40% 느려집니다. 대신 공을 튕겨내는 속도가 30% 상승합니다.</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" t="e">
-        <f t="array" aca="1" ref="D39" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>89</v>
+      </c>
+      <c r="D39" cm="1">
+        <f t="array" ref="D39">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C39,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>9002</v>
       </c>
       <c r="E39" t="s">
-        <v>102</v>
-      </c>
-      <c r="F39" s="5" t="e">
-        <f t="array" aca="1" ref="F39" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>95</v>
+      </c>
+      <c r="F39" s="5" t="str" cm="1">
+        <f t="array" ref="F39">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -4573,72 +4612,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>튕겨내기탄환속도변경-미차징</v>
       </c>
       <c r="G39">
         <v>1.3</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I39" t="s">
-        <v>28</v>
-      </c>
-      <c r="J39" s="5" t="e">
-        <f t="array" aca="1" ref="J39" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J39" s="5" cm="1">
+        <f t="array" ref="J39">_xlfn.IFS(
 ISTEXT(J38),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C38,ItemEffectTable[[#This Row],['#이름값]]=B38),J38+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C38,0,
 ItemEffectTable[[#This Row],['#Grade]]=C38,J38
 )</f>
-        <v>#NAME?</v>
+        <v>7</v>
       </c>
       <c r="K39" s="4"/>
-      <c r="L39" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M39" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N39" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O39" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P39" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L39" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M39" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>14002</v>
+      </c>
+      <c r="N39" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>24002</v>
+      </c>
+      <c r="O39" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>나자렛의 몽키스패너</v>
+      </c>
+      <c r="P39" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>차징 속도가 40% 느려집니다. 대신 공을 튕겨내는 속도가 30% 상승합니다.</v>
       </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D40" t="e">
-        <f t="array" aca="1" ref="D40" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>89</v>
+      </c>
+      <c r="D40" cm="1">
+        <f t="array" ref="D40">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C40,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>9002</v>
       </c>
       <c r="E40" t="s">
-        <v>103</v>
-      </c>
-      <c r="F40" s="5" t="e">
-        <f t="array" aca="1" ref="F40" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>96</v>
+      </c>
+      <c r="F40" s="5" t="str" cm="1">
+        <f t="array" ref="F40">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -4664,72 +4703,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>튕겨내기탄환속도변경-1단계</v>
       </c>
       <c r="G40">
         <v>1.3</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I40" t="s">
-        <v>28</v>
-      </c>
-      <c r="J40" s="5" t="e">
-        <f t="array" aca="1" ref="J40" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J40" s="5" cm="1">
+        <f t="array" ref="J40">_xlfn.IFS(
 ISTEXT(J39),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C39,ItemEffectTable[[#This Row],['#이름값]]=B39),J39+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C39,0,
 ItemEffectTable[[#This Row],['#Grade]]=C39,J39
 )</f>
-        <v>#NAME?</v>
+        <v>8</v>
       </c>
       <c r="K40" s="4"/>
-      <c r="L40" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M40" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N40" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O40" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P40" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L40" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M40" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>14002</v>
+      </c>
+      <c r="N40" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>24002</v>
+      </c>
+      <c r="O40" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>나자렛의 몽키스패너</v>
+      </c>
+      <c r="P40" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>차징 속도가 40% 느려집니다. 대신 공을 튕겨내는 속도가 30% 상승합니다.</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" t="e">
-        <f t="array" aca="1" ref="D41" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>89</v>
+      </c>
+      <c r="D41" cm="1">
+        <f t="array" ref="D41">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C41,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>9002</v>
       </c>
       <c r="E41" t="s">
-        <v>104</v>
-      </c>
-      <c r="F41" s="5" t="e">
-        <f t="array" aca="1" ref="F41" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>97</v>
+      </c>
+      <c r="F41" s="5" t="str" cm="1">
+        <f t="array" ref="F41">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -4755,72 +4794,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>튕겨내기탄환속도변경-2단계</v>
       </c>
       <c r="G41">
         <v>1.3</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I41" t="s">
-        <v>28</v>
-      </c>
-      <c r="J41" s="5" t="e">
-        <f t="array" aca="1" ref="J41" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J41" s="5" cm="1">
+        <f t="array" ref="J41">_xlfn.IFS(
 ISTEXT(J40),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C40,ItemEffectTable[[#This Row],['#이름값]]=B40),J40+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C40,0,
 ItemEffectTable[[#This Row],['#Grade]]=C40,J40
 )</f>
-        <v>#NAME?</v>
+        <v>9</v>
       </c>
       <c r="K41" s="4"/>
-      <c r="L41" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M41" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N41" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O41" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P41" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L41" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M41" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>14002</v>
+      </c>
+      <c r="N41" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>24002</v>
+      </c>
+      <c r="O41" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>나자렛의 몽키스패너</v>
+      </c>
+      <c r="P41" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>차징 속도가 40% 느려집니다. 대신 공을 튕겨내는 속도가 30% 상승합니다.</v>
       </c>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" t="e">
-        <f t="array" aca="1" ref="D42" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>89</v>
+      </c>
+      <c r="D42" cm="1">
+        <f t="array" ref="D42">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C42,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>9002</v>
       </c>
       <c r="E42" t="s">
-        <v>105</v>
-      </c>
-      <c r="F42" s="5" t="e">
-        <f t="array" aca="1" ref="F42" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>98</v>
+      </c>
+      <c r="F42" s="5" t="str" cm="1">
+        <f t="array" ref="F42">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -4846,72 +4885,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>튕겨내기탄환속도변경-3단계</v>
       </c>
       <c r="G42">
         <v>1.3</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I42" t="s">
-        <v>28</v>
-      </c>
-      <c r="J42" s="5" t="e">
-        <f t="array" aca="1" ref="J42" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J42" s="5" cm="1">
+        <f t="array" ref="J42">_xlfn.IFS(
 ISTEXT(J41),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C41,ItemEffectTable[[#This Row],['#이름값]]=B41),J41+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C41,0,
 ItemEffectTable[[#This Row],['#Grade]]=C41,J41
 )</f>
-        <v>#NAME?</v>
+        <v>10</v>
       </c>
       <c r="K42" s="4"/>
-      <c r="L42" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M42" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N42" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O42" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P42" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L42" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M42" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>14002</v>
+      </c>
+      <c r="N42" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>24002</v>
+      </c>
+      <c r="O42" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>나자렛의 몽키스패너</v>
+      </c>
+      <c r="P42" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>차징 속도가 40% 느려집니다. 대신 공을 튕겨내는 속도가 30% 상승합니다.</v>
       </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" t="e">
-        <f t="array" aca="1" ref="D43" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>89</v>
+      </c>
+      <c r="D43" cm="1">
+        <f t="array" ref="D43">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C43,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>9003</v>
       </c>
       <c r="E43" t="s">
-        <v>55</v>
-      </c>
-      <c r="F43" s="5" t="e">
-        <f t="array" aca="1" ref="F43" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>49</v>
+      </c>
+      <c r="F43" s="5" t="str" cm="1">
+        <f t="array" ref="F43">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -4937,72 +4976,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>최대체력변경</v>
       </c>
       <c r="G43">
         <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I43" t="s">
-        <v>28</v>
-      </c>
-      <c r="J43" s="5" t="e">
-        <f t="array" aca="1" ref="J43" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J43" s="5" cm="1">
+        <f t="array" ref="J43">_xlfn.IFS(
 ISTEXT(J42),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C42,ItemEffectTable[[#This Row],['#이름값]]=B42),J42+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C42,0,
 ItemEffectTable[[#This Row],['#Grade]]=C42,J42
 )</f>
-        <v>#NAME?</v>
+        <v>10</v>
       </c>
       <c r="K43" s="4"/>
-      <c r="L43" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M43" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N43" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O43" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P43" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L43" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M43" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>14003</v>
+      </c>
+      <c r="N43" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>24003</v>
+      </c>
+      <c r="O43" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>저주받은 갑옷</v>
+      </c>
+      <c r="P43" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>[하트]가 3개 증가, 이동속도가 40% 느려집니다.</v>
       </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" t="e">
-        <f t="array" aca="1" ref="D44" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>89</v>
+      </c>
+      <c r="D44" cm="1">
+        <f t="array" ref="D44">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C44,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>9003</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
-      </c>
-      <c r="F44" s="5" t="e">
-        <f t="array" aca="1" ref="F44" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>39</v>
+      </c>
+      <c r="F44" s="5" t="str" cm="1">
+        <f t="array" ref="F44">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -5028,72 +5067,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>이동속도변경</v>
       </c>
       <c r="G44">
         <v>0.6</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I44" t="s">
-        <v>28</v>
-      </c>
-      <c r="J44" s="5" t="e">
-        <f t="array" aca="1" ref="J44" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J44" s="5" cm="1">
+        <f t="array" ref="J44">_xlfn.IFS(
 ISTEXT(J43),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C43,ItemEffectTable[[#This Row],['#이름값]]=B43),J43+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C43,0,
 ItemEffectTable[[#This Row],['#Grade]]=C43,J43
 )</f>
-        <v>#NAME?</v>
+        <v>11</v>
       </c>
       <c r="K44" s="4"/>
-      <c r="L44" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M44" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N44" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O44" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P44" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L44" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M44" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>14003</v>
+      </c>
+      <c r="N44" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>24003</v>
+      </c>
+      <c r="O44" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>저주받은 갑옷</v>
+      </c>
+      <c r="P44" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>[하트]가 3개 증가, 이동속도가 40% 느려집니다.</v>
       </c>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45" t="e">
-        <f t="array" aca="1" ref="D45" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>89</v>
+      </c>
+      <c r="D45" cm="1">
+        <f t="array" ref="D45">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C45,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>9004</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
-      </c>
-      <c r="F45" s="5" t="e">
-        <f t="array" aca="1" ref="F45" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>35</v>
+      </c>
+      <c r="F45" s="5" t="str" cm="1">
+        <f t="array" ref="F45">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -5119,72 +5158,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>공격력변경</v>
       </c>
       <c r="G45">
         <v>1.35</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I45" t="s">
-        <v>28</v>
-      </c>
-      <c r="J45" s="5" t="e">
-        <f t="array" aca="1" ref="J45" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J45" s="5" cm="1">
+        <f t="array" ref="J45">_xlfn.IFS(
 ISTEXT(J44),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C44,ItemEffectTable[[#This Row],['#이름값]]=B44),J44+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C44,0,
 ItemEffectTable[[#This Row],['#Grade]]=C44,J44
 )</f>
-        <v>#NAME?</v>
+        <v>11</v>
       </c>
       <c r="K45" s="4"/>
-      <c r="L45" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M45" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N45" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O45" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P45" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L45" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M45" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>14004</v>
+      </c>
+      <c r="N45" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>24004</v>
+      </c>
+      <c r="O45" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>유리 대포</v>
+      </c>
+      <c r="P45" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>[하트]가 3개 감소, 피해량이 35% 증가합니다.</v>
       </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" t="e">
-        <f t="array" aca="1" ref="D46" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>89</v>
+      </c>
+      <c r="D46" cm="1">
+        <f t="array" ref="D46">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C46,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>9004</v>
       </c>
       <c r="E46" t="s">
-        <v>55</v>
-      </c>
-      <c r="F46" s="5" t="e">
-        <f t="array" aca="1" ref="F46" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>49</v>
+      </c>
+      <c r="F46" s="5" t="str" cm="1">
+        <f t="array" ref="F46">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -5210,72 +5249,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>최대체력변경</v>
       </c>
       <c r="G46">
         <v>-3</v>
       </c>
       <c r="H46" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I46" t="s">
-        <v>28</v>
-      </c>
-      <c r="J46" s="5" t="e">
-        <f t="array" aca="1" ref="J46" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J46" s="5" cm="1">
+        <f t="array" ref="J46">_xlfn.IFS(
 ISTEXT(J45),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C45,ItemEffectTable[[#This Row],['#이름값]]=B45),J45+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C45,0,
 ItemEffectTable[[#This Row],['#Grade]]=C45,J45
 )</f>
-        <v>#NAME?</v>
+        <v>12</v>
       </c>
       <c r="K46" s="4"/>
-      <c r="L46" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M46" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N46" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O46" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P46" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L46" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M46" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>14004</v>
+      </c>
+      <c r="N46" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>24004</v>
+      </c>
+      <c r="O46" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>유리 대포</v>
+      </c>
+      <c r="P46" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>[하트]가 3개 감소, 피해량이 35% 증가합니다.</v>
       </c>
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" t="e">
-        <f t="array" aca="1" ref="D47" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>89</v>
+      </c>
+      <c r="D47" cm="1">
+        <f t="array" ref="D47">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C47,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>9005</v>
       </c>
       <c r="E47" t="s">
-        <v>109</v>
-      </c>
-      <c r="F47" s="5" t="e">
-        <f t="array" aca="1" ref="F47" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>102</v>
+      </c>
+      <c r="F47" s="5" t="str" cm="1">
+        <f t="array" ref="F47">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -5301,74 +5340,74 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>공격이반대로작용함</v>
       </c>
       <c r="G47">
         <v>180</v>
       </c>
       <c r="H47" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I47" t="s">
-        <v>94</v>
-      </c>
-      <c r="J47" s="5" t="e">
-        <f t="array" aca="1" ref="J47" ca="1">_xlfn.IFS(
+        <v>87</v>
+      </c>
+      <c r="J47" s="5" cm="1">
+        <f t="array" ref="J47">_xlfn.IFS(
 ISTEXT(J46),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C46,ItemEffectTable[[#This Row],['#이름값]]=B46),J46+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C46,0,
 ItemEffectTable[[#This Row],['#Grade]]=C46,J46
 )</f>
-        <v>#NAME?</v>
+        <v>12</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="L47" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M47" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N47" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O47" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P47" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+        <v>103</v>
+      </c>
+      <c r="L47" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M47" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>14005</v>
+      </c>
+      <c r="N47" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>24005</v>
+      </c>
+      <c r="O47" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>청개구리 총</v>
+      </c>
+      <c r="P47" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>공격을 반대로 합니다. 대신 피해량이 25% 증가합니다.</v>
       </c>
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48" t="e">
-        <f t="array" aca="1" ref="D48" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>89</v>
+      </c>
+      <c r="D48" cm="1">
+        <f t="array" ref="D48">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C48,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>9005</v>
       </c>
       <c r="E48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F48" s="5" t="e">
-        <f t="array" aca="1" ref="F48" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>35</v>
+      </c>
+      <c r="F48" s="5" t="str" cm="1">
+        <f t="array" ref="F48">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -5394,74 +5433,74 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>공격력변경</v>
       </c>
       <c r="G48">
         <v>1.25</v>
       </c>
       <c r="H48" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I48" t="s">
-        <v>28</v>
-      </c>
-      <c r="J48" s="5" t="e">
-        <f t="array" aca="1" ref="J48" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J48" s="5" cm="1">
+        <f t="array" ref="J48">_xlfn.IFS(
 ISTEXT(J47),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C47,ItemEffectTable[[#This Row],['#이름값]]=B47),J47+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C47,0,
 ItemEffectTable[[#This Row],['#Grade]]=C47,J47
 )</f>
-        <v>#NAME?</v>
+        <v>13</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="L48" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M48" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N48" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O48" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P48" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+        <v>103</v>
+      </c>
+      <c r="L48" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M48" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>14005</v>
+      </c>
+      <c r="N48" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>24005</v>
+      </c>
+      <c r="O48" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>청개구리 총</v>
+      </c>
+      <c r="P48" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>공격을 반대로 합니다. 대신 피해량이 25% 증가합니다.</v>
       </c>
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D49" t="e">
-        <f t="array" aca="1" ref="D49" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>89</v>
+      </c>
+      <c r="D49" cm="1">
+        <f t="array" ref="D49">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C49,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>9006</v>
       </c>
       <c r="E49" t="s">
-        <v>74</v>
-      </c>
-      <c r="F49" s="5" t="e">
-        <f t="array" aca="1" ref="F49" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>67</v>
+      </c>
+      <c r="F49" s="5" t="str" cm="1">
+        <f t="array" ref="F49">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -5487,72 +5526,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>골드획득량변경</v>
       </c>
       <c r="G49">
         <v>-999</v>
       </c>
       <c r="H49" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I49" t="s">
-        <v>28</v>
-      </c>
-      <c r="J49" s="5" t="e">
-        <f t="array" aca="1" ref="J49" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J49" s="5" cm="1">
+        <f t="array" ref="J49">_xlfn.IFS(
 ISTEXT(J48),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C48,ItemEffectTable[[#This Row],['#이름값]]=B48),J48+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C48,0,
 ItemEffectTable[[#This Row],['#Grade]]=C48,J48
 )</f>
-        <v>#NAME?</v>
+        <v>13</v>
       </c>
       <c r="K49" s="4"/>
-      <c r="L49" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M49" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N49" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O49" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P49" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L49" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M49" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>14006</v>
+      </c>
+      <c r="N49" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>24006</v>
+      </c>
+      <c r="O49" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>불운의 황금상</v>
+      </c>
+      <c r="P49" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>더 이상 골드를 획득할 수 없습니다. 데미지가 30% 상승합니다.</v>
       </c>
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D50" t="e">
-        <f t="array" aca="1" ref="D50" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>89</v>
+      </c>
+      <c r="D50" cm="1">
+        <f t="array" ref="D50">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C50,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>9006</v>
       </c>
       <c r="E50" t="s">
-        <v>40</v>
-      </c>
-      <c r="F50" s="5" t="e">
-        <f t="array" aca="1" ref="F50" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>35</v>
+      </c>
+      <c r="F50" s="5" t="str" cm="1">
+        <f t="array" ref="F50">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -5578,72 +5617,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>공격력변경</v>
       </c>
       <c r="G50">
         <v>1.3</v>
       </c>
       <c r="H50" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I50" t="s">
-        <v>28</v>
-      </c>
-      <c r="J50" s="5" t="e">
-        <f t="array" aca="1" ref="J50" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J50" s="5" cm="1">
+        <f t="array" ref="J50">_xlfn.IFS(
 ISTEXT(J49),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C49,ItemEffectTable[[#This Row],['#이름값]]=B49),J49+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C49,0,
 ItemEffectTable[[#This Row],['#Grade]]=C49,J49
 )</f>
-        <v>#NAME?</v>
+        <v>14</v>
       </c>
       <c r="K50" s="4"/>
-      <c r="L50" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M50" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N50" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O50" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P50" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L50" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M50" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>14006</v>
+      </c>
+      <c r="N50" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>24006</v>
+      </c>
+      <c r="O50" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>불운의 황금상</v>
+      </c>
+      <c r="P50" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>더 이상 골드를 획득할 수 없습니다. 데미지가 30% 상승합니다.</v>
       </c>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" t="e">
-        <f t="array" aca="1" ref="D51" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>89</v>
+      </c>
+      <c r="D51" cm="1">
+        <f t="array" ref="D51">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C51,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>9007</v>
       </c>
       <c r="E51" t="s">
-        <v>57</v>
-      </c>
-      <c r="F51" s="5" t="e">
-        <f t="array" aca="1" ref="F51" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>51</v>
+      </c>
+      <c r="F51" s="5" t="str" cm="1">
+        <f t="array" ref="F51">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -5669,72 +5708,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>공최대소지개수변경</v>
       </c>
       <c r="G51">
         <v>-3</v>
       </c>
       <c r="H51" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I51" t="s">
-        <v>28</v>
-      </c>
-      <c r="J51" s="5" t="e">
-        <f t="array" aca="1" ref="J51" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J51" s="5" cm="1">
+        <f t="array" ref="J51">_xlfn.IFS(
 ISTEXT(J50),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C50,ItemEffectTable[[#This Row],['#이름값]]=B50),J50+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C50,0,
 ItemEffectTable[[#This Row],['#Grade]]=C50,J50
 )</f>
-        <v>#NAME?</v>
+        <v>14</v>
       </c>
       <c r="K51" s="4"/>
-      <c r="L51" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M51" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N51" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O51" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P51" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L51" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M51" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>14007</v>
+      </c>
+      <c r="N51" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>24007</v>
+      </c>
+      <c r="O51" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>저주받은 테니스채</v>
+      </c>
+      <c r="P51" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>공 던지기 개수 3개 감소. 직접 공격 데미지가 450% 상승합니다.</v>
       </c>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D52" t="e">
-        <f t="array" aca="1" ref="D52" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>89</v>
+      </c>
+      <c r="D52" cm="1">
+        <f t="array" ref="D52">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C52,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>9007</v>
       </c>
       <c r="E52" t="s">
-        <v>113</v>
-      </c>
-      <c r="F52" s="5" t="e">
-        <f t="array" aca="1" ref="F52" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>106</v>
+      </c>
+      <c r="F52" s="5" t="str" cm="1">
+        <f t="array" ref="F52">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -5760,72 +5799,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>직접공격피해량-미차징</v>
       </c>
       <c r="G52">
         <v>4.5</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J52" s="5" t="e">
-        <f t="array" aca="1" ref="J52" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J52" s="5" cm="1">
+        <f t="array" ref="J52">_xlfn.IFS(
 ISTEXT(J51),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C51,ItemEffectTable[[#This Row],['#이름값]]=B51),J51+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C51,0,
 ItemEffectTable[[#This Row],['#Grade]]=C51,J51
 )</f>
-        <v>#NAME?</v>
+        <v>15</v>
       </c>
       <c r="K52" s="4"/>
-      <c r="L52" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M52" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N52" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O52" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P52" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L52" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M52" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>14007</v>
+      </c>
+      <c r="N52" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>24007</v>
+      </c>
+      <c r="O52" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>저주받은 테니스채</v>
+      </c>
+      <c r="P52" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>공 던지기 개수 3개 감소. 직접 공격 데미지가 450% 상승합니다.</v>
       </c>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D53" t="e">
-        <f t="array" aca="1" ref="D53" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>89</v>
+      </c>
+      <c r="D53" cm="1">
+        <f t="array" ref="D53">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C53,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>9007</v>
       </c>
       <c r="E53" t="s">
-        <v>114</v>
-      </c>
-      <c r="F53" s="5" t="e">
-        <f t="array" aca="1" ref="F53" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>107</v>
+      </c>
+      <c r="F53" s="5" t="str" cm="1">
+        <f t="array" ref="F53">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -5851,72 +5890,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>직접공격피해량-1단계</v>
       </c>
       <c r="G53">
         <v>4.5</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I53" t="s">
-        <v>28</v>
-      </c>
-      <c r="J53" s="5" t="e">
-        <f t="array" aca="1" ref="J53" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J53" s="5" cm="1">
+        <f t="array" ref="J53">_xlfn.IFS(
 ISTEXT(J52),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C52,ItemEffectTable[[#This Row],['#이름값]]=B52),J52+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C52,0,
 ItemEffectTable[[#This Row],['#Grade]]=C52,J52
 )</f>
-        <v>#NAME?</v>
+        <v>16</v>
       </c>
       <c r="K53" s="4"/>
-      <c r="L53" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M53" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N53" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O53" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P53" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L53" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M53" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>14007</v>
+      </c>
+      <c r="N53" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>24007</v>
+      </c>
+      <c r="O53" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>저주받은 테니스채</v>
+      </c>
+      <c r="P53" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>공 던지기 개수 3개 감소. 직접 공격 데미지가 450% 상승합니다.</v>
       </c>
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D54" t="e">
-        <f t="array" aca="1" ref="D54" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>89</v>
+      </c>
+      <c r="D54" cm="1">
+        <f t="array" ref="D54">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C54,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>9007</v>
       </c>
       <c r="E54" t="s">
-        <v>116</v>
-      </c>
-      <c r="F54" s="5" t="e">
-        <f t="array" aca="1" ref="F54" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>108</v>
+      </c>
+      <c r="F54" s="5" t="str" cm="1">
+        <f t="array" ref="F54">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -5942,72 +5981,72 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>직접공격피해량-2단계</v>
       </c>
       <c r="G54">
         <v>4.5</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I54" t="s">
-        <v>28</v>
-      </c>
-      <c r="J54" s="5" t="e">
-        <f t="array" aca="1" ref="J54" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J54" s="5" cm="1">
+        <f t="array" ref="J54">_xlfn.IFS(
 ISTEXT(J53),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C53,ItemEffectTable[[#This Row],['#이름값]]=B53),J53+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C53,0,
 ItemEffectTable[[#This Row],['#Grade]]=C53,J53
 )</f>
-        <v>#NAME?</v>
+        <v>17</v>
       </c>
       <c r="K54" s="4"/>
-      <c r="L54" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M54" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N54" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O54" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P54" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L54" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M54" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>14007</v>
+      </c>
+      <c r="N54" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>24007</v>
+      </c>
+      <c r="O54" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>저주받은 테니스채</v>
+      </c>
+      <c r="P54" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>공 던지기 개수 3개 감소. 직접 공격 데미지가 450% 상승합니다.</v>
       </c>
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D55" t="e">
-        <f t="array" aca="1" ref="D55" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+        <v>89</v>
+      </c>
+      <c r="D55" cm="1">
+        <f t="array" ref="D55">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($C$3:C55,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>#NAME?</v>
+        <v>9007</v>
       </c>
       <c r="E55" t="s">
-        <v>117</v>
-      </c>
-      <c r="F55" s="5" t="e">
-        <f t="array" aca="1" ref="F55" ca="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
+        <v>109</v>
+      </c>
+      <c r="F55" s="5" t="str" cm="1">
+        <f t="array" ref="F55">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
 ItemEffectTable[[#This Row],[ApplyType]]="AtkCooldown","공격속도변경",
@@ -6033,46 +6072,46 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[1]","직접공격피해량-1단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</f>
-        <v>#NAME?</v>
+        <v>직접공격피해량-3단계</v>
       </c>
       <c r="G55">
         <v>4.5</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I55" t="s">
-        <v>28</v>
-      </c>
-      <c r="J55" s="5" t="e">
-        <f t="array" aca="1" ref="J55" ca="1">_xlfn.IFS(
+        <v>26</v>
+      </c>
+      <c r="J55" s="5" cm="1">
+        <f t="array" ref="J55">_xlfn.IFS(
 ISTEXT(J54),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C54,ItemEffectTable[[#This Row],['#이름값]]=B54),J54+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;C54,0,
 ItemEffectTable[[#This Row],['#Grade]]=C54,J54
 )</f>
-        <v>#NAME?</v>
+        <v>18</v>
       </c>
       <c r="K55" s="4"/>
-      <c r="L55" s="5" t="e">
-        <f ca="1">IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M55" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N55" s="5" t="e">
-        <f ca="1">INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O55" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P55" s="5" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="L55" s="5" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="M55" s="5">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>14007</v>
+      </c>
+      <c r="N55" s="5">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>24007</v>
+      </c>
+      <c r="O55" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+        <v>저주받은 테니스채</v>
+      </c>
+      <c r="P55" s="5" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+        <v>공 던지기 개수 3개 감소. 직접 공격 데미지가 450% 상승합니다.</v>
       </c>
     </row>
   </sheetData>

--- a/_GameData/ItemEffectGameData.xlsx
+++ b/_GameData/ItemEffectGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{517ADBC9-D8BA-40EC-B8C1-F739CC2C3DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F157B38C-2E48-4FDF-9222-EEEBFC1E6C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{45AB8340-559D-4FA7-AC7B-649768C0C225}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BAB0BF65-122D-4909-8A37-57470483456D}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemEffectGameData" sheetId="1" r:id="rId1"/>
@@ -702,7 +702,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{361CC9EC-5EA8-48B0-8B2E-76952F5BB826}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{042739FE-435B-43C9-A825-954919BE6237}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -767,13 +767,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9E5A440-1A06-4EDE-9475-F4E083211CA8}" name="ItemEffectTable" displayName="ItemEffectTable" ref="A2:P55" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7604BE77-7BAC-4861-B4C0-F7A6030EFCEF}" name="ItemEffectTable" displayName="ItemEffectTable" ref="A2:P55" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A2:P55" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{0F10C019-BB58-4178-B1B4-AB67D6BFA8FE}" name="#개발여부" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{2631F0B5-6CB7-4E1F-91C8-178A8FAD7CFB}" name="#이름값" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{52BE5D6D-2F5E-4E81-971B-D295FE157A0F}" name="#Grade" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{36BEAE7C-1A55-486C-8A41-5E2FAAAF70BF}" name="Index" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{5CDCA01F-2368-4C24-87D9-6C5560C1FF1C}" name="#개발여부" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{ED37CF7F-B77E-488F-8C2E-415879F600A4}" name="#이름값" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{AA4FA070-8565-4375-8901-1EFCB1AB38B8}" name="#Grade" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{7D44B3EA-9467-44CC-98EC-44102D434E08}" name="Index" dataDxfId="8">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
@@ -781,8 +781,8 @@
 + COUNTIF($C$3:C3,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{090B7F00-F9AE-420A-9CC9-EC8151C98E9A}" name="ApplyType"/>
-    <tableColumn id="3" xr3:uid="{FF0433F1-809E-46DB-ACBA-22CE721B9A44}" name="#효과 한글" dataDxfId="7">
+    <tableColumn id="8" xr3:uid="{9A4600D6-28C6-47E5-B984-17FA693135A7}" name="ApplyType"/>
+    <tableColumn id="3" xr3:uid="{3C3B7774-B22A-47C7-925C-12E11F0443A8}" name="#효과 한글" dataDxfId="7">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],[ApplyType]]="ResourceChange","리소스변경",
 ItemEffectTable[[#This Row],[ApplyType]]="ChargeAtkPierce","차징에 따른 관통샷 변경",
 ItemEffectTable[[#This Row],[ApplyType]]="MovementSpd","이동속도변경",
@@ -810,10 +810,10 @@
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[2]","직접공격피해량-2단계",
 ItemEffectTable[[#This Row],[ApplyType]]="SwingRigidDmg[3]","직접공격피해량-3단계")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{A75CEE6F-2707-424F-8F88-D16C189CAF27}" name="ApplyValue"/>
-    <tableColumn id="9" xr3:uid="{5E1B2F6F-6650-43C5-9002-9A3842F444F4}" name="ValueOperatorType"/>
-    <tableColumn id="11" xr3:uid="{C61588E3-6197-415B-B70E-3DF638897B8A}" name="ApplyPoint"/>
-    <tableColumn id="14" xr3:uid="{E7583699-99B2-457A-B2B4-B78F7EB5ADE9}" name="#인덱스 수식용" dataDxfId="6">
+    <tableColumn id="10" xr3:uid="{ED04FAFE-1A86-4029-94CC-DE6D8D58C7EF}" name="ApplyValue"/>
+    <tableColumn id="9" xr3:uid="{009B1E66-6C83-41EA-BC72-17F897773607}" name="ValueOperatorType"/>
+    <tableColumn id="11" xr3:uid="{8BF6990A-B9DA-4542-A2DA-3CD7737FA359}" name="ApplyPoint"/>
+    <tableColumn id="14" xr3:uid="{2F6CB4DD-0547-420A-946A-554CB50193D3}" name="#인덱스 수식용" dataDxfId="6">
       <calculatedColumnFormula array="1">_xlfn.IFS(
 ISTEXT(J2),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=C2,ItemEffectTable[[#This Row],['#이름값]]=B2),J2+1,
@@ -821,20 +821,20 @@
 ItemEffectTable[[#This Row],['#Grade]]=C2,J2
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F354DDAB-CCB8-4DD7-8909-D65B3045122E}" name="#패러디" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{6407FCC4-25BB-45E9-87DF-B2764BC385D3}" name="#이름 일치 여부" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{C27F50B5-6606-4074-879C-CE2DB076C5DA}" name="#패러디" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{D2A2D106-D765-4063-AA6A-34F8181068A6}" name="#이름 일치 여부" dataDxfId="4">
       <calculatedColumnFormula>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{696A25E0-6B2D-4660-A1E6-CF815EA8F93F}" name="#NameIndex" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{83B6C9C9-B0AA-42A5-87C9-079DC63F27C7}" name="#NameIndex" dataDxfId="3">
       <calculatedColumnFormula>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{317F47BC-6F87-4B33-8F95-AF85FEB96001}" name="#DescIndex" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{6984A9B3-B373-4933-A40A-871DD5C1B161}" name="#DescIndex" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{7534D651-0F05-4B40-B5E9-2A4360161B50}" name="#Name" dataDxfId="1">
+    <tableColumn id="15" xr3:uid="{4ACFB73A-BFDB-4642-9463-A22345AA8939}" name="#Name" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{65BFF02A-6F8A-4AE3-B3A6-BEA5D8E15ECD}" name="#Desc" dataDxfId="0">
+    <tableColumn id="16" xr3:uid="{A1C22820-F32F-4BDE-A9B5-85F1FB6DF6F3}" name="#Desc" dataDxfId="0">
       <calculatedColumnFormula>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1138,14 +1138,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A05D27B-CB84-46AF-8A98-E6EA8EAD442C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78324090-EECC-452F-B1B8-CB0D449E2B95}">
   <sheetPr codeName="Sheet7">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="D2" sqref="D2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/_GameData/ItemEffectGameData.xlsx
+++ b/_GameData/ItemEffectGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12702260-D5C8-42E7-A475-A668C5C0846D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFF7A05D-D8F8-4A44-A460-98B44F889656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{916D35A9-C37D-4587-8C09-D79BBF42AF21}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D923F25-50A1-4C9D-B46A-E41D862208A2}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemEffectGameData" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,231 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Kim_Dongju</author>
+  </authors>
+  <commentList>
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{FBC0B4AF-E560-4BCC-8FD3-0423B760B984}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kim_Dongju:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>무기는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>크게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>차이나도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상관없습니다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다른</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이템들은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오차범위</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 5 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이내로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>맞추는걸</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>목표로함</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
@@ -61,11 +286,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="115">
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="121">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,15 +344,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>#참조 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#기본값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ApplyValue 수식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#적용 후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>#효력 가치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#효력 예외처리</t>
+    <t>#총 효력가치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#아이템 총 효력</t>
+    <t>#오차값</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -183,6 +420,10 @@
     <t>Equip</t>
   </si>
   <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>무지개빛 총공격</t>
   </si>
   <si>
@@ -210,11 +451,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DmgPer</t>
+    <t>AtkDmgPer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Addition</t>
+    <t>Multiply</t>
   </si>
   <si>
     <t>신성한 종</t>
@@ -227,6 +468,9 @@
     <t>MovementSpd</t>
   </si>
   <si>
+    <t>Addition</t>
+  </si>
+  <si>
     <t>미정1</t>
   </si>
   <si>
@@ -234,9 +478,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Multiply</t>
-  </si>
-  <si>
     <t>무언가 담긴병</t>
   </si>
   <si>
@@ -274,7 +515,8 @@
     <t>미정2</t>
   </si>
   <si>
-    <t>BallStackValue</t>
+    <t>BallStackMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>하드코딩</t>
@@ -299,7 +541,7 @@
     <t>무해한 불꽃</t>
   </si>
   <si>
-    <t>MovementSpd*-0.0005</t>
+    <t>MovementSpd*-0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -309,6 +551,10 @@
     <t>롱기누스</t>
   </si>
   <si>
+    <t>Addition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>석가면</t>
   </si>
   <si>
@@ -318,7 +564,8 @@
     <t>거인의 주먹</t>
   </si>
   <si>
-    <t>1+MaxHp*0.05</t>
+    <t>MaxHp/500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>황금왕의 갑옷</t>
@@ -336,7 +583,8 @@
     <t>어른의 카드</t>
   </si>
   <si>
-    <t>1+Gold*0.01</t>
+    <t>1+Gold*0.005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GoldChanged</t>
@@ -437,6 +685,10 @@
   </si>
   <si>
     <t>불운의 황금상</t>
+  </si>
+  <si>
+    <t>Multiply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>저주받은 테니스채</t>
@@ -462,7 +714,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,6 +761,34 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -550,7 +830,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -566,10 +846,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -579,7 +868,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="24">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -641,6 +930,7 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -649,6 +939,55 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -777,11 +1116,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{FF3C968F-DF5E-431E-B26B-D46EC0E393B2}">
-      <tableStyleElement type="wholeTable" dxfId="19"/>
-      <tableStyleElement type="headerRow" dxfId="18"/>
-      <tableStyleElement type="firstRowStripe" dxfId="17"/>
-      <tableStyleElement type="secondRowStripe" dxfId="16"/>
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{9BF8ED1B-15BE-4DFF-97C7-2874D8274AAB}">
+      <tableStyleElement type="wholeTable" dxfId="23"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
+      <tableStyleElement type="firstRowStripe" dxfId="21"/>
+      <tableStyleElement type="secondRowStripe" dxfId="20"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -842,13 +1181,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD6630C1-A2D8-4DA7-8CA2-F51857BE41DB}" name="ItemEffectTable" displayName="ItemEffectTable" ref="B2:T57" totalsRowShown="0" headerRowDxfId="15">
-  <autoFilter ref="B2:T57" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{9452FDC8-0EBC-4727-8E1D-CA4A5626A7DF}" name="#개발여부" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{A1DA4F73-FE30-4ABE-AF1A-A2BBE5D529E8}" name="#이름값" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{567D1A5C-14AD-491C-9D79-B06C9840FA5A}" name="#Grade" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{95BD3FB8-8A34-40F1-8376-1EA72D7F7B5E}" name="Index" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD786B53-56FB-4328-89D8-5D800466F719}" name="ItemEffectTable" displayName="ItemEffectTable" ref="B2:X58" totalsRowShown="0" headerRowDxfId="19">
+  <autoFilter ref="B2:X58" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="23">
+    <tableColumn id="1" xr3:uid="{571ED0B4-843D-470A-AC6F-70F7925DB3D3}" name="#개발여부" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{B3705C25-5F7A-4EAA-A466-454F86568E85}" name="#이름값" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{B10BB437-4CA3-400E-B248-57B0BBCD0E6E}" name="#Grade" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{255AB95E-9554-4B4B-834F-4069F6E8EF42}" name="Index" dataDxfId="15">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
@@ -856,41 +1195,70 @@
 + COUNTIF($D$3:D3,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7FBD6FCD-5906-4BB9-A54E-1B63A426D377}" name="ApplyType"/>
-    <tableColumn id="3" xr3:uid="{2974A0AA-6330-4C62-8833-4FB450EA6CCA}" name="#효과 한글" dataDxfId="10">
+    <tableColumn id="8" xr3:uid="{59BEBCEB-FBC9-4E07-B578-280D2AFB3B89}" name="ApplyType"/>
+    <tableColumn id="3" xr3:uid="{960A27AE-C13F-430B-927B-8CD4161586D1}" name="#효과 한글" dataDxfId="14">
       <calculatedColumnFormula>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{6CD20B44-3CE5-4296-90CE-A240C889463C}" name="ApplyValue"/>
-    <tableColumn id="9" xr3:uid="{827B2B20-5B54-4718-9C32-52F26DE0A74D}" name="ValueOperatorType"/>
-    <tableColumn id="11" xr3:uid="{3D126C7E-F196-4D44-A5E1-A350616ADFCD}" name="ApplyPoint"/>
-    <tableColumn id="17" xr3:uid="{30318590-3825-4978-9597-33C0A78DA53A}" name="#효력 가치" dataDxfId="9">
-      <calculatedColumnFormula>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{CB4CC314-5BD5-4ACE-B5F2-163422864A96}" name="ApplyValue"/>
+    <tableColumn id="9" xr3:uid="{A07E4EE7-DCDA-49FF-9DA3-D0A25D023315}" name="ValueOperatorType"/>
+    <tableColumn id="11" xr3:uid="{66BEDAD5-1D6F-4CF4-A909-9900F82322DF}" name="ApplyPoint"/>
+    <tableColumn id="20" xr3:uid="{22D36316-05F2-4AD2-988E-FDB95F5A1C6A}" name="#참조 테이블" dataDxfId="13">
+      <calculatedColumnFormula>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{DF13C0A4-815F-42B0-9718-85A47253753E}" name="#효력 예외처리" dataDxfId="8"/>
-    <tableColumn id="18" xr3:uid="{231E5D63-63F2-4194-80AA-6A52E2B63B03}" name="#아이템 총 효력" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{B8756A40-EE1B-45C3-BA69-332667F943A6}" name="#패러디" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{42443C62-3B6B-41F7-A8A2-E9F08BFF3A21}" name="#인덱스 수식용" dataDxfId="5">
-      <calculatedColumnFormula array="1">_xlfn.IFS(
-ISTEXT(O2),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D2,ItemEffectTable[[#This Row],['#이름값]]=C2),O2+1,
-ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D2,0,
-ItemEffectTable[[#This Row],['#Grade]]=D2,O2
+    <tableColumn id="21" xr3:uid="{D4D67685-D54D-4540-91F8-9F7F1A8AF8CB}" name="#기본값" dataDxfId="12">
+      <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{B5742DE6-3A49-49E0-BCF9-D1D854AE6286}" name="#이름 일치 여부" dataDxfId="4">
+    <tableColumn id="23" xr3:uid="{D3E47D3D-BA69-488D-953B-E2A68DCB75A0}" name="#ApplyValue 수식" dataDxfId="11">
+      <calculatedColumnFormula array="1">[1]!CharacterTable[MovementSpd]*0.01</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{87890994-C9F5-4737-A98A-8F61030698EF}" name="#적용 후" dataDxfId="10">
+      <calculatedColumnFormula array="1">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{8FEE6489-E39A-444A-A335-707EE42AF478}" name="#효력 가치" dataDxfId="9">
+      <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" xr3:uid="{D438EEDA-26DE-42C8-8029-7073096E3481}" name="#총 효력가치" dataDxfId="8">
+      <calculatedColumnFormula array="1">SUM(IF($E$3:$E$58=E3,$O$3:$O$58))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{0CBB5B70-2708-4754-B123-D540A33E601A}" name="#오차값" dataDxfId="7">
+      <calculatedColumnFormula>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{8C5DEC16-8BB5-4FD1-9A99-0EA157C68A12}" name="#패러디" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{0831E325-E1A4-4187-B3FD-072927629FE9}" name="#인덱스 수식용" dataDxfId="5">
+      <calculatedColumnFormula array="1">_xlfn.IFS(
+ISTEXT(S2),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D2,ItemEffectTable[[#This Row],['#이름값]]=C2),S2+1,
+ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D2,0,
+ItemEffectTable[[#This Row],['#Grade]]=D2,S2
+)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{05A25EA0-B204-4DEB-ABAA-3FF90C23141A}" name="#이름 일치 여부" dataDxfId="4">
       <calculatedColumnFormula>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F3461899-04D5-4F44-8AD2-EB1B0CD5AEAE}" name="#NameIndex" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{92F15375-925A-4C84-BCBA-A92CE601952A}" name="#NameIndex" dataDxfId="3">
       <calculatedColumnFormula>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8F05C7C4-36FD-4944-A6CD-88E7083F7402}" name="#DescIndex" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{399EA910-E3F5-4F57-985C-61BE42A2E345}" name="#DescIndex" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{F9C2852A-7B58-41FC-9CE5-B5489ED2BAA8}" name="#Name" dataDxfId="1">
-      <calculatedColumnFormula>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</calculatedColumnFormula>
+    <tableColumn id="15" xr3:uid="{A4B22290-9E4F-4292-A797-D0491F0CB41E}" name="#Name" dataDxfId="1">
+      <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{0958A69B-9B2C-4F05-AEF9-5E9431F21B91}" name="#Desc" dataDxfId="0">
-      <calculatedColumnFormula>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</calculatedColumnFormula>
+    <tableColumn id="16" xr3:uid="{0447E59B-BD87-46DD-8A77-AF741E9A60BE}" name="#Desc" dataDxfId="0">
+      <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1193,14 +1561,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10A671C-94EF-4AB9-92BE-61088E4E092A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E67B91-73C7-4119-AEAB-B4FC9A6C6EB4}">
   <sheetPr codeName="Sheet7">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:T57"/>
+  <dimension ref="B1:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1210,122 +1578,130 @@
     <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.5" customWidth="1"/>
     <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="17.25" customWidth="1"/>
-    <col min="15" max="16" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="60" customWidth="1"/>
+    <col min="11" max="11" width="17.25" customWidth="1"/>
+    <col min="12" max="12" width="19.75" customWidth="1"/>
+    <col min="13" max="13" width="19.75" style="1" customWidth="1"/>
+    <col min="14" max="15" width="20.375" customWidth="1"/>
+    <col min="16" max="18" width="17.25" customWidth="1"/>
+    <col min="19" max="19" width="15.75" customWidth="1"/>
+    <col min="20" max="20" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="69.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20">
-      <c r="B1" t="s">
+    <row r="1" spans="2:24">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="2:24">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="1"/>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="2:20">
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20">
-      <c r="B3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>27</v>
+    <row r="3" spans="2:24">
+      <c r="B3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="E3" cm="1">
         <f t="array" ref="E3">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -1337,9 +1713,9 @@
         <v>6000</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="6" t="str">
+        <v>31</v>
+      </c>
+      <c r="G3" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
         <v>리소스변경</v>
       </c>
@@ -1347,57 +1723,91 @@
         <v>900</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>ItemResourceTable</v>
+      </c>
+      <c r="L3" s="8" t="str" cm="1">
+        <f t="array" ref="L3">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>리소스변경(식별자:900)</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="8" t="str" cm="1">
+        <f t="array" ref="N3">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>예외처리</v>
+      </c>
+      <c r="O3" s="8" cm="1">
+        <f t="array" ref="O3">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="8" cm="1">
+        <f t="array" ref="P3">SUM(IF($E$3:$E$58=E3,$O$3:$O$58))</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>30</v>
       </c>
-      <c r="K3" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
+      <c r="R3" s="7"/>
+      <c r="S3" s="8" cm="1">
+        <f t="array" ref="S3">_xlfn.IFS(
+ISTEXT(S2),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D2,ItemEffectTable[[#This Row],['#이름값]]=C2),S2+1,
+ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D2,0,
+ItemEffectTable[[#This Row],['#Grade]]=D2,S2
+)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="6" cm="1">
-        <f t="array" ref="O3">_xlfn.IFS(
-ISTEXT(O2),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D2,ItemEffectTable[[#This Row],['#이름값]]=C2),O2+1,
-ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D2,0,
-ItemEffectTable[[#This Row],['#Grade]]=D2,O2
-)</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="6" t="str">
+      <c r="T3" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="U3" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>11000</v>
       </c>
-      <c r="R3" s="6">
+      <c r="V3" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>21000</v>
       </c>
-      <c r="S3" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W3" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>장난감 배트</v>
       </c>
-      <c r="T3" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X3" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>아무 능력이 없지만 이동할 때 뾱뾱 소리가 납니다.</v>
       </c>
     </row>
-    <row r="4" spans="2:20">
-      <c r="B4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>27</v>
+    <row r="4" spans="2:24">
+      <c r="B4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="E4" cm="1">
         <f t="array" ref="E4">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -1409,9 +1819,9 @@
         <v>6001</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="6" t="str">
+        <v>31</v>
+      </c>
+      <c r="G4" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
         <v>리소스변경</v>
       </c>
@@ -1419,59 +1829,93 @@
         <v>901</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>ItemResourceTable</v>
+      </c>
+      <c r="L4" s="8" t="str" cm="1">
+        <f t="array" ref="L4">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>리소스변경(식별자:901)</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="8" t="str" cm="1">
+        <f t="array" ref="N4">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>예외처리</v>
+      </c>
+      <c r="O4" s="8" cm="1">
+        <f t="array" ref="O4">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="8" cm="1">
+        <f t="array" ref="P4">SUM(IF($E$3:$E$58=E4,$O$3:$O$58))</f>
         <v>30</v>
       </c>
-      <c r="K4" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
+      <c r="Q4" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>0</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="6" cm="1">
-        <f t="array" ref="O4">_xlfn.IFS(
-ISTEXT(O3),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D3,ItemEffectTable[[#This Row],['#이름값]]=C3),O3+1,
+      <c r="R4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="8" cm="1">
+        <f t="array" ref="S4">_xlfn.IFS(
+ISTEXT(S3),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D3,ItemEffectTable[[#This Row],['#이름값]]=C3),S3+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D3,0,
-ItemEffectTable[[#This Row],['#Grade]]=D3,O3
+ItemEffectTable[[#This Row],['#Grade]]=D3,S3
 )</f>
         <v>0</v>
       </c>
-      <c r="P4" s="6" t="str">
+      <c r="T4" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="U4" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>11001</v>
       </c>
-      <c r="R4" s="6">
+      <c r="V4" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>21001</v>
       </c>
-      <c r="S4" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W4" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>무지개빛 총공격</v>
       </c>
-      <c r="T4" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X4" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>냥냥냥. 모든 탄환이 적을 관통합니다.</v>
       </c>
     </row>
-    <row r="5" spans="2:20">
-      <c r="B5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>27</v>
+    <row r="5" spans="2:24">
+      <c r="B5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="E5" cm="1">
         <f t="array" ref="E5">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -1483,9 +1927,9 @@
         <v>6001</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="6" t="str">
+        <v>37</v>
+      </c>
+      <c r="G5" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
         <v>차징에 따른 관통샷 변경</v>
       </c>
@@ -1493,59 +1937,93 @@
         <v>15</v>
       </c>
       <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterAtkTable</v>
+      </c>
+      <c r="L5" s="8" cm="1">
+        <f t="array" ref="L5">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>8</v>
+      </c>
+      <c r="M5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J5" t="s">
+      <c r="N5" s="8" cm="1">
+        <f t="array" ref="N5">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>15</v>
+      </c>
+      <c r="O5" s="8" cm="1">
+        <f t="array" ref="O5">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
         <v>30</v>
       </c>
-      <c r="K5" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>15</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="6" cm="1">
-        <f t="array" ref="O5">_xlfn.IFS(
-ISTEXT(O4),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D4,ItemEffectTable[[#This Row],['#이름값]]=C4),O4+1,
+      <c r="P5" s="8" cm="1">
+        <f t="array" ref="P5">SUM(IF($E$3:$E$58=E5,$O$3:$O$58))</f>
+        <v>30</v>
+      </c>
+      <c r="Q5" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="8" cm="1">
+        <f t="array" ref="S5">_xlfn.IFS(
+ISTEXT(S4),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D4,ItemEffectTable[[#This Row],['#이름값]]=C4),S4+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D4,0,
-ItemEffectTable[[#This Row],['#Grade]]=D4,O4
+ItemEffectTable[[#This Row],['#Grade]]=D4,S4
 )</f>
         <v>1</v>
       </c>
-      <c r="P5" s="6" t="str">
+      <c r="T5" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="U5" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>11001</v>
       </c>
-      <c r="R5" s="6">
+      <c r="V5" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>21001</v>
       </c>
-      <c r="S5" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W5" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>무지개빛 총공격</v>
       </c>
-      <c r="T5" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X5" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>냥냥냥. 모든 탄환이 적을 관통합니다.</v>
       </c>
     </row>
-    <row r="6" spans="2:20">
-      <c r="B6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>27</v>
+    <row r="6" spans="2:24">
+      <c r="B6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="E6" cm="1">
         <f t="array" ref="E6">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -1557,9 +2035,9 @@
         <v>6002</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="6" t="str">
+        <v>41</v>
+      </c>
+      <c r="G6" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
         <v>리소스변경</v>
       </c>
@@ -1567,57 +2045,91 @@
         <v>902</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
+        <v>33</v>
+      </c>
+      <c r="K6" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>ItemResourceTable</v>
+      </c>
+      <c r="L6" s="8" t="str" cm="1">
+        <f t="array" ref="L6">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>리소스변경(식별자:902)</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="8" t="str" cm="1">
+        <f t="array" ref="N6">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>예외처리</v>
+      </c>
+      <c r="O6" s="8" cm="1">
+        <f t="array" ref="O6">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="6" cm="1">
-        <f t="array" ref="O6">_xlfn.IFS(
-ISTEXT(O5),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D5,ItemEffectTable[[#This Row],['#이름값]]=C5),O5+1,
+      <c r="P6" s="8" cm="1">
+        <f t="array" ref="P6">SUM(IF($E$3:$E$58=E6,$O$3:$O$58))</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="Q6" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>-3.3333333333333286</v>
+      </c>
+      <c r="R6" s="7"/>
+      <c r="S6" s="8" cm="1">
+        <f t="array" ref="S6">_xlfn.IFS(
+ISTEXT(S5),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D5,ItemEffectTable[[#This Row],['#이름값]]=C5),S5+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D5,0,
-ItemEffectTable[[#This Row],['#Grade]]=D5,O5
+ItemEffectTable[[#This Row],['#Grade]]=D5,S5
 )</f>
         <v>1</v>
       </c>
-      <c r="P6" s="6" t="str">
+      <c r="T6" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="U6" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>11002</v>
       </c>
-      <c r="R6" s="6">
+      <c r="V6" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>21002</v>
       </c>
-      <c r="S6" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W6" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>트럼펫</v>
       </c>
-      <c r="T6" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X6" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>트럼펫 소리가 납니다. 공격력이 20%증가합니다.</v>
       </c>
     </row>
-    <row r="7" spans="2:20">
-      <c r="B7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>27</v>
+    <row r="7" spans="2:24">
+      <c r="B7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="E7" cm="1">
         <f t="array" ref="E7">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -1629,9 +2141,9 @@
         <v>6002</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="6" t="str">
+        <v>43</v>
+      </c>
+      <c r="G7" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
         <v>공격력변경</v>
       </c>
@@ -1639,57 +2151,91 @@
         <v>1.2</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
+        <v>33</v>
+      </c>
+      <c r="K7" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterAtkTable</v>
+      </c>
+      <c r="L7" s="8" cm="1">
+        <f t="array" ref="L7">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="8" cm="1">
+        <f t="array" ref="N7">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>1.2</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="6" cm="1">
-        <f t="array" ref="O7">_xlfn.IFS(
-ISTEXT(O6),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D6,ItemEffectTable[[#This Row],['#이름값]]=C6),O6+1,
+      <c r="O7" s="8" cm="1">
+        <f t="array" ref="O7">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="P7" s="8" cm="1">
+        <f t="array" ref="P7">SUM(IF($E$3:$E$58=E7,$O$3:$O$58))</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="Q7" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>-3.3333333333333286</v>
+      </c>
+      <c r="R7" s="7"/>
+      <c r="S7" s="8" cm="1">
+        <f t="array" ref="S7">_xlfn.IFS(
+ISTEXT(S6),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D6,ItemEffectTable[[#This Row],['#이름값]]=C6),S6+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D6,0,
-ItemEffectTable[[#This Row],['#Grade]]=D6,O6
+ItemEffectTable[[#This Row],['#Grade]]=D6,S6
 )</f>
         <v>2</v>
       </c>
-      <c r="P7" s="6" t="str">
+      <c r="T7" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="U7" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>11002</v>
       </c>
-      <c r="R7" s="6">
+      <c r="V7" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>21002</v>
       </c>
-      <c r="S7" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W7" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>트럼펫</v>
       </c>
-      <c r="T7" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X7" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>트럼펫 소리가 납니다. 공격력이 20%증가합니다.</v>
       </c>
     </row>
-    <row r="8" spans="2:20">
-      <c r="B8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>42</v>
+    <row r="8" spans="2:24">
+      <c r="B8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="E8" cm="1">
         <f t="array" ref="E8">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -1701,67 +2247,101 @@
         <v>7000</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="6" t="str">
+        <v>47</v>
+      </c>
+      <c r="G8" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
         <v>이동속도변경</v>
       </c>
       <c r="H8">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>50</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="6" cm="1">
-        <f t="array" ref="O8">_xlfn.IFS(
-ISTEXT(O7),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D7,ItemEffectTable[[#This Row],['#이름값]]=C7),O7+1,
+        <v>33</v>
+      </c>
+      <c r="K8" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterTable</v>
+      </c>
+      <c r="L8" s="8" cm="1">
+        <f t="array" ref="L8">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>5.75</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="8" cm="1">
+        <f t="array" ref="N8">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>7.75</v>
+      </c>
+      <c r="O8" s="8" cm="1">
+        <f t="array" ref="O8">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="P8" s="8" cm="1">
+        <f t="array" ref="P8">SUM(IF($E$3:$E$58=E8,$O$3:$O$58))</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="Q8" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>-3.3333333333333357</v>
+      </c>
+      <c r="R8" s="7"/>
+      <c r="S8" s="8" cm="1">
+        <f t="array" ref="S8">_xlfn.IFS(
+ISTEXT(S7),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D7,ItemEffectTable[[#This Row],['#이름값]]=C7),S7+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D7,0,
-ItemEffectTable[[#This Row],['#Grade]]=D7,O7
+ItemEffectTable[[#This Row],['#Grade]]=D7,S7
 )</f>
         <v>0</v>
       </c>
-      <c r="P8" s="6" t="str">
+      <c r="T8" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="U8" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>12000</v>
       </c>
-      <c r="R8" s="6">
+      <c r="V8" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>22000</v>
       </c>
-      <c r="S8" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W8" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>신성한 종</v>
       </c>
-      <c r="T8" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X8" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>이동속도가 조금 빨라집니다.</v>
       </c>
     </row>
-    <row r="9" spans="2:20">
-      <c r="B9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>42</v>
+    <row r="9" spans="2:24">
+      <c r="B9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="E9" cm="1">
         <f t="array" ref="E9">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -1773,67 +2353,101 @@
         <v>7001</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="6" t="str">
+        <v>50</v>
+      </c>
+      <c r="G9" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
         <v>골드획득량변경</v>
       </c>
       <c r="H9">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="6" cm="1">
-        <f t="array" ref="O9">_xlfn.IFS(
-ISTEXT(O8),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D8,ItemEffectTable[[#This Row],['#이름값]]=C8),O8+1,
+        <v>33</v>
+      </c>
+      <c r="K9" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterTable</v>
+      </c>
+      <c r="L9" s="8" cm="1">
+        <f t="array" ref="L9">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="8" cm="1">
+        <f t="array" ref="N9">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>1.3</v>
+      </c>
+      <c r="O9" s="8" cm="1">
+        <f t="array" ref="O9">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>30.000000000000004</v>
+      </c>
+      <c r="P9" s="8" cm="1">
+        <f t="array" ref="P9">SUM(IF($E$3:$E$58=E9,$O$3:$O$58))</f>
+        <v>30.000000000000004</v>
+      </c>
+      <c r="Q9" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="7"/>
+      <c r="S9" s="8" cm="1">
+        <f t="array" ref="S9">_xlfn.IFS(
+ISTEXT(S8),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D8,ItemEffectTable[[#This Row],['#이름값]]=C8),S8+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D8,0,
-ItemEffectTable[[#This Row],['#Grade]]=D8,O8
+ItemEffectTable[[#This Row],['#Grade]]=D8,S8
 )</f>
         <v>0</v>
       </c>
-      <c r="P9" s="6" t="str">
+      <c r="T9" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="U9" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>12001</v>
       </c>
-      <c r="R9" s="6">
+      <c r="V9" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>22001</v>
       </c>
-      <c r="S9" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W9" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>미정1</v>
       </c>
-      <c r="T9" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X9" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>공격 속도 15% 상승</v>
       </c>
     </row>
-    <row r="10" spans="2:20">
-      <c r="B10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>42</v>
+    <row r="10" spans="2:24">
+      <c r="B10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="E10" cm="1">
         <f t="array" ref="E10">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -1845,9 +2459,9 @@
         <v>7002</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="6" t="str">
+        <v>52</v>
+      </c>
+      <c r="G10" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
         <v>휘두르기 재사용 시간 변경</v>
       </c>
@@ -1855,57 +2469,91 @@
         <v>0.8</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
+        <v>33</v>
+      </c>
+      <c r="K10" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterAtkTable</v>
+      </c>
+      <c r="L10" s="8" cm="1">
+        <f t="array" ref="L10">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>1</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="8" cm="1">
+        <f t="array" ref="N10">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>0.8</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="6" cm="1">
-        <f t="array" ref="O10">_xlfn.IFS(
-ISTEXT(O9),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D9,ItemEffectTable[[#This Row],['#이름값]]=C9),O9+1,
+      <c r="O10" s="8" cm="1">
+        <f t="array" ref="O10">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>29.999999999999993</v>
+      </c>
+      <c r="P10" s="8" cm="1">
+        <f t="array" ref="P10">SUM(IF($E$3:$E$58=E10,$O$3:$O$58))</f>
+        <v>29.999999999999993</v>
+      </c>
+      <c r="Q10" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="7"/>
+      <c r="S10" s="8" cm="1">
+        <f t="array" ref="S10">_xlfn.IFS(
+ISTEXT(S9),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D9,ItemEffectTable[[#This Row],['#이름값]]=C9),S9+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D9,0,
-ItemEffectTable[[#This Row],['#Grade]]=D9,O9
+ItemEffectTable[[#This Row],['#Grade]]=D9,S9
 )</f>
         <v>0</v>
       </c>
-      <c r="P10" s="6" t="str">
+      <c r="T10" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="U10" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>12002</v>
       </c>
-      <c r="R10" s="6">
+      <c r="V10" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>22002</v>
       </c>
-      <c r="S10" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W10" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>무언가 담긴병</v>
       </c>
-      <c r="T10" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X10" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>차징 속도 20% 상승</v>
       </c>
     </row>
-    <row r="11" spans="2:20">
-      <c r="B11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>42</v>
+    <row r="11" spans="2:24">
+      <c r="B11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="E11" cm="1">
         <f t="array" ref="E11">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -1917,67 +2565,101 @@
         <v>7003</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="6" t="str">
+        <v>54</v>
+      </c>
+      <c r="G11" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
         <v>공크기변경</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>ProjectileTable</v>
+      </c>
+      <c r="L11" s="8" cm="1">
+        <f t="array" ref="L11">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>5</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="8" cm="1">
+        <f t="array" ref="N11">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>6.5</v>
+      </c>
+      <c r="O11" s="8" cm="1">
+        <f t="array" ref="O11">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
         <v>30</v>
       </c>
-      <c r="K11" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>3</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="6" cm="1">
-        <f t="array" ref="O11">_xlfn.IFS(
-ISTEXT(O10),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D10,ItemEffectTable[[#This Row],['#이름값]]=C10),O10+1,
+      <c r="P11" s="8" cm="1">
+        <f t="array" ref="P11">SUM(IF($E$3:$E$58=E11,$O$3:$O$58))</f>
+        <v>30</v>
+      </c>
+      <c r="Q11" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="7"/>
+      <c r="S11" s="8" cm="1">
+        <f t="array" ref="S11">_xlfn.IFS(
+ISTEXT(S10),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D10,ItemEffectTable[[#This Row],['#이름값]]=C10),S10+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D10,0,
-ItemEffectTable[[#This Row],['#Grade]]=D10,O10
+ItemEffectTable[[#This Row],['#Grade]]=D10,S10
 )</f>
         <v>0</v>
       </c>
-      <c r="P11" s="6" t="str">
+      <c r="T11" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="U11" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>12003</v>
       </c>
-      <c r="R11" s="6">
+      <c r="V11" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>22003</v>
       </c>
-      <c r="S11" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W11" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>아저씨의 금구슬</v>
       </c>
-      <c r="T11" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X11" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>공 크기가 3 커집니다.</v>
       </c>
     </row>
-    <row r="12" spans="2:20">
-      <c r="B12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>42</v>
+    <row r="12" spans="2:24">
+      <c r="B12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="E12" cm="1">
         <f t="array" ref="E12">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -1989,67 +2671,101 @@
         <v>7004</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="6" t="str">
+        <v>56</v>
+      </c>
+      <c r="G12" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
         <v>차징속도변경-1단계</v>
       </c>
       <c r="H12">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>-0.1</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="6" cm="1">
-        <f t="array" ref="O12">_xlfn.IFS(
-ISTEXT(O11),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D11,ItemEffectTable[[#This Row],['#이름값]]=C11),O11+1,
+        <v>33</v>
+      </c>
+      <c r="K12" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterAtkTable</v>
+      </c>
+      <c r="L12" s="8" cm="1">
+        <f t="array" ref="L12">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="8" cm="1">
+        <f t="array" ref="N12">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>0.3</v>
+      </c>
+      <c r="O12" s="8" cm="1">
+        <f t="array" ref="O12">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>11.111111111111114</v>
+      </c>
+      <c r="P12" s="8" cm="1">
+        <f t="array" ref="P12">SUM(IF($E$3:$E$58=E12,$O$3:$O$58))</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="Q12" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>-3.3333333333333357</v>
+      </c>
+      <c r="R12" s="7"/>
+      <c r="S12" s="8" cm="1">
+        <f t="array" ref="S12">_xlfn.IFS(
+ISTEXT(S11),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D11,ItemEffectTable[[#This Row],['#이름값]]=C11),S11+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D11,0,
-ItemEffectTable[[#This Row],['#Grade]]=D11,O11
+ItemEffectTable[[#This Row],['#Grade]]=D11,S11
 )</f>
         <v>0</v>
       </c>
-      <c r="P12" s="6" t="str">
+      <c r="T12" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="U12" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>12004</v>
       </c>
-      <c r="R12" s="6">
+      <c r="V12" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>22004</v>
       </c>
-      <c r="S12" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W12" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>작은 십자가</v>
       </c>
-      <c r="T12" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X12" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>공격 범위가 2 증가합니다.</v>
       </c>
     </row>
-    <row r="13" spans="2:20">
-      <c r="B13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>42</v>
+    <row r="13" spans="2:24">
+      <c r="B13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="E13" cm="1">
         <f t="array" ref="E13">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -2061,67 +2777,101 @@
         <v>7004</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="6" t="str">
+        <v>57</v>
+      </c>
+      <c r="G13" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
         <v>차징속도변경-2단계</v>
       </c>
       <c r="H13">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>-0.1</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="6" cm="1">
-        <f t="array" ref="O13">_xlfn.IFS(
-ISTEXT(O12),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D12,ItemEffectTable[[#This Row],['#이름값]]=C12),O12+1,
+        <v>33</v>
+      </c>
+      <c r="K13" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterAtkTable</v>
+      </c>
+      <c r="L13" s="8" cm="1">
+        <f t="array" ref="L13">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>1</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="8" cm="1">
+        <f t="array" ref="N13">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>0.8</v>
+      </c>
+      <c r="O13" s="8" cm="1">
+        <f t="array" ref="O13">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="P13" s="8" cm="1">
+        <f t="array" ref="P13">SUM(IF($E$3:$E$58=E13,$O$3:$O$58))</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="Q13" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>-3.3333333333333357</v>
+      </c>
+      <c r="R13" s="7"/>
+      <c r="S13" s="8" cm="1">
+        <f t="array" ref="S13">_xlfn.IFS(
+ISTEXT(S12),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D12,ItemEffectTable[[#This Row],['#이름값]]=C12),S12+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D12,0,
-ItemEffectTable[[#This Row],['#Grade]]=D12,O12
+ItemEffectTable[[#This Row],['#Grade]]=D12,S12
 )</f>
         <v>1</v>
       </c>
-      <c r="P13" s="6" t="str">
+      <c r="T13" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="U13" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>12004</v>
       </c>
-      <c r="R13" s="6">
+      <c r="V13" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>22004</v>
       </c>
-      <c r="S13" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W13" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>작은 십자가</v>
       </c>
-      <c r="T13" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X13" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>공격 범위가 2 증가합니다.</v>
       </c>
     </row>
-    <row r="14" spans="2:20">
-      <c r="B14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>42</v>
+    <row r="14" spans="2:24">
+      <c r="B14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="E14" cm="1">
         <f t="array" ref="E14">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -2133,67 +2883,101 @@
         <v>7004</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="6" t="str">
+        <v>58</v>
+      </c>
+      <c r="G14" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
         <v>차징속도변경-3단계</v>
       </c>
       <c r="H14">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>-0.1</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="6" cm="1">
-        <f t="array" ref="O14">_xlfn.IFS(
-ISTEXT(O13),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D13,ItemEffectTable[[#This Row],['#이름값]]=C13),O13+1,
+        <v>33</v>
+      </c>
+      <c r="K14" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterAtkTable</v>
+      </c>
+      <c r="L14" s="8" cm="1">
+        <f t="array" ref="L14">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>1.5</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="8" cm="1">
+        <f t="array" ref="N14">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>1.3</v>
+      </c>
+      <c r="O14" s="8" cm="1">
+        <f t="array" ref="O14">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="P14" s="8" cm="1">
+        <f t="array" ref="P14">SUM(IF($E$3:$E$58=E14,$O$3:$O$58))</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="Q14" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>-3.3333333333333357</v>
+      </c>
+      <c r="R14" s="7"/>
+      <c r="S14" s="8" cm="1">
+        <f t="array" ref="S14">_xlfn.IFS(
+ISTEXT(S13),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D13,ItemEffectTable[[#This Row],['#이름값]]=C13),S13+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D13,0,
-ItemEffectTable[[#This Row],['#Grade]]=D13,O13
+ItemEffectTable[[#This Row],['#Grade]]=D13,S13
 )</f>
         <v>2</v>
       </c>
-      <c r="P14" s="6" t="str">
+      <c r="T14" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="U14" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>12004</v>
       </c>
-      <c r="R14" s="6">
+      <c r="V14" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>22004</v>
       </c>
-      <c r="S14" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W14" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>작은 십자가</v>
       </c>
-      <c r="T14" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X14" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>공격 범위가 2 증가합니다.</v>
       </c>
     </row>
-    <row r="15" spans="2:20">
-      <c r="B15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>42</v>
+    <row r="15" spans="2:24">
+      <c r="B15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="E15" cm="1">
         <f t="array" ref="E15">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -2205,67 +2989,101 @@
         <v>7005</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="6" t="str">
+        <v>60</v>
+      </c>
+      <c r="G15" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
         <v>최대체력변경</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J15" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>1</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="6" cm="1">
-        <f t="array" ref="O15">_xlfn.IFS(
-ISTEXT(O14),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D14,ItemEffectTable[[#This Row],['#이름값]]=C14),O14+1,
+        <v>33</v>
+      </c>
+      <c r="K15" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterTable</v>
+      </c>
+      <c r="L15" s="8" cm="1">
+        <f t="array" ref="L15">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>150</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" s="8" cm="1">
+        <f t="array" ref="N15">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>250</v>
+      </c>
+      <c r="O15" s="8" cm="1">
+        <f t="array" ref="O15">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="P15" s="8" cm="1">
+        <f t="array" ref="P15">SUM(IF($E$3:$E$58=E15,$O$3:$O$58))</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="Q15" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>-3.3333333333333286</v>
+      </c>
+      <c r="R15" s="7"/>
+      <c r="S15" s="8" cm="1">
+        <f t="array" ref="S15">_xlfn.IFS(
+ISTEXT(S14),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D14,ItemEffectTable[[#This Row],['#이름값]]=C14),S14+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D14,0,
-ItemEffectTable[[#This Row],['#Grade]]=D14,O14
+ItemEffectTable[[#This Row],['#Grade]]=D14,S14
 )</f>
         <v>2</v>
       </c>
-      <c r="P15" s="6" t="str">
+      <c r="T15" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="U15" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>12005</v>
       </c>
-      <c r="R15" s="6">
+      <c r="V15" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>22005</v>
       </c>
-      <c r="S15" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W15" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>목없는 갑옷</v>
       </c>
-      <c r="T15" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X15" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>[하트]가 1개 증가합니다.</v>
       </c>
     </row>
-    <row r="16" spans="2:20">
-      <c r="B16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>42</v>
+    <row r="16" spans="2:24">
+      <c r="B16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="E16" cm="1">
         <f t="array" ref="E16">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -2277,67 +3095,101 @@
         <v>7006</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="6" t="str">
+        <v>62</v>
+      </c>
+      <c r="G16" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
         <v>공최대소지개수변경</v>
       </c>
       <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterTable</v>
+      </c>
+      <c r="L16" s="8" cm="1">
+        <f t="array" ref="L16">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
         <v>1</v>
       </c>
-      <c r="I16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>1</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="6" cm="1">
-        <f t="array" ref="O16">_xlfn.IFS(
-ISTEXT(O15),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D15,ItemEffectTable[[#This Row],['#이름값]]=C15),O15+1,
+      <c r="M16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="8" cm="1">
+        <f t="array" ref="N16">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>3</v>
+      </c>
+      <c r="O16" s="8" cm="1">
+        <f t="array" ref="O16">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="P16" s="8" cm="1">
+        <f t="array" ref="P16">SUM(IF($E$3:$E$58=E16,$O$3:$O$58))</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="Q16" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>-3.3333333333333357</v>
+      </c>
+      <c r="R16" s="7"/>
+      <c r="S16" s="8" cm="1">
+        <f t="array" ref="S16">_xlfn.IFS(
+ISTEXT(S15),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D15,ItemEffectTable[[#This Row],['#이름값]]=C15),S15+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D15,0,
-ItemEffectTable[[#This Row],['#Grade]]=D15,O15
+ItemEffectTable[[#This Row],['#Grade]]=D15,S15
 )</f>
         <v>2</v>
       </c>
-      <c r="P16" s="6" t="str">
+      <c r="T16" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="U16" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>12006</v>
       </c>
-      <c r="R16" s="6">
+      <c r="V16" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>22006</v>
       </c>
-      <c r="S16" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W16" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>미정2</v>
       </c>
-      <c r="T16" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X16" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>공 던지기 가능 개수가 1개 증가합니다.</v>
       </c>
     </row>
-    <row r="17" spans="2:20">
-      <c r="B17" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>61</v>
+    <row r="17" spans="2:24">
+      <c r="B17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E17" cm="1">
         <f t="array" ref="E17">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -2349,69 +3201,103 @@
         <v>8000</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="6" t="str">
+        <v>66</v>
+      </c>
+      <c r="G17" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>차징중공끌어당김</v>
+        <v>차징 중 ApplyValue반지름 주변 공을 끌어당김.</v>
       </c>
       <c r="H17">
         <v>5</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J17" t="s">
-        <v>63</v>
-      </c>
-      <c r="K17" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>5</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O17" s="6" cm="1">
-        <f t="array" ref="O17">_xlfn.IFS(
-ISTEXT(O16),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D16,ItemEffectTable[[#This Row],['#이름값]]=C16),O16+1,
+        <v>67</v>
+      </c>
+      <c r="K17" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>-</v>
+      </c>
+      <c r="L17" s="8" t="str" cm="1">
+        <f t="array" ref="L17">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>예외처리</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" s="8" t="str" cm="1">
+        <f t="array" ref="N17">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>예외처리</v>
+      </c>
+      <c r="O17" s="8" cm="1">
+        <f t="array" ref="O17">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>50</v>
+      </c>
+      <c r="P17" s="8" cm="1">
+        <f t="array" ref="P17">SUM(IF($E$3:$E$58=E17,$O$3:$O$58))</f>
+        <v>50</v>
+      </c>
+      <c r="Q17" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="S17" s="8" cm="1">
+        <f t="array" ref="S17">_xlfn.IFS(
+ISTEXT(S16),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D16,ItemEffectTable[[#This Row],['#이름값]]=C16),S16+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D16,0,
-ItemEffectTable[[#This Row],['#Grade]]=D16,O16
+ItemEffectTable[[#This Row],['#Grade]]=D16,S16
 )</f>
         <v>0</v>
       </c>
-      <c r="P17" s="6" t="str">
+      <c r="T17" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="U17" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>13000</v>
       </c>
-      <c r="R17" s="6">
+      <c r="V17" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>23000</v>
       </c>
-      <c r="S17" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W17" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>Dys : 0N Mk2</v>
       </c>
-      <c r="T17" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X17" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>차징중에 공을 끌어당김</v>
       </c>
     </row>
-    <row r="18" spans="2:20">
-      <c r="B18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="5" t="s">
+    <row r="18" spans="2:24">
+      <c r="B18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="E18" cm="1">
         <f t="array" ref="E18">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -2423,67 +3309,102 @@
         <v>8001</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="6" t="str">
+        <v>52</v>
+      </c>
+      <c r="G18" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
         <v>휘두르기 재사용 시간 변경</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J18" t="s">
-        <v>67</v>
-      </c>
-      <c r="K18" s="6" t="e">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="6" cm="1">
-        <f t="array" ref="O18">_xlfn.IFS(
-ISTEXT(O17),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D17,ItemEffectTable[[#This Row],['#이름값]]=C17),O17+1,
+        <v>71</v>
+      </c>
+      <c r="K18" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterAtkTable</v>
+      </c>
+      <c r="L18" s="8" cm="1">
+        <f t="array" ref="L18">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>1</v>
+      </c>
+      <c r="M18" s="9" cm="1">
+        <f t="array" ref="M18">[1]!CharacterTable[MovementSpd]*-0.05</f>
+        <v>-0.28750000000000003</v>
+      </c>
+      <c r="N18" s="8" cm="1">
+        <f t="array" ref="N18">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>0.71249999999999991</v>
+      </c>
+      <c r="O18" s="8" cm="1">
+        <f t="array" ref="O18">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>43.125000000000014</v>
+      </c>
+      <c r="P18" s="8" cm="1">
+        <f t="array" ref="P18">SUM(IF($E$3:$E$58=E18,$O$3:$O$58))</f>
+        <v>43.125000000000014</v>
+      </c>
+      <c r="Q18" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>6.8749999999999858</v>
+      </c>
+      <c r="R18" s="7"/>
+      <c r="S18" s="8" cm="1">
+        <f t="array" ref="S18">_xlfn.IFS(
+ISTEXT(S17),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D17,ItemEffectTable[[#This Row],['#이름값]]=C17),S17+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D17,0,
-ItemEffectTable[[#This Row],['#Grade]]=D17,O17
+ItemEffectTable[[#This Row],['#Grade]]=D17,S17
 )</f>
         <v>0</v>
       </c>
-      <c r="P18" s="6" t="str">
+      <c r="T18" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="U18" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>13001</v>
       </c>
-      <c r="R18" s="6">
+      <c r="V18" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>23001</v>
       </c>
-      <c r="S18" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W18" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>무해한 불꽃</v>
       </c>
-      <c r="T18" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X18" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>“실례지만 불타고 계십니다” 현재의 이동속도 비례하여 공격속도 증가</v>
       </c>
     </row>
-    <row r="19" spans="2:20">
-      <c r="B19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>61</v>
+    <row r="19" spans="2:24">
+      <c r="B19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E19" cm="1">
         <f t="array" ref="E19">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -2495,9 +3416,9 @@
         <v>8002</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="6" t="str">
+        <v>37</v>
+      </c>
+      <c r="G19" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
         <v>차징에 따른 관통샷 변경</v>
       </c>
@@ -2505,57 +3426,91 @@
         <v>15</v>
       </c>
       <c r="I19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterAtkTable</v>
+      </c>
+      <c r="L19" s="8" cm="1">
+        <f t="array" ref="L19">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>8</v>
+      </c>
+      <c r="M19" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J19" t="s">
+      <c r="N19" s="8" cm="1">
+        <f t="array" ref="N19">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>15</v>
+      </c>
+      <c r="O19" s="8" cm="1">
+        <f t="array" ref="O19">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
         <v>30</v>
       </c>
-      <c r="K19" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>15</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="6" cm="1">
-        <f t="array" ref="O19">_xlfn.IFS(
-ISTEXT(O18),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D18,ItemEffectTable[[#This Row],['#이름값]]=C18),O18+1,
+      <c r="P19" s="8" cm="1">
+        <f t="array" ref="P19">SUM(IF($E$3:$E$58=E19,$O$3:$O$58))</f>
+        <v>50.000000000000021</v>
+      </c>
+      <c r="Q19" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="7"/>
+      <c r="S19" s="8" cm="1">
+        <f t="array" ref="S19">_xlfn.IFS(
+ISTEXT(S18),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D18,ItemEffectTable[[#This Row],['#이름값]]=C18),S18+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D18,0,
-ItemEffectTable[[#This Row],['#Grade]]=D18,O18
+ItemEffectTable[[#This Row],['#Grade]]=D18,S18
 )</f>
         <v>0</v>
       </c>
-      <c r="P19" s="6" t="str">
+      <c r="T19" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="U19" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>13002</v>
       </c>
-      <c r="R19" s="6">
+      <c r="V19" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>23002</v>
       </c>
-      <c r="S19" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W19" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>롱기누스</v>
       </c>
-      <c r="T19" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X19" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>[배트]로 쳐낸 공이 적을 관통합니다.</v>
       </c>
     </row>
-    <row r="20" spans="2:20">
-      <c r="B20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>61</v>
+    <row r="20" spans="2:24">
+      <c r="B20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E20" cm="1">
         <f t="array" ref="E20">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -2564,72 +3519,104 @@
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($D$3:D20,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>8003</v>
+        <v>8002</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="6" t="str">
+        <v>43</v>
+      </c>
+      <c r="G20" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>최대체력변경</v>
+        <v>공격력변경</v>
       </c>
       <c r="H20">
+        <v>0.12</v>
+      </c>
+      <c r="I20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterAtkTable</v>
+      </c>
+      <c r="L20" s="8" cm="1">
+        <f t="array" ref="L20">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
         <v>1</v>
       </c>
-      <c r="I20" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
+      <c r="M20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N20" s="8" cm="1">
+        <f t="array" ref="N20">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="O20" s="8" cm="1">
+        <f t="array" ref="O20">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>20.000000000000021</v>
+      </c>
+      <c r="P20" s="8" cm="1">
+        <f t="array" ref="P20">SUM(IF($E$3:$E$58=E20,$O$3:$O$58))</f>
+        <v>50.000000000000021</v>
+      </c>
+      <c r="Q20" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="7"/>
+      <c r="S20" s="8" cm="1">
+        <f t="array" ref="S20">_xlfn.IFS(
+ISTEXT(S19),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D19,ItemEffectTable[[#This Row],['#이름값]]=C19),S19+1,
+ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D19,0,
+ItemEffectTable[[#This Row],['#Grade]]=D19,S19
+)</f>
         <v>1</v>
       </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O20" s="6" cm="1">
-        <f t="array" ref="O20">_xlfn.IFS(
-ISTEXT(O19),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D19,ItemEffectTable[[#This Row],['#이름값]]=C19),O19+1,
-ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D19,0,
-ItemEffectTable[[#This Row],['#Grade]]=D19,O19
-)</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="6" t="str">
+      <c r="T20" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="U20" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>13003</v>
-      </c>
-      <c r="R20" s="6">
+        <v>13002</v>
+      </c>
+      <c r="V20" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>23003</v>
-      </c>
-      <c r="S20" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>석가면</v>
-      </c>
-      <c r="T20" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>[하트]가 1개 증가합니다. 이동속도, 공격속도가 10% 빨라집니다.</v>
+        <v>23002</v>
+      </c>
+      <c r="W20" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
+        <v>롱기누스</v>
+      </c>
+      <c r="X20" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
+        <v>[배트]로 쳐낸 공이 적을 관통합니다.</v>
       </c>
     </row>
-    <row r="21" spans="2:20">
-      <c r="B21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>61</v>
+    <row r="21" spans="2:24">
+      <c r="B21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E21" cm="1">
         <f t="array" ref="E21">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -2638,72 +3625,106 @@
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($D$3:D21,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>8003</v>
+        <v>8004</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="6" t="str">
+        <v>60</v>
+      </c>
+      <c r="G21" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>이동속도변경</v>
+        <v>최대체력변경</v>
       </c>
       <c r="H21">
-        <v>0.9</v>
+        <v>50</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>0.9</v>
-      </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O21" s="6" cm="1">
-        <f t="array" ref="O21">_xlfn.IFS(
-ISTEXT(O20),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D20,ItemEffectTable[[#This Row],['#이름값]]=C20),O20+1,
-ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D20,0,
-ItemEffectTable[[#This Row],['#Grade]]=D20,O20
-)</f>
-        <v>1</v>
-      </c>
-      <c r="P21" s="6" t="str">
+        <v>33</v>
+      </c>
+      <c r="K21" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterTable</v>
+      </c>
+      <c r="L21" s="8" cm="1">
+        <f t="array" ref="L21">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>150</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21" s="8" cm="1">
+        <f t="array" ref="N21">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>200</v>
+      </c>
+      <c r="O21" s="8" cm="1">
+        <f t="array" ref="O21">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="P21" s="8" cm="1">
+        <f t="array" ref="P21">SUM(IF($E$3:$E$58=E21,$O$3:$O$58))</f>
+        <v>51.458333333333329</v>
+      </c>
+      <c r="Q21" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>-1.4583333333333286</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="S21" s="8" cm="1">
+        <f t="array" ref="S21">_xlfn.IFS(
+ISTEXT(S19),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D19,ItemEffectTable[[#This Row],['#이름값]]=C19),S19+1,
+ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D19,0,
+ItemEffectTable[[#This Row],['#Grade]]=D19,S19
+)</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>TRUE</v>
-      </c>
-      <c r="Q21" s="6">
+        <v>FALSE</v>
+      </c>
+      <c r="U21" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>13003</v>
-      </c>
-      <c r="R21" s="6">
+        <v>13004</v>
+      </c>
+      <c r="V21" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>23003</v>
-      </c>
-      <c r="S21" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>석가면</v>
-      </c>
-      <c r="T21" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>[하트]가 1개 증가합니다. 이동속도, 공격속도가 10% 빨라집니다.</v>
+        <v>23004</v>
+      </c>
+      <c r="W21" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
+        <v>거인의 주먹</v>
+      </c>
+      <c r="X21" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
+        <v>최대 [하트] 1개 당 5% 만큼 피해량이 증가합니다.</v>
       </c>
     </row>
-    <row r="22" spans="2:20">
-      <c r="B22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>61</v>
+    <row r="22" spans="2:24">
+      <c r="B22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E22" cm="1">
         <f t="array" ref="E22">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -2712,72 +3733,106 @@
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($D$3:D22,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>8003</v>
+        <v>8004</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="6" t="str">
+        <v>47</v>
+      </c>
+      <c r="G22" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>휘두르기 재사용 시간 변경</v>
+        <v>이동속도변경</v>
       </c>
       <c r="H22">
-        <v>0.9</v>
+        <v>1.05</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J22" t="s">
-        <v>30</v>
-      </c>
-      <c r="K22" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>0.9</v>
-      </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O22" s="6" cm="1">
-        <f t="array" ref="O22">_xlfn.IFS(
-ISTEXT(O21),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D21,ItemEffectTable[[#This Row],['#이름값]]=C21),O21+1,
+        <v>33</v>
+      </c>
+      <c r="K22" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterTable</v>
+      </c>
+      <c r="L22" s="8" cm="1">
+        <f t="array" ref="L22">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>5.75</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N22" s="8" cm="1">
+        <f t="array" ref="N22">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>6.0375000000000005</v>
+      </c>
+      <c r="O22" s="8" cm="1">
+        <f t="array" ref="O22">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>4.7916666666666758</v>
+      </c>
+      <c r="P22" s="8" cm="1">
+        <f t="array" ref="P22">SUM(IF($E$3:$E$58=E22,$O$3:$O$58))</f>
+        <v>51.458333333333329</v>
+      </c>
+      <c r="Q22" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>-1.4583333333333286</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="S22" s="8" cm="1">
+        <f t="array" ref="S22">_xlfn.IFS(
+ISTEXT(S21),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D21,ItemEffectTable[[#This Row],['#이름값]]=C21),S21+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D21,0,
-ItemEffectTable[[#This Row],['#Grade]]=D21,O21
-)</f>
-        <v>2</v>
-      </c>
-      <c r="P22" s="6" t="str">
+ItemEffectTable[[#This Row],['#Grade]]=D21,S21
+)</f>
+        <v>1</v>
+      </c>
+      <c r="T22" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>TRUE</v>
-      </c>
-      <c r="Q22" s="6">
+        <v>FALSE</v>
+      </c>
+      <c r="U22" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>13003</v>
-      </c>
-      <c r="R22" s="6">
+        <v>13004</v>
+      </c>
+      <c r="V22" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>23003</v>
-      </c>
-      <c r="S22" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>석가면</v>
-      </c>
-      <c r="T22" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>[하트]가 1개 증가합니다. 이동속도, 공격속도가 10% 빨라집니다.</v>
+        <v>23004</v>
+      </c>
+      <c r="W22" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
+        <v>거인의 주먹</v>
+      </c>
+      <c r="X22" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
+        <v>최대 [하트] 1개 당 5% 만큼 피해량이 증가합니다.</v>
       </c>
     </row>
-    <row r="23" spans="2:20">
-      <c r="B23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>61</v>
+    <row r="23" spans="2:24">
+      <c r="B23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E23" cm="1">
         <f t="array" ref="E23">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -2789,67 +3844,103 @@
         <v>8004</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="6" t="str">
+        <v>52</v>
+      </c>
+      <c r="G23" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>공격력변경</v>
-      </c>
-      <c r="H23" t="s">
-        <v>72</v>
+        <v>휘두르기 재사용 시간 변경</v>
+      </c>
+      <c r="H23">
+        <v>0.8</v>
       </c>
       <c r="I23" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J23" t="s">
-        <v>30</v>
-      </c>
-      <c r="K23" s="6" t="e">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="6" cm="1">
-        <f t="array" ref="O23">_xlfn.IFS(
-ISTEXT(O22),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D22,ItemEffectTable[[#This Row],['#이름값]]=C22),O22+1,
+        <v>33</v>
+      </c>
+      <c r="K23" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterAtkTable</v>
+      </c>
+      <c r="L23" s="8" cm="1">
+        <f t="array" ref="L23">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>1</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N23" s="8" cm="1">
+        <f t="array" ref="N23">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>0.8</v>
+      </c>
+      <c r="O23" s="8" cm="1">
+        <f t="array" ref="O23">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>29.999999999999993</v>
+      </c>
+      <c r="P23" s="8" cm="1">
+        <f t="array" ref="P23">SUM(IF($E$3:$E$58=E23,$O$3:$O$58))</f>
+        <v>51.458333333333329</v>
+      </c>
+      <c r="Q23" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>-1.4583333333333286</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="S23" s="8" cm="1">
+        <f t="array" ref="S23">_xlfn.IFS(
+ISTEXT(S22),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D22,ItemEffectTable[[#This Row],['#이름값]]=C22),S22+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D22,0,
-ItemEffectTable[[#This Row],['#Grade]]=D22,O22
+ItemEffectTable[[#This Row],['#Grade]]=D22,S22
 )</f>
         <v>2</v>
       </c>
-      <c r="P23" s="6" t="str">
+      <c r="T23" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>TRUE</v>
-      </c>
-      <c r="Q23" s="6">
+        <v>FALSE</v>
+      </c>
+      <c r="U23" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>13004</v>
       </c>
-      <c r="R23" s="6">
+      <c r="V23" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>23004</v>
       </c>
-      <c r="S23" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W23" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>거인의 주먹</v>
       </c>
-      <c r="T23" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X23" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>최대 [하트] 1개 당 5% 만큼 피해량이 증가합니다.</v>
       </c>
     </row>
-    <row r="24" spans="2:20">
-      <c r="B24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>61</v>
+    <row r="24" spans="2:24">
+      <c r="B24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E24" cm="1">
         <f t="array" ref="E24">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -2861,69 +3952,102 @@
         <v>8005</v>
       </c>
       <c r="F24" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="6" t="str">
+        <v>43</v>
+      </c>
+      <c r="G24" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>골드획득량변경</v>
-      </c>
-      <c r="H24">
-        <v>1.2</v>
+        <v>공격력변경</v>
+      </c>
+      <c r="H24" t="s">
+        <v>77</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>1.2</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O24" s="6" cm="1">
-        <f t="array" ref="O24">_xlfn.IFS(
-ISTEXT(O23),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D23,ItemEffectTable[[#This Row],['#이름값]]=C23),O23+1,
+        <v>33</v>
+      </c>
+      <c r="K24" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterAtkTable</v>
+      </c>
+      <c r="L24" s="8" cm="1">
+        <f t="array" ref="L24">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>1</v>
+      </c>
+      <c r="M24" s="9" cm="1">
+        <f t="array" ref="M24">[1]!CharacterTable[MaxHP]/500</f>
+        <v>0.3</v>
+      </c>
+      <c r="N24" s="8" cm="1">
+        <f t="array" ref="N24">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>1.3</v>
+      </c>
+      <c r="O24" s="8" cm="1">
+        <f t="array" ref="O24">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>50.000000000000014</v>
+      </c>
+      <c r="P24" s="8" cm="1">
+        <f t="array" ref="P24">SUM(IF($E$3:$E$58=E24,$O$3:$O$58))</f>
+        <v>50.000000000000014</v>
+      </c>
+      <c r="Q24" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="7"/>
+      <c r="S24" s="8" cm="1">
+        <f t="array" ref="S24">_xlfn.IFS(
+ISTEXT(S23),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D23,ItemEffectTable[[#This Row],['#이름값]]=C23),S23+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D23,0,
-ItemEffectTable[[#This Row],['#Grade]]=D23,O23
+ItemEffectTable[[#This Row],['#Grade]]=D23,S23
 )</f>
         <v>2</v>
       </c>
-      <c r="P24" s="6" t="str">
+      <c r="T24" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>TRUE</v>
-      </c>
-      <c r="Q24" s="6">
+        <v>FALSE</v>
+      </c>
+      <c r="U24" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>13005</v>
       </c>
-      <c r="R24" s="6">
+      <c r="V24" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>23005</v>
       </c>
-      <c r="S24" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W24" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>황금왕의 갑옷</v>
       </c>
-      <c r="T24" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X24" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>골드를 20%씩 더 획득합니다.</v>
       </c>
     </row>
-    <row r="25" spans="2:20">
-      <c r="B25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>61</v>
+    <row r="25" spans="2:24">
+      <c r="B25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E25" cm="1">
         <f t="array" ref="E25">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -2935,67 +4059,103 @@
         <v>8006</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="6" t="str">
+        <v>79</v>
+      </c>
+      <c r="G25" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>공최대소지개수변경</v>
+        <v>골드획득량변경</v>
       </c>
       <c r="H25">
+        <v>0.5</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterTable</v>
+      </c>
+      <c r="L25" s="8" cm="1">
+        <f t="array" ref="L25">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
         <v>1</v>
       </c>
-      <c r="I25" t="s">
-        <v>40</v>
-      </c>
-      <c r="J25" t="s">
-        <v>30</v>
-      </c>
-      <c r="K25" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>1</v>
-      </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="6" cm="1">
-        <f t="array" ref="O25">_xlfn.IFS(
-ISTEXT(O24),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D24,ItemEffectTable[[#This Row],['#이름값]]=C24),O24+1,
+      <c r="M25" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N25" s="8" cm="1">
+        <f t="array" ref="N25">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>1.5</v>
+      </c>
+      <c r="O25" s="8" cm="1">
+        <f t="array" ref="O25">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>50</v>
+      </c>
+      <c r="P25" s="8" cm="1">
+        <f t="array" ref="P25">SUM(IF($E$3:$E$58=E25,$O$3:$O$58))</f>
+        <v>50</v>
+      </c>
+      <c r="Q25" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="S25" s="8" cm="1">
+        <f t="array" ref="S25">_xlfn.IFS(
+ISTEXT(S24),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D24,ItemEffectTable[[#This Row],['#이름값]]=C24),S24+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D24,0,
-ItemEffectTable[[#This Row],['#Grade]]=D24,O24
+ItemEffectTable[[#This Row],['#Grade]]=D24,S24
 )</f>
         <v>2</v>
       </c>
-      <c r="P25" s="6" t="str">
+      <c r="T25" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>TRUE</v>
-      </c>
-      <c r="Q25" s="6">
+        <v>FALSE</v>
+      </c>
+      <c r="U25" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>13006</v>
       </c>
-      <c r="R25" s="6">
+      <c r="V25" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>23006</v>
       </c>
-      <c r="S25" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W25" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>복사기</v>
       </c>
-      <c r="T25" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X25" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>“공이 복사가 된다고” 공 던지기 개수가 2개 증가합니다.</v>
       </c>
     </row>
-    <row r="26" spans="2:20">
-      <c r="B26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>61</v>
+    <row r="26" spans="2:24">
+      <c r="B26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E26" cm="1">
         <f t="array" ref="E26">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -3007,69 +4167,101 @@
         <v>8007</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="6" t="str">
+        <v>62</v>
+      </c>
+      <c r="G26" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>공격력변경</v>
-      </c>
-      <c r="H26" t="s">
-        <v>78</v>
+        <v>공최대소지개수변경</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J26" t="s">
-        <v>79</v>
-      </c>
-      <c r="K26" s="6" t="e">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="O26" s="6" cm="1">
-        <f t="array" ref="O26">_xlfn.IFS(
-ISTEXT(O25),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D25,ItemEffectTable[[#This Row],['#이름값]]=C25),O25+1,
+        <v>33</v>
+      </c>
+      <c r="K26" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterTable</v>
+      </c>
+      <c r="L26" s="8" cm="1">
+        <f t="array" ref="L26">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>1</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N26" s="8" cm="1">
+        <f t="array" ref="N26">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>4</v>
+      </c>
+      <c r="O26" s="8" cm="1">
+        <f t="array" ref="O26">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>50</v>
+      </c>
+      <c r="P26" s="8" cm="1">
+        <f t="array" ref="P26">SUM(IF($E$3:$E$58=E26,$O$3:$O$58))</f>
+        <v>50</v>
+      </c>
+      <c r="Q26" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="7"/>
+      <c r="S26" s="8" cm="1">
+        <f t="array" ref="S26">_xlfn.IFS(
+ISTEXT(S25),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D25,ItemEffectTable[[#This Row],['#이름값]]=C25),S25+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D25,0,
-ItemEffectTable[[#This Row],['#Grade]]=D25,O25
+ItemEffectTable[[#This Row],['#Grade]]=D25,S25
 )</f>
         <v>2</v>
       </c>
-      <c r="P26" s="6" t="str">
+      <c r="T26" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>TRUE</v>
-      </c>
-      <c r="Q26" s="6">
+        <v>FALSE</v>
+      </c>
+      <c r="U26" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>13007</v>
       </c>
-      <c r="R26" s="6">
+      <c r="V26" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>23007</v>
       </c>
-      <c r="S26" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W26" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>어른의 카드</v>
       </c>
-      <c r="T26" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X26" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>소지중인 골드의 1%만큼 데미지 상승</v>
       </c>
     </row>
-    <row r="27" spans="2:20">
-      <c r="B27" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>61</v>
+    <row r="27" spans="2:24">
+      <c r="B27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E27" cm="1">
         <f t="array" ref="E27">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -3081,67 +4273,104 @@
         <v>8008</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="6" t="str">
+        <v>43</v>
+      </c>
+      <c r="G27" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
         <v>공격력변경</v>
       </c>
       <c r="H27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I27" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J27" t="s">
-        <v>83</v>
-      </c>
-      <c r="K27" s="6" t="e">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="6" cm="1">
-        <f t="array" ref="O27">_xlfn.IFS(
-ISTEXT(O26),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D26,ItemEffectTable[[#This Row],['#이름값]]=C26),O26+1,
+        <v>84</v>
+      </c>
+      <c r="K27" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterAtkTable</v>
+      </c>
+      <c r="L27" s="8" cm="1">
+        <f t="array" ref="L27">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>1</v>
+      </c>
+      <c r="M27" s="9">
+        <f>1+50*0.005</f>
+        <v>1.25</v>
+      </c>
+      <c r="N27" s="8" cm="1">
+        <f t="array" ref="N27">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="O27" s="8" cm="1">
+        <f t="array" ref="O27">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>41.666666666666671</v>
+      </c>
+      <c r="P27" s="8" cm="1">
+        <f t="array" ref="P27">SUM(IF($E$3:$E$58=E27,$O$3:$O$58))</f>
+        <v>41.666666666666671</v>
+      </c>
+      <c r="Q27" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>8.3333333333333286</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="S27" s="8" cm="1">
+        <f t="array" ref="S27">_xlfn.IFS(
+ISTEXT(S26),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D26,ItemEffectTable[[#This Row],['#이름값]]=C26),S26+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D26,0,
-ItemEffectTable[[#This Row],['#Grade]]=D26,O26
+ItemEffectTable[[#This Row],['#Grade]]=D26,S26
 )</f>
         <v>2</v>
       </c>
-      <c r="P27" s="6" t="str">
+      <c r="T27" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>TRUE</v>
-      </c>
-      <c r="Q27" s="6">
+        <v>FALSE</v>
+      </c>
+      <c r="U27" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>13008</v>
       </c>
-      <c r="R27" s="6">
+      <c r="V27" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>23008</v>
       </c>
-      <c r="S27" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W27" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>회광반조</v>
       </c>
-      <c r="T27" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X27" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>빈 하트 1개당 피해량 5% 상승</v>
       </c>
     </row>
-    <row r="28" spans="2:20">
-      <c r="B28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>61</v>
+    <row r="28" spans="2:24">
+      <c r="B28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E28" cm="1">
         <f t="array" ref="E28">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -3153,67 +4382,102 @@
         <v>8009</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G28" s="6" t="str">
+        <v>43</v>
+      </c>
+      <c r="G28" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>비행가능</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
+        <v>공격력변경</v>
+      </c>
+      <c r="H28" t="s">
+        <v>87</v>
       </c>
       <c r="I28" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="J28" t="s">
-        <v>30</v>
-      </c>
-      <c r="K28" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="6" cm="1">
-        <f t="array" ref="O28">_xlfn.IFS(
-ISTEXT(O27),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D27,ItemEffectTable[[#This Row],['#이름값]]=C27),O27+1,
+        <v>88</v>
+      </c>
+      <c r="K28" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterAtkTable</v>
+      </c>
+      <c r="L28" s="8" cm="1">
+        <f t="array" ref="L28">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>1</v>
+      </c>
+      <c r="M28" s="9" cm="1">
+        <f t="array" ref="M28">([1]!CharacterTable[MaxHP]-50)/500</f>
+        <v>0.2</v>
+      </c>
+      <c r="N28" s="8" cm="1">
+        <f t="array" ref="N28">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>1.2</v>
+      </c>
+      <c r="O28" s="8" cm="1">
+        <f t="array" ref="O28">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="P28" s="8" cm="1">
+        <f t="array" ref="P28">SUM(IF($E$3:$E$58=E28,$O$3:$O$58))</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="Q28" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>16.666666666666671</v>
+      </c>
+      <c r="R28" s="7"/>
+      <c r="S28" s="8" cm="1">
+        <f t="array" ref="S28">_xlfn.IFS(
+ISTEXT(S27),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D27,ItemEffectTable[[#This Row],['#이름값]]=C27),S27+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D27,0,
-ItemEffectTable[[#This Row],['#Grade]]=D27,O27
+ItemEffectTable[[#This Row],['#Grade]]=D27,S27
 )</f>
         <v>2</v>
       </c>
-      <c r="P28" s="6" t="str">
+      <c r="T28" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>TRUE</v>
-      </c>
-      <c r="Q28" s="6">
+        <v>FALSE</v>
+      </c>
+      <c r="U28" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>13009</v>
       </c>
-      <c r="R28" s="6">
+      <c r="V28" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>23009</v>
       </c>
-      <c r="S28" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W28" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>이카루스의 날개</v>
       </c>
-      <c r="T28" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X28" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>RowCollider을 무시하고 이동함.</v>
       </c>
     </row>
-    <row r="29" spans="2:20">
-      <c r="B29" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>61</v>
+    <row r="29" spans="2:24">
+      <c r="B29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E29" cm="1">
         <f t="array" ref="E29">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -3225,69 +4489,101 @@
         <v>8010</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="6" t="str">
+        <v>90</v>
+      </c>
+      <c r="G29" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>공격력변경</v>
+        <v>RowColider과 플레이어가 충돌하지 않음.</v>
       </c>
       <c r="H29">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="J29" t="s">
-        <v>30</v>
-      </c>
-      <c r="K29" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>1.2</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="O29" s="6" cm="1">
-        <f t="array" ref="O29">_xlfn.IFS(
-ISTEXT(O28),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D28,ItemEffectTable[[#This Row],['#이름값]]=C28),O28+1,
+        <v>33</v>
+      </c>
+      <c r="K29" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>-</v>
+      </c>
+      <c r="L29" s="8" t="str" cm="1">
+        <f t="array" ref="L29">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>예외처리</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N29" s="8" t="str" cm="1">
+        <f t="array" ref="N29">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>예외처리</v>
+      </c>
+      <c r="O29" s="8" cm="1">
+        <f t="array" ref="O29">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>50</v>
+      </c>
+      <c r="P29" s="8" cm="1">
+        <f t="array" ref="P29">SUM(IF($E$3:$E$58=E29,$O$3:$O$58))</f>
+        <v>50</v>
+      </c>
+      <c r="Q29" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="7"/>
+      <c r="S29" s="8" cm="1">
+        <f t="array" ref="S29">_xlfn.IFS(
+ISTEXT(S28),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D28,ItemEffectTable[[#This Row],['#이름값]]=C28),S28+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D28,0,
-ItemEffectTable[[#This Row],['#Grade]]=D28,O28
+ItemEffectTable[[#This Row],['#Grade]]=D28,S28
 )</f>
         <v>2</v>
       </c>
-      <c r="P29" s="6" t="str">
+      <c r="T29" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>TRUE</v>
-      </c>
-      <c r="Q29" s="6">
+        <v>FALSE</v>
+      </c>
+      <c r="U29" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>13010</v>
       </c>
-      <c r="R29" s="6">
+      <c r="V29" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>23010</v>
       </c>
-      <c r="S29" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W29" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>신성한 수류탄</v>
       </c>
-      <c r="T29" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X29" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>피해량이 20% 증가합니다.</v>
       </c>
     </row>
-    <row r="30" spans="2:20">
-      <c r="B30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>61</v>
+    <row r="30" spans="2:24">
+      <c r="B30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E30" cm="1">
         <f t="array" ref="E30">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -3299,69 +4595,103 @@
         <v>8011</v>
       </c>
       <c r="F30" t="s">
-        <v>89</v>
-      </c>
-      <c r="G30" s="6" t="str">
+        <v>43</v>
+      </c>
+      <c r="G30" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>미행동중시간정지</v>
+        <v>공격력변경</v>
       </c>
       <c r="H30">
+        <v>1.3</v>
+      </c>
+      <c r="I30" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterAtkTable</v>
+      </c>
+      <c r="L30" s="8" cm="1">
+        <f t="array" ref="L30">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>1</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N30" s="8" cm="1">
+        <f t="array" ref="N30">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>1.3</v>
+      </c>
+      <c r="O30" s="8" cm="1">
+        <f t="array" ref="O30">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>50.000000000000014</v>
+      </c>
+      <c r="P30" s="8" cm="1">
+        <f t="array" ref="P30">SUM(IF($E$3:$E$58=E30,$O$3:$O$58))</f>
+        <v>50.000000000000014</v>
+      </c>
+      <c r="Q30" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>0</v>
       </c>
-      <c r="I30" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" t="s">
-        <v>90</v>
-      </c>
-      <c r="K30" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>0</v>
-      </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="O30" s="6" cm="1">
-        <f t="array" ref="O30">_xlfn.IFS(
-ISTEXT(O29),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D29,ItemEffectTable[[#This Row],['#이름값]]=C29),O29+1,
+      <c r="R30" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="S30" s="8" cm="1">
+        <f t="array" ref="S30">_xlfn.IFS(
+ISTEXT(S29),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D29,ItemEffectTable[[#This Row],['#이름값]]=C29),S29+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D29,0,
-ItemEffectTable[[#This Row],['#Grade]]=D29,O29
+ItemEffectTable[[#This Row],['#Grade]]=D29,S29
 )</f>
         <v>2</v>
       </c>
-      <c r="P30" s="6" t="str">
+      <c r="T30" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>TRUE</v>
-      </c>
-      <c r="Q30" s="6">
+        <v>FALSE</v>
+      </c>
+      <c r="U30" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>13011</v>
       </c>
-      <c r="R30" s="6">
+      <c r="V30" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>23011</v>
       </c>
-      <c r="S30" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W30" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>슈퍼콜드</v>
       </c>
-      <c r="T30" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X30" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>이동하지 않을 때 시간이 멈춤</v>
       </c>
     </row>
-    <row r="31" spans="2:20">
-      <c r="B31" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>61</v>
+    <row r="31" spans="2:24">
+      <c r="B31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E31" cm="1">
         <f t="array" ref="E31">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -3373,67 +4703,103 @@
         <v>8012</v>
       </c>
       <c r="F31" t="s">
-        <v>93</v>
-      </c>
-      <c r="G31" s="6" t="str">
+        <v>94</v>
+      </c>
+      <c r="G31" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>투사체가유도탄이됨</v>
+        <v>행동하지 않을 때 시간이 멈춤.</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J31" t="s">
-        <v>94</v>
-      </c>
-      <c r="K31" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
+        <v>95</v>
+      </c>
+      <c r="K31" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>-</v>
+      </c>
+      <c r="L31" s="8" t="str" cm="1">
+        <f t="array" ref="L31">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>예외처리</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N31" s="8" t="str" cm="1">
+        <f t="array" ref="N31">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>예외처리</v>
+      </c>
+      <c r="O31" s="8" cm="1">
+        <f t="array" ref="O31">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>50</v>
+      </c>
+      <c r="P31" s="8" cm="1">
+        <f t="array" ref="P31">SUM(IF($E$3:$E$58=E31,$O$3:$O$58))</f>
+        <v>50</v>
+      </c>
+      <c r="Q31" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>0</v>
       </c>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="6" cm="1">
-        <f t="array" ref="O31">_xlfn.IFS(
-ISTEXT(O30),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D30,ItemEffectTable[[#This Row],['#이름값]]=C30),O30+1,
+      <c r="R31" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="S31" s="8" cm="1">
+        <f t="array" ref="S31">_xlfn.IFS(
+ISTEXT(S30),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D30,ItemEffectTable[[#This Row],['#이름값]]=C30),S30+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D30,0,
-ItemEffectTable[[#This Row],['#Grade]]=D30,O30
+ItemEffectTable[[#This Row],['#Grade]]=D30,S30
 )</f>
         <v>2</v>
       </c>
-      <c r="P31" s="6" t="str">
+      <c r="T31" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>TRUE</v>
-      </c>
-      <c r="Q31" s="6">
+        <v>FALSE</v>
+      </c>
+      <c r="U31" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>13012</v>
       </c>
-      <c r="R31" s="6">
+      <c r="V31" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>23012</v>
       </c>
-      <c r="S31" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W31" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>게이볼그</v>
       </c>
-      <c r="T31" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X31" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>공을 칠 때 자동으로 가장 가까운 적을 향해 날라감</v>
       </c>
     </row>
-    <row r="32" spans="2:20">
-      <c r="B32" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>96</v>
+    <row r="32" spans="2:24">
+      <c r="B32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E32" cm="1">
         <f t="array" ref="E32">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -3442,70 +4808,104 @@
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($D$3:D32,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>9000</v>
+        <v>8013</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" s="6" t="str">
+        <v>98</v>
+      </c>
+      <c r="G32" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>이동속도변경</v>
+        <v>가장 가까운 적을 추격</v>
       </c>
       <c r="H32">
-        <v>-0.7</v>
+        <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="J32" t="s">
-        <v>30</v>
-      </c>
-      <c r="K32" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>-0.7</v>
-      </c>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="6" cm="1">
-        <f t="array" ref="O32">_xlfn.IFS(
-ISTEXT(O31),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D31,ItemEffectTable[[#This Row],['#이름값]]=C31),O31+1,
+        <v>99</v>
+      </c>
+      <c r="K32" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>-</v>
+      </c>
+      <c r="L32" s="8" t="str" cm="1">
+        <f t="array" ref="L32">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>예외처리</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N32" s="8" t="str" cm="1">
+        <f t="array" ref="N32">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>예외처리</v>
+      </c>
+      <c r="O32" s="8" cm="1">
+        <f t="array" ref="O32">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>50</v>
+      </c>
+      <c r="P32" s="8" cm="1">
+        <f t="array" ref="P32">SUM(IF($E$3:$E$58=E32,$O$3:$O$58))</f>
+        <v>50</v>
+      </c>
+      <c r="Q32" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>0</v>
+      </c>
+      <c r="R32" s="7"/>
+      <c r="S32" s="8" cm="1">
+        <f t="array" ref="S32">_xlfn.IFS(
+ISTEXT(S31),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D31,ItemEffectTable[[#This Row],['#이름값]]=C31),S31+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D31,0,
-ItemEffectTable[[#This Row],['#Grade]]=D31,O31
-)</f>
-        <v>0</v>
-      </c>
-      <c r="P32" s="6" t="str">
+ItemEffectTable[[#This Row],['#Grade]]=D31,S31
+)</f>
+        <v>2</v>
+      </c>
+      <c r="T32" s="8" t="e">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
-        <v>TRUE</v>
-      </c>
-      <c r="Q32" s="6">
+        <v>#N/A</v>
+      </c>
+      <c r="U32" s="8" t="e">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>14000</v>
-      </c>
-      <c r="R32" s="6">
+        <v>#N/A</v>
+      </c>
+      <c r="V32" s="8" t="e">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>24000</v>
-      </c>
-      <c r="S32" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>불길한 깃발</v>
-      </c>
-      <c r="T32" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>이동속도가 30% 감소합니다. 차징 속도가 40% 빨라집니다.</v>
+        <v>#N/A</v>
+      </c>
+      <c r="W32" s="8" t="e">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X32" s="8" t="e">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="2:20">
-      <c r="B33" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>96</v>
+    <row r="33" spans="2:24">
+      <c r="B33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E33" cm="1">
         <f t="array" ref="E33">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -3517,67 +4917,101 @@
         <v>9000</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G33" s="6" t="str">
+        <v>47</v>
+      </c>
+      <c r="G33" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>차징속도변경-1단계</v>
+        <v>이동속도변경</v>
       </c>
       <c r="H33">
-        <v>-0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K33" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>-0.6</v>
-      </c>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="6" cm="1">
-        <f t="array" ref="O33">_xlfn.IFS(
-ISTEXT(O32),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D32,ItemEffectTable[[#This Row],['#이름값]]=C32),O32+1,
+        <v>33</v>
+      </c>
+      <c r="K33" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterTable</v>
+      </c>
+      <c r="L33" s="8" cm="1">
+        <f t="array" ref="L33">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>5.75</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N33" s="8" cm="1">
+        <f t="array" ref="N33">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="O33" s="8" cm="1">
+        <f t="array" ref="O33">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>-19.166666666666661</v>
+      </c>
+      <c r="P33" s="8" cm="1">
+        <f t="array" ref="P33">SUM(IF($E$3:$E$58=E33,$O$3:$O$58))</f>
+        <v>47.500000000000028</v>
+      </c>
+      <c r="Q33" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>2.4999999999999716</v>
+      </c>
+      <c r="R33" s="7"/>
+      <c r="S33" s="8" cm="1">
+        <f t="array" ref="S33">_xlfn.IFS(
+ISTEXT(S32),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D32,ItemEffectTable[[#This Row],['#이름값]]=C32),S32+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D32,0,
-ItemEffectTable[[#This Row],['#Grade]]=D32,O32
-)</f>
-        <v>1</v>
-      </c>
-      <c r="P33" s="6" t="str">
+ItemEffectTable[[#This Row],['#Grade]]=D32,S32
+)</f>
+        <v>0</v>
+      </c>
+      <c r="T33" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q33" s="6">
+      <c r="U33" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14000</v>
       </c>
-      <c r="R33" s="6">
+      <c r="V33" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24000</v>
       </c>
-      <c r="S33" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W33" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>불길한 깃발</v>
       </c>
-      <c r="T33" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X33" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>이동속도가 30% 감소합니다. 차징 속도가 40% 빨라집니다.</v>
       </c>
     </row>
-    <row r="34" spans="2:20">
-      <c r="B34" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>96</v>
+    <row r="34" spans="2:24">
+      <c r="B34" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E34" cm="1">
         <f t="array" ref="E34">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -3589,67 +5023,101 @@
         <v>9000</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34" s="6" t="str">
+        <v>56</v>
+      </c>
+      <c r="G34" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>차징속도변경-2단계</v>
+        <v>차징속도변경-1단계</v>
       </c>
       <c r="H34">
-        <v>-0.6</v>
+        <v>0.6</v>
       </c>
       <c r="I34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J34" t="s">
-        <v>30</v>
-      </c>
-      <c r="K34" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>-0.6</v>
-      </c>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="6" cm="1">
-        <f t="array" ref="O34">_xlfn.IFS(
-ISTEXT(O33),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D33,ItemEffectTable[[#This Row],['#이름값]]=C33),O33+1,
+        <v>33</v>
+      </c>
+      <c r="K34" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterAtkTable</v>
+      </c>
+      <c r="L34" s="8" cm="1">
+        <f t="array" ref="L34">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N34" s="8" cm="1">
+        <f t="array" ref="N34">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>0.3</v>
+      </c>
+      <c r="O34" s="8" cm="1">
+        <f t="array" ref="O34">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>11.111111111111114</v>
+      </c>
+      <c r="P34" s="8" cm="1">
+        <f t="array" ref="P34">SUM(IF($E$3:$E$58=E34,$O$3:$O$58))</f>
+        <v>47.500000000000028</v>
+      </c>
+      <c r="Q34" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>2.4999999999999716</v>
+      </c>
+      <c r="R34" s="7"/>
+      <c r="S34" s="8" cm="1">
+        <f t="array" ref="S34">_xlfn.IFS(
+ISTEXT(S33),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D33,ItemEffectTable[[#This Row],['#이름값]]=C33),S33+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D33,0,
-ItemEffectTable[[#This Row],['#Grade]]=D33,O33
-)</f>
-        <v>2</v>
-      </c>
-      <c r="P34" s="6" t="str">
+ItemEffectTable[[#This Row],['#Grade]]=D33,S33
+)</f>
+        <v>1</v>
+      </c>
+      <c r="T34" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q34" s="6">
+      <c r="U34" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14000</v>
       </c>
-      <c r="R34" s="6">
+      <c r="V34" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24000</v>
       </c>
-      <c r="S34" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W34" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>불길한 깃발</v>
       </c>
-      <c r="T34" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X34" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>이동속도가 30% 감소합니다. 차징 속도가 40% 빨라집니다.</v>
       </c>
     </row>
-    <row r="35" spans="2:20">
-      <c r="B35" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>96</v>
+    <row r="35" spans="2:24">
+      <c r="B35" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E35" cm="1">
         <f t="array" ref="E35">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -3661,67 +5129,101 @@
         <v>9000</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
-      </c>
-      <c r="G35" s="6" t="str">
+        <v>57</v>
+      </c>
+      <c r="G35" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>차징속도변경-3단계</v>
+        <v>차징속도변경-2단계</v>
       </c>
       <c r="H35">
-        <v>-0.6</v>
+        <v>0.6</v>
       </c>
       <c r="I35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J35" t="s">
-        <v>30</v>
-      </c>
-      <c r="K35" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>-0.6</v>
-      </c>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="6" cm="1">
-        <f t="array" ref="O35">_xlfn.IFS(
-ISTEXT(O34),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D34,ItemEffectTable[[#This Row],['#이름값]]=C34),O34+1,
+        <v>33</v>
+      </c>
+      <c r="K35" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterAtkTable</v>
+      </c>
+      <c r="L35" s="8" cm="1">
+        <f t="array" ref="L35">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>1</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N35" s="8" cm="1">
+        <f t="array" ref="N35">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>0.6</v>
+      </c>
+      <c r="O35" s="8" cm="1">
+        <f t="array" ref="O35">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>22.222222222222229</v>
+      </c>
+      <c r="P35" s="8" cm="1">
+        <f t="array" ref="P35">SUM(IF($E$3:$E$58=E35,$O$3:$O$58))</f>
+        <v>47.500000000000028</v>
+      </c>
+      <c r="Q35" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>2.4999999999999716</v>
+      </c>
+      <c r="R35" s="7"/>
+      <c r="S35" s="8" cm="1">
+        <f t="array" ref="S35">_xlfn.IFS(
+ISTEXT(S34),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D34,ItemEffectTable[[#This Row],['#이름값]]=C34),S34+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D34,0,
-ItemEffectTable[[#This Row],['#Grade]]=D34,O34
-)</f>
-        <v>3</v>
-      </c>
-      <c r="P35" s="6" t="str">
+ItemEffectTable[[#This Row],['#Grade]]=D34,S34
+)</f>
+        <v>2</v>
+      </c>
+      <c r="T35" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q35" s="6">
+      <c r="U35" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14000</v>
       </c>
-      <c r="R35" s="6">
+      <c r="V35" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24000</v>
       </c>
-      <c r="S35" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W35" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>불길한 깃발</v>
       </c>
-      <c r="T35" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X35" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>이동속도가 30% 감소합니다. 차징 속도가 40% 빨라집니다.</v>
       </c>
     </row>
-    <row r="36" spans="2:20">
-      <c r="B36" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>96</v>
+    <row r="36" spans="2:24">
+      <c r="B36" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E36" cm="1">
         <f t="array" ref="E36">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -3730,70 +5232,104 @@
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($D$3:D36,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>9001</v>
+        <v>9000</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" s="6" t="str">
+        <v>58</v>
+      </c>
+      <c r="G36" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>이동속도변경</v>
+        <v>차징속도변경-3단계</v>
       </c>
       <c r="H36">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="I36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J36" t="s">
-        <v>30</v>
-      </c>
-      <c r="K36" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>1.4</v>
-      </c>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="6" cm="1">
-        <f t="array" ref="O36">_xlfn.IFS(
-ISTEXT(O35),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D35,ItemEffectTable[[#This Row],['#이름값]]=C35),O35+1,
+        <v>33</v>
+      </c>
+      <c r="K36" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterAtkTable</v>
+      </c>
+      <c r="L36" s="8" cm="1">
+        <f t="array" ref="L36">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>1.5</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N36" s="8" cm="1">
+        <f t="array" ref="N36">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="O36" s="8" cm="1">
+        <f t="array" ref="O36">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>33.333333333333343</v>
+      </c>
+      <c r="P36" s="8" cm="1">
+        <f t="array" ref="P36">SUM(IF($E$3:$E$58=E36,$O$3:$O$58))</f>
+        <v>47.500000000000028</v>
+      </c>
+      <c r="Q36" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>2.4999999999999716</v>
+      </c>
+      <c r="R36" s="7"/>
+      <c r="S36" s="8" cm="1">
+        <f t="array" ref="S36">_xlfn.IFS(
+ISTEXT(S35),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D35,ItemEffectTable[[#This Row],['#이름값]]=C35),S35+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D35,0,
-ItemEffectTable[[#This Row],['#Grade]]=D35,O35
+ItemEffectTable[[#This Row],['#Grade]]=D35,S35
 )</f>
         <v>3</v>
       </c>
-      <c r="P36" s="6" t="str">
+      <c r="T36" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q36" s="6">
+      <c r="U36" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>14001</v>
-      </c>
-      <c r="R36" s="6">
+        <v>14000</v>
+      </c>
+      <c r="V36" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>24001</v>
-      </c>
-      <c r="S36" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>빗바랜 천가죽</v>
-      </c>
-      <c r="T36" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>이동속도가 20% 감소합니다. 피해량이 20% 감소합니다.</v>
+        <v>24000</v>
+      </c>
+      <c r="W36" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
+        <v>불길한 깃발</v>
+      </c>
+      <c r="X36" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
+        <v>이동속도가 30% 감소합니다. 차징 속도가 40% 빨라집니다.</v>
       </c>
     </row>
-    <row r="37" spans="2:20">
-      <c r="B37" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>96</v>
+    <row r="37" spans="2:24">
+      <c r="B37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E37" cm="1">
         <f t="array" ref="E37">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -3805,67 +5341,101 @@
         <v>9001</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
-      </c>
-      <c r="G37" s="6" t="str">
+        <v>47</v>
+      </c>
+      <c r="G37" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>공격력변경</v>
+        <v>이동속도변경</v>
       </c>
       <c r="H37">
-        <v>-0.2</v>
+        <v>1.9</v>
       </c>
       <c r="I37" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J37" t="s">
-        <v>30</v>
-      </c>
-      <c r="K37" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>-0.2</v>
-      </c>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="6" cm="1">
-        <f t="array" ref="O37">_xlfn.IFS(
-ISTEXT(O36),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D36,ItemEffectTable[[#This Row],['#이름값]]=C36),O36+1,
+        <v>33</v>
+      </c>
+      <c r="K37" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterTable</v>
+      </c>
+      <c r="L37" s="8" cm="1">
+        <f t="array" ref="L37">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>5.75</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N37" s="8" cm="1">
+        <f t="array" ref="N37">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>10.924999999999999</v>
+      </c>
+      <c r="O37" s="8" cm="1">
+        <f t="array" ref="O37">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>86.249999999999986</v>
+      </c>
+      <c r="P37" s="8" cm="1">
+        <f t="array" ref="P37">SUM(IF($E$3:$E$58=E37,$O$3:$O$58))</f>
+        <v>52.916666666666657</v>
+      </c>
+      <c r="Q37" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>-2.9166666666666572</v>
+      </c>
+      <c r="R37" s="7"/>
+      <c r="S37" s="8" cm="1">
+        <f t="array" ref="S37">_xlfn.IFS(
+ISTEXT(S36),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D36,ItemEffectTable[[#This Row],['#이름값]]=C36),S36+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D36,0,
-ItemEffectTable[[#This Row],['#Grade]]=D36,O36
-)</f>
-        <v>4</v>
-      </c>
-      <c r="P37" s="6" t="str">
+ItemEffectTable[[#This Row],['#Grade]]=D36,S36
+)</f>
+        <v>3</v>
+      </c>
+      <c r="T37" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q37" s="6">
+      <c r="U37" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14001</v>
       </c>
-      <c r="R37" s="6">
+      <c r="V37" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24001</v>
       </c>
-      <c r="S37" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W37" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>빗바랜 천가죽</v>
       </c>
-      <c r="T37" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X37" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>이동속도가 20% 감소합니다. 피해량이 20% 감소합니다.</v>
       </c>
     </row>
-    <row r="38" spans="2:20">
-      <c r="B38" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>96</v>
+    <row r="38" spans="2:24">
+      <c r="B38" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E38" cm="1">
         <f t="array" ref="E38">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -3874,70 +5444,104 @@
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($D$3:D38,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="F38" t="s">
-        <v>52</v>
-      </c>
-      <c r="G38" s="6" t="str">
+        <v>43</v>
+      </c>
+      <c r="G38" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>차징속도변경-1단계</v>
+        <v>공격력변경</v>
       </c>
       <c r="H38">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J38" t="s">
-        <v>30</v>
-      </c>
-      <c r="K38" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>0.6</v>
-      </c>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="6" cm="1">
-        <f t="array" ref="O38">_xlfn.IFS(
-ISTEXT(O37),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D37,ItemEffectTable[[#This Row],['#이름값]]=C37),O37+1,
+        <v>33</v>
+      </c>
+      <c r="K38" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterAtkTable</v>
+      </c>
+      <c r="L38" s="8" cm="1">
+        <f t="array" ref="L38">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>1</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N38" s="8" cm="1">
+        <f t="array" ref="N38">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>0.8</v>
+      </c>
+      <c r="O38" s="8" cm="1">
+        <f t="array" ref="O38">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>-33.333333333333329</v>
+      </c>
+      <c r="P38" s="8" cm="1">
+        <f t="array" ref="P38">SUM(IF($E$3:$E$58=E38,$O$3:$O$58))</f>
+        <v>52.916666666666657</v>
+      </c>
+      <c r="Q38" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>-2.9166666666666572</v>
+      </c>
+      <c r="R38" s="7"/>
+      <c r="S38" s="8" cm="1">
+        <f t="array" ref="S38">_xlfn.IFS(
+ISTEXT(S37),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D37,ItemEffectTable[[#This Row],['#이름값]]=C37),S37+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D37,0,
-ItemEffectTable[[#This Row],['#Grade]]=D37,O37
+ItemEffectTable[[#This Row],['#Grade]]=D37,S37
 )</f>
         <v>4</v>
       </c>
-      <c r="P38" s="6" t="str">
+      <c r="T38" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q38" s="6">
+      <c r="U38" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>14002</v>
-      </c>
-      <c r="R38" s="6">
+        <v>14001</v>
+      </c>
+      <c r="V38" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>24002</v>
-      </c>
-      <c r="S38" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>나자렛의 몽키스패너</v>
-      </c>
-      <c r="T38" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>차징 속도가 40% 느려집니다. 대신 공을 튕겨내는 속도가 30% 상승합니다.</v>
+        <v>24001</v>
+      </c>
+      <c r="W38" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
+        <v>빗바랜 천가죽</v>
+      </c>
+      <c r="X38" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
+        <v>이동속도가 20% 감소합니다. 피해량이 20% 감소합니다.</v>
       </c>
     </row>
-    <row r="39" spans="2:20">
-      <c r="B39" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>96</v>
+    <row r="39" spans="2:24">
+      <c r="B39" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E39" cm="1">
         <f t="array" ref="E39">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -3949,67 +5553,101 @@
         <v>9002</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
-      </c>
-      <c r="G39" s="6" t="str">
+        <v>56</v>
+      </c>
+      <c r="G39" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>차징속도변경-2단계</v>
+        <v>차징속도변경-1단계</v>
       </c>
       <c r="H39">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="I39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K39" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>0.6</v>
-      </c>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="6" cm="1">
-        <f t="array" ref="O39">_xlfn.IFS(
-ISTEXT(O38),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D38,ItemEffectTable[[#This Row],['#이름값]]=C38),O38+1,
+        <v>33</v>
+      </c>
+      <c r="K39" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterAtkTable</v>
+      </c>
+      <c r="L39" s="8" cm="1">
+        <f t="array" ref="L39">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N39" s="8" cm="1">
+        <f t="array" ref="N39">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>0.7</v>
+      </c>
+      <c r="O39" s="8" cm="1">
+        <f t="array" ref="O39">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>-11.111111111111111</v>
+      </c>
+      <c r="P39" s="8" cm="1">
+        <f t="array" ref="P39">SUM(IF($E$3:$E$58=E39,$O$3:$O$58))</f>
+        <v>53.333333333333343</v>
+      </c>
+      <c r="Q39" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>-3.3333333333333428</v>
+      </c>
+      <c r="R39" s="7"/>
+      <c r="S39" s="8" cm="1">
+        <f t="array" ref="S39">_xlfn.IFS(
+ISTEXT(S38),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D38,ItemEffectTable[[#This Row],['#이름값]]=C38),S38+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D38,0,
-ItemEffectTable[[#This Row],['#Grade]]=D38,O38
-)</f>
-        <v>5</v>
-      </c>
-      <c r="P39" s="6" t="str">
+ItemEffectTable[[#This Row],['#Grade]]=D38,S38
+)</f>
+        <v>4</v>
+      </c>
+      <c r="T39" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q39" s="6">
+      <c r="U39" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14002</v>
       </c>
-      <c r="R39" s="6">
+      <c r="V39" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24002</v>
       </c>
-      <c r="S39" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W39" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>나자렛의 몽키스패너</v>
       </c>
-      <c r="T39" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X39" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>차징 속도가 40% 느려집니다. 대신 공을 튕겨내는 속도가 30% 상승합니다.</v>
       </c>
     </row>
-    <row r="40" spans="2:20">
-      <c r="B40" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>96</v>
+    <row r="40" spans="2:24">
+      <c r="B40" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E40" cm="1">
         <f t="array" ref="E40">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -4021,67 +5659,101 @@
         <v>9002</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
-      </c>
-      <c r="G40" s="6" t="str">
+        <v>57</v>
+      </c>
+      <c r="G40" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>차징속도변경-3단계</v>
+        <v>차징속도변경-2단계</v>
       </c>
       <c r="H40">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="I40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J40" t="s">
-        <v>30</v>
-      </c>
-      <c r="K40" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>0.6</v>
-      </c>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="6" cm="1">
-        <f t="array" ref="O40">_xlfn.IFS(
-ISTEXT(O39),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D39,ItemEffectTable[[#This Row],['#이름값]]=C39),O39+1,
+        <v>33</v>
+      </c>
+      <c r="K40" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterAtkTable</v>
+      </c>
+      <c r="L40" s="8" cm="1">
+        <f t="array" ref="L40">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>1</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N40" s="8" cm="1">
+        <f t="array" ref="N40">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>1.4</v>
+      </c>
+      <c r="O40" s="8" cm="1">
+        <f t="array" ref="O40">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>-22.222222222222221</v>
+      </c>
+      <c r="P40" s="8" cm="1">
+        <f t="array" ref="P40">SUM(IF($E$3:$E$58=E40,$O$3:$O$58))</f>
+        <v>53.333333333333343</v>
+      </c>
+      <c r="Q40" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>-3.3333333333333428</v>
+      </c>
+      <c r="R40" s="7"/>
+      <c r="S40" s="8" cm="1">
+        <f t="array" ref="S40">_xlfn.IFS(
+ISTEXT(S39),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D39,ItemEffectTable[[#This Row],['#이름값]]=C39),S39+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D39,0,
-ItemEffectTable[[#This Row],['#Grade]]=D39,O39
-)</f>
-        <v>6</v>
-      </c>
-      <c r="P40" s="6" t="str">
+ItemEffectTable[[#This Row],['#Grade]]=D39,S39
+)</f>
+        <v>5</v>
+      </c>
+      <c r="T40" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q40" s="6">
+      <c r="U40" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14002</v>
       </c>
-      <c r="R40" s="6">
+      <c r="V40" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24002</v>
       </c>
-      <c r="S40" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W40" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>나자렛의 몽키스패너</v>
       </c>
-      <c r="T40" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X40" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>차징 속도가 40% 느려집니다. 대신 공을 튕겨내는 속도가 30% 상승합니다.</v>
       </c>
     </row>
-    <row r="41" spans="2:20">
-      <c r="B41" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>96</v>
+    <row r="41" spans="2:24">
+      <c r="B41" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E41" cm="1">
         <f t="array" ref="E41">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -4092,68 +5764,102 @@
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
         <v>9002</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G41" s="6" t="str">
+      <c r="F41" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>튕겨내기탄환속도변경-미차징</v>
+        <v>차징속도변경-3단계</v>
       </c>
       <c r="H41">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="I41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K41" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>1.3</v>
-      </c>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="6" cm="1">
-        <f t="array" ref="O41">_xlfn.IFS(
-ISTEXT(O40),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D40,ItemEffectTable[[#This Row],['#이름값]]=C40),O40+1,
+        <v>33</v>
+      </c>
+      <c r="K41" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterAtkTable</v>
+      </c>
+      <c r="L41" s="8" cm="1">
+        <f t="array" ref="L41">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>1.5</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N41" s="8" cm="1">
+        <f t="array" ref="N41">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="O41" s="8" cm="1">
+        <f t="array" ref="O41">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>-33.333333333333321</v>
+      </c>
+      <c r="P41" s="8" cm="1">
+        <f t="array" ref="P41">SUM(IF($E$3:$E$58=E41,$O$3:$O$58))</f>
+        <v>53.333333333333343</v>
+      </c>
+      <c r="Q41" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>-3.3333333333333428</v>
+      </c>
+      <c r="R41" s="7"/>
+      <c r="S41" s="8" cm="1">
+        <f t="array" ref="S41">_xlfn.IFS(
+ISTEXT(S40),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D40,ItemEffectTable[[#This Row],['#이름값]]=C40),S40+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D40,0,
-ItemEffectTable[[#This Row],['#Grade]]=D40,O40
-)</f>
-        <v>7</v>
-      </c>
-      <c r="P41" s="6" t="str">
+ItemEffectTable[[#This Row],['#Grade]]=D40,S40
+)</f>
+        <v>6</v>
+      </c>
+      <c r="T41" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q41" s="6">
+      <c r="U41" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14002</v>
       </c>
-      <c r="R41" s="6">
+      <c r="V41" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24002</v>
       </c>
-      <c r="S41" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W41" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>나자렛의 몽키스패너</v>
       </c>
-      <c r="T41" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X41" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>차징 속도가 40% 느려집니다. 대신 공을 튕겨내는 속도가 30% 상승합니다.</v>
       </c>
     </row>
-    <row r="42" spans="2:20">
-      <c r="B42" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>96</v>
+    <row r="42" spans="2:24">
+      <c r="B42" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E42" cm="1">
         <f t="array" ref="E42">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -4164,68 +5870,102 @@
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
         <v>9002</v>
       </c>
-      <c r="F42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G42" s="6" t="str">
+      <c r="F42" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>튕겨내기탄환속도변경-1단계</v>
+        <v>튕겨내기탄환속도변경-미차징</v>
       </c>
       <c r="H42">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J42" t="s">
+        <v>33</v>
+      </c>
+      <c r="K42" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterAtkTable</v>
+      </c>
+      <c r="L42" s="8" cm="1">
+        <f t="array" ref="L42">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
         <v>30</v>
       </c>
-      <c r="K42" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>1.3</v>
-      </c>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="6" cm="1">
-        <f t="array" ref="O42">_xlfn.IFS(
-ISTEXT(O41),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D41,ItemEffectTable[[#This Row],['#이름값]]=C41),O41+1,
+      <c r="M42" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N42" s="8" cm="1">
+        <f t="array" ref="N42">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>60</v>
+      </c>
+      <c r="O42" s="8" cm="1">
+        <f t="array" ref="O42">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>15</v>
+      </c>
+      <c r="P42" s="8" cm="1">
+        <f t="array" ref="P42">SUM(IF($E$3:$E$58=E42,$O$3:$O$58))</f>
+        <v>53.333333333333343</v>
+      </c>
+      <c r="Q42" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>-3.3333333333333428</v>
+      </c>
+      <c r="R42" s="7"/>
+      <c r="S42" s="8" cm="1">
+        <f t="array" ref="S42">_xlfn.IFS(
+ISTEXT(S41),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D41,ItemEffectTable[[#This Row],['#이름값]]=C41),S41+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D41,0,
-ItemEffectTable[[#This Row],['#Grade]]=D41,O41
-)</f>
-        <v>8</v>
-      </c>
-      <c r="P42" s="6" t="str">
+ItemEffectTable[[#This Row],['#Grade]]=D41,S41
+)</f>
+        <v>7</v>
+      </c>
+      <c r="T42" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q42" s="6">
+      <c r="U42" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14002</v>
       </c>
-      <c r="R42" s="6">
+      <c r="V42" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24002</v>
       </c>
-      <c r="S42" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W42" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>나자렛의 몽키스패너</v>
       </c>
-      <c r="T42" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X42" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>차징 속도가 40% 느려집니다. 대신 공을 튕겨내는 속도가 30% 상승합니다.</v>
       </c>
     </row>
-    <row r="43" spans="2:20">
-      <c r="B43" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>96</v>
+    <row r="43" spans="2:24">
+      <c r="B43" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E43" cm="1">
         <f t="array" ref="E43">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -4237,67 +5977,101 @@
         <v>9002</v>
       </c>
       <c r="F43" t="s">
-        <v>101</v>
-      </c>
-      <c r="G43" s="6" t="str">
+        <v>105</v>
+      </c>
+      <c r="G43" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>튕겨내기탄환속도변경-2단계</v>
+        <v>튕겨내기탄환속도변경-1단계</v>
       </c>
       <c r="H43">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J43" t="s">
-        <v>30</v>
-      </c>
-      <c r="K43" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>1.3</v>
-      </c>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="6" cm="1">
-        <f t="array" ref="O43">_xlfn.IFS(
-ISTEXT(O42),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D42,ItemEffectTable[[#This Row],['#이름값]]=C42),O42+1,
+        <v>33</v>
+      </c>
+      <c r="K43" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterAtkTable</v>
+      </c>
+      <c r="L43" s="8" cm="1">
+        <f t="array" ref="L43">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>50</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N43" s="8" cm="1">
+        <f t="array" ref="N43">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>100</v>
+      </c>
+      <c r="O43" s="8" cm="1">
+        <f t="array" ref="O43">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>25</v>
+      </c>
+      <c r="P43" s="8" cm="1">
+        <f t="array" ref="P43">SUM(IF($E$3:$E$58=E43,$O$3:$O$58))</f>
+        <v>53.333333333333343</v>
+      </c>
+      <c r="Q43" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>-3.3333333333333428</v>
+      </c>
+      <c r="R43" s="7"/>
+      <c r="S43" s="8" cm="1">
+        <f t="array" ref="S43">_xlfn.IFS(
+ISTEXT(S42),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D42,ItemEffectTable[[#This Row],['#이름값]]=C42),S42+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D42,0,
-ItemEffectTable[[#This Row],['#Grade]]=D42,O42
-)</f>
-        <v>9</v>
-      </c>
-      <c r="P43" s="6" t="str">
+ItemEffectTable[[#This Row],['#Grade]]=D42,S42
+)</f>
+        <v>8</v>
+      </c>
+      <c r="T43" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q43" s="6">
+      <c r="U43" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14002</v>
       </c>
-      <c r="R43" s="6">
+      <c r="V43" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24002</v>
       </c>
-      <c r="S43" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W43" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>나자렛의 몽키스패너</v>
       </c>
-      <c r="T43" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X43" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>차징 속도가 40% 느려집니다. 대신 공을 튕겨내는 속도가 30% 상승합니다.</v>
       </c>
     </row>
-    <row r="44" spans="2:20">
-      <c r="B44" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>96</v>
+    <row r="44" spans="2:24">
+      <c r="B44" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E44" cm="1">
         <f t="array" ref="E44">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -4309,67 +6083,101 @@
         <v>9002</v>
       </c>
       <c r="F44" t="s">
-        <v>102</v>
-      </c>
-      <c r="G44" s="6" t="str">
+        <v>106</v>
+      </c>
+      <c r="G44" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>튕겨내기탄환속도변경-3단계</v>
+        <v>튕겨내기탄환속도변경-2단계</v>
       </c>
       <c r="H44">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J44" t="s">
-        <v>30</v>
-      </c>
-      <c r="K44" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>1.3</v>
-      </c>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="6" cm="1">
-        <f t="array" ref="O44">_xlfn.IFS(
-ISTEXT(O43),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D43,ItemEffectTable[[#This Row],['#이름값]]=C43),O43+1,
+        <v>33</v>
+      </c>
+      <c r="K44" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterAtkTable</v>
+      </c>
+      <c r="L44" s="8" cm="1">
+        <f t="array" ref="L44">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>70</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N44" s="8" cm="1">
+        <f t="array" ref="N44">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>140</v>
+      </c>
+      <c r="O44" s="8" cm="1">
+        <f t="array" ref="O44">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>35</v>
+      </c>
+      <c r="P44" s="8" cm="1">
+        <f t="array" ref="P44">SUM(IF($E$3:$E$58=E44,$O$3:$O$58))</f>
+        <v>53.333333333333343</v>
+      </c>
+      <c r="Q44" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>-3.3333333333333428</v>
+      </c>
+      <c r="R44" s="7"/>
+      <c r="S44" s="8" cm="1">
+        <f t="array" ref="S44">_xlfn.IFS(
+ISTEXT(S43),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D43,ItemEffectTable[[#This Row],['#이름값]]=C43),S43+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D43,0,
-ItemEffectTable[[#This Row],['#Grade]]=D43,O43
-)</f>
-        <v>10</v>
-      </c>
-      <c r="P44" s="6" t="str">
+ItemEffectTable[[#This Row],['#Grade]]=D43,S43
+)</f>
+        <v>9</v>
+      </c>
+      <c r="T44" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q44" s="6">
+      <c r="U44" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14002</v>
       </c>
-      <c r="R44" s="6">
+      <c r="V44" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24002</v>
       </c>
-      <c r="S44" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W44" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>나자렛의 몽키스패너</v>
       </c>
-      <c r="T44" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X44" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>차징 속도가 40% 느려집니다. 대신 공을 튕겨내는 속도가 30% 상승합니다.</v>
       </c>
     </row>
-    <row r="45" spans="2:20">
-      <c r="B45" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="5" t="s">
+    <row r="45" spans="2:24">
+      <c r="B45" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>96</v>
+      <c r="D45" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E45" cm="1">
         <f t="array" ref="E45">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -4378,70 +6186,104 @@
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($D$3:D45,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>9003</v>
+        <v>9002</v>
       </c>
       <c r="F45" t="s">
-        <v>104</v>
-      </c>
-      <c r="G45" s="6" t="str">
+        <v>107</v>
+      </c>
+      <c r="G45" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>최대체력변경</v>
+        <v>튕겨내기탄환속도변경-3단계</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J45" t="s">
-        <v>30</v>
-      </c>
-      <c r="K45" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>3</v>
-      </c>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="6" cm="1">
-        <f t="array" ref="O45">_xlfn.IFS(
-ISTEXT(O44),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D44,ItemEffectTable[[#This Row],['#이름값]]=C44),O44+1,
+        <v>33</v>
+      </c>
+      <c r="K45" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterAtkTable</v>
+      </c>
+      <c r="L45" s="8" cm="1">
+        <f t="array" ref="L45">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>90</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N45" s="8" cm="1">
+        <f t="array" ref="N45">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>180</v>
+      </c>
+      <c r="O45" s="8" cm="1">
+        <f t="array" ref="O45">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>45</v>
+      </c>
+      <c r="P45" s="8" cm="1">
+        <f t="array" ref="P45">SUM(IF($E$3:$E$58=E45,$O$3:$O$58))</f>
+        <v>53.333333333333343</v>
+      </c>
+      <c r="Q45" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>-3.3333333333333428</v>
+      </c>
+      <c r="R45" s="7"/>
+      <c r="S45" s="8" cm="1">
+        <f t="array" ref="S45">_xlfn.IFS(
+ISTEXT(S44),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D44,ItemEffectTable[[#This Row],['#이름값]]=C44),S44+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D44,0,
-ItemEffectTable[[#This Row],['#Grade]]=D44,O44
+ItemEffectTable[[#This Row],['#Grade]]=D44,S44
 )</f>
         <v>10</v>
       </c>
-      <c r="P45" s="6" t="str">
+      <c r="T45" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q45" s="6">
+      <c r="U45" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>14003</v>
-      </c>
-      <c r="R45" s="6">
+        <v>14002</v>
+      </c>
+      <c r="V45" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>24003</v>
-      </c>
-      <c r="S45" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>저주받은 갑옷</v>
-      </c>
-      <c r="T45" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>[하트]가 3개 증가, 이동속도가 40% 느려집니다.</v>
+        <v>24002</v>
+      </c>
+      <c r="W45" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
+        <v>나자렛의 몽키스패너</v>
+      </c>
+      <c r="X45" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
+        <v>차징 속도가 40% 느려집니다. 대신 공을 튕겨내는 속도가 30% 상승합니다.</v>
       </c>
     </row>
-    <row r="46" spans="2:20">
-      <c r="B46" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>96</v>
+    <row r="46" spans="2:24">
+      <c r="B46" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E46" cm="1">
         <f t="array" ref="E46">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -4453,67 +6295,101 @@
         <v>9003</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
-      </c>
-      <c r="G46" s="6" t="str">
+        <v>109</v>
+      </c>
+      <c r="G46" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>이동속도변경</v>
+        <v>최대체력변경</v>
       </c>
       <c r="H46">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="I46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J46" t="s">
-        <v>30</v>
-      </c>
-      <c r="K46" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>0.6</v>
-      </c>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="6" cm="1">
-        <f t="array" ref="O46">_xlfn.IFS(
-ISTEXT(O45),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D45,ItemEffectTable[[#This Row],['#이름값]]=C45),O45+1,
+        <v>33</v>
+      </c>
+      <c r="K46" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterTable</v>
+      </c>
+      <c r="L46" s="8" cm="1">
+        <f t="array" ref="L46">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>150</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N46" s="8" cm="1">
+        <f t="array" ref="N46">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>450</v>
+      </c>
+      <c r="O46" s="8" cm="1">
+        <f t="array" ref="O46">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>100</v>
+      </c>
+      <c r="P46" s="8" cm="1">
+        <f t="array" ref="P46">SUM(IF($E$3:$E$58=E46,$O$3:$O$58))</f>
+        <v>52.083333333333329</v>
+      </c>
+      <c r="Q46" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>-2.0833333333333286</v>
+      </c>
+      <c r="R46" s="7"/>
+      <c r="S46" s="8" cm="1">
+        <f t="array" ref="S46">_xlfn.IFS(
+ISTEXT(S45),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D45,ItemEffectTable[[#This Row],['#이름값]]=C45),S45+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D45,0,
-ItemEffectTable[[#This Row],['#Grade]]=D45,O45
-)</f>
-        <v>11</v>
-      </c>
-      <c r="P46" s="6" t="str">
+ItemEffectTable[[#This Row],['#Grade]]=D45,S45
+)</f>
+        <v>10</v>
+      </c>
+      <c r="T46" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q46" s="6">
+      <c r="U46" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14003</v>
       </c>
-      <c r="R46" s="6">
+      <c r="V46" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24003</v>
       </c>
-      <c r="S46" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W46" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>저주받은 갑옷</v>
       </c>
-      <c r="T46" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X46" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>[하트]가 3개 증가, 이동속도가 40% 느려집니다.</v>
       </c>
     </row>
-    <row r="47" spans="2:20">
-      <c r="B47" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>96</v>
+    <row r="47" spans="2:24">
+      <c r="B47" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E47" cm="1">
         <f t="array" ref="E47">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -4522,70 +6398,104 @@
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($D$3:D47,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>9004</v>
+        <v>9003</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
-      </c>
-      <c r="G47" s="6" t="str">
+        <v>47</v>
+      </c>
+      <c r="G47" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>공격력변경</v>
+        <v>이동속도변경</v>
       </c>
       <c r="H47">
-        <v>1.35</v>
+        <v>0.5</v>
       </c>
       <c r="I47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J47" t="s">
-        <v>30</v>
-      </c>
-      <c r="K47" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>1.35</v>
-      </c>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="6" cm="1">
-        <f t="array" ref="O47">_xlfn.IFS(
-ISTEXT(O46),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D46,ItemEffectTable[[#This Row],['#이름값]]=C46),O46+1,
+        <v>33</v>
+      </c>
+      <c r="K47" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterTable</v>
+      </c>
+      <c r="L47" s="8" cm="1">
+        <f t="array" ref="L47">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>5.75</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N47" s="8" cm="1">
+        <f t="array" ref="N47">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>2.875</v>
+      </c>
+      <c r="O47" s="8" cm="1">
+        <f t="array" ref="O47">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>-47.916666666666671</v>
+      </c>
+      <c r="P47" s="8" cm="1">
+        <f t="array" ref="P47">SUM(IF($E$3:$E$58=E47,$O$3:$O$58))</f>
+        <v>52.083333333333329</v>
+      </c>
+      <c r="Q47" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>-2.0833333333333286</v>
+      </c>
+      <c r="R47" s="7"/>
+      <c r="S47" s="8" cm="1">
+        <f t="array" ref="S47">_xlfn.IFS(
+ISTEXT(S46),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D46,ItemEffectTable[[#This Row],['#이름값]]=C46),S46+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D46,0,
-ItemEffectTable[[#This Row],['#Grade]]=D46,O46
+ItemEffectTable[[#This Row],['#Grade]]=D46,S46
 )</f>
         <v>11</v>
       </c>
-      <c r="P47" s="6" t="str">
+      <c r="T47" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q47" s="6">
+      <c r="U47" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>14004</v>
-      </c>
-      <c r="R47" s="6">
+        <v>14003</v>
+      </c>
+      <c r="V47" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>24004</v>
-      </c>
-      <c r="S47" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>유리 대포</v>
-      </c>
-      <c r="T47" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>[하트]가 3개 감소, 피해량이 35% 증가합니다.</v>
+        <v>24003</v>
+      </c>
+      <c r="W47" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
+        <v>저주받은 갑옷</v>
+      </c>
+      <c r="X47" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
+        <v>[하트]가 3개 증가, 이동속도가 40% 느려집니다.</v>
       </c>
     </row>
-    <row r="48" spans="2:20">
-      <c r="B48" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>96</v>
+    <row r="48" spans="2:24">
+      <c r="B48" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E48" cm="1">
         <f t="array" ref="E48">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -4597,67 +6507,101 @@
         <v>9004</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
-      </c>
-      <c r="G48" s="6" t="str">
+        <v>43</v>
+      </c>
+      <c r="G48" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>최대체력변경</v>
+        <v>공격력변경</v>
       </c>
       <c r="H48">
-        <v>-3</v>
+        <v>1.6</v>
       </c>
       <c r="I48" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J48" t="s">
-        <v>30</v>
-      </c>
-      <c r="K48" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>-3</v>
-      </c>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="6" cm="1">
-        <f t="array" ref="O48">_xlfn.IFS(
-ISTEXT(O47),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D47,ItemEffectTable[[#This Row],['#이름값]]=C47),O47+1,
+        <v>33</v>
+      </c>
+      <c r="K48" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterAtkTable</v>
+      </c>
+      <c r="L48" s="8" cm="1">
+        <f t="array" ref="L48">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>1</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N48" s="8" cm="1">
+        <f t="array" ref="N48">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>1.6</v>
+      </c>
+      <c r="O48" s="8" cm="1">
+        <f t="array" ref="O48">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>100.00000000000003</v>
+      </c>
+      <c r="P48" s="8" cm="1">
+        <f t="array" ref="P48">SUM(IF($E$3:$E$58=E48,$O$3:$O$58))</f>
+        <v>50.000000000000028</v>
+      </c>
+      <c r="Q48" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>0</v>
+      </c>
+      <c r="R48" s="7"/>
+      <c r="S48" s="8" cm="1">
+        <f t="array" ref="S48">_xlfn.IFS(
+ISTEXT(S47),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D47,ItemEffectTable[[#This Row],['#이름값]]=C47),S47+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D47,0,
-ItemEffectTable[[#This Row],['#Grade]]=D47,O47
-)</f>
-        <v>12</v>
-      </c>
-      <c r="P48" s="6" t="str">
+ItemEffectTable[[#This Row],['#Grade]]=D47,S47
+)</f>
+        <v>11</v>
+      </c>
+      <c r="T48" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q48" s="6">
+      <c r="U48" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14004</v>
       </c>
-      <c r="R48" s="6">
+      <c r="V48" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24004</v>
       </c>
-      <c r="S48" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W48" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>유리 대포</v>
       </c>
-      <c r="T48" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X48" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>[하트]가 3개 감소, 피해량이 35% 증가합니다.</v>
       </c>
     </row>
-    <row r="49" spans="2:20">
-      <c r="B49" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>96</v>
+    <row r="49" spans="2:24">
+      <c r="B49" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E49" cm="1">
         <f t="array" ref="E49">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -4666,72 +6610,104 @@
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($D$3:D49,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>9005</v>
+        <v>9004</v>
       </c>
       <c r="F49" t="s">
-        <v>107</v>
-      </c>
-      <c r="G49" s="6" t="str">
+        <v>60</v>
+      </c>
+      <c r="G49" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>공격이반대로작용함</v>
+        <v>최대체력변경</v>
       </c>
       <c r="H49">
-        <v>180</v>
+        <v>-150</v>
       </c>
       <c r="I49" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J49" t="s">
-        <v>94</v>
-      </c>
-      <c r="K49" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>180</v>
-      </c>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="O49" s="6" cm="1">
-        <f t="array" ref="O49">_xlfn.IFS(
-ISTEXT(O48),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D48,ItemEffectTable[[#This Row],['#이름값]]=C48),O48+1,
+        <v>33</v>
+      </c>
+      <c r="K49" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterTable</v>
+      </c>
+      <c r="L49" s="8" cm="1">
+        <f t="array" ref="L49">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>150</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N49" s="8" cm="1">
+        <f t="array" ref="N49">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="8" cm="1">
+        <f t="array" ref="O49">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>-50</v>
+      </c>
+      <c r="P49" s="8" cm="1">
+        <f t="array" ref="P49">SUM(IF($E$3:$E$58=E49,$O$3:$O$58))</f>
+        <v>50.000000000000028</v>
+      </c>
+      <c r="Q49" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>0</v>
+      </c>
+      <c r="R49" s="7"/>
+      <c r="S49" s="8" cm="1">
+        <f t="array" ref="S49">_xlfn.IFS(
+ISTEXT(S48),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D48,ItemEffectTable[[#This Row],['#이름값]]=C48),S48+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D48,0,
-ItemEffectTable[[#This Row],['#Grade]]=D48,O48
+ItemEffectTable[[#This Row],['#Grade]]=D48,S48
 )</f>
         <v>12</v>
       </c>
-      <c r="P49" s="6" t="str">
+      <c r="T49" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q49" s="6">
+      <c r="U49" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>14005</v>
-      </c>
-      <c r="R49" s="6">
+        <v>14004</v>
+      </c>
+      <c r="V49" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>24005</v>
-      </c>
-      <c r="S49" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>청개구리 총</v>
-      </c>
-      <c r="T49" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>공격을 반대로 합니다. 대신 피해량이 25% 증가합니다.</v>
+        <v>24004</v>
+      </c>
+      <c r="W49" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
+        <v>유리 대포</v>
+      </c>
+      <c r="X49" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
+        <v>[하트]가 3개 감소, 피해량이 35% 증가합니다.</v>
       </c>
     </row>
-    <row r="50" spans="2:20">
-      <c r="B50" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>96</v>
+    <row r="50" spans="2:24">
+      <c r="B50" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E50" cm="1">
         <f t="array" ref="E50">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -4743,69 +6719,103 @@
         <v>9005</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
-      </c>
-      <c r="G50" s="6" t="str">
+        <v>112</v>
+      </c>
+      <c r="G50" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>공격력변경</v>
+        <v>공격 방향이 반대 방향이 됨.</v>
       </c>
       <c r="H50">
-        <v>1.25</v>
+        <v>180</v>
       </c>
       <c r="I50" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J50" t="s">
-        <v>30</v>
-      </c>
-      <c r="K50" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>1.25</v>
-      </c>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="O50" s="6" cm="1">
-        <f t="array" ref="O50">_xlfn.IFS(
-ISTEXT(O49),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D49,ItemEffectTable[[#This Row],['#이름값]]=C49),O49+1,
+        <v>99</v>
+      </c>
+      <c r="K50" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>-</v>
+      </c>
+      <c r="L50" s="8" t="str" cm="1">
+        <f t="array" ref="L50">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>예외처리</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N50" s="8" t="str" cm="1">
+        <f t="array" ref="N50">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>예외처리</v>
+      </c>
+      <c r="O50" s="8" cm="1">
+        <f t="array" ref="O50">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>-25</v>
+      </c>
+      <c r="P50" s="8" cm="1">
+        <f t="array" ref="P50">SUM(IF($E$3:$E$58=E50,$O$3:$O$58))</f>
+        <v>50</v>
+      </c>
+      <c r="Q50" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>0</v>
+      </c>
+      <c r="R50" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="S50" s="8" cm="1">
+        <f t="array" ref="S50">_xlfn.IFS(
+ISTEXT(S49),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D49,ItemEffectTable[[#This Row],['#이름값]]=C49),S49+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D49,0,
-ItemEffectTable[[#This Row],['#Grade]]=D49,O49
-)</f>
-        <v>13</v>
-      </c>
-      <c r="P50" s="6" t="str">
+ItemEffectTable[[#This Row],['#Grade]]=D49,S49
+)</f>
+        <v>12</v>
+      </c>
+      <c r="T50" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q50" s="6">
+      <c r="U50" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14005</v>
       </c>
-      <c r="R50" s="6">
+      <c r="V50" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24005</v>
       </c>
-      <c r="S50" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W50" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>청개구리 총</v>
       </c>
-      <c r="T50" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X50" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>공격을 반대로 합니다. 대신 피해량이 25% 증가합니다.</v>
       </c>
     </row>
-    <row r="51" spans="2:20">
-      <c r="B51" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>96</v>
+    <row r="51" spans="2:24">
+      <c r="B51" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E51" cm="1">
         <f t="array" ref="E51">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -4814,70 +6824,106 @@
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($D$3:D51,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>9006</v>
+        <v>9005</v>
       </c>
       <c r="F51" t="s">
-        <v>74</v>
-      </c>
-      <c r="G51" s="6" t="str">
+        <v>43</v>
+      </c>
+      <c r="G51" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>골드획득량변경</v>
+        <v>공격력변경</v>
       </c>
       <c r="H51">
-        <v>-999</v>
+        <v>0.45</v>
       </c>
       <c r="I51" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J51" t="s">
-        <v>30</v>
-      </c>
-      <c r="K51" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>-999</v>
-      </c>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="6" cm="1">
-        <f t="array" ref="O51">_xlfn.IFS(
-ISTEXT(O50),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D50,ItemEffectTable[[#This Row],['#이름값]]=C50),O50+1,
+        <v>33</v>
+      </c>
+      <c r="K51" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterAtkTable</v>
+      </c>
+      <c r="L51" s="8" cm="1">
+        <f t="array" ref="L51">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>1</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N51" s="8" cm="1">
+        <f t="array" ref="N51">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>1.45</v>
+      </c>
+      <c r="O51" s="8" cm="1">
+        <f t="array" ref="O51">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>75</v>
+      </c>
+      <c r="P51" s="8" cm="1">
+        <f t="array" ref="P51">SUM(IF($E$3:$E$58=E51,$O$3:$O$58))</f>
+        <v>50</v>
+      </c>
+      <c r="Q51" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>0</v>
+      </c>
+      <c r="R51" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="S51" s="8" cm="1">
+        <f t="array" ref="S51">_xlfn.IFS(
+ISTEXT(S50),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D50,ItemEffectTable[[#This Row],['#이름값]]=C50),S50+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D50,0,
-ItemEffectTable[[#This Row],['#Grade]]=D50,O50
+ItemEffectTable[[#This Row],['#Grade]]=D50,S50
 )</f>
         <v>13</v>
       </c>
-      <c r="P51" s="6" t="str">
+      <c r="T51" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q51" s="6">
+      <c r="U51" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>14006</v>
-      </c>
-      <c r="R51" s="6">
+        <v>14005</v>
+      </c>
+      <c r="V51" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>24006</v>
-      </c>
-      <c r="S51" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>불운의 황금상</v>
-      </c>
-      <c r="T51" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>더 이상 골드를 획득할 수 없습니다. 데미지가 30% 상승합니다.</v>
+        <v>24005</v>
+      </c>
+      <c r="W51" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
+        <v>청개구리 총</v>
+      </c>
+      <c r="X51" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
+        <v>공격을 반대로 합니다. 대신 피해량이 25% 증가합니다.</v>
       </c>
     </row>
-    <row r="52" spans="2:20">
-      <c r="B52" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>96</v>
+    <row r="52" spans="2:24">
+      <c r="B52" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E52" cm="1">
         <f t="array" ref="E52">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -4889,67 +6935,101 @@
         <v>9006</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
-      </c>
-      <c r="G52" s="6" t="str">
+        <v>79</v>
+      </c>
+      <c r="G52" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>공격력변경</v>
+        <v>골드획득량변경</v>
       </c>
       <c r="H52">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="J52" t="s">
-        <v>30</v>
-      </c>
-      <c r="K52" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>1.3</v>
-      </c>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="6" cm="1">
-        <f t="array" ref="O52">_xlfn.IFS(
-ISTEXT(O51),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D51,ItemEffectTable[[#This Row],['#이름값]]=C51),O51+1,
+        <v>33</v>
+      </c>
+      <c r="K52" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterTable</v>
+      </c>
+      <c r="L52" s="8" cm="1">
+        <f t="array" ref="L52">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>1</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N52" s="8" cm="1">
+        <f t="array" ref="N52">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>0</v>
+      </c>
+      <c r="O52" s="8" cm="1">
+        <f t="array" ref="O52">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>-100</v>
+      </c>
+      <c r="P52" s="8" cm="1">
+        <f t="array" ref="P52">SUM(IF($E$3:$E$58=E52,$O$3:$O$58))</f>
+        <v>50</v>
+      </c>
+      <c r="Q52" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>0</v>
+      </c>
+      <c r="R52" s="7"/>
+      <c r="S52" s="8" cm="1">
+        <f t="array" ref="S52">_xlfn.IFS(
+ISTEXT(S51),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D51,ItemEffectTable[[#This Row],['#이름값]]=C51),S51+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D51,0,
-ItemEffectTable[[#This Row],['#Grade]]=D51,O51
-)</f>
-        <v>14</v>
-      </c>
-      <c r="P52" s="6" t="str">
+ItemEffectTable[[#This Row],['#Grade]]=D51,S51
+)</f>
+        <v>13</v>
+      </c>
+      <c r="T52" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q52" s="6">
+      <c r="U52" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14006</v>
       </c>
-      <c r="R52" s="6">
+      <c r="V52" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24006</v>
       </c>
-      <c r="S52" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W52" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>불운의 황금상</v>
       </c>
-      <c r="T52" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X52" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>더 이상 골드를 획득할 수 없습니다. 데미지가 30% 상승합니다.</v>
       </c>
     </row>
-    <row r="53" spans="2:20">
-      <c r="B53" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>96</v>
+    <row r="53" spans="2:24">
+      <c r="B53" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E53" cm="1">
         <f t="array" ref="E53">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -4958,70 +7038,104 @@
 ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
 + COUNTIF($D$3:D53,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
-        <v>9007</v>
+        <v>9006</v>
       </c>
       <c r="F53" t="s">
-        <v>58</v>
-      </c>
-      <c r="G53" s="6" t="str">
+        <v>43</v>
+      </c>
+      <c r="G53" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>공최대소지개수변경</v>
+        <v>공격력변경</v>
       </c>
       <c r="H53">
-        <v>-3</v>
+        <v>1.9</v>
       </c>
       <c r="I53" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="J53" t="s">
-        <v>30</v>
-      </c>
-      <c r="K53" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>-3</v>
-      </c>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="6" cm="1">
-        <f t="array" ref="O53">_xlfn.IFS(
-ISTEXT(O52),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D52,ItemEffectTable[[#This Row],['#이름값]]=C52),O52+1,
+        <v>33</v>
+      </c>
+      <c r="K53" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterAtkTable</v>
+      </c>
+      <c r="L53" s="8" cm="1">
+        <f t="array" ref="L53">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>1</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N53" s="8" cm="1">
+        <f t="array" ref="N53">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>1.9</v>
+      </c>
+      <c r="O53" s="8" cm="1">
+        <f t="array" ref="O53">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>150</v>
+      </c>
+      <c r="P53" s="8" cm="1">
+        <f t="array" ref="P53">SUM(IF($E$3:$E$58=E53,$O$3:$O$58))</f>
+        <v>50</v>
+      </c>
+      <c r="Q53" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>0</v>
+      </c>
+      <c r="R53" s="7"/>
+      <c r="S53" s="8" cm="1">
+        <f t="array" ref="S53">_xlfn.IFS(
+ISTEXT(S52),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D52,ItemEffectTable[[#This Row],['#이름값]]=C52),S52+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D52,0,
-ItemEffectTable[[#This Row],['#Grade]]=D52,O52
+ItemEffectTable[[#This Row],['#Grade]]=D52,S52
 )</f>
         <v>14</v>
       </c>
-      <c r="P53" s="6" t="str">
+      <c r="T53" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q53" s="6">
+      <c r="U53" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>14007</v>
-      </c>
-      <c r="R53" s="6">
+        <v>14006</v>
+      </c>
+      <c r="V53" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
-        <v>24007</v>
-      </c>
-      <c r="S53" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
-        <v>저주받은 테니스채</v>
-      </c>
-      <c r="T53" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
-        <v>공 던지기 개수 3개 감소. 직접 공격 데미지가 450% 상승합니다.</v>
+        <v>24006</v>
+      </c>
+      <c r="W53" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
+        <v>불운의 황금상</v>
+      </c>
+      <c r="X53" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
+        <v>더 이상 골드를 획득할 수 없습니다. 데미지가 30% 상승합니다.</v>
       </c>
     </row>
-    <row r="54" spans="2:20">
-      <c r="B54" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>96</v>
+    <row r="54" spans="2:24">
+      <c r="B54" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E54" cm="1">
         <f t="array" ref="E54">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -5033,67 +7147,101 @@
         <v>9007</v>
       </c>
       <c r="F54" t="s">
-        <v>111</v>
-      </c>
-      <c r="G54" s="6" t="str">
+        <v>62</v>
+      </c>
+      <c r="G54" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>직접공격피해량-미차징</v>
+        <v>공최대소지개수변경</v>
       </c>
       <c r="H54">
-        <v>4.5</v>
+        <v>-3</v>
       </c>
       <c r="I54" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J54" t="s">
-        <v>30</v>
-      </c>
-      <c r="K54" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>4.5</v>
-      </c>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="6" cm="1">
-        <f t="array" ref="O54">_xlfn.IFS(
-ISTEXT(O53),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D53,ItemEffectTable[[#This Row],['#이름값]]=C53),O53+1,
+        <v>33</v>
+      </c>
+      <c r="K54" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterTable</v>
+      </c>
+      <c r="L54" s="8" cm="1">
+        <f t="array" ref="L54">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>1</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N54" s="8" cm="1">
+        <f t="array" ref="N54">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>-2</v>
+      </c>
+      <c r="O54" s="8" cm="1">
+        <f t="array" ref="O54">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>-50</v>
+      </c>
+      <c r="P54" s="8" cm="1">
+        <f t="array" ref="P54">SUM(IF($E$3:$E$58=E54,$O$3:$O$58))</f>
+        <v>50.499999999999979</v>
+      </c>
+      <c r="Q54" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>-0.49999999999997868</v>
+      </c>
+      <c r="R54" s="7"/>
+      <c r="S54" s="8" cm="1">
+        <f t="array" ref="S54">_xlfn.IFS(
+ISTEXT(S53),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D53,ItemEffectTable[[#This Row],['#이름값]]=C53),S53+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D53,0,
-ItemEffectTable[[#This Row],['#Grade]]=D53,O53
-)</f>
-        <v>15</v>
-      </c>
-      <c r="P54" s="6" t="str">
+ItemEffectTable[[#This Row],['#Grade]]=D53,S53
+)</f>
+        <v>14</v>
+      </c>
+      <c r="T54" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q54" s="6">
+      <c r="U54" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14007</v>
       </c>
-      <c r="R54" s="6">
+      <c r="V54" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24007</v>
       </c>
-      <c r="S54" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W54" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>저주받은 테니스채</v>
       </c>
-      <c r="T54" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X54" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>공 던지기 개수 3개 감소. 직접 공격 데미지가 450% 상승합니다.</v>
       </c>
     </row>
-    <row r="55" spans="2:20">
-      <c r="B55" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>96</v>
+    <row r="55" spans="2:24">
+      <c r="B55" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E55" cm="1">
         <f t="array" ref="E55">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -5105,67 +7253,101 @@
         <v>9007</v>
       </c>
       <c r="F55" t="s">
-        <v>112</v>
-      </c>
-      <c r="G55" s="6" t="str">
+        <v>117</v>
+      </c>
+      <c r="G55" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>직접공격피해량-1단계</v>
+        <v>직접공격피해량-미차징</v>
       </c>
       <c r="H55">
-        <v>4.5</v>
+        <v>1.67</v>
       </c>
       <c r="I55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J55" t="s">
-        <v>30</v>
-      </c>
-      <c r="K55" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>4.5</v>
-      </c>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="6" cm="1">
-        <f t="array" ref="O55">_xlfn.IFS(
-ISTEXT(O54),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D54,ItemEffectTable[[#This Row],['#이름값]]=C54),O54+1,
+        <v>33</v>
+      </c>
+      <c r="K55" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterAtkTable</v>
+      </c>
+      <c r="L55" s="8" cm="1">
+        <f t="array" ref="L55">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>10</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N55" s="8" cm="1">
+        <f t="array" ref="N55">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>16.7</v>
+      </c>
+      <c r="O55" s="8" cm="1">
+        <f t="array" ref="O55">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>13.399999999999999</v>
+      </c>
+      <c r="P55" s="8" cm="1">
+        <f t="array" ref="P55">SUM(IF($E$3:$E$58=E55,$O$3:$O$58))</f>
+        <v>50.499999999999979</v>
+      </c>
+      <c r="Q55" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>-0.49999999999997868</v>
+      </c>
+      <c r="R55" s="7"/>
+      <c r="S55" s="8" cm="1">
+        <f t="array" ref="S55">_xlfn.IFS(
+ISTEXT(S54),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D54,ItemEffectTable[[#This Row],['#이름값]]=C54),S54+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D54,0,
-ItemEffectTable[[#This Row],['#Grade]]=D54,O54
-)</f>
-        <v>16</v>
-      </c>
-      <c r="P55" s="6" t="str">
+ItemEffectTable[[#This Row],['#Grade]]=D54,S54
+)</f>
+        <v>15</v>
+      </c>
+      <c r="T55" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q55" s="6">
+      <c r="U55" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14007</v>
       </c>
-      <c r="R55" s="6">
+      <c r="V55" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24007</v>
       </c>
-      <c r="S55" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W55" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>저주받은 테니스채</v>
       </c>
-      <c r="T55" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X55" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>공 던지기 개수 3개 감소. 직접 공격 데미지가 450% 상승합니다.</v>
       </c>
     </row>
-    <row r="56" spans="2:20">
-      <c r="B56" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>96</v>
+    <row r="56" spans="2:24">
+      <c r="B56" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E56" cm="1">
         <f t="array" ref="E56">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -5177,67 +7359,101 @@
         <v>9007</v>
       </c>
       <c r="F56" t="s">
-        <v>113</v>
-      </c>
-      <c r="G56" s="6" t="str">
+        <v>118</v>
+      </c>
+      <c r="G56" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
-        <v>직접공격피해량-2단계</v>
+        <v>직접공격피해량-1단계</v>
       </c>
       <c r="H56">
-        <v>4.5</v>
+        <v>1.67</v>
       </c>
       <c r="I56" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J56" t="s">
-        <v>30</v>
-      </c>
-      <c r="K56" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>4.5</v>
-      </c>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="6" cm="1">
-        <f t="array" ref="O56">_xlfn.IFS(
-ISTEXT(O55),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D55,ItemEffectTable[[#This Row],['#이름값]]=C55),O55+1,
+        <v>33</v>
+      </c>
+      <c r="K56" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterAtkTable</v>
+      </c>
+      <c r="L56" s="8" cm="1">
+        <f t="array" ref="L56">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>15</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N56" s="8" cm="1">
+        <f t="array" ref="N56">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>25.049999999999997</v>
+      </c>
+      <c r="O56" s="8" cm="1">
+        <f t="array" ref="O56">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>20.099999999999994</v>
+      </c>
+      <c r="P56" s="8" cm="1">
+        <f t="array" ref="P56">SUM(IF($E$3:$E$58=E56,$O$3:$O$58))</f>
+        <v>50.499999999999979</v>
+      </c>
+      <c r="Q56" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>-0.49999999999997868</v>
+      </c>
+      <c r="R56" s="7"/>
+      <c r="S56" s="8" cm="1">
+        <f t="array" ref="S56">_xlfn.IFS(
+ISTEXT(S55),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D55,ItemEffectTable[[#This Row],['#이름값]]=C55),S55+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D55,0,
-ItemEffectTable[[#This Row],['#Grade]]=D55,O55
-)</f>
-        <v>17</v>
-      </c>
-      <c r="P56" s="6" t="str">
+ItemEffectTable[[#This Row],['#Grade]]=D55,S55
+)</f>
+        <v>16</v>
+      </c>
+      <c r="T56" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q56" s="6">
+      <c r="U56" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14007</v>
       </c>
-      <c r="R56" s="6">
+      <c r="V56" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24007</v>
       </c>
-      <c r="S56" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W56" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>저주받은 테니스채</v>
       </c>
-      <c r="T56" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X56" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>공 던지기 개수 3개 감소. 직접 공격 데미지가 450% 상승합니다.</v>
       </c>
     </row>
-    <row r="57" spans="2:20">
-      <c r="B57" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>96</v>
+    <row r="57" spans="2:24">
+      <c r="B57" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E57" cm="1">
         <f t="array" ref="E57">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -5249,63 +7465,204 @@
         <v>9007</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
-      </c>
-      <c r="G57" s="6" t="str">
+        <v>119</v>
+      </c>
+      <c r="G57" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>직접공격피해량-2단계</v>
+      </c>
+      <c r="H57">
+        <v>1.67</v>
+      </c>
+      <c r="I57" t="s">
+        <v>44</v>
+      </c>
+      <c r="J57" t="s">
+        <v>33</v>
+      </c>
+      <c r="K57" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterAtkTable</v>
+      </c>
+      <c r="L57" s="8" cm="1">
+        <f t="array" ref="L57">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
+        <v>20</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N57" s="8" cm="1">
+        <f t="array" ref="N57">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>33.4</v>
+      </c>
+      <c r="O57" s="8" cm="1">
+        <f t="array" ref="O57">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>26.799999999999997</v>
+      </c>
+      <c r="P57" s="8" cm="1">
+        <f t="array" ref="P57">SUM(IF($E$3:$E$58=E57,$O$3:$O$58))</f>
+        <v>50.499999999999979</v>
+      </c>
+      <c r="Q57" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>-0.49999999999997868</v>
+      </c>
+      <c r="R57" s="7"/>
+      <c r="S57" s="8" cm="1">
+        <f t="array" ref="S57">_xlfn.IFS(
+ISTEXT(S56),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D56,ItemEffectTable[[#This Row],['#이름값]]=C56),S56+1,
+ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D56,0,
+ItemEffectTable[[#This Row],['#Grade]]=D56,S56
+)</f>
+        <v>17</v>
+      </c>
+      <c r="T57" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="U57" s="8">
+        <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>14007</v>
+      </c>
+      <c r="V57" s="8">
+        <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
+        <v>24007</v>
+      </c>
+      <c r="W57" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
+        <v>저주받은 테니스채</v>
+      </c>
+      <c r="X57" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
+        <v>공 던지기 개수 3개 감소. 직접 공격 데미지가 450% 상승합니다.</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24">
+      <c r="B58" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E58" cm="1">
+        <f t="array" ref="E58">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
+ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
+ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
+ItemEffectTable[[#This Row],['#Grade]]="Cursed",9000)
++ COUNTIF($D$3:D58,ItemEffectTable[[#This Row],['#Grade]])
+-ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</f>
+        <v>9007</v>
+      </c>
+      <c r="F58" t="s">
+        <v>120</v>
+      </c>
+      <c r="G58" s="8" t="str">
         <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
         <v>직접공격피해량-3단계</v>
       </c>
-      <c r="H57">
-        <v>4.5</v>
-      </c>
-      <c r="I57" t="s">
-        <v>46</v>
-      </c>
-      <c r="J57" t="s">
+      <c r="H58">
+        <v>1.67</v>
+      </c>
+      <c r="I58" t="s">
+        <v>44</v>
+      </c>
+      <c r="J58" t="s">
+        <v>33</v>
+      </c>
+      <c r="K58" s="8" t="str">
+        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>CharacterAtkTable</v>
+      </c>
+      <c r="L58" s="8" cm="1">
+        <f t="array" ref="L58">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
+)</f>
         <v>30</v>
       </c>
-      <c r="K57" s="6">
-        <f>INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))*ItemEffectTable[[#This Row],[ApplyValue]]</f>
-        <v>4.5</v>
-      </c>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="6" cm="1">
-        <f t="array" ref="O57">_xlfn.IFS(
-ISTEXT(O56),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D56,ItemEffectTable[[#This Row],['#이름값]]=C56),O56+1,
-ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D56,0,
-ItemEffectTable[[#This Row],['#Grade]]=D56,O56
+      <c r="M58" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N58" s="8" cm="1">
+        <f t="array" ref="N58">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
+ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
+        <v>50.099999999999994</v>
+      </c>
+      <c r="O58" s="8" cm="1">
+        <f t="array" ref="O58">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>40.199999999999989</v>
+      </c>
+      <c r="P58" s="8" cm="1">
+        <f t="array" ref="P58">SUM(IF($E$3:$E$58=E58,$O$3:$O$58))</f>
+        <v>50.499999999999979</v>
+      </c>
+      <c r="Q58" s="8">
+        <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
+        <v>-0.49999999999997868</v>
+      </c>
+      <c r="R58" s="7"/>
+      <c r="S58" s="8" cm="1">
+        <f t="array" ref="S58">_xlfn.IFS(
+ISTEXT(S57),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D57,ItemEffectTable[[#This Row],['#이름값]]=C57),S57+1,
+ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D57,0,
+ItemEffectTable[[#This Row],['#Grade]]=D57,S57
 )</f>
         <v>18</v>
       </c>
-      <c r="P57" s="6" t="str">
+      <c r="T58" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="Q57" s="6">
+      <c r="U58" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14007</v>
       </c>
-      <c r="R57" s="6">
+      <c r="V58" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24007</v>
       </c>
-      <c r="S57" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!StringTable[Index],0))</f>
+      <c r="W58" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>저주받은 테니스채</v>
       </c>
-      <c r="T57" s="6" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!StringTable[Index],0))</f>
+      <c r="X58" s="8" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>공 던지기 개수 3개 감소. 직접 공격 데미지가 450% 상승합니다.</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/_GameData/ItemEffectGameData.xlsx
+++ b/_GameData/ItemEffectGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFF7A05D-D8F8-4A44-A460-98B44F889656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3376C83-E5D3-4674-A380-3BBEDF40DFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D923F25-50A1-4C9D-B46A-E41D862208A2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{42F7F1DC-0263-4296-9E87-C8D967C3B204}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemEffectGameData" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <author>Kim_Dongju</author>
   </authors>
   <commentList>
-    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{FBC0B4AF-E560-4BCC-8FD3-0423B760B984}">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{B00E5DEF-2685-4C0A-BA25-C26219BA182C}">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1116,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{9BF8ED1B-15BE-4DFF-97C7-2874D8274AAB}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{C5331ECC-F904-48CE-A01D-A3FBA637322F}">
       <tableStyleElement type="wholeTable" dxfId="23"/>
       <tableStyleElement type="headerRow" dxfId="22"/>
       <tableStyleElement type="firstRowStripe" dxfId="21"/>
@@ -1181,13 +1181,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD786B53-56FB-4328-89D8-5D800466F719}" name="ItemEffectTable" displayName="ItemEffectTable" ref="B2:X58" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB7D4663-47C2-49B9-9F7C-AB16C3B6FDAD}" name="ItemEffectTable" displayName="ItemEffectTable" ref="B2:X58" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="B2:X58" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{571ED0B4-843D-470A-AC6F-70F7925DB3D3}" name="#개발여부" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{B3705C25-5F7A-4EAA-A466-454F86568E85}" name="#이름값" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{B10BB437-4CA3-400E-B248-57B0BBCD0E6E}" name="#Grade" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{255AB95E-9554-4B4B-834F-4069F6E8EF42}" name="Index" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{BD428E0D-F30E-4E88-95F6-D9CE221F8C05}" name="#개발여부" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{0EAE16AC-D9DE-4F2D-B45A-B0A28177B861}" name="#이름값" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{A0B36342-AD6E-495A-8522-B4B6D097C51B}" name="#Grade" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{523DC344-EE62-4CD2-8274-DFA18E555550}" name="Index" dataDxfId="15">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
@@ -1195,17 +1195,17 @@
 + COUNTIF($D$3:D3,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{59BEBCEB-FBC9-4E07-B578-280D2AFB3B89}" name="ApplyType"/>
-    <tableColumn id="3" xr3:uid="{960A27AE-C13F-430B-927B-8CD4161586D1}" name="#효과 한글" dataDxfId="14">
+    <tableColumn id="8" xr3:uid="{BF7390E3-103A-47CD-8157-71FD202FF7B1}" name="ApplyType"/>
+    <tableColumn id="3" xr3:uid="{7DB0AAF2-70FD-4B34-8AD4-B3B33A76E96C}" name="#효과 한글" dataDxfId="14">
       <calculatedColumnFormula>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{CB4CC314-5BD5-4ACE-B5F2-163422864A96}" name="ApplyValue"/>
-    <tableColumn id="9" xr3:uid="{A07E4EE7-DCDA-49FF-9DA3-D0A25D023315}" name="ValueOperatorType"/>
-    <tableColumn id="11" xr3:uid="{66BEDAD5-1D6F-4CF4-A909-9900F82322DF}" name="ApplyPoint"/>
-    <tableColumn id="20" xr3:uid="{22D36316-05F2-4AD2-988E-FDB95F5A1C6A}" name="#참조 테이블" dataDxfId="13">
+    <tableColumn id="10" xr3:uid="{989D4DAA-2570-4FBF-A91B-39131EFD6F42}" name="ApplyValue"/>
+    <tableColumn id="9" xr3:uid="{329C5EED-3669-4112-8579-84FC4AE842A9}" name="ValueOperatorType"/>
+    <tableColumn id="11" xr3:uid="{97619608-0F2D-4FCB-B244-F5629549B2A2}" name="ApplyPoint"/>
+    <tableColumn id="20" xr3:uid="{859DF391-17E3-48A9-915D-6FF06E14EEAA}" name="#참조 테이블" dataDxfId="13">
       <calculatedColumnFormula>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{D4D67685-D54D-4540-91F8-9F7F1A8AF8CB}" name="#기본값" dataDxfId="12">
+    <tableColumn id="21" xr3:uid="{8F84062F-6A58-42FD-9A89-ADF30D115068}" name="#기본값" dataDxfId="12">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
 ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
@@ -1213,10 +1213,10 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{D3E47D3D-BA69-488D-953B-E2A68DCB75A0}" name="#ApplyValue 수식" dataDxfId="11">
+    <tableColumn id="23" xr3:uid="{1F77EE6A-818C-4EDF-9447-758CA82EDD8E}" name="#ApplyValue 수식" dataDxfId="11">
       <calculatedColumnFormula array="1">[1]!CharacterTable[MovementSpd]*0.01</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{87890994-C9F5-4737-A98A-8F61030698EF}" name="#적용 후" dataDxfId="10">
+    <tableColumn id="17" xr3:uid="{753C9B03-106A-46B2-8D2B-1C7FBF044545}" name="#적용 후" dataDxfId="10">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
@@ -1224,20 +1224,20 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{8FEE6489-E39A-444A-A335-707EE42AF478}" name="#효력 가치" dataDxfId="9">
+    <tableColumn id="19" xr3:uid="{DA618CCC-0655-4AE2-9BDD-D663C072D71F}" name="#효력 가치" dataDxfId="9">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{D438EEDA-26DE-42C8-8029-7073096E3481}" name="#총 효력가치" dataDxfId="8">
+    <tableColumn id="22" xr3:uid="{2F356824-C76C-41A2-8B33-EB5F2FBA076A}" name="#총 효력가치" dataDxfId="8">
       <calculatedColumnFormula array="1">SUM(IF($E$3:$E$58=E3,$O$3:$O$58))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{0CBB5B70-2708-4754-B123-D540A33E601A}" name="#오차값" dataDxfId="7">
+    <tableColumn id="18" xr3:uid="{9E95A818-CCD6-4AF0-8594-77EE537BEF63}" name="#오차값" dataDxfId="7">
       <calculatedColumnFormula>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{8C5DEC16-8BB5-4FD1-9A99-0EA157C68A12}" name="#패러디" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{0831E325-E1A4-4187-B3FD-072927629FE9}" name="#인덱스 수식용" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{F327812A-FD23-47FC-BCBC-80C515E54543}" name="#패러디" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{64C721AE-1A6A-48AA-A2AA-04EFA848E241}" name="#인덱스 수식용" dataDxfId="5">
       <calculatedColumnFormula array="1">_xlfn.IFS(
 ISTEXT(S2),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=D2,ItemEffectTable[[#This Row],['#이름값]]=C2),S2+1,
@@ -1245,19 +1245,19 @@
 ItemEffectTable[[#This Row],['#Grade]]=D2,S2
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{05A25EA0-B204-4DEB-ABAA-3FF90C23141A}" name="#이름 일치 여부" dataDxfId="4">
+    <tableColumn id="13" xr3:uid="{0D50DD08-5FFA-4A30-B743-2F9E2267038C}" name="#이름 일치 여부" dataDxfId="4">
       <calculatedColumnFormula>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{92F15375-925A-4C84-BCBA-A92CE601952A}" name="#NameIndex" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{66FE2DB9-6FAA-4A02-8B1E-74215824C3A6}" name="#NameIndex" dataDxfId="3">
       <calculatedColumnFormula>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{399EA910-E3F5-4F57-985C-61BE42A2E345}" name="#DescIndex" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{6F15AB45-B467-4436-B46D-275321AE1CE2}" name="#DescIndex" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A4B22290-9E4F-4292-A797-D0491F0CB41E}" name="#Name" dataDxfId="1">
+    <tableColumn id="15" xr3:uid="{7973183B-BCFF-4D8B-90A2-ECF4CDEC6F83}" name="#Name" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{0447E59B-BD87-46DD-8A77-AF741E9A60BE}" name="#Desc" dataDxfId="0">
+    <tableColumn id="16" xr3:uid="{3603ACBB-853F-4B93-B80B-E1325F1ACD02}" name="#Desc" dataDxfId="0">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1561,7 +1561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E67B91-73C7-4119-AEAB-B4FC9A6C6EB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517CFE02-E5F4-4A75-B759-B29D43B195A5}">
   <sheetPr codeName="Sheet7">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
@@ -2273,7 +2273,7 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
-        <v>5.75</v>
+        <v>575</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>34</v>
@@ -2285,7 +2285,7 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>7.75</v>
+        <v>577</v>
       </c>
       <c r="O8" s="8" cm="1">
         <f t="array" ref="O8">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
@@ -2485,7 +2485,7 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M10" s="9" t="s">
         <v>34</v>
@@ -2497,22 +2497,22 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>0.8</v>
+        <v>16</v>
       </c>
       <c r="O10" s="8" cm="1">
         <f t="array" ref="O10">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</f>
-        <v>29.999999999999993</v>
+        <v>600</v>
       </c>
       <c r="P10" s="8" cm="1">
         <f t="array" ref="P10">SUM(IF($E$3:$E$58=E10,$O$3:$O$58))</f>
-        <v>29.999999999999993</v>
+        <v>600</v>
       </c>
       <c r="Q10" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>0</v>
+        <v>-570</v>
       </c>
       <c r="R10" s="7"/>
       <c r="S10" s="8" cm="1">
@@ -3335,11 +3335,11 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M18" s="9" cm="1">
         <f t="array" ref="M18">[1]!CharacterTable[MovementSpd]*-0.05</f>
-        <v>-0.28750000000000003</v>
+        <v>-28.75</v>
       </c>
       <c r="N18" s="8" cm="1">
         <f t="array" ref="N18">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -3348,22 +3348,22 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>0.71249999999999991</v>
+        <v>-8.75</v>
       </c>
       <c r="O18" s="8" cm="1">
         <f t="array" ref="O18">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</f>
-        <v>43.125000000000014</v>
+        <v>4312.5</v>
       </c>
       <c r="P18" s="8" cm="1">
         <f t="array" ref="P18">SUM(IF($E$3:$E$58=E18,$O$3:$O$58))</f>
-        <v>43.125000000000014</v>
+        <v>4312.5</v>
       </c>
       <c r="Q18" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>6.8749999999999858</v>
+        <v>-4262.5</v>
       </c>
       <c r="R18" s="7"/>
       <c r="S18" s="8" cm="1">
@@ -3677,11 +3677,11 @@
       </c>
       <c r="P21" s="8" cm="1">
         <f t="array" ref="P21">SUM(IF($E$3:$E$58=E21,$O$3:$O$58))</f>
-        <v>51.458333333333329</v>
+        <v>1095.8333333333335</v>
       </c>
       <c r="Q21" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-1.4583333333333286</v>
+        <v>-1045.8333333333335</v>
       </c>
       <c r="R21" s="7" t="s">
         <v>75</v>
@@ -3762,7 +3762,7 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
-        <v>5.75</v>
+        <v>575</v>
       </c>
       <c r="M22" s="9" t="s">
         <v>34</v>
@@ -3774,22 +3774,22 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>6.0375000000000005</v>
+        <v>603.75</v>
       </c>
       <c r="O22" s="8" cm="1">
         <f t="array" ref="O22">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</f>
-        <v>4.7916666666666758</v>
+        <v>479.16666666666669</v>
       </c>
       <c r="P22" s="8" cm="1">
         <f t="array" ref="P22">SUM(IF($E$3:$E$58=E22,$O$3:$O$58))</f>
-        <v>51.458333333333329</v>
+        <v>1095.8333333333335</v>
       </c>
       <c r="Q22" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-1.4583333333333286</v>
+        <v>-1045.8333333333335</v>
       </c>
       <c r="R22" s="7" t="s">
         <v>75</v>
@@ -3870,7 +3870,7 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M23" s="9" t="s">
         <v>34</v>
@@ -3882,22 +3882,22 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>0.8</v>
+        <v>16</v>
       </c>
       <c r="O23" s="8" cm="1">
         <f t="array" ref="O23">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</f>
-        <v>29.999999999999993</v>
+        <v>600</v>
       </c>
       <c r="P23" s="8" cm="1">
         <f t="array" ref="P23">SUM(IF($E$3:$E$58=E23,$O$3:$O$58))</f>
-        <v>51.458333333333329</v>
+        <v>1095.8333333333335</v>
       </c>
       <c r="Q23" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-1.4583333333333286</v>
+        <v>-1045.8333333333335</v>
       </c>
       <c r="R23" s="7" t="s">
         <v>75</v>
@@ -4943,7 +4943,7 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
-        <v>5.75</v>
+        <v>575</v>
       </c>
       <c r="M33" s="9" t="s">
         <v>34</v>
@@ -4955,22 +4955,22 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>4.6000000000000005</v>
+        <v>460</v>
       </c>
       <c r="O33" s="8" cm="1">
         <f t="array" ref="O33">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</f>
-        <v>-19.166666666666661</v>
+        <v>-1916.6666666666667</v>
       </c>
       <c r="P33" s="8" cm="1">
         <f t="array" ref="P33">SUM(IF($E$3:$E$58=E33,$O$3:$O$58))</f>
-        <v>47.500000000000028</v>
+        <v>-1850.0000000000002</v>
       </c>
       <c r="Q33" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>2.4999999999999716</v>
+        <v>1900.0000000000002</v>
       </c>
       <c r="R33" s="7"/>
       <c r="S33" s="8" cm="1">
@@ -5072,11 +5072,11 @@
       </c>
       <c r="P34" s="8" cm="1">
         <f t="array" ref="P34">SUM(IF($E$3:$E$58=E34,$O$3:$O$58))</f>
-        <v>47.500000000000028</v>
+        <v>-1850.0000000000002</v>
       </c>
       <c r="Q34" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>2.4999999999999716</v>
+        <v>1900.0000000000002</v>
       </c>
       <c r="R34" s="7"/>
       <c r="S34" s="8" cm="1">
@@ -5178,11 +5178,11 @@
       </c>
       <c r="P35" s="8" cm="1">
         <f t="array" ref="P35">SUM(IF($E$3:$E$58=E35,$O$3:$O$58))</f>
-        <v>47.500000000000028</v>
+        <v>-1850.0000000000002</v>
       </c>
       <c r="Q35" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>2.4999999999999716</v>
+        <v>1900.0000000000002</v>
       </c>
       <c r="R35" s="7"/>
       <c r="S35" s="8" cm="1">
@@ -5284,11 +5284,11 @@
       </c>
       <c r="P36" s="8" cm="1">
         <f t="array" ref="P36">SUM(IF($E$3:$E$58=E36,$O$3:$O$58))</f>
-        <v>47.500000000000028</v>
+        <v>-1850.0000000000002</v>
       </c>
       <c r="Q36" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>2.4999999999999716</v>
+        <v>1900.0000000000002</v>
       </c>
       <c r="R36" s="7"/>
       <c r="S36" s="8" cm="1">
@@ -5367,7 +5367,7 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
-        <v>5.75</v>
+        <v>575</v>
       </c>
       <c r="M37" s="9" t="s">
         <v>34</v>
@@ -5379,22 +5379,22 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>10.924999999999999</v>
+        <v>1092.5</v>
       </c>
       <c r="O37" s="8" cm="1">
         <f t="array" ref="O37">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</f>
-        <v>86.249999999999986</v>
+        <v>8625</v>
       </c>
       <c r="P37" s="8" cm="1">
         <f t="array" ref="P37">SUM(IF($E$3:$E$58=E37,$O$3:$O$58))</f>
-        <v>52.916666666666657</v>
+        <v>8591.6666666666661</v>
       </c>
       <c r="Q37" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-2.9166666666666572</v>
+        <v>-8541.6666666666661</v>
       </c>
       <c r="R37" s="7"/>
       <c r="S37" s="8" cm="1">
@@ -5496,11 +5496,11 @@
       </c>
       <c r="P38" s="8" cm="1">
         <f t="array" ref="P38">SUM(IF($E$3:$E$58=E38,$O$3:$O$58))</f>
-        <v>52.916666666666657</v>
+        <v>8591.6666666666661</v>
       </c>
       <c r="Q38" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-2.9166666666666572</v>
+        <v>-8541.6666666666661</v>
       </c>
       <c r="R38" s="7"/>
       <c r="S38" s="8" cm="1">
@@ -6344,11 +6344,11 @@
       </c>
       <c r="P46" s="8" cm="1">
         <f t="array" ref="P46">SUM(IF($E$3:$E$58=E46,$O$3:$O$58))</f>
-        <v>52.083333333333329</v>
+        <v>-4691.666666666667</v>
       </c>
       <c r="Q46" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-2.0833333333333286</v>
+        <v>4741.666666666667</v>
       </c>
       <c r="R46" s="7"/>
       <c r="S46" s="8" cm="1">
@@ -6427,7 +6427,7 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
-        <v>5.75</v>
+        <v>575</v>
       </c>
       <c r="M47" s="9" t="s">
         <v>34</v>
@@ -6439,22 +6439,22 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>2.875</v>
+        <v>287.5</v>
       </c>
       <c r="O47" s="8" cm="1">
         <f t="array" ref="O47">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</f>
-        <v>-47.916666666666671</v>
+        <v>-4791.666666666667</v>
       </c>
       <c r="P47" s="8" cm="1">
         <f t="array" ref="P47">SUM(IF($E$3:$E$58=E47,$O$3:$O$58))</f>
-        <v>52.083333333333329</v>
+        <v>-4691.666666666667</v>
       </c>
       <c r="Q47" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-2.0833333333333286</v>
+        <v>4741.666666666667</v>
       </c>
       <c r="R47" s="7"/>
       <c r="S47" s="8" cm="1">

--- a/_GameData/ItemEffectGameData.xlsx
+++ b/_GameData/ItemEffectGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3376C83-E5D3-4674-A380-3BBEDF40DFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0763225-2826-4EBD-B150-B894352CEEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{42F7F1DC-0263-4296-9E87-C8D967C3B204}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6BDDB71E-6CB1-4341-BFEC-F484771666ED}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemEffectGameData" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <author>Kim_Dongju</author>
   </authors>
   <commentList>
-    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{B00E5DEF-2685-4C0A-BA25-C26219BA182C}">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{14C08858-B85D-4452-BF91-65BB10F3C4A3}">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1116,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{C5331ECC-F904-48CE-A01D-A3FBA637322F}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{A60F582A-4D28-4E5C-B9D2-39F77B52E71E}">
       <tableStyleElement type="wholeTable" dxfId="23"/>
       <tableStyleElement type="headerRow" dxfId="22"/>
       <tableStyleElement type="firstRowStripe" dxfId="21"/>
@@ -1181,13 +1181,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB7D4663-47C2-49B9-9F7C-AB16C3B6FDAD}" name="ItemEffectTable" displayName="ItemEffectTable" ref="B2:X58" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EFC31B9D-D1B8-4994-B3B0-D0330E3292D3}" name="ItemEffectTable" displayName="ItemEffectTable" ref="B2:X58" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="B2:X58" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{BD428E0D-F30E-4E88-95F6-D9CE221F8C05}" name="#개발여부" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{0EAE16AC-D9DE-4F2D-B45A-B0A28177B861}" name="#이름값" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{A0B36342-AD6E-495A-8522-B4B6D097C51B}" name="#Grade" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{523DC344-EE62-4CD2-8274-DFA18E555550}" name="Index" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{09B35C6B-F589-4E42-BB05-A516B3F7D9F1}" name="#개발여부" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{4B70D6BF-44A0-4C21-AB14-978A2CE1759B}" name="#이름값" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{C48F791E-CBB6-4B82-807A-B60DE43A7A33}" name="#Grade" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{EDF93528-9534-4004-9A02-79FEF56F78B8}" name="Index" dataDxfId="15">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
@@ -1195,17 +1195,17 @@
 + COUNTIF($D$3:D3,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BF7390E3-103A-47CD-8157-71FD202FF7B1}" name="ApplyType"/>
-    <tableColumn id="3" xr3:uid="{7DB0AAF2-70FD-4B34-8AD4-B3B33A76E96C}" name="#효과 한글" dataDxfId="14">
+    <tableColumn id="8" xr3:uid="{215C6EC2-D9BA-4BC2-A9E9-8357C1608653}" name="ApplyType"/>
+    <tableColumn id="3" xr3:uid="{1592DECA-DC6D-495E-90E2-CF43467B73BE}" name="#효과 한글" dataDxfId="14">
       <calculatedColumnFormula>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{989D4DAA-2570-4FBF-A91B-39131EFD6F42}" name="ApplyValue"/>
-    <tableColumn id="9" xr3:uid="{329C5EED-3669-4112-8579-84FC4AE842A9}" name="ValueOperatorType"/>
-    <tableColumn id="11" xr3:uid="{97619608-0F2D-4FCB-B244-F5629549B2A2}" name="ApplyPoint"/>
-    <tableColumn id="20" xr3:uid="{859DF391-17E3-48A9-915D-6FF06E14EEAA}" name="#참조 테이블" dataDxfId="13">
+    <tableColumn id="10" xr3:uid="{9AFC4FB0-8B3D-466D-8980-9A48EA20952E}" name="ApplyValue"/>
+    <tableColumn id="9" xr3:uid="{F9927CDC-AD01-4019-BA35-D204F7E3FCD7}" name="ValueOperatorType"/>
+    <tableColumn id="11" xr3:uid="{2F16BA34-1550-497F-8B99-701D488E0B8E}" name="ApplyPoint"/>
+    <tableColumn id="20" xr3:uid="{54C3BD96-D5B3-490C-AC99-808CA92BC2FF}" name="#참조 테이블" dataDxfId="13">
       <calculatedColumnFormula>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{8F84062F-6A58-42FD-9A89-ADF30D115068}" name="#기본값" dataDxfId="12">
+    <tableColumn id="21" xr3:uid="{4753B5B0-03C7-4518-B110-F620A6F873DE}" name="#기본값" dataDxfId="12">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
 ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
@@ -1213,10 +1213,10 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{1F77EE6A-818C-4EDF-9447-758CA82EDD8E}" name="#ApplyValue 수식" dataDxfId="11">
+    <tableColumn id="23" xr3:uid="{C1DB38A0-F8F3-4976-85A0-E409475BE153}" name="#ApplyValue 수식" dataDxfId="11">
       <calculatedColumnFormula array="1">[1]!CharacterTable[MovementSpd]*0.01</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{753C9B03-106A-46B2-8D2B-1C7FBF044545}" name="#적용 후" dataDxfId="10">
+    <tableColumn id="17" xr3:uid="{9DB44022-EC35-4016-8265-734812F09FC5}" name="#적용 후" dataDxfId="10">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
@@ -1224,20 +1224,20 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{DA618CCC-0655-4AE2-9BDD-D663C072D71F}" name="#효력 가치" dataDxfId="9">
+    <tableColumn id="19" xr3:uid="{7E28A823-C75C-4A99-9DBE-D0414AFAE1E1}" name="#효력 가치" dataDxfId="9">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{2F356824-C76C-41A2-8B33-EB5F2FBA076A}" name="#총 효력가치" dataDxfId="8">
+    <tableColumn id="22" xr3:uid="{9CC5FA85-D6A1-4AB9-AF33-9D7F8EDABF61}" name="#총 효력가치" dataDxfId="8">
       <calculatedColumnFormula array="1">SUM(IF($E$3:$E$58=E3,$O$3:$O$58))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{9E95A818-CCD6-4AF0-8594-77EE537BEF63}" name="#오차값" dataDxfId="7">
+    <tableColumn id="18" xr3:uid="{B3B8AA62-B51E-4E5E-9C19-8851996F6C0E}" name="#오차값" dataDxfId="7">
       <calculatedColumnFormula>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F327812A-FD23-47FC-BCBC-80C515E54543}" name="#패러디" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{64C721AE-1A6A-48AA-A2AA-04EFA848E241}" name="#인덱스 수식용" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{26B8C0A6-3314-46C5-87A7-0BAAB3668CDA}" name="#패러디" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{67173607-0FBD-4584-AA66-E9AF2F855C80}" name="#인덱스 수식용" dataDxfId="5">
       <calculatedColumnFormula array="1">_xlfn.IFS(
 ISTEXT(S2),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=D2,ItemEffectTable[[#This Row],['#이름값]]=C2),S2+1,
@@ -1245,19 +1245,19 @@
 ItemEffectTable[[#This Row],['#Grade]]=D2,S2
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{0D50DD08-5FFA-4A30-B743-2F9E2267038C}" name="#이름 일치 여부" dataDxfId="4">
+    <tableColumn id="13" xr3:uid="{62C86C78-E0E7-407B-BEC0-041F888BE0D6}" name="#이름 일치 여부" dataDxfId="4">
       <calculatedColumnFormula>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{66FE2DB9-6FAA-4A02-8B1E-74215824C3A6}" name="#NameIndex" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{799D3CCA-8BAA-494D-8653-349390409220}" name="#NameIndex" dataDxfId="3">
       <calculatedColumnFormula>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6F15AB45-B467-4436-B46D-275321AE1CE2}" name="#DescIndex" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{361D6ABC-75EA-46B9-BCAD-1BDED64EE746}" name="#DescIndex" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{7973183B-BCFF-4D8B-90A2-ECF4CDEC6F83}" name="#Name" dataDxfId="1">
+    <tableColumn id="15" xr3:uid="{82BF3044-0BFF-45CE-B978-FD85AFAA6088}" name="#Name" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{3603ACBB-853F-4B93-B80B-E1325F1ACD02}" name="#Desc" dataDxfId="0">
+    <tableColumn id="16" xr3:uid="{ECEE995B-87EA-405E-B056-733715634E50}" name="#Desc" dataDxfId="0">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1561,7 +1561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517CFE02-E5F4-4A75-B759-B29D43B195A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0ABB80-466D-4DF6-8D25-8E1994B7C624}">
   <sheetPr codeName="Sheet7">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
@@ -2273,7 +2273,7 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
-        <v>575</v>
+        <v>370</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>34</v>
@@ -2285,7 +2285,7 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>577</v>
+        <v>372</v>
       </c>
       <c r="O8" s="8" cm="1">
         <f t="array" ref="O8">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
@@ -3339,7 +3339,7 @@
       </c>
       <c r="M18" s="9" cm="1">
         <f t="array" ref="M18">[1]!CharacterTable[MovementSpd]*-0.05</f>
-        <v>-28.75</v>
+        <v>-18.5</v>
       </c>
       <c r="N18" s="8" cm="1">
         <f t="array" ref="N18">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -3348,22 +3348,22 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>-8.75</v>
+        <v>1.5</v>
       </c>
       <c r="O18" s="8" cm="1">
         <f t="array" ref="O18">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</f>
-        <v>4312.5</v>
+        <v>2775</v>
       </c>
       <c r="P18" s="8" cm="1">
         <f t="array" ref="P18">SUM(IF($E$3:$E$58=E18,$O$3:$O$58))</f>
-        <v>4312.5</v>
+        <v>2775</v>
       </c>
       <c r="Q18" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-4262.5</v>
+        <v>-2725</v>
       </c>
       <c r="R18" s="7"/>
       <c r="S18" s="8" cm="1">
@@ -3677,11 +3677,11 @@
       </c>
       <c r="P21" s="8" cm="1">
         <f t="array" ref="P21">SUM(IF($E$3:$E$58=E21,$O$3:$O$58))</f>
-        <v>1095.8333333333335</v>
+        <v>925</v>
       </c>
       <c r="Q21" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-1045.8333333333335</v>
+        <v>-875</v>
       </c>
       <c r="R21" s="7" t="s">
         <v>75</v>
@@ -3762,7 +3762,7 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
-        <v>575</v>
+        <v>370</v>
       </c>
       <c r="M22" s="9" t="s">
         <v>34</v>
@@ -3774,22 +3774,22 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>603.75</v>
+        <v>388.5</v>
       </c>
       <c r="O22" s="8" cm="1">
         <f t="array" ref="O22">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</f>
-        <v>479.16666666666669</v>
+        <v>308.33333333333337</v>
       </c>
       <c r="P22" s="8" cm="1">
         <f t="array" ref="P22">SUM(IF($E$3:$E$58=E22,$O$3:$O$58))</f>
-        <v>1095.8333333333335</v>
+        <v>925</v>
       </c>
       <c r="Q22" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-1045.8333333333335</v>
+        <v>-875</v>
       </c>
       <c r="R22" s="7" t="s">
         <v>75</v>
@@ -3893,11 +3893,11 @@
       </c>
       <c r="P23" s="8" cm="1">
         <f t="array" ref="P23">SUM(IF($E$3:$E$58=E23,$O$3:$O$58))</f>
-        <v>1095.8333333333335</v>
+        <v>925</v>
       </c>
       <c r="Q23" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-1045.8333333333335</v>
+        <v>-875</v>
       </c>
       <c r="R23" s="7" t="s">
         <v>75</v>
@@ -4943,7 +4943,7 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
-        <v>575</v>
+        <v>370</v>
       </c>
       <c r="M33" s="9" t="s">
         <v>34</v>
@@ -4955,22 +4955,22 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>460</v>
+        <v>296</v>
       </c>
       <c r="O33" s="8" cm="1">
         <f t="array" ref="O33">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</f>
-        <v>-1916.6666666666667</v>
+        <v>-1233.3333333333335</v>
       </c>
       <c r="P33" s="8" cm="1">
         <f t="array" ref="P33">SUM(IF($E$3:$E$58=E33,$O$3:$O$58))</f>
-        <v>-1850.0000000000002</v>
+        <v>-1166.666666666667</v>
       </c>
       <c r="Q33" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>1900.0000000000002</v>
+        <v>1216.666666666667</v>
       </c>
       <c r="R33" s="7"/>
       <c r="S33" s="8" cm="1">
@@ -5072,11 +5072,11 @@
       </c>
       <c r="P34" s="8" cm="1">
         <f t="array" ref="P34">SUM(IF($E$3:$E$58=E34,$O$3:$O$58))</f>
-        <v>-1850.0000000000002</v>
+        <v>-1166.666666666667</v>
       </c>
       <c r="Q34" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>1900.0000000000002</v>
+        <v>1216.666666666667</v>
       </c>
       <c r="R34" s="7"/>
       <c r="S34" s="8" cm="1">
@@ -5178,11 +5178,11 @@
       </c>
       <c r="P35" s="8" cm="1">
         <f t="array" ref="P35">SUM(IF($E$3:$E$58=E35,$O$3:$O$58))</f>
-        <v>-1850.0000000000002</v>
+        <v>-1166.666666666667</v>
       </c>
       <c r="Q35" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>1900.0000000000002</v>
+        <v>1216.666666666667</v>
       </c>
       <c r="R35" s="7"/>
       <c r="S35" s="8" cm="1">
@@ -5284,11 +5284,11 @@
       </c>
       <c r="P36" s="8" cm="1">
         <f t="array" ref="P36">SUM(IF($E$3:$E$58=E36,$O$3:$O$58))</f>
-        <v>-1850.0000000000002</v>
+        <v>-1166.666666666667</v>
       </c>
       <c r="Q36" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>1900.0000000000002</v>
+        <v>1216.666666666667</v>
       </c>
       <c r="R36" s="7"/>
       <c r="S36" s="8" cm="1">
@@ -5367,7 +5367,7 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
-        <v>575</v>
+        <v>370</v>
       </c>
       <c r="M37" s="9" t="s">
         <v>34</v>
@@ -5379,22 +5379,22 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>1092.5</v>
+        <v>703</v>
       </c>
       <c r="O37" s="8" cm="1">
         <f t="array" ref="O37">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</f>
-        <v>8625</v>
+        <v>5550</v>
       </c>
       <c r="P37" s="8" cm="1">
         <f t="array" ref="P37">SUM(IF($E$3:$E$58=E37,$O$3:$O$58))</f>
-        <v>8591.6666666666661</v>
+        <v>5516.666666666667</v>
       </c>
       <c r="Q37" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-8541.6666666666661</v>
+        <v>-5466.666666666667</v>
       </c>
       <c r="R37" s="7"/>
       <c r="S37" s="8" cm="1">
@@ -5496,11 +5496,11 @@
       </c>
       <c r="P38" s="8" cm="1">
         <f t="array" ref="P38">SUM(IF($E$3:$E$58=E38,$O$3:$O$58))</f>
-        <v>8591.6666666666661</v>
+        <v>5516.666666666667</v>
       </c>
       <c r="Q38" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-8541.6666666666661</v>
+        <v>-5466.666666666667</v>
       </c>
       <c r="R38" s="7"/>
       <c r="S38" s="8" cm="1">
@@ -6344,11 +6344,11 @@
       </c>
       <c r="P46" s="8" cm="1">
         <f t="array" ref="P46">SUM(IF($E$3:$E$58=E46,$O$3:$O$58))</f>
-        <v>-4691.666666666667</v>
+        <v>-2983.3333333333335</v>
       </c>
       <c r="Q46" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>4741.666666666667</v>
+        <v>3033.3333333333335</v>
       </c>
       <c r="R46" s="7"/>
       <c r="S46" s="8" cm="1">
@@ -6427,7 +6427,7 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
-        <v>575</v>
+        <v>370</v>
       </c>
       <c r="M47" s="9" t="s">
         <v>34</v>
@@ -6439,22 +6439,22 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>287.5</v>
+        <v>185</v>
       </c>
       <c r="O47" s="8" cm="1">
         <f t="array" ref="O47">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</f>
-        <v>-4791.666666666667</v>
+        <v>-3083.3333333333335</v>
       </c>
       <c r="P47" s="8" cm="1">
         <f t="array" ref="P47">SUM(IF($E$3:$E$58=E47,$O$3:$O$58))</f>
-        <v>-4691.666666666667</v>
+        <v>-2983.3333333333335</v>
       </c>
       <c r="Q47" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>4741.666666666667</v>
+        <v>3033.3333333333335</v>
       </c>
       <c r="R47" s="7"/>
       <c r="S47" s="8" cm="1">

--- a/_GameData/ItemEffectGameData.xlsx
+++ b/_GameData/ItemEffectGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0763225-2826-4EBD-B150-B894352CEEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37A40FCE-7B7B-4DAB-8A49-D3B62C30758A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6BDDB71E-6CB1-4341-BFEC-F484771666ED}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2780B027-5802-4268-AFA7-F6577ACB8E37}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemEffectGameData" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <author>Kim_Dongju</author>
   </authors>
   <commentList>
-    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{14C08858-B85D-4452-BF91-65BB10F3C4A3}">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{E4BB7ADB-15FA-48CA-98C0-94F14393C911}">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1116,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{A60F582A-4D28-4E5C-B9D2-39F77B52E71E}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{81D0B311-1387-4208-BA75-693E5E32DE73}">
       <tableStyleElement type="wholeTable" dxfId="23"/>
       <tableStyleElement type="headerRow" dxfId="22"/>
       <tableStyleElement type="firstRowStripe" dxfId="21"/>
@@ -1181,13 +1181,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EFC31B9D-D1B8-4994-B3B0-D0330E3292D3}" name="ItemEffectTable" displayName="ItemEffectTable" ref="B2:X58" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04E9F628-6DB6-41E7-A66D-0585AFCEAC4E}" name="ItemEffectTable" displayName="ItemEffectTable" ref="B2:X58" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="B2:X58" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{09B35C6B-F589-4E42-BB05-A516B3F7D9F1}" name="#개발여부" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{4B70D6BF-44A0-4C21-AB14-978A2CE1759B}" name="#이름값" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{C48F791E-CBB6-4B82-807A-B60DE43A7A33}" name="#Grade" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{EDF93528-9534-4004-9A02-79FEF56F78B8}" name="Index" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{E6601C4E-366D-4867-89C4-13582C25CBD5}" name="#개발여부" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{A0E8B38C-5DB0-42C6-8FE1-F7EEB63C41A4}" name="#이름값" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{38FAB988-9A29-4D19-B84B-3BF8C6261573}" name="#Grade" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{8E3FA398-A362-4DDE-8A33-B5F0709E14A7}" name="Index" dataDxfId="15">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
@@ -1195,17 +1195,17 @@
 + COUNTIF($D$3:D3,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{215C6EC2-D9BA-4BC2-A9E9-8357C1608653}" name="ApplyType"/>
-    <tableColumn id="3" xr3:uid="{1592DECA-DC6D-495E-90E2-CF43467B73BE}" name="#효과 한글" dataDxfId="14">
+    <tableColumn id="8" xr3:uid="{EAAB606F-306D-4A9C-96FB-F0C5B7D5E604}" name="ApplyType"/>
+    <tableColumn id="3" xr3:uid="{69020885-E8BD-4E89-B97C-E24991486EE9}" name="#효과 한글" dataDxfId="14">
       <calculatedColumnFormula>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9AFC4FB0-8B3D-466D-8980-9A48EA20952E}" name="ApplyValue"/>
-    <tableColumn id="9" xr3:uid="{F9927CDC-AD01-4019-BA35-D204F7E3FCD7}" name="ValueOperatorType"/>
-    <tableColumn id="11" xr3:uid="{2F16BA34-1550-497F-8B99-701D488E0B8E}" name="ApplyPoint"/>
-    <tableColumn id="20" xr3:uid="{54C3BD96-D5B3-490C-AC99-808CA92BC2FF}" name="#참조 테이블" dataDxfId="13">
+    <tableColumn id="10" xr3:uid="{B9445309-A016-45BE-918B-9EAEC83D9508}" name="ApplyValue"/>
+    <tableColumn id="9" xr3:uid="{68BD33DB-11CC-4295-AA55-EC1BC2F0428C}" name="ValueOperatorType"/>
+    <tableColumn id="11" xr3:uid="{A38DFF17-9290-486E-AF50-B0639ECA99F5}" name="ApplyPoint"/>
+    <tableColumn id="20" xr3:uid="{90AA7787-5973-4736-96FB-C5D2A871CFAF}" name="#참조 테이블" dataDxfId="13">
       <calculatedColumnFormula>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{4753B5B0-03C7-4518-B110-F620A6F873DE}" name="#기본값" dataDxfId="12">
+    <tableColumn id="21" xr3:uid="{5399FAB0-D73D-4C5C-A7C2-83ECCD88703C}" name="#기본값" dataDxfId="12">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
 ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
@@ -1213,10 +1213,10 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{C1DB38A0-F8F3-4976-85A0-E409475BE153}" name="#ApplyValue 수식" dataDxfId="11">
+    <tableColumn id="23" xr3:uid="{A279005C-7FC1-4842-9F2F-701274186FC7}" name="#ApplyValue 수식" dataDxfId="11">
       <calculatedColumnFormula array="1">[1]!CharacterTable[MovementSpd]*0.01</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{9DB44022-EC35-4016-8265-734812F09FC5}" name="#적용 후" dataDxfId="10">
+    <tableColumn id="17" xr3:uid="{53ACB1E6-CC8E-48E6-9C6E-A8C034D40195}" name="#적용 후" dataDxfId="10">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
@@ -1224,20 +1224,20 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{7E28A823-C75C-4A99-9DBE-D0414AFAE1E1}" name="#효력 가치" dataDxfId="9">
+    <tableColumn id="19" xr3:uid="{5527DCFC-1B36-4615-9030-A7E363F4E3DC}" name="#효력 가치" dataDxfId="9">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{9CC5FA85-D6A1-4AB9-AF33-9D7F8EDABF61}" name="#총 효력가치" dataDxfId="8">
+    <tableColumn id="22" xr3:uid="{5944FB10-9CFF-4F3D-9C3B-4EF42DF59DA5}" name="#총 효력가치" dataDxfId="8">
       <calculatedColumnFormula array="1">SUM(IF($E$3:$E$58=E3,$O$3:$O$58))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{B3B8AA62-B51E-4E5E-9C19-8851996F6C0E}" name="#오차값" dataDxfId="7">
+    <tableColumn id="18" xr3:uid="{CF3E6721-C878-425C-85F9-FFE18A8549D3}" name="#오차값" dataDxfId="7">
       <calculatedColumnFormula>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{26B8C0A6-3314-46C5-87A7-0BAAB3668CDA}" name="#패러디" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{67173607-0FBD-4584-AA66-E9AF2F855C80}" name="#인덱스 수식용" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{84DE5A4A-E8E8-405A-B6FB-A4C6F1C79AF6}" name="#패러디" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{58D70AC5-A212-4F9A-A07D-73A0EB533BBD}" name="#인덱스 수식용" dataDxfId="5">
       <calculatedColumnFormula array="1">_xlfn.IFS(
 ISTEXT(S2),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=D2,ItemEffectTable[[#This Row],['#이름값]]=C2),S2+1,
@@ -1245,19 +1245,19 @@
 ItemEffectTable[[#This Row],['#Grade]]=D2,S2
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{62C86C78-E0E7-407B-BEC0-041F888BE0D6}" name="#이름 일치 여부" dataDxfId="4">
+    <tableColumn id="13" xr3:uid="{A0613C08-1CB7-4D70-B72B-6EEAD0C5043D}" name="#이름 일치 여부" dataDxfId="4">
       <calculatedColumnFormula>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{799D3CCA-8BAA-494D-8653-349390409220}" name="#NameIndex" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{FF88C00E-EF92-4296-B211-B6B62E68541D}" name="#NameIndex" dataDxfId="3">
       <calculatedColumnFormula>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{361D6ABC-75EA-46B9-BCAD-1BDED64EE746}" name="#DescIndex" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{1C34DEB3-FE47-4821-AE59-1B350DEE4960}" name="#DescIndex" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{82BF3044-0BFF-45CE-B978-FD85AFAA6088}" name="#Name" dataDxfId="1">
+    <tableColumn id="15" xr3:uid="{26368586-9AF0-4601-A125-95772BFD0D13}" name="#Name" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{ECEE995B-87EA-405E-B056-733715634E50}" name="#Desc" dataDxfId="0">
+    <tableColumn id="16" xr3:uid="{9543F3F6-76B6-4202-9B3D-932E3E3070C9}" name="#Desc" dataDxfId="0">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1561,7 +1561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0ABB80-466D-4DF6-8D25-8E1994B7C624}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9134B1-5995-489E-8EF2-C9EE55199662}">
   <sheetPr codeName="Sheet7">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ItemEffectGameData.xlsx
+++ b/_GameData/ItemEffectGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37A40FCE-7B7B-4DAB-8A49-D3B62C30758A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3BB8907-2DC5-4429-8DAF-4E35AE5E3609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2780B027-5802-4268-AFA7-F6577ACB8E37}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4020F56B-AAD2-4140-825E-E00C515547DF}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemEffectGameData" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <author>Kim_Dongju</author>
   </authors>
   <commentList>
-    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{E4BB7ADB-15FA-48CA-98C0-94F14393C911}">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{38173A7E-7C7F-432F-A03E-A2E3FD335BC4}">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1116,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{81D0B311-1387-4208-BA75-693E5E32DE73}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{B5C11526-9ABA-4534-8674-3586CF719F82}">
       <tableStyleElement type="wholeTable" dxfId="23"/>
       <tableStyleElement type="headerRow" dxfId="22"/>
       <tableStyleElement type="firstRowStripe" dxfId="21"/>
@@ -1181,13 +1181,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04E9F628-6DB6-41E7-A66D-0585AFCEAC4E}" name="ItemEffectTable" displayName="ItemEffectTable" ref="B2:X58" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3545BDD2-AA24-46F0-8FC2-32038B1D5D91}" name="ItemEffectTable" displayName="ItemEffectTable" ref="B2:X58" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="B2:X58" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{E6601C4E-366D-4867-89C4-13582C25CBD5}" name="#개발여부" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{A0E8B38C-5DB0-42C6-8FE1-F7EEB63C41A4}" name="#이름값" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{38FAB988-9A29-4D19-B84B-3BF8C6261573}" name="#Grade" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{8E3FA398-A362-4DDE-8A33-B5F0709E14A7}" name="Index" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{807B07D6-79BE-45AA-8E5C-BE1096721C12}" name="#개발여부" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{DED8A384-2548-414E-876D-72E53A6E5874}" name="#이름값" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{365A016D-7A49-4259-9BC0-8B776B5E80B8}" name="#Grade" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{DC72172B-9AE4-4057-A4A7-0B3FD772B3F3}" name="Index" dataDxfId="15">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
@@ -1195,17 +1195,17 @@
 + COUNTIF($D$3:D3,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{EAAB606F-306D-4A9C-96FB-F0C5B7D5E604}" name="ApplyType"/>
-    <tableColumn id="3" xr3:uid="{69020885-E8BD-4E89-B97C-E24991486EE9}" name="#효과 한글" dataDxfId="14">
+    <tableColumn id="8" xr3:uid="{0514EBD0-CA1F-4860-8CB0-543196EF75D1}" name="ApplyType"/>
+    <tableColumn id="3" xr3:uid="{71806812-B1A2-4C8F-B90A-00BA456ADDFC}" name="#효과 한글" dataDxfId="14">
       <calculatedColumnFormula>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{B9445309-A016-45BE-918B-9EAEC83D9508}" name="ApplyValue"/>
-    <tableColumn id="9" xr3:uid="{68BD33DB-11CC-4295-AA55-EC1BC2F0428C}" name="ValueOperatorType"/>
-    <tableColumn id="11" xr3:uid="{A38DFF17-9290-486E-AF50-B0639ECA99F5}" name="ApplyPoint"/>
-    <tableColumn id="20" xr3:uid="{90AA7787-5973-4736-96FB-C5D2A871CFAF}" name="#참조 테이블" dataDxfId="13">
+    <tableColumn id="10" xr3:uid="{DDE0503D-BBB5-4276-9BDD-3D6802251942}" name="ApplyValue"/>
+    <tableColumn id="9" xr3:uid="{0AF91F08-FAB4-422A-B818-AAC65A5A5306}" name="ValueOperatorType"/>
+    <tableColumn id="11" xr3:uid="{C2EFB968-C077-44EC-8134-955A9CD0EBCF}" name="ApplyPoint"/>
+    <tableColumn id="20" xr3:uid="{150A752A-31AF-45AD-ACAF-A5DB445B0C6C}" name="#참조 테이블" dataDxfId="13">
       <calculatedColumnFormula>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{5399FAB0-D73D-4C5C-A7C2-83ECCD88703C}" name="#기본값" dataDxfId="12">
+    <tableColumn id="21" xr3:uid="{E95DCAD1-FF52-4A9B-A9B5-6F4D63087458}" name="#기본값" dataDxfId="12">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
 ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
@@ -1213,10 +1213,10 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{A279005C-7FC1-4842-9F2F-701274186FC7}" name="#ApplyValue 수식" dataDxfId="11">
+    <tableColumn id="23" xr3:uid="{97BF6813-09F1-4D6C-9CB0-4C84208BB6AB}" name="#ApplyValue 수식" dataDxfId="11">
       <calculatedColumnFormula array="1">[1]!CharacterTable[MovementSpd]*0.01</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{53ACB1E6-CC8E-48E6-9C6E-A8C034D40195}" name="#적용 후" dataDxfId="10">
+    <tableColumn id="17" xr3:uid="{E8151F70-5039-48FC-A3CC-9E29A106F83F}" name="#적용 후" dataDxfId="10">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
@@ -1224,20 +1224,20 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{5527DCFC-1B36-4615-9030-A7E363F4E3DC}" name="#효력 가치" dataDxfId="9">
+    <tableColumn id="19" xr3:uid="{C1ED9443-18B5-41BE-A432-9F30792EFE92}" name="#효력 가치" dataDxfId="9">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{5944FB10-9CFF-4F3D-9C3B-4EF42DF59DA5}" name="#총 효력가치" dataDxfId="8">
+    <tableColumn id="22" xr3:uid="{810670E6-BE5F-446D-B6BF-EE7E8D165B76}" name="#총 효력가치" dataDxfId="8">
       <calculatedColumnFormula array="1">SUM(IF($E$3:$E$58=E3,$O$3:$O$58))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{CF3E6721-C878-425C-85F9-FFE18A8549D3}" name="#오차값" dataDxfId="7">
+    <tableColumn id="18" xr3:uid="{57620F2B-8ACF-444A-A5AA-F589B842EE33}" name="#오차값" dataDxfId="7">
       <calculatedColumnFormula>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{84DE5A4A-E8E8-405A-B6FB-A4C6F1C79AF6}" name="#패러디" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{58D70AC5-A212-4F9A-A07D-73A0EB533BBD}" name="#인덱스 수식용" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{25E34630-C217-48BF-BB07-88CE345B83B3}" name="#패러디" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{EEABB2E6-5A02-4508-9EE5-335CB0E5154C}" name="#인덱스 수식용" dataDxfId="5">
       <calculatedColumnFormula array="1">_xlfn.IFS(
 ISTEXT(S2),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=D2,ItemEffectTable[[#This Row],['#이름값]]=C2),S2+1,
@@ -1245,19 +1245,19 @@
 ItemEffectTable[[#This Row],['#Grade]]=D2,S2
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{A0613C08-1CB7-4D70-B72B-6EEAD0C5043D}" name="#이름 일치 여부" dataDxfId="4">
+    <tableColumn id="13" xr3:uid="{47EB5FE8-E63A-4DD3-B20B-5AC042EE4619}" name="#이름 일치 여부" dataDxfId="4">
       <calculatedColumnFormula>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{FF88C00E-EF92-4296-B211-B6B62E68541D}" name="#NameIndex" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{3C34F665-3DB5-4165-8C3C-93A434F9DDE1}" name="#NameIndex" dataDxfId="3">
       <calculatedColumnFormula>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{1C34DEB3-FE47-4821-AE59-1B350DEE4960}" name="#DescIndex" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{CC8621FD-739B-437E-8E4F-DAD1A8470009}" name="#DescIndex" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{26368586-9AF0-4601-A125-95772BFD0D13}" name="#Name" dataDxfId="1">
+    <tableColumn id="15" xr3:uid="{A0595CD3-BE4B-4F15-991F-E355CC1FBDE7}" name="#Name" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{9543F3F6-76B6-4202-9B3D-932E3E3070C9}" name="#Desc" dataDxfId="0">
+    <tableColumn id="16" xr3:uid="{54CCEE1B-8E7A-4D99-8CAF-75F60196B945}" name="#Desc" dataDxfId="0">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1561,7 +1561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9134B1-5995-489E-8EF2-C9EE55199662}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4E5131-B36A-4AC4-B9BE-31916505CC97}">
   <sheetPr codeName="Sheet7">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
@@ -2591,7 +2591,7 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="M11" s="9" t="s">
         <v>34</v>
@@ -2603,18 +2603,18 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>6.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="O11" s="8" cm="1">
         <f t="array" ref="O11">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</f>
-        <v>30</v>
+        <v>29.999999999999996</v>
       </c>
       <c r="P11" s="8" cm="1">
         <f t="array" ref="P11">SUM(IF($E$3:$E$58=E11,$O$3:$O$58))</f>
-        <v>30</v>
+        <v>29.999999999999996</v>
       </c>
       <c r="Q11" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>

--- a/_GameData/ItemEffectGameData.xlsx
+++ b/_GameData/ItemEffectGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3BB8907-2DC5-4429-8DAF-4E35AE5E3609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5738583-52D6-4DB0-A5B5-DE9EF8C7066D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4020F56B-AAD2-4140-825E-E00C515547DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F92B302-6AE3-421B-8B3B-49E8F1A59FBF}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemEffectGameData" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <author>Kim_Dongju</author>
   </authors>
   <commentList>
-    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{38173A7E-7C7F-432F-A03E-A2E3FD335BC4}">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{D293D5D6-D142-498B-8E26-500CED4D39DC}">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1116,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{B5C11526-9ABA-4534-8674-3586CF719F82}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{F512201C-60DC-4453-91DA-F79CD4A140D3}">
       <tableStyleElement type="wholeTable" dxfId="23"/>
       <tableStyleElement type="headerRow" dxfId="22"/>
       <tableStyleElement type="firstRowStripe" dxfId="21"/>
@@ -1181,13 +1181,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3545BDD2-AA24-46F0-8FC2-32038B1D5D91}" name="ItemEffectTable" displayName="ItemEffectTable" ref="B2:X58" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C80092BC-896D-482D-9EE1-23230A9EBA9A}" name="ItemEffectTable" displayName="ItemEffectTable" ref="B2:X58" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="B2:X58" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{807B07D6-79BE-45AA-8E5C-BE1096721C12}" name="#개발여부" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{DED8A384-2548-414E-876D-72E53A6E5874}" name="#이름값" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{365A016D-7A49-4259-9BC0-8B776B5E80B8}" name="#Grade" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{DC72172B-9AE4-4057-A4A7-0B3FD772B3F3}" name="Index" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{93B95266-6EDE-4BBE-A3DD-1D8CDEE1B4A0}" name="#개발여부" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{467F2FD0-7FA7-4963-8388-2C2B0414578D}" name="#이름값" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{91981649-BC79-45F5-AD89-00A7DB82D317}" name="#Grade" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{DC9A8244-DDB2-4F24-B998-973756066F72}" name="Index" dataDxfId="15">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
@@ -1195,17 +1195,17 @@
 + COUNTIF($D$3:D3,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{0514EBD0-CA1F-4860-8CB0-543196EF75D1}" name="ApplyType"/>
-    <tableColumn id="3" xr3:uid="{71806812-B1A2-4C8F-B90A-00BA456ADDFC}" name="#효과 한글" dataDxfId="14">
+    <tableColumn id="8" xr3:uid="{C6516421-6332-4B19-9394-EF6CDEB7B2DC}" name="ApplyType"/>
+    <tableColumn id="3" xr3:uid="{D465AE7D-EECD-4C06-A5A2-E7BB41F088C5}" name="#효과 한글" dataDxfId="14">
       <calculatedColumnFormula>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{DDE0503D-BBB5-4276-9BDD-3D6802251942}" name="ApplyValue"/>
-    <tableColumn id="9" xr3:uid="{0AF91F08-FAB4-422A-B818-AAC65A5A5306}" name="ValueOperatorType"/>
-    <tableColumn id="11" xr3:uid="{C2EFB968-C077-44EC-8134-955A9CD0EBCF}" name="ApplyPoint"/>
-    <tableColumn id="20" xr3:uid="{150A752A-31AF-45AD-ACAF-A5DB445B0C6C}" name="#참조 테이블" dataDxfId="13">
+    <tableColumn id="10" xr3:uid="{C987462E-EA3F-4264-A680-6C352B8B7ABA}" name="ApplyValue"/>
+    <tableColumn id="9" xr3:uid="{D57A46D4-659E-4075-BEEA-9B36238CBAC8}" name="ValueOperatorType"/>
+    <tableColumn id="11" xr3:uid="{88B8A937-DED1-4D7D-A39E-8A7F0E57F777}" name="ApplyPoint"/>
+    <tableColumn id="20" xr3:uid="{36BF1D78-35AC-445E-A7DA-89B1572BB114}" name="#참조 테이블" dataDxfId="13">
       <calculatedColumnFormula>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{E95DCAD1-FF52-4A9B-A9B5-6F4D63087458}" name="#기본값" dataDxfId="12">
+    <tableColumn id="21" xr3:uid="{BD0D640D-738C-4E85-9531-79BAD137D237}" name="#기본값" dataDxfId="12">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
 ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
@@ -1213,10 +1213,10 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{97BF6813-09F1-4D6C-9CB0-4C84208BB6AB}" name="#ApplyValue 수식" dataDxfId="11">
+    <tableColumn id="23" xr3:uid="{A20BFB61-2648-42DD-8EC5-341207D015A9}" name="#ApplyValue 수식" dataDxfId="11">
       <calculatedColumnFormula array="1">[1]!CharacterTable[MovementSpd]*0.01</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{E8151F70-5039-48FC-A3CC-9E29A106F83F}" name="#적용 후" dataDxfId="10">
+    <tableColumn id="17" xr3:uid="{0EA6ADB8-C70C-4DEE-A90E-92F18D03065A}" name="#적용 후" dataDxfId="10">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
@@ -1224,20 +1224,20 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{C1ED9443-18B5-41BE-A432-9F30792EFE92}" name="#효력 가치" dataDxfId="9">
+    <tableColumn id="19" xr3:uid="{44B3BBD9-3D0B-4A31-9D33-EB90ACBE0865}" name="#효력 가치" dataDxfId="9">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{810670E6-BE5F-446D-B6BF-EE7E8D165B76}" name="#총 효력가치" dataDxfId="8">
+    <tableColumn id="22" xr3:uid="{108D2FEE-0F0E-4918-BF37-545844A5AB46}" name="#총 효력가치" dataDxfId="8">
       <calculatedColumnFormula array="1">SUM(IF($E$3:$E$58=E3,$O$3:$O$58))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{57620F2B-8ACF-444A-A5AA-F589B842EE33}" name="#오차값" dataDxfId="7">
+    <tableColumn id="18" xr3:uid="{CDCA2D1D-03F9-4B16-B676-4ED49530EC20}" name="#오차값" dataDxfId="7">
       <calculatedColumnFormula>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{25E34630-C217-48BF-BB07-88CE345B83B3}" name="#패러디" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{EEABB2E6-5A02-4508-9EE5-335CB0E5154C}" name="#인덱스 수식용" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{4A440C18-03CA-4AA8-B795-DBD3EA4379E5}" name="#패러디" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{99BF3394-3DF9-4524-964A-FB0C2CE7A081}" name="#인덱스 수식용" dataDxfId="5">
       <calculatedColumnFormula array="1">_xlfn.IFS(
 ISTEXT(S2),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=D2,ItemEffectTable[[#This Row],['#이름값]]=C2),S2+1,
@@ -1245,19 +1245,19 @@
 ItemEffectTable[[#This Row],['#Grade]]=D2,S2
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{47EB5FE8-E63A-4DD3-B20B-5AC042EE4619}" name="#이름 일치 여부" dataDxfId="4">
+    <tableColumn id="13" xr3:uid="{8D52A53A-0573-4B93-9D3B-CA8112DB7DCD}" name="#이름 일치 여부" dataDxfId="4">
       <calculatedColumnFormula>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{3C34F665-3DB5-4165-8C3C-93A434F9DDE1}" name="#NameIndex" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{C42C24A0-F114-4DFC-8E5B-F3D9BD361AF6}" name="#NameIndex" dataDxfId="3">
       <calculatedColumnFormula>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{CC8621FD-739B-437E-8E4F-DAD1A8470009}" name="#DescIndex" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{5A125C10-5C56-4329-AB3C-081C490089AE}" name="#DescIndex" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A0595CD3-BE4B-4F15-991F-E355CC1FBDE7}" name="#Name" dataDxfId="1">
+    <tableColumn id="15" xr3:uid="{E80B66F0-AC54-40F4-AAC0-787D5F767401}" name="#Name" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{54CCEE1B-8E7A-4D99-8CAF-75F60196B945}" name="#Desc" dataDxfId="0">
+    <tableColumn id="16" xr3:uid="{23D30133-71F1-488D-81FD-842878F5071E}" name="#Desc" dataDxfId="0">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1561,7 +1561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4E5131-B36A-4AC4-B9BE-31916505CC97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08B8CB1-F864-4D07-A3EF-651A14290803}">
   <sheetPr codeName="Sheet7">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ItemEffectGameData.xlsx
+++ b/_GameData/ItemEffectGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5738583-52D6-4DB0-A5B5-DE9EF8C7066D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AC6D94B-0D3E-4D42-87F8-BA6A75C21A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F92B302-6AE3-421B-8B3B-49E8F1A59FBF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{667D1EC8-D9EE-4C62-A209-B69B7D3537B6}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemEffectGameData" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <author>Kim_Dongju</author>
   </authors>
   <commentList>
-    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{D293D5D6-D142-498B-8E26-500CED4D39DC}">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00BDBE2B-034D-4C86-8D99-4E3763755B63}">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1116,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{F512201C-60DC-4453-91DA-F79CD4A140D3}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{59759ABF-DF13-4954-9F8E-EDF639037A6D}">
       <tableStyleElement type="wholeTable" dxfId="23"/>
       <tableStyleElement type="headerRow" dxfId="22"/>
       <tableStyleElement type="firstRowStripe" dxfId="21"/>
@@ -1181,13 +1181,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C80092BC-896D-482D-9EE1-23230A9EBA9A}" name="ItemEffectTable" displayName="ItemEffectTable" ref="B2:X58" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C6CBD7CA-2006-4468-AFBF-AA920FBC0884}" name="ItemEffectTable" displayName="ItemEffectTable" ref="B2:X58" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="B2:X58" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{93B95266-6EDE-4BBE-A3DD-1D8CDEE1B4A0}" name="#개발여부" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{467F2FD0-7FA7-4963-8388-2C2B0414578D}" name="#이름값" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{91981649-BC79-45F5-AD89-00A7DB82D317}" name="#Grade" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{DC9A8244-DDB2-4F24-B998-973756066F72}" name="Index" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{310424A0-2B9E-4428-9DAE-BA3E8ACB3C02}" name="#개발여부" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{DD58073A-DA8E-4280-B8C7-6469805DE457}" name="#이름값" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{177E4CD0-0C64-4957-9705-CE4AF4AD259C}" name="#Grade" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{86FC4A15-79D4-4919-B708-17B57F929A47}" name="Index" dataDxfId="15">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
@@ -1195,17 +1195,17 @@
 + COUNTIF($D$3:D3,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C6516421-6332-4B19-9394-EF6CDEB7B2DC}" name="ApplyType"/>
-    <tableColumn id="3" xr3:uid="{D465AE7D-EECD-4C06-A5A2-E7BB41F088C5}" name="#효과 한글" dataDxfId="14">
+    <tableColumn id="8" xr3:uid="{48B3F952-AA6E-4636-BA27-F604CA2DAC5C}" name="ApplyType"/>
+    <tableColumn id="3" xr3:uid="{AA109387-B616-4782-ADBA-B8C3CD2FF515}" name="#효과 한글" dataDxfId="14">
       <calculatedColumnFormula>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{C987462E-EA3F-4264-A680-6C352B8B7ABA}" name="ApplyValue"/>
-    <tableColumn id="9" xr3:uid="{D57A46D4-659E-4075-BEEA-9B36238CBAC8}" name="ValueOperatorType"/>
-    <tableColumn id="11" xr3:uid="{88B8A937-DED1-4D7D-A39E-8A7F0E57F777}" name="ApplyPoint"/>
-    <tableColumn id="20" xr3:uid="{36BF1D78-35AC-445E-A7DA-89B1572BB114}" name="#참조 테이블" dataDxfId="13">
+    <tableColumn id="10" xr3:uid="{E8E8DD6A-9541-489E-BC89-3CC5FDC2E685}" name="ApplyValue"/>
+    <tableColumn id="9" xr3:uid="{C698EB80-1FBF-4D99-919A-AF83499CB1C7}" name="ValueOperatorType"/>
+    <tableColumn id="11" xr3:uid="{87144F2C-A202-44E8-B6F5-B492567107AD}" name="ApplyPoint"/>
+    <tableColumn id="20" xr3:uid="{B85D2664-74E5-4CFF-B469-8153DFBD22EA}" name="#참조 테이블" dataDxfId="13">
       <calculatedColumnFormula>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{BD0D640D-738C-4E85-9531-79BAD137D237}" name="#기본값" dataDxfId="12">
+    <tableColumn id="21" xr3:uid="{D34946D1-F22F-4722-88B3-787D08BA77FD}" name="#기본값" dataDxfId="12">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
 ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
@@ -1213,10 +1213,10 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{A20BFB61-2648-42DD-8EC5-341207D015A9}" name="#ApplyValue 수식" dataDxfId="11">
+    <tableColumn id="23" xr3:uid="{84E1011D-DE50-4D18-AFCD-F8F2142A94F3}" name="#ApplyValue 수식" dataDxfId="11">
       <calculatedColumnFormula array="1">[1]!CharacterTable[MovementSpd]*0.01</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{0EA6ADB8-C70C-4DEE-A90E-92F18D03065A}" name="#적용 후" dataDxfId="10">
+    <tableColumn id="17" xr3:uid="{DB8A3127-027E-4C26-A711-C048427B2C9C}" name="#적용 후" dataDxfId="10">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
@@ -1224,20 +1224,20 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{44B3BBD9-3D0B-4A31-9D33-EB90ACBE0865}" name="#효력 가치" dataDxfId="9">
+    <tableColumn id="19" xr3:uid="{F961476F-34D8-4331-8228-98157F9AC497}" name="#효력 가치" dataDxfId="9">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{108D2FEE-0F0E-4918-BF37-545844A5AB46}" name="#총 효력가치" dataDxfId="8">
+    <tableColumn id="22" xr3:uid="{730306E6-B33D-42B6-A1EB-E368DBEF4E9F}" name="#총 효력가치" dataDxfId="8">
       <calculatedColumnFormula array="1">SUM(IF($E$3:$E$58=E3,$O$3:$O$58))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{CDCA2D1D-03F9-4B16-B676-4ED49530EC20}" name="#오차값" dataDxfId="7">
+    <tableColumn id="18" xr3:uid="{D2AA907A-6CFF-4E35-932C-FB5C5EB59503}" name="#오차값" dataDxfId="7">
       <calculatedColumnFormula>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4A440C18-03CA-4AA8-B795-DBD3EA4379E5}" name="#패러디" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{99BF3394-3DF9-4524-964A-FB0C2CE7A081}" name="#인덱스 수식용" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{7AF22C5F-B4F6-4E65-9A38-3430194725D1}" name="#패러디" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{F563D244-E9FC-407F-ACA6-70CD482139A6}" name="#인덱스 수식용" dataDxfId="5">
       <calculatedColumnFormula array="1">_xlfn.IFS(
 ISTEXT(S2),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=D2,ItemEffectTable[[#This Row],['#이름값]]=C2),S2+1,
@@ -1245,19 +1245,19 @@
 ItemEffectTable[[#This Row],['#Grade]]=D2,S2
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{8D52A53A-0573-4B93-9D3B-CA8112DB7DCD}" name="#이름 일치 여부" dataDxfId="4">
+    <tableColumn id="13" xr3:uid="{7AB7F366-3E6B-4045-B42D-8E8607D2CEF3}" name="#이름 일치 여부" dataDxfId="4">
       <calculatedColumnFormula>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C42C24A0-F114-4DFC-8E5B-F3D9BD361AF6}" name="#NameIndex" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{3A4C0560-E1D7-4572-BF5B-E541EA6A58AC}" name="#NameIndex" dataDxfId="3">
       <calculatedColumnFormula>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5A125C10-5C56-4329-AB3C-081C490089AE}" name="#DescIndex" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{BAE5922A-2BDF-4D02-98EC-2FA604C89439}" name="#DescIndex" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{E80B66F0-AC54-40F4-AAC0-787D5F767401}" name="#Name" dataDxfId="1">
+    <tableColumn id="15" xr3:uid="{15F89258-04CB-450C-9E31-50B2C98B6BB2}" name="#Name" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{23D30133-71F1-488D-81FD-842878F5071E}" name="#Desc" dataDxfId="0">
+    <tableColumn id="16" xr3:uid="{789B5347-D8DF-425F-83E9-066FE5137389}" name="#Desc" dataDxfId="0">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1561,7 +1561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08B8CB1-F864-4D07-A3EF-651A14290803}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67A043E-482A-495C-A49B-8B9B350E7607}">
   <sheetPr codeName="Sheet7">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
@@ -2273,7 +2273,7 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>34</v>
@@ -2285,7 +2285,7 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="O8" s="8" cm="1">
         <f t="array" ref="O8">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
@@ -2485,7 +2485,7 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M10" s="9" t="s">
         <v>34</v>
@@ -2497,22 +2497,22 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="O10" s="8" cm="1">
         <f t="array" ref="O10">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</f>
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="P10" s="8" cm="1">
         <f t="array" ref="P10">SUM(IF($E$3:$E$58=E10,$O$3:$O$58))</f>
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="Q10" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-570</v>
+        <v>-1470</v>
       </c>
       <c r="R10" s="7"/>
       <c r="S10" s="8" cm="1">
@@ -3335,11 +3335,11 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M18" s="9" cm="1">
         <f t="array" ref="M18">[1]!CharacterTable[MovementSpd]*-0.05</f>
-        <v>-18.5</v>
+        <v>-15</v>
       </c>
       <c r="N18" s="8" cm="1">
         <f t="array" ref="N18">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -3348,22 +3348,22 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>1.5</v>
+        <v>35</v>
       </c>
       <c r="O18" s="8" cm="1">
         <f t="array" ref="O18">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</f>
-        <v>2775</v>
+        <v>2250</v>
       </c>
       <c r="P18" s="8" cm="1">
         <f t="array" ref="P18">SUM(IF($E$3:$E$58=E18,$O$3:$O$58))</f>
-        <v>2775</v>
+        <v>2250</v>
       </c>
       <c r="Q18" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-2725</v>
+        <v>-2200</v>
       </c>
       <c r="R18" s="7"/>
       <c r="S18" s="8" cm="1">
@@ -3677,11 +3677,11 @@
       </c>
       <c r="P21" s="8" cm="1">
         <f t="array" ref="P21">SUM(IF($E$3:$E$58=E21,$O$3:$O$58))</f>
-        <v>925</v>
+        <v>1766.6666666666667</v>
       </c>
       <c r="Q21" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-875</v>
+        <v>-1716.6666666666667</v>
       </c>
       <c r="R21" s="7" t="s">
         <v>75</v>
@@ -3762,7 +3762,7 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="M22" s="9" t="s">
         <v>34</v>
@@ -3774,22 +3774,22 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>388.5</v>
+        <v>315</v>
       </c>
       <c r="O22" s="8" cm="1">
         <f t="array" ref="O22">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</f>
-        <v>308.33333333333337</v>
+        <v>250.00000000000003</v>
       </c>
       <c r="P22" s="8" cm="1">
         <f t="array" ref="P22">SUM(IF($E$3:$E$58=E22,$O$3:$O$58))</f>
-        <v>925</v>
+        <v>1766.6666666666667</v>
       </c>
       <c r="Q22" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-875</v>
+        <v>-1716.6666666666667</v>
       </c>
       <c r="R22" s="7" t="s">
         <v>75</v>
@@ -3870,7 +3870,7 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M23" s="9" t="s">
         <v>34</v>
@@ -3882,22 +3882,22 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="O23" s="8" cm="1">
         <f t="array" ref="O23">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</f>
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="P23" s="8" cm="1">
         <f t="array" ref="P23">SUM(IF($E$3:$E$58=E23,$O$3:$O$58))</f>
-        <v>925</v>
+        <v>1766.6666666666667</v>
       </c>
       <c r="Q23" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-875</v>
+        <v>-1716.6666666666667</v>
       </c>
       <c r="R23" s="7" t="s">
         <v>75</v>
@@ -4943,7 +4943,7 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="M33" s="9" t="s">
         <v>34</v>
@@ -4955,22 +4955,22 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>296</v>
+        <v>240</v>
       </c>
       <c r="O33" s="8" cm="1">
         <f t="array" ref="O33">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</f>
-        <v>-1233.3333333333335</v>
+        <v>-1000.0000000000001</v>
       </c>
       <c r="P33" s="8" cm="1">
         <f t="array" ref="P33">SUM(IF($E$3:$E$58=E33,$O$3:$O$58))</f>
-        <v>-1166.666666666667</v>
+        <v>-933.33333333333337</v>
       </c>
       <c r="Q33" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>1216.666666666667</v>
+        <v>983.33333333333337</v>
       </c>
       <c r="R33" s="7"/>
       <c r="S33" s="8" cm="1">
@@ -5072,11 +5072,11 @@
       </c>
       <c r="P34" s="8" cm="1">
         <f t="array" ref="P34">SUM(IF($E$3:$E$58=E34,$O$3:$O$58))</f>
-        <v>-1166.666666666667</v>
+        <v>-933.33333333333337</v>
       </c>
       <c r="Q34" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>1216.666666666667</v>
+        <v>983.33333333333337</v>
       </c>
       <c r="R34" s="7"/>
       <c r="S34" s="8" cm="1">
@@ -5178,11 +5178,11 @@
       </c>
       <c r="P35" s="8" cm="1">
         <f t="array" ref="P35">SUM(IF($E$3:$E$58=E35,$O$3:$O$58))</f>
-        <v>-1166.666666666667</v>
+        <v>-933.33333333333337</v>
       </c>
       <c r="Q35" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>1216.666666666667</v>
+        <v>983.33333333333337</v>
       </c>
       <c r="R35" s="7"/>
       <c r="S35" s="8" cm="1">
@@ -5284,11 +5284,11 @@
       </c>
       <c r="P36" s="8" cm="1">
         <f t="array" ref="P36">SUM(IF($E$3:$E$58=E36,$O$3:$O$58))</f>
-        <v>-1166.666666666667</v>
+        <v>-933.33333333333337</v>
       </c>
       <c r="Q36" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>1216.666666666667</v>
+        <v>983.33333333333337</v>
       </c>
       <c r="R36" s="7"/>
       <c r="S36" s="8" cm="1">
@@ -5367,7 +5367,7 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="M37" s="9" t="s">
         <v>34</v>
@@ -5379,22 +5379,22 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>703</v>
+        <v>570</v>
       </c>
       <c r="O37" s="8" cm="1">
         <f t="array" ref="O37">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</f>
-        <v>5550</v>
+        <v>4500</v>
       </c>
       <c r="P37" s="8" cm="1">
         <f t="array" ref="P37">SUM(IF($E$3:$E$58=E37,$O$3:$O$58))</f>
-        <v>5516.666666666667</v>
+        <v>4466.666666666667</v>
       </c>
       <c r="Q37" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-5466.666666666667</v>
+        <v>-4416.666666666667</v>
       </c>
       <c r="R37" s="7"/>
       <c r="S37" s="8" cm="1">
@@ -5496,11 +5496,11 @@
       </c>
       <c r="P38" s="8" cm="1">
         <f t="array" ref="P38">SUM(IF($E$3:$E$58=E38,$O$3:$O$58))</f>
-        <v>5516.666666666667</v>
+        <v>4466.666666666667</v>
       </c>
       <c r="Q38" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-5466.666666666667</v>
+        <v>-4416.666666666667</v>
       </c>
       <c r="R38" s="7"/>
       <c r="S38" s="8" cm="1">
@@ -6344,11 +6344,11 @@
       </c>
       <c r="P46" s="8" cm="1">
         <f t="array" ref="P46">SUM(IF($E$3:$E$58=E46,$O$3:$O$58))</f>
-        <v>-2983.3333333333335</v>
+        <v>-2400</v>
       </c>
       <c r="Q46" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>3033.3333333333335</v>
+        <v>2450</v>
       </c>
       <c r="R46" s="7"/>
       <c r="S46" s="8" cm="1">
@@ -6427,7 +6427,7 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="M47" s="9" t="s">
         <v>34</v>
@@ -6439,22 +6439,22 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8" cm="1">
         <f t="array" ref="O47">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</f>
-        <v>-3083.3333333333335</v>
+        <v>-2500</v>
       </c>
       <c r="P47" s="8" cm="1">
         <f t="array" ref="P47">SUM(IF($E$3:$E$58=E47,$O$3:$O$58))</f>
-        <v>-2983.3333333333335</v>
+        <v>-2400</v>
       </c>
       <c r="Q47" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>3033.3333333333335</v>
+        <v>2450</v>
       </c>
       <c r="R47" s="7"/>
       <c r="S47" s="8" cm="1">

--- a/_GameData/ItemEffectGameData.xlsx
+++ b/_GameData/ItemEffectGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AC6D94B-0D3E-4D42-87F8-BA6A75C21A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F313F86-BEAF-4236-A6E7-34E33D9F72F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{667D1EC8-D9EE-4C62-A209-B69B7D3537B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{876FB962-7494-4395-A9A2-4E3B7991B802}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemEffectGameData" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <author>Kim_Dongju</author>
   </authors>
   <commentList>
-    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00BDBE2B-034D-4C86-8D99-4E3763755B63}">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{14226FC6-0C9D-46D8-8414-80C7DFEC4413}">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1116,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{59759ABF-DF13-4954-9F8E-EDF639037A6D}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{90041A4A-1BEF-4D7D-B9C0-7E6735E47A12}">
       <tableStyleElement type="wholeTable" dxfId="23"/>
       <tableStyleElement type="headerRow" dxfId="22"/>
       <tableStyleElement type="firstRowStripe" dxfId="21"/>
@@ -1181,13 +1181,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C6CBD7CA-2006-4468-AFBF-AA920FBC0884}" name="ItemEffectTable" displayName="ItemEffectTable" ref="B2:X58" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3EA40C0-18DA-44B2-B3A2-C9F9A228EF96}" name="ItemEffectTable" displayName="ItemEffectTable" ref="B2:X58" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="B2:X58" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{310424A0-2B9E-4428-9DAE-BA3E8ACB3C02}" name="#개발여부" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{DD58073A-DA8E-4280-B8C7-6469805DE457}" name="#이름값" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{177E4CD0-0C64-4957-9705-CE4AF4AD259C}" name="#Grade" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{86FC4A15-79D4-4919-B708-17B57F929A47}" name="Index" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{C93F057B-FBB9-4EDC-BFB6-23073BE512B6}" name="#개발여부" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{78F165F9-E5A0-480B-BD18-33D5F9C6B9B7}" name="#이름값" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{E877D839-F03D-4608-8661-3898EAC0A68F}" name="#Grade" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{B9D797D9-E18B-4664-B126-36FD8900752A}" name="Index" dataDxfId="15">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
@@ -1195,17 +1195,17 @@
 + COUNTIF($D$3:D3,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{48B3F952-AA6E-4636-BA27-F604CA2DAC5C}" name="ApplyType"/>
-    <tableColumn id="3" xr3:uid="{AA109387-B616-4782-ADBA-B8C3CD2FF515}" name="#효과 한글" dataDxfId="14">
+    <tableColumn id="8" xr3:uid="{2A61F9D8-FDA2-41FE-BDB3-4703AE0F6709}" name="ApplyType"/>
+    <tableColumn id="3" xr3:uid="{27152B4F-1484-42F6-9A6E-9A1253E25434}" name="#효과 한글" dataDxfId="14">
       <calculatedColumnFormula>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E8E8DD6A-9541-489E-BC89-3CC5FDC2E685}" name="ApplyValue"/>
-    <tableColumn id="9" xr3:uid="{C698EB80-1FBF-4D99-919A-AF83499CB1C7}" name="ValueOperatorType"/>
-    <tableColumn id="11" xr3:uid="{87144F2C-A202-44E8-B6F5-B492567107AD}" name="ApplyPoint"/>
-    <tableColumn id="20" xr3:uid="{B85D2664-74E5-4CFF-B469-8153DFBD22EA}" name="#참조 테이블" dataDxfId="13">
+    <tableColumn id="10" xr3:uid="{5135E8B0-12EE-46DA-B76C-94AD8BFC0555}" name="ApplyValue"/>
+    <tableColumn id="9" xr3:uid="{915F753C-C041-46BA-9DBF-F8BC76D134B0}" name="ValueOperatorType"/>
+    <tableColumn id="11" xr3:uid="{AE99F30D-7E3A-4D8D-B38E-1E736E653396}" name="ApplyPoint"/>
+    <tableColumn id="20" xr3:uid="{27B293AF-C90B-434E-AA70-9C5201974412}" name="#참조 테이블" dataDxfId="13">
       <calculatedColumnFormula>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{D34946D1-F22F-4722-88B3-787D08BA77FD}" name="#기본값" dataDxfId="12">
+    <tableColumn id="21" xr3:uid="{A4A15855-05C8-40D1-8D83-1DC8844D8E6B}" name="#기본값" dataDxfId="12">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
 ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
@@ -1213,10 +1213,10 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{84E1011D-DE50-4D18-AFCD-F8F2142A94F3}" name="#ApplyValue 수식" dataDxfId="11">
+    <tableColumn id="23" xr3:uid="{99B58C45-7C9B-45FC-A942-9DFE9AF63E2E}" name="#ApplyValue 수식" dataDxfId="11">
       <calculatedColumnFormula array="1">[1]!CharacterTable[MovementSpd]*0.01</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{DB8A3127-027E-4C26-A711-C048427B2C9C}" name="#적용 후" dataDxfId="10">
+    <tableColumn id="17" xr3:uid="{7B76C63C-E094-4339-98A2-91C232F29EAD}" name="#적용 후" dataDxfId="10">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
@@ -1224,20 +1224,20 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{F961476F-34D8-4331-8228-98157F9AC497}" name="#효력 가치" dataDxfId="9">
+    <tableColumn id="19" xr3:uid="{264F7083-A72D-4D11-8EDA-54930D0B110E}" name="#효력 가치" dataDxfId="9">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{730306E6-B33D-42B6-A1EB-E368DBEF4E9F}" name="#총 효력가치" dataDxfId="8">
+    <tableColumn id="22" xr3:uid="{813A217D-92F6-41EB-A8E2-891C2623E8DF}" name="#총 효력가치" dataDxfId="8">
       <calculatedColumnFormula array="1">SUM(IF($E$3:$E$58=E3,$O$3:$O$58))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{D2AA907A-6CFF-4E35-932C-FB5C5EB59503}" name="#오차값" dataDxfId="7">
+    <tableColumn id="18" xr3:uid="{D3AB3E6F-CC4D-47DC-BA2A-0461F1B1130B}" name="#오차값" dataDxfId="7">
       <calculatedColumnFormula>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7AF22C5F-B4F6-4E65-9A38-3430194725D1}" name="#패러디" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{F563D244-E9FC-407F-ACA6-70CD482139A6}" name="#인덱스 수식용" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{66C77D0B-7A86-4F22-8754-EC163CC55F26}" name="#패러디" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{AA11A51B-11D5-42FB-A3BE-1AAEBCE7E802}" name="#인덱스 수식용" dataDxfId="5">
       <calculatedColumnFormula array="1">_xlfn.IFS(
 ISTEXT(S2),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=D2,ItemEffectTable[[#This Row],['#이름값]]=C2),S2+1,
@@ -1245,19 +1245,19 @@
 ItemEffectTable[[#This Row],['#Grade]]=D2,S2
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{7AB7F366-3E6B-4045-B42D-8E8607D2CEF3}" name="#이름 일치 여부" dataDxfId="4">
+    <tableColumn id="13" xr3:uid="{400D3431-0F67-4AAA-B197-DAFE6D17E74A}" name="#이름 일치 여부" dataDxfId="4">
       <calculatedColumnFormula>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{3A4C0560-E1D7-4572-BF5B-E541EA6A58AC}" name="#NameIndex" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{296797BE-092D-4E9C-AD57-9C6F01C9991F}" name="#NameIndex" dataDxfId="3">
       <calculatedColumnFormula>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BAE5922A-2BDF-4D02-98EC-2FA604C89439}" name="#DescIndex" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{1648537F-40CB-4C7E-B6C1-DD527C8D992A}" name="#DescIndex" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{15F89258-04CB-450C-9E31-50B2C98B6BB2}" name="#Name" dataDxfId="1">
+    <tableColumn id="15" xr3:uid="{8643378B-D47C-4DA1-AB7A-8962160B618B}" name="#Name" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{789B5347-D8DF-425F-83E9-066FE5137389}" name="#Desc" dataDxfId="0">
+    <tableColumn id="16" xr3:uid="{D20D55BD-4810-491D-9F5E-7682470F4F72}" name="#Desc" dataDxfId="0">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1561,7 +1561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67A043E-482A-495C-A49B-8B9B350E7607}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32916BD-382A-4E33-B838-832D8EBC4ADA}">
   <sheetPr codeName="Sheet7">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ItemEffectGameData.xlsx
+++ b/_GameData/ItemEffectGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F313F86-BEAF-4236-A6E7-34E33D9F72F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2EEC2A6-71DA-4CB8-989E-907EED4268C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{876FB962-7494-4395-A9A2-4E3B7991B802}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F99C8CA-782D-4400-8677-ADCB8CE3A688}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemEffectGameData" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <author>Kim_Dongju</author>
   </authors>
   <commentList>
-    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{14226FC6-0C9D-46D8-8414-80C7DFEC4413}">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{2D138E91-8466-4F4C-BA69-D78059A74869}">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1116,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{90041A4A-1BEF-4D7D-B9C0-7E6735E47A12}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{E26C072F-CA5D-406C-A8A0-A0B7B76A2DB4}">
       <tableStyleElement type="wholeTable" dxfId="23"/>
       <tableStyleElement type="headerRow" dxfId="22"/>
       <tableStyleElement type="firstRowStripe" dxfId="21"/>
@@ -1181,13 +1181,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3EA40C0-18DA-44B2-B3A2-C9F9A228EF96}" name="ItemEffectTable" displayName="ItemEffectTable" ref="B2:X58" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF89D621-E17D-4842-BB42-C7203E69A25C}" name="ItemEffectTable" displayName="ItemEffectTable" ref="B2:X58" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="B2:X58" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{C93F057B-FBB9-4EDC-BFB6-23073BE512B6}" name="#개발여부" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{78F165F9-E5A0-480B-BD18-33D5F9C6B9B7}" name="#이름값" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{E877D839-F03D-4608-8661-3898EAC0A68F}" name="#Grade" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{B9D797D9-E18B-4664-B126-36FD8900752A}" name="Index" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{A8526BEF-8D68-4ACD-BAE9-79AE6AFA3B49}" name="#개발여부" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{0003202D-13C1-48E6-B1A6-E062E5F5463A}" name="#이름값" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{2E23DB5E-66D0-4625-B58F-D8C7281BD5D3}" name="#Grade" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{3DC57CD0-E95E-4908-A0C0-D1D3AD355B08}" name="Index" dataDxfId="15">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
@@ -1195,17 +1195,17 @@
 + COUNTIF($D$3:D3,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2A61F9D8-FDA2-41FE-BDB3-4703AE0F6709}" name="ApplyType"/>
-    <tableColumn id="3" xr3:uid="{27152B4F-1484-42F6-9A6E-9A1253E25434}" name="#효과 한글" dataDxfId="14">
+    <tableColumn id="8" xr3:uid="{BCB0F180-0A38-4D8F-B186-D15F51194A2F}" name="ApplyType"/>
+    <tableColumn id="3" xr3:uid="{FA68C5DF-B30D-45DF-ADAA-44A25287A322}" name="#효과 한글" dataDxfId="14">
       <calculatedColumnFormula>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5135E8B0-12EE-46DA-B76C-94AD8BFC0555}" name="ApplyValue"/>
-    <tableColumn id="9" xr3:uid="{915F753C-C041-46BA-9DBF-F8BC76D134B0}" name="ValueOperatorType"/>
-    <tableColumn id="11" xr3:uid="{AE99F30D-7E3A-4D8D-B38E-1E736E653396}" name="ApplyPoint"/>
-    <tableColumn id="20" xr3:uid="{27B293AF-C90B-434E-AA70-9C5201974412}" name="#참조 테이블" dataDxfId="13">
+    <tableColumn id="10" xr3:uid="{648CF5C8-DF31-4DDC-8D3D-7DC2A3223CBF}" name="ApplyValue"/>
+    <tableColumn id="9" xr3:uid="{78CAAF05-A9F4-47A8-8A88-D34483E37A34}" name="ValueOperatorType"/>
+    <tableColumn id="11" xr3:uid="{34E532E3-84AB-42B2-95EB-CD042048DD9F}" name="ApplyPoint"/>
+    <tableColumn id="20" xr3:uid="{23348D44-2046-4DB9-A5EB-737CD52214A5}" name="#참조 테이블" dataDxfId="13">
       <calculatedColumnFormula>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{A4A15855-05C8-40D1-8D83-1DC8844D8E6B}" name="#기본값" dataDxfId="12">
+    <tableColumn id="21" xr3:uid="{548E3136-237E-4A5A-9A0A-BE961CBC1172}" name="#기본값" dataDxfId="12">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
 ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
@@ -1213,10 +1213,10 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{99B58C45-7C9B-45FC-A942-9DFE9AF63E2E}" name="#ApplyValue 수식" dataDxfId="11">
+    <tableColumn id="23" xr3:uid="{EBCFB882-8283-4CA4-B8C0-C4EC8DF8B391}" name="#ApplyValue 수식" dataDxfId="11">
       <calculatedColumnFormula array="1">[1]!CharacterTable[MovementSpd]*0.01</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{7B76C63C-E094-4339-98A2-91C232F29EAD}" name="#적용 후" dataDxfId="10">
+    <tableColumn id="17" xr3:uid="{68017C0A-7938-4D3F-A93A-2E3FF1596D4D}" name="#적용 후" dataDxfId="10">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
@@ -1224,20 +1224,20 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{264F7083-A72D-4D11-8EDA-54930D0B110E}" name="#효력 가치" dataDxfId="9">
+    <tableColumn id="19" xr3:uid="{DF76487D-248C-40AD-B185-EFC77D102E9C}" name="#효력 가치" dataDxfId="9">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{813A217D-92F6-41EB-A8E2-891C2623E8DF}" name="#총 효력가치" dataDxfId="8">
+    <tableColumn id="22" xr3:uid="{294C506D-B4EB-4AFA-BD05-CC0DAD7A38E7}" name="#총 효력가치" dataDxfId="8">
       <calculatedColumnFormula array="1">SUM(IF($E$3:$E$58=E3,$O$3:$O$58))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{D3AB3E6F-CC4D-47DC-BA2A-0461F1B1130B}" name="#오차값" dataDxfId="7">
+    <tableColumn id="18" xr3:uid="{BD8A2304-AD18-490F-B671-D7D693187CB7}" name="#오차값" dataDxfId="7">
       <calculatedColumnFormula>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{66C77D0B-7A86-4F22-8754-EC163CC55F26}" name="#패러디" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{AA11A51B-11D5-42FB-A3BE-1AAEBCE7E802}" name="#인덱스 수식용" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{1DB0C877-6873-4122-BBD7-8F68C2B7ABD6}" name="#패러디" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{91EEBD6D-F042-46F8-8186-4527DD521B7D}" name="#인덱스 수식용" dataDxfId="5">
       <calculatedColumnFormula array="1">_xlfn.IFS(
 ISTEXT(S2),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=D2,ItemEffectTable[[#This Row],['#이름값]]=C2),S2+1,
@@ -1245,19 +1245,19 @@
 ItemEffectTable[[#This Row],['#Grade]]=D2,S2
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{400D3431-0F67-4AAA-B197-DAFE6D17E74A}" name="#이름 일치 여부" dataDxfId="4">
+    <tableColumn id="13" xr3:uid="{540976D4-DB6D-4569-9C77-8840D17C56DE}" name="#이름 일치 여부" dataDxfId="4">
       <calculatedColumnFormula>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{296797BE-092D-4E9C-AD57-9C6F01C9991F}" name="#NameIndex" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{8792E122-EC3E-4F6F-A242-BAAC565AC376}" name="#NameIndex" dataDxfId="3">
       <calculatedColumnFormula>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{1648537F-40CB-4C7E-B6C1-DD527C8D992A}" name="#DescIndex" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{114718EE-4A2C-4B2D-BE7A-4ED5C9102D6F}" name="#DescIndex" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{8643378B-D47C-4DA1-AB7A-8962160B618B}" name="#Name" dataDxfId="1">
+    <tableColumn id="15" xr3:uid="{45A4BED2-D12A-46C9-A81E-6480C0AC425F}" name="#Name" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{D20D55BD-4810-491D-9F5E-7682470F4F72}" name="#Desc" dataDxfId="0">
+    <tableColumn id="16" xr3:uid="{0CD29403-0E1C-4682-9CB7-8FE43286F20D}" name="#Desc" dataDxfId="0">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1561,7 +1561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32916BD-382A-4E33-B838-832D8EBC4ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52F3FFA-E25A-4E77-AB6A-7E679B516404}">
   <sheetPr codeName="Sheet7">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ItemEffectGameData.xlsx
+++ b/_GameData/ItemEffectGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2EEC2A6-71DA-4CB8-989E-907EED4268C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{240DEE88-B76D-4976-AD6A-580AA4B79FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F99C8CA-782D-4400-8677-ADCB8CE3A688}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FBEABD6F-378E-4FFF-8EC2-C91181A48623}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemEffectGameData" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <author>Kim_Dongju</author>
   </authors>
   <commentList>
-    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{2D138E91-8466-4F4C-BA69-D78059A74869}">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{58166A89-4BE9-4BC9-8E2D-63D27FD8064E}">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1116,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{E26C072F-CA5D-406C-A8A0-A0B7B76A2DB4}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{6BAC35C7-7352-404F-A750-78855559080C}">
       <tableStyleElement type="wholeTable" dxfId="23"/>
       <tableStyleElement type="headerRow" dxfId="22"/>
       <tableStyleElement type="firstRowStripe" dxfId="21"/>
@@ -1181,13 +1181,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF89D621-E17D-4842-BB42-C7203E69A25C}" name="ItemEffectTable" displayName="ItemEffectTable" ref="B2:X58" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8E999648-5957-4FC3-AFD5-3133B7AF94FD}" name="ItemEffectTable" displayName="ItemEffectTable" ref="B2:X58" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="B2:X58" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{A8526BEF-8D68-4ACD-BAE9-79AE6AFA3B49}" name="#개발여부" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{0003202D-13C1-48E6-B1A6-E062E5F5463A}" name="#이름값" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{2E23DB5E-66D0-4625-B58F-D8C7281BD5D3}" name="#Grade" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{3DC57CD0-E95E-4908-A0C0-D1D3AD355B08}" name="Index" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{48EDF750-AF64-49D9-896D-BC9DAE811932}" name="#개발여부" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{C91D0236-03E5-4DB2-996C-5B3373388436}" name="#이름값" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{6A00DE90-3890-4C1D-B55C-A5634F72F8FB}" name="#Grade" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{4CA48743-08D1-4B95-92E3-92A660E15E51}" name="Index" dataDxfId="15">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
@@ -1195,17 +1195,17 @@
 + COUNTIF($D$3:D3,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BCB0F180-0A38-4D8F-B186-D15F51194A2F}" name="ApplyType"/>
-    <tableColumn id="3" xr3:uid="{FA68C5DF-B30D-45DF-ADAA-44A25287A322}" name="#효과 한글" dataDxfId="14">
+    <tableColumn id="8" xr3:uid="{7063A00B-EC11-48D7-A5CD-27E79E20FC50}" name="ApplyType"/>
+    <tableColumn id="3" xr3:uid="{8CD0EEF7-5ECA-4AC2-8A49-7A612600593D}" name="#효과 한글" dataDxfId="14">
       <calculatedColumnFormula>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{648CF5C8-DF31-4DDC-8D3D-7DC2A3223CBF}" name="ApplyValue"/>
-    <tableColumn id="9" xr3:uid="{78CAAF05-A9F4-47A8-8A88-D34483E37A34}" name="ValueOperatorType"/>
-    <tableColumn id="11" xr3:uid="{34E532E3-84AB-42B2-95EB-CD042048DD9F}" name="ApplyPoint"/>
-    <tableColumn id="20" xr3:uid="{23348D44-2046-4DB9-A5EB-737CD52214A5}" name="#참조 테이블" dataDxfId="13">
+    <tableColumn id="10" xr3:uid="{4081A8B4-75B2-403F-9AD7-4A449252E49C}" name="ApplyValue"/>
+    <tableColumn id="9" xr3:uid="{523FDF06-51AA-472C-BE79-3380047CDCEA}" name="ValueOperatorType"/>
+    <tableColumn id="11" xr3:uid="{A89E4A27-4842-484A-923A-EA36EABE97FD}" name="ApplyPoint"/>
+    <tableColumn id="20" xr3:uid="{D901BAF8-87E9-4BF5-863B-F3FC4EC440D9}" name="#참조 테이블" dataDxfId="13">
       <calculatedColumnFormula>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{548E3136-237E-4A5A-9A0A-BE961CBC1172}" name="#기본값" dataDxfId="12">
+    <tableColumn id="21" xr3:uid="{D89211DA-5CF1-48CD-9BE5-0DB7499A86AA}" name="#기본값" dataDxfId="12">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
 ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
@@ -1213,10 +1213,10 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{EBCFB882-8283-4CA4-B8C0-C4EC8DF8B391}" name="#ApplyValue 수식" dataDxfId="11">
+    <tableColumn id="23" xr3:uid="{501BC2B4-D785-49FE-8927-094E8B5024E1}" name="#ApplyValue 수식" dataDxfId="11">
       <calculatedColumnFormula array="1">[1]!CharacterTable[MovementSpd]*0.01</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{68017C0A-7938-4D3F-A93A-2E3FF1596D4D}" name="#적용 후" dataDxfId="10">
+    <tableColumn id="17" xr3:uid="{B2DAF6FF-21E1-4EBA-B1C0-C632BA9DC7CB}" name="#적용 후" dataDxfId="10">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
@@ -1224,20 +1224,20 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{DF76487D-248C-40AD-B185-EFC77D102E9C}" name="#효력 가치" dataDxfId="9">
+    <tableColumn id="19" xr3:uid="{C035B2E4-0FAF-4B8A-BFB5-2A9A9EAED19A}" name="#효력 가치" dataDxfId="9">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{294C506D-B4EB-4AFA-BD05-CC0DAD7A38E7}" name="#총 효력가치" dataDxfId="8">
+    <tableColumn id="22" xr3:uid="{3C99C33B-DCA6-461D-A213-BCF570579597}" name="#총 효력가치" dataDxfId="8">
       <calculatedColumnFormula array="1">SUM(IF($E$3:$E$58=E3,$O$3:$O$58))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{BD8A2304-AD18-490F-B671-D7D693187CB7}" name="#오차값" dataDxfId="7">
+    <tableColumn id="18" xr3:uid="{8D61C493-4FD3-4C80-9979-9AB832CE7EA6}" name="#오차값" dataDxfId="7">
       <calculatedColumnFormula>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1DB0C877-6873-4122-BBD7-8F68C2B7ABD6}" name="#패러디" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{91EEBD6D-F042-46F8-8186-4527DD521B7D}" name="#인덱스 수식용" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{EF7F97D5-4EB3-4B6C-AE32-4471AE271802}" name="#패러디" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{600171F6-507A-4A75-A80C-326A026C9EC3}" name="#인덱스 수식용" dataDxfId="5">
       <calculatedColumnFormula array="1">_xlfn.IFS(
 ISTEXT(S2),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=D2,ItemEffectTable[[#This Row],['#이름값]]=C2),S2+1,
@@ -1245,19 +1245,19 @@
 ItemEffectTable[[#This Row],['#Grade]]=D2,S2
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{540976D4-DB6D-4569-9C77-8840D17C56DE}" name="#이름 일치 여부" dataDxfId="4">
+    <tableColumn id="13" xr3:uid="{FD8A592C-E695-403B-A479-88345F0749B6}" name="#이름 일치 여부" dataDxfId="4">
       <calculatedColumnFormula>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8792E122-EC3E-4F6F-A242-BAAC565AC376}" name="#NameIndex" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{35C1EB55-6681-4E56-A586-02F9FC5950DB}" name="#NameIndex" dataDxfId="3">
       <calculatedColumnFormula>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{114718EE-4A2C-4B2D-BE7A-4ED5C9102D6F}" name="#DescIndex" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{7CB5A7A4-FA79-43F7-AF23-9F1B4739AA5E}" name="#DescIndex" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{45A4BED2-D12A-46C9-A81E-6480C0AC425F}" name="#Name" dataDxfId="1">
+    <tableColumn id="15" xr3:uid="{F20DC7F7-75C1-46D3-9008-011F1B42D21B}" name="#Name" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{0CD29403-0E1C-4682-9CB7-8FE43286F20D}" name="#Desc" dataDxfId="0">
+    <tableColumn id="16" xr3:uid="{899FD616-AF75-4519-8C0A-375F8631BF27}" name="#Desc" dataDxfId="0">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1561,7 +1561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52F3FFA-E25A-4E77-AB6A-7E679B516404}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B693F5FF-FD54-4B78-858C-B6E13C6431F3}">
   <sheetPr codeName="Sheet7">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
@@ -5602,11 +5602,11 @@
       </c>
       <c r="P39" s="8" cm="1">
         <f t="array" ref="P39">SUM(IF($E$3:$E$58=E39,$O$3:$O$58))</f>
-        <v>53.333333333333343</v>
+        <v>-9.1666666666666572</v>
       </c>
       <c r="Q39" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-3.3333333333333428</v>
+        <v>59.166666666666657</v>
       </c>
       <c r="R39" s="7"/>
       <c r="S39" s="8" cm="1">
@@ -5708,11 +5708,11 @@
       </c>
       <c r="P40" s="8" cm="1">
         <f t="array" ref="P40">SUM(IF($E$3:$E$58=E40,$O$3:$O$58))</f>
-        <v>53.333333333333343</v>
+        <v>-9.1666666666666572</v>
       </c>
       <c r="Q40" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-3.3333333333333428</v>
+        <v>59.166666666666657</v>
       </c>
       <c r="R40" s="7"/>
       <c r="S40" s="8" cm="1">
@@ -5814,11 +5814,11 @@
       </c>
       <c r="P41" s="8" cm="1">
         <f t="array" ref="P41">SUM(IF($E$3:$E$58=E41,$O$3:$O$58))</f>
-        <v>53.333333333333343</v>
+        <v>-9.1666666666666572</v>
       </c>
       <c r="Q41" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-3.3333333333333428</v>
+        <v>59.166666666666657</v>
       </c>
       <c r="R41" s="7"/>
       <c r="S41" s="8" cm="1">
@@ -5897,7 +5897,7 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M42" s="9" t="s">
         <v>34</v>
@@ -5909,22 +5909,22 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="O42" s="8" cm="1">
         <f t="array" ref="O42">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="P42" s="8" cm="1">
         <f t="array" ref="P42">SUM(IF($E$3:$E$58=E42,$O$3:$O$58))</f>
-        <v>53.333333333333343</v>
+        <v>-9.1666666666666572</v>
       </c>
       <c r="Q42" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-3.3333333333333428</v>
+        <v>59.166666666666657</v>
       </c>
       <c r="R42" s="7"/>
       <c r="S42" s="8" cm="1">
@@ -6003,7 +6003,7 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M43" s="9" t="s">
         <v>34</v>
@@ -6015,22 +6015,22 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O43" s="8" cm="1">
         <f t="array" ref="O43">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</f>
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P43" s="8" cm="1">
         <f t="array" ref="P43">SUM(IF($E$3:$E$58=E43,$O$3:$O$58))</f>
-        <v>53.333333333333343</v>
+        <v>-9.1666666666666572</v>
       </c>
       <c r="Q43" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-3.3333333333333428</v>
+        <v>59.166666666666657</v>
       </c>
       <c r="R43" s="7"/>
       <c r="S43" s="8" cm="1">
@@ -6109,7 +6109,7 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="M44" s="9" t="s">
         <v>34</v>
@@ -6121,22 +6121,22 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="O44" s="8" cm="1">
         <f t="array" ref="O44">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</f>
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="P44" s="8" cm="1">
         <f t="array" ref="P44">SUM(IF($E$3:$E$58=E44,$O$3:$O$58))</f>
-        <v>53.333333333333343</v>
+        <v>-9.1666666666666572</v>
       </c>
       <c r="Q44" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-3.3333333333333428</v>
+        <v>59.166666666666657</v>
       </c>
       <c r="R44" s="7"/>
       <c r="S44" s="8" cm="1">
@@ -6215,7 +6215,7 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="M45" s="9" t="s">
         <v>34</v>
@@ -6227,22 +6227,22 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="O45" s="8" cm="1">
         <f t="array" ref="O45">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</f>
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="P45" s="8" cm="1">
         <f t="array" ref="P45">SUM(IF($E$3:$E$58=E45,$O$3:$O$58))</f>
-        <v>53.333333333333343</v>
+        <v>-9.1666666666666572</v>
       </c>
       <c r="Q45" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-3.3333333333333428</v>
+        <v>59.166666666666657</v>
       </c>
       <c r="R45" s="7"/>
       <c r="S45" s="8" cm="1">

--- a/_GameData/ItemEffectGameData.xlsx
+++ b/_GameData/ItemEffectGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{240DEE88-B76D-4976-AD6A-580AA4B79FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5193AC34-B1CE-4977-8E3A-A6EEE57D3801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FBEABD6F-378E-4FFF-8EC2-C91181A48623}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{499C068C-FDA6-48F3-A504-904A943C1564}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemEffectGameData" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <author>Kim_Dongju</author>
   </authors>
   <commentList>
-    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{58166A89-4BE9-4BC9-8E2D-63D27FD8064E}">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{147A71AB-6151-459B-934B-ED059878F4CC}">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1116,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{6BAC35C7-7352-404F-A750-78855559080C}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{1AB2B5F3-4947-433B-8B45-3A71425CF4FC}">
       <tableStyleElement type="wholeTable" dxfId="23"/>
       <tableStyleElement type="headerRow" dxfId="22"/>
       <tableStyleElement type="firstRowStripe" dxfId="21"/>
@@ -1181,13 +1181,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8E999648-5957-4FC3-AFD5-3133B7AF94FD}" name="ItemEffectTable" displayName="ItemEffectTable" ref="B2:X58" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6219D3BA-7808-4419-A1FF-85FAFC552EF5}" name="ItemEffectTable" displayName="ItemEffectTable" ref="B2:X58" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="B2:X58" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{48EDF750-AF64-49D9-896D-BC9DAE811932}" name="#개발여부" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{C91D0236-03E5-4DB2-996C-5B3373388436}" name="#이름값" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{6A00DE90-3890-4C1D-B55C-A5634F72F8FB}" name="#Grade" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{4CA48743-08D1-4B95-92E3-92A660E15E51}" name="Index" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{84B9E326-2A3A-4F75-85A5-4A58A16DA62A}" name="#개발여부" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{A8A5D9D4-BBA5-4468-9DAD-E235FB4CA1D1}" name="#이름값" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{3309C650-BE83-4038-8F17-818B44ED8C38}" name="#Grade" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{AC1038E9-316D-40D0-85E4-9AA5F825913F}" name="Index" dataDxfId="15">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
@@ -1195,17 +1195,17 @@
 + COUNTIF($D$3:D3,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7063A00B-EC11-48D7-A5CD-27E79E20FC50}" name="ApplyType"/>
-    <tableColumn id="3" xr3:uid="{8CD0EEF7-5ECA-4AC2-8A49-7A612600593D}" name="#효과 한글" dataDxfId="14">
+    <tableColumn id="8" xr3:uid="{35216947-5707-4548-BFB3-92B5C25EAADE}" name="ApplyType"/>
+    <tableColumn id="3" xr3:uid="{81DE0010-02BC-4C91-A0AB-62489E270F28}" name="#효과 한글" dataDxfId="14">
       <calculatedColumnFormula>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{4081A8B4-75B2-403F-9AD7-4A449252E49C}" name="ApplyValue"/>
-    <tableColumn id="9" xr3:uid="{523FDF06-51AA-472C-BE79-3380047CDCEA}" name="ValueOperatorType"/>
-    <tableColumn id="11" xr3:uid="{A89E4A27-4842-484A-923A-EA36EABE97FD}" name="ApplyPoint"/>
-    <tableColumn id="20" xr3:uid="{D901BAF8-87E9-4BF5-863B-F3FC4EC440D9}" name="#참조 테이블" dataDxfId="13">
+    <tableColumn id="10" xr3:uid="{404C3829-8774-49ED-AF15-67F408A21D89}" name="ApplyValue"/>
+    <tableColumn id="9" xr3:uid="{031DCEA5-6F73-45B4-A7ED-B62A6B289583}" name="ValueOperatorType"/>
+    <tableColumn id="11" xr3:uid="{8040F970-7142-477A-BBFC-84C917B512EB}" name="ApplyPoint"/>
+    <tableColumn id="20" xr3:uid="{1FE9A093-3224-4937-A8D1-CAC7316CCA81}" name="#참조 테이블" dataDxfId="13">
       <calculatedColumnFormula>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{D89211DA-5CF1-48CD-9BE5-0DB7499A86AA}" name="#기본값" dataDxfId="12">
+    <tableColumn id="21" xr3:uid="{82599105-1799-49BE-B192-9A4CD42B03A4}" name="#기본값" dataDxfId="12">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
 ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
@@ -1213,10 +1213,10 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{501BC2B4-D785-49FE-8927-094E8B5024E1}" name="#ApplyValue 수식" dataDxfId="11">
+    <tableColumn id="23" xr3:uid="{4F48B93F-D15A-4909-991E-8AF71F94A337}" name="#ApplyValue 수식" dataDxfId="11">
       <calculatedColumnFormula array="1">[1]!CharacterTable[MovementSpd]*0.01</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{B2DAF6FF-21E1-4EBA-B1C0-C632BA9DC7CB}" name="#적용 후" dataDxfId="10">
+    <tableColumn id="17" xr3:uid="{E88F900D-1756-41FC-A61F-79828D8B0045}" name="#적용 후" dataDxfId="10">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
@@ -1224,20 +1224,20 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{C035B2E4-0FAF-4B8A-BFB5-2A9A9EAED19A}" name="#효력 가치" dataDxfId="9">
+    <tableColumn id="19" xr3:uid="{0E1B8684-D1C3-4D0F-8BF5-B60C0CD101F7}" name="#효력 가치" dataDxfId="9">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{3C99C33B-DCA6-461D-A213-BCF570579597}" name="#총 효력가치" dataDxfId="8">
+    <tableColumn id="22" xr3:uid="{2EBB1105-ED02-49B4-A9A4-203A04D6FC08}" name="#총 효력가치" dataDxfId="8">
       <calculatedColumnFormula array="1">SUM(IF($E$3:$E$58=E3,$O$3:$O$58))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{8D61C493-4FD3-4C80-9979-9AB832CE7EA6}" name="#오차값" dataDxfId="7">
+    <tableColumn id="18" xr3:uid="{D11845A0-9470-4950-B779-46BE84136A0D}" name="#오차값" dataDxfId="7">
       <calculatedColumnFormula>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{EF7F97D5-4EB3-4B6C-AE32-4471AE271802}" name="#패러디" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{600171F6-507A-4A75-A80C-326A026C9EC3}" name="#인덱스 수식용" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{19452107-B78F-4830-9546-528E69E204FA}" name="#패러디" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{5324E4EB-17D7-4C26-B7D7-745B055EB9C0}" name="#인덱스 수식용" dataDxfId="5">
       <calculatedColumnFormula array="1">_xlfn.IFS(
 ISTEXT(S2),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=D2,ItemEffectTable[[#This Row],['#이름값]]=C2),S2+1,
@@ -1245,19 +1245,19 @@
 ItemEffectTable[[#This Row],['#Grade]]=D2,S2
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{FD8A592C-E695-403B-A479-88345F0749B6}" name="#이름 일치 여부" dataDxfId="4">
+    <tableColumn id="13" xr3:uid="{9F07F138-2103-4DE9-9CCA-1D58C217D6EF}" name="#이름 일치 여부" dataDxfId="4">
       <calculatedColumnFormula>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{35C1EB55-6681-4E56-A586-02F9FC5950DB}" name="#NameIndex" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{1F149386-EBE9-4D64-A8F4-C9B71AFF1F70}" name="#NameIndex" dataDxfId="3">
       <calculatedColumnFormula>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{7CB5A7A4-FA79-43F7-AF23-9F1B4739AA5E}" name="#DescIndex" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{2EF6EDC0-93EC-4954-961C-9BDA58081BA0}" name="#DescIndex" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{F20DC7F7-75C1-46D3-9008-011F1B42D21B}" name="#Name" dataDxfId="1">
+    <tableColumn id="15" xr3:uid="{73D41EDE-F2D6-4B7D-A943-353317CC7FC0}" name="#Name" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{899FD616-AF75-4519-8C0A-375F8631BF27}" name="#Desc" dataDxfId="0">
+    <tableColumn id="16" xr3:uid="{9B9865D2-3BF1-4F61-BDDF-022663E60230}" name="#Desc" dataDxfId="0">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1561,7 +1561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B693F5FF-FD54-4B78-858C-B6E13C6431F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED412D8-A7D0-47A3-90F5-D8DB1336EEAE}">
   <sheetPr codeName="Sheet7">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
@@ -2273,7 +2273,7 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>34</v>
@@ -2285,7 +2285,7 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>302</v>
+        <v>8</v>
       </c>
       <c r="O8" s="8" cm="1">
         <f t="array" ref="O8">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
@@ -3339,7 +3339,7 @@
       </c>
       <c r="M18" s="9" cm="1">
         <f t="array" ref="M18">[1]!CharacterTable[MovementSpd]*-0.05</f>
-        <v>-15</v>
+        <v>-0.30000000000000004</v>
       </c>
       <c r="N18" s="8" cm="1">
         <f t="array" ref="N18">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -3348,22 +3348,22 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>35</v>
+        <v>49.7</v>
       </c>
       <c r="O18" s="8" cm="1">
         <f t="array" ref="O18">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</f>
-        <v>2250</v>
+        <v>44.999999999999574</v>
       </c>
       <c r="P18" s="8" cm="1">
         <f t="array" ref="P18">SUM(IF($E$3:$E$58=E18,$O$3:$O$58))</f>
-        <v>2250</v>
+        <v>44.999999999999574</v>
       </c>
       <c r="Q18" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-2200</v>
+        <v>5.0000000000004263</v>
       </c>
       <c r="R18" s="7"/>
       <c r="S18" s="8" cm="1">
@@ -3677,11 +3677,11 @@
       </c>
       <c r="P21" s="8" cm="1">
         <f t="array" ref="P21">SUM(IF($E$3:$E$58=E21,$O$3:$O$58))</f>
-        <v>1766.6666666666667</v>
+        <v>1521.6666666666667</v>
       </c>
       <c r="Q21" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-1716.6666666666667</v>
+        <v>-1471.6666666666667</v>
       </c>
       <c r="R21" s="7" t="s">
         <v>75</v>
@@ -3762,7 +3762,7 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="M22" s="9" t="s">
         <v>34</v>
@@ -3774,22 +3774,22 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>315</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="O22" s="8" cm="1">
         <f t="array" ref="O22">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</f>
-        <v>250.00000000000003</v>
+        <v>5.0000000000000124</v>
       </c>
       <c r="P22" s="8" cm="1">
         <f t="array" ref="P22">SUM(IF($E$3:$E$58=E22,$O$3:$O$58))</f>
-        <v>1766.6666666666667</v>
+        <v>1521.6666666666667</v>
       </c>
       <c r="Q22" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-1716.6666666666667</v>
+        <v>-1471.6666666666667</v>
       </c>
       <c r="R22" s="7" t="s">
         <v>75</v>
@@ -3893,11 +3893,11 @@
       </c>
       <c r="P23" s="8" cm="1">
         <f t="array" ref="P23">SUM(IF($E$3:$E$58=E23,$O$3:$O$58))</f>
-        <v>1766.6666666666667</v>
+        <v>1521.6666666666667</v>
       </c>
       <c r="Q23" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-1716.6666666666667</v>
+        <v>-1471.6666666666667</v>
       </c>
       <c r="R23" s="7" t="s">
         <v>75</v>
@@ -4943,7 +4943,7 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="M33" s="9" t="s">
         <v>34</v>
@@ -4955,22 +4955,22 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>240</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="O33" s="8" cm="1">
         <f t="array" ref="O33">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</f>
-        <v>-1000.0000000000001</v>
+        <v>-19.999999999999989</v>
       </c>
       <c r="P33" s="8" cm="1">
         <f t="array" ref="P33">SUM(IF($E$3:$E$58=E33,$O$3:$O$58))</f>
-        <v>-933.33333333333337</v>
+        <v>46.6666666666667</v>
       </c>
       <c r="Q33" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>983.33333333333337</v>
+        <v>3.3333333333333002</v>
       </c>
       <c r="R33" s="7"/>
       <c r="S33" s="8" cm="1">
@@ -5072,11 +5072,11 @@
       </c>
       <c r="P34" s="8" cm="1">
         <f t="array" ref="P34">SUM(IF($E$3:$E$58=E34,$O$3:$O$58))</f>
-        <v>-933.33333333333337</v>
+        <v>46.6666666666667</v>
       </c>
       <c r="Q34" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>983.33333333333337</v>
+        <v>3.3333333333333002</v>
       </c>
       <c r="R34" s="7"/>
       <c r="S34" s="8" cm="1">
@@ -5178,11 +5178,11 @@
       </c>
       <c r="P35" s="8" cm="1">
         <f t="array" ref="P35">SUM(IF($E$3:$E$58=E35,$O$3:$O$58))</f>
-        <v>-933.33333333333337</v>
+        <v>46.6666666666667</v>
       </c>
       <c r="Q35" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>983.33333333333337</v>
+        <v>3.3333333333333002</v>
       </c>
       <c r="R35" s="7"/>
       <c r="S35" s="8" cm="1">
@@ -5284,11 +5284,11 @@
       </c>
       <c r="P36" s="8" cm="1">
         <f t="array" ref="P36">SUM(IF($E$3:$E$58=E36,$O$3:$O$58))</f>
-        <v>-933.33333333333337</v>
+        <v>46.6666666666667</v>
       </c>
       <c r="Q36" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>983.33333333333337</v>
+        <v>3.3333333333333002</v>
       </c>
       <c r="R36" s="7"/>
       <c r="S36" s="8" cm="1">
@@ -5367,7 +5367,7 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="M37" s="9" t="s">
         <v>34</v>
@@ -5379,22 +5379,22 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>570</v>
+        <v>11.399999999999999</v>
       </c>
       <c r="O37" s="8" cm="1">
         <f t="array" ref="O37">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</f>
-        <v>4500</v>
+        <v>89.999999999999986</v>
       </c>
       <c r="P37" s="8" cm="1">
         <f t="array" ref="P37">SUM(IF($E$3:$E$58=E37,$O$3:$O$58))</f>
-        <v>4466.666666666667</v>
+        <v>56.666666666666657</v>
       </c>
       <c r="Q37" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-4416.666666666667</v>
+        <v>-6.6666666666666572</v>
       </c>
       <c r="R37" s="7"/>
       <c r="S37" s="8" cm="1">
@@ -5496,11 +5496,11 @@
       </c>
       <c r="P38" s="8" cm="1">
         <f t="array" ref="P38">SUM(IF($E$3:$E$58=E38,$O$3:$O$58))</f>
-        <v>4466.666666666667</v>
+        <v>56.666666666666657</v>
       </c>
       <c r="Q38" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-4416.666666666667</v>
+        <v>-6.6666666666666572</v>
       </c>
       <c r="R38" s="7"/>
       <c r="S38" s="8" cm="1">
@@ -6344,11 +6344,11 @@
       </c>
       <c r="P46" s="8" cm="1">
         <f t="array" ref="P46">SUM(IF($E$3:$E$58=E46,$O$3:$O$58))</f>
-        <v>-2400</v>
+        <v>50</v>
       </c>
       <c r="Q46" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>2450</v>
+        <v>0</v>
       </c>
       <c r="R46" s="7"/>
       <c r="S46" s="8" cm="1">
@@ -6427,7 +6427,7 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="M47" s="9" t="s">
         <v>34</v>
@@ -6439,22 +6439,22 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="O47" s="8" cm="1">
         <f t="array" ref="O47">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
 )</f>
-        <v>-2500</v>
+        <v>-50</v>
       </c>
       <c r="P47" s="8" cm="1">
         <f t="array" ref="P47">SUM(IF($E$3:$E$58=E47,$O$3:$O$58))</f>
-        <v>-2400</v>
+        <v>50</v>
       </c>
       <c r="Q47" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>2450</v>
+        <v>0</v>
       </c>
       <c r="R47" s="7"/>
       <c r="S47" s="8" cm="1">

--- a/_GameData/ItemEffectGameData.xlsx
+++ b/_GameData/ItemEffectGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5193AC34-B1CE-4977-8E3A-A6EEE57D3801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{614CB03E-6942-457A-BE35-701A32105DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{499C068C-FDA6-48F3-A504-904A943C1564}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{438CC09E-D1DD-4D51-AFA0-BE6809F7ECFB}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemEffectGameData" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <author>Kim_Dongju</author>
   </authors>
   <commentList>
-    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{147A71AB-6151-459B-934B-ED059878F4CC}">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{7726194B-9193-436C-ADA7-959504F89332}">
       <text>
         <r>
           <rPr>
@@ -286,7 +286,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="122">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,6 +328,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ApplyStat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>#효과 한글</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -430,6 +434,9 @@
     <t>롤 - 룰루 맞죠?</t>
   </si>
   <si>
+    <t>StatChange</t>
+  </si>
+  <si>
     <t>ChargeAtkPierce</t>
   </si>
   <si>
@@ -441,10 +448,6 @@
   </si>
   <si>
     <t>트럼펫</t>
-  </si>
-  <si>
-    <t>ResourceChange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>None</t>
@@ -1116,7 +1119,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{1AB2B5F3-4947-433B-8B45-3A71425CF4FC}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{DA530C73-EDEB-4B27-B064-016C57560451}">
       <tableStyleElement type="wholeTable" dxfId="23"/>
       <tableStyleElement type="headerRow" dxfId="22"/>
       <tableStyleElement type="firstRowStripe" dxfId="21"/>
@@ -1181,13 +1184,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6219D3BA-7808-4419-A1FF-85FAFC552EF5}" name="ItemEffectTable" displayName="ItemEffectTable" ref="B2:X58" totalsRowShown="0" headerRowDxfId="19">
-  <autoFilter ref="B2:X58" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{84B9E326-2A3A-4F75-85A5-4A58A16DA62A}" name="#개발여부" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{A8A5D9D4-BBA5-4468-9DAD-E235FB4CA1D1}" name="#이름값" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{3309C650-BE83-4038-8F17-818B44ED8C38}" name="#Grade" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{AC1038E9-316D-40D0-85E4-9AA5F825913F}" name="Index" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18B1206E-2855-467A-A98B-3D12D55EED2E}" name="ItemEffectTable" displayName="ItemEffectTable" ref="B2:Y58" totalsRowShown="0" headerRowDxfId="19">
+  <autoFilter ref="B2:Y58" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="24">
+    <tableColumn id="1" xr3:uid="{7D3B23D4-1DF5-42C8-AA3D-B8626644D27E}" name="#개발여부" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{7C9A0EB2-4851-4422-9433-E60CC2A95A49}" name="#이름값" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{4449C716-511B-4B42-AB5D-27F9F76BE0E1}" name="#Grade" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{F5F4EF44-8928-44E4-897C-AC40E108BA9F}" name="Index" dataDxfId="15">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
@@ -1195,28 +1198,34 @@
 + COUNTIF($D$3:D3,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{35216947-5707-4548-BFB3-92B5C25EAADE}" name="ApplyType"/>
-    <tableColumn id="3" xr3:uid="{81DE0010-02BC-4C91-A0AB-62489E270F28}" name="#효과 한글" dataDxfId="14">
-      <calculatedColumnFormula>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{563FCC4C-9B54-49A5-8525-A08E563B6FD6}" name="ApplyType"/>
+    <tableColumn id="24" xr3:uid="{0DD52243-B9B5-4A6B-9CE7-C7D8072786CD}" name="ApplyStat"/>
+    <tableColumn id="3" xr3:uid="{4A9EF51A-7F47-404C-8BBA-F8916BA5C417}" name="#효과 한글" dataDxfId="14">
+      <calculatedColumnFormula>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{404C3829-8774-49ED-AF15-67F408A21D89}" name="ApplyValue"/>
-    <tableColumn id="9" xr3:uid="{031DCEA5-6F73-45B4-A7ED-B62A6B289583}" name="ValueOperatorType"/>
-    <tableColumn id="11" xr3:uid="{8040F970-7142-477A-BBFC-84C917B512EB}" name="ApplyPoint"/>
-    <tableColumn id="20" xr3:uid="{1FE9A093-3224-4937-A8D1-CAC7316CCA81}" name="#참조 테이블" dataDxfId="13">
-      <calculatedColumnFormula>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{97DF0730-D31D-4434-ACD8-91C93D5802DD}" name="ApplyValue"/>
+    <tableColumn id="9" xr3:uid="{78F50F1D-1278-4A1A-A695-C8794D985992}" name="ValueOperatorType"/>
+    <tableColumn id="11" xr3:uid="{84F2B34A-D925-4A01-A7B6-5821966F3914}" name="ApplyPoint"/>
+    <tableColumn id="20" xr3:uid="{1FDEF80E-624D-4CED-8DC5-618E7DD00794}" name="#참조 테이블" dataDxfId="13">
+      <calculatedColumnFormula>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{82599105-1799-49BE-B192-9A4CD42B03A4}" name="#기본값" dataDxfId="12">
+    <tableColumn id="21" xr3:uid="{F64A0AC8-1C7C-418F-BC09-D58F1EA876CD}" name="#기본값" dataDxfId="12">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{4F48B93F-D15A-4909-991E-8AF71F94A337}" name="#ApplyValue 수식" dataDxfId="11">
+    <tableColumn id="23" xr3:uid="{D394961C-6803-4E74-AAB6-6B2313400828}" name="#ApplyValue 수식" dataDxfId="11">
       <calculatedColumnFormula array="1">[1]!CharacterTable[MovementSpd]*0.01</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{E88F900D-1756-41FC-A61F-79828D8B0045}" name="#적용 후" dataDxfId="10">
+    <tableColumn id="17" xr3:uid="{BD563CC0-0557-46DD-AC29-CCFC17CC7A2A}" name="#적용 후" dataDxfId="10">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
@@ -1224,40 +1233,40 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{0E1B8684-D1C3-4D0F-8BF5-B60C0CD101F7}" name="#효력 가치" dataDxfId="9">
+    <tableColumn id="19" xr3:uid="{4B388212-D5AA-4423-800A-B0563A577069}" name="#효력 가치" dataDxfId="9">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{2EBB1105-ED02-49B4-A9A4-203A04D6FC08}" name="#총 효력가치" dataDxfId="8">
-      <calculatedColumnFormula array="1">SUM(IF($E$3:$E$58=E3,$O$3:$O$58))</calculatedColumnFormula>
+    <tableColumn id="22" xr3:uid="{32AD4CE5-5896-4E80-81BC-B8AC4FB2FBC6}" name="#총 효력가치" dataDxfId="8">
+      <calculatedColumnFormula array="1">SUM(IF($E$3:$E$58=E3,$P$3:$P$58))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{D11845A0-9470-4950-B779-46BE84136A0D}" name="#오차값" dataDxfId="7">
+    <tableColumn id="18" xr3:uid="{C51A7077-D78A-4520-9E55-6861CC1EEEE2}" name="#오차값" dataDxfId="7">
       <calculatedColumnFormula>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{19452107-B78F-4830-9546-528E69E204FA}" name="#패러디" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{5324E4EB-17D7-4C26-B7D7-745B055EB9C0}" name="#인덱스 수식용" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{D8C450A2-7BEB-4AF4-9033-4FEEDB136F20}" name="#패러디" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{03378488-23D5-4793-8008-715FA46EFBEC}" name="#인덱스 수식용" dataDxfId="5">
       <calculatedColumnFormula array="1">_xlfn.IFS(
-ISTEXT(S2),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D2,ItemEffectTable[[#This Row],['#이름값]]=C2),S2+1,
+ISTEXT(T2),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D2,ItemEffectTable[[#This Row],['#이름값]]=C2),T2+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D2,0,
-ItemEffectTable[[#This Row],['#Grade]]=D2,S2
+ItemEffectTable[[#This Row],['#Grade]]=D2,T2
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{9F07F138-2103-4DE9-9CCA-1D58C217D6EF}" name="#이름 일치 여부" dataDxfId="4">
+    <tableColumn id="13" xr3:uid="{67F76481-2D75-406A-9668-F44F9E26DD06}" name="#이름 일치 여부" dataDxfId="4">
       <calculatedColumnFormula>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1F149386-EBE9-4D64-A8F4-C9B71AFF1F70}" name="#NameIndex" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{7BB73DC5-3404-41C1-9872-41BFB82E4EE6}" name="#NameIndex" dataDxfId="3">
       <calculatedColumnFormula>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2EF6EDC0-93EC-4954-961C-9BDA58081BA0}" name="#DescIndex" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{3B917D59-9E73-4020-8E3E-4C6781CC1E80}" name="#DescIndex" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{73D41EDE-F2D6-4B7D-A943-353317CC7FC0}" name="#Name" dataDxfId="1">
+    <tableColumn id="15" xr3:uid="{D420DECA-5092-43EB-9BED-4C901BDA840B}" name="#Name" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{9B9865D2-3BF1-4F61-BDDF-022663E60230}" name="#Desc" dataDxfId="0">
+    <tableColumn id="16" xr3:uid="{2F029F98-7CB4-4CEB-910A-AE7B7F156854}" name="#Desc" dataDxfId="0">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1561,14 +1570,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED412D8-A7D0-47A3-90F5-D8DB1336EEAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7483F4C5-9C1C-4F97-BB2F-E1FC7E034820}">
   <sheetPr codeName="Sheet7">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:X58"/>
+  <dimension ref="B1:Y58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1578,51 +1587,55 @@
     <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.5" customWidth="1"/>
-    <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.25" customWidth="1"/>
-    <col min="12" max="12" width="19.75" customWidth="1"/>
-    <col min="13" max="13" width="19.75" style="1" customWidth="1"/>
-    <col min="14" max="15" width="20.375" customWidth="1"/>
-    <col min="16" max="18" width="17.25" customWidth="1"/>
-    <col min="19" max="19" width="15.75" customWidth="1"/>
-    <col min="20" max="20" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="69.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.25" customWidth="1"/>
+    <col min="8" max="8" width="39.5" customWidth="1"/>
+    <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.25" customWidth="1"/>
+    <col min="13" max="13" width="19.75" customWidth="1"/>
+    <col min="14" max="14" width="19.75" style="1" customWidth="1"/>
+    <col min="15" max="16" width="20.375" customWidth="1"/>
+    <col min="17" max="19" width="17.25" customWidth="1"/>
+    <col min="20" max="20" width="15.75" customWidth="1"/>
+    <col min="21" max="21" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="69.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24">
+    <row r="1" spans="2:25">
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="M1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="S1" s="1" t="s">
+      <c r="P1" s="1"/>
+      <c r="T1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="2:24">
+    <row r="2" spans="2:25">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1638,19 +1651,19 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -1659,25 +1672,25 @@
       <c r="M2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="U2" s="3" t="s">
@@ -1692,16 +1705,19 @@
       <c r="X2" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="Y2" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="2:24">
+    <row r="3" spans="2:25">
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" cm="1">
         <f t="array" ref="E3">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -1713,39 +1729,44 @@
         <v>6000</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>32</v>
+      </c>
+      <c r="H3" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>리소스변경</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>900</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
       </c>
       <c r="J3" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>ItemResourceTable</v>
       </c>
-      <c r="L3" s="8" t="str" cm="1">
-        <f t="array" ref="L3">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M3" s="8" t="str" cm="1">
+        <f t="array" ref="M3">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>리소스변경(식별자:900)</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="8" t="str" cm="1">
-        <f t="array" ref="N3">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="8" t="str" cm="1">
+        <f t="array" ref="O3">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -1753,61 +1774,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>예외처리</v>
       </c>
-      <c r="O3" s="8" cm="1">
-        <f t="array" ref="O3">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P3" s="8" cm="1">
+        <f t="array" ref="P3">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>0</v>
       </c>
-      <c r="P3" s="8" cm="1">
-        <f t="array" ref="P3">SUM(IF($E$3:$E$58=E3,$O$3:$O$58))</f>
+      <c r="Q3" s="8" cm="1">
+        <f t="array" ref="Q3">SUM(IF($E$3:$E$58=E3,$P$3:$P$58))</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="R3" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>30</v>
       </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="8" cm="1">
-        <f t="array" ref="S3">_xlfn.IFS(
-ISTEXT(S2),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D2,ItemEffectTable[[#This Row],['#이름값]]=C2),S2+1,
+      <c r="S3" s="7"/>
+      <c r="T3" s="8" cm="1">
+        <f t="array" ref="T3">_xlfn.IFS(
+ISTEXT(T2),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D2,ItemEffectTable[[#This Row],['#이름값]]=C2),T2+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D2,0,
-ItemEffectTable[[#This Row],['#Grade]]=D2,S2
+ItemEffectTable[[#This Row],['#Grade]]=D2,T2
 )</f>
         <v>0</v>
       </c>
-      <c r="T3" s="8" t="str">
+      <c r="U3" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U3" s="8">
+      <c r="V3" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>11000</v>
       </c>
-      <c r="V3" s="8">
+      <c r="W3" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>21000</v>
       </c>
-      <c r="W3" s="8" t="str">
+      <c r="X3" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>장난감 배트</v>
       </c>
-      <c r="X3" s="8" t="str">
+      <c r="Y3" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>아무 능력이 없지만 이동할 때 뾱뾱 소리가 납니다.</v>
       </c>
     </row>
-    <row r="4" spans="2:24">
+    <row r="4" spans="2:25">
       <c r="B4" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" cm="1">
         <f t="array" ref="E4">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -1819,39 +1840,44 @@
         <v>6001</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>32</v>
+      </c>
+      <c r="H4" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>리소스변경</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>901</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
       </c>
       <c r="J4" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>ItemResourceTable</v>
       </c>
-      <c r="L4" s="8" t="str" cm="1">
-        <f t="array" ref="L4">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M4" s="8" t="str" cm="1">
+        <f t="array" ref="M4">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>리소스변경(식별자:901)</v>
       </c>
-      <c r="M4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" s="8" t="str" cm="1">
-        <f t="array" ref="N4">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="8" t="str" cm="1">
+        <f t="array" ref="O4">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -1859,63 +1885,63 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>예외처리</v>
       </c>
-      <c r="O4" s="8" cm="1">
-        <f t="array" ref="O4">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P4" s="8" cm="1">
+        <f t="array" ref="P4">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>0</v>
       </c>
-      <c r="P4" s="8" cm="1">
-        <f t="array" ref="P4">SUM(IF($E$3:$E$58=E4,$O$3:$O$58))</f>
+      <c r="Q4" s="8" cm="1">
+        <f t="array" ref="Q4">SUM(IF($E$3:$E$58=E4,$P$3:$P$58))</f>
         <v>30</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="R4" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>0</v>
       </c>
-      <c r="R4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="S4" s="8" cm="1">
-        <f t="array" ref="S4">_xlfn.IFS(
-ISTEXT(S3),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D3,ItemEffectTable[[#This Row],['#이름값]]=C3),S3+1,
+      <c r="S4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="8" cm="1">
+        <f t="array" ref="T4">_xlfn.IFS(
+ISTEXT(T3),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D3,ItemEffectTable[[#This Row],['#이름값]]=C3),T3+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D3,0,
-ItemEffectTable[[#This Row],['#Grade]]=D3,S3
+ItemEffectTable[[#This Row],['#Grade]]=D3,T3
 )</f>
         <v>0</v>
       </c>
-      <c r="T4" s="8" t="str">
+      <c r="U4" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U4" s="8">
+      <c r="V4" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>11001</v>
       </c>
-      <c r="V4" s="8">
+      <c r="W4" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>21001</v>
       </c>
-      <c r="W4" s="8" t="str">
+      <c r="X4" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>무지개빛 총공격</v>
       </c>
-      <c r="X4" s="8" t="str">
+      <c r="Y4" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>냥냥냥. 모든 탄환이 적을 관통합니다.</v>
       </c>
     </row>
-    <row r="5" spans="2:24">
+    <row r="5" spans="2:25">
       <c r="B5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" cm="1">
         <f t="array" ref="E5">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -1927,39 +1953,47 @@
         <v>6001</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>차징에 따른 관통샷 변경</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>15</v>
       </c>
-      <c r="I5" t="s">
-        <v>38</v>
-      </c>
       <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterAtkTable</v>
       </c>
-      <c r="L5" s="8" cm="1">
-        <f t="array" ref="L5">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M5" s="8" cm="1">
+        <f t="array" ref="M5">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>8</v>
       </c>
-      <c r="M5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="8" cm="1">
-        <f t="array" ref="N5">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="8" cm="1">
+        <f t="array" ref="O5">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -1967,63 +2001,63 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>15</v>
       </c>
-      <c r="O5" s="8" cm="1">
-        <f t="array" ref="O5">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P5" s="8" cm="1">
+        <f t="array" ref="P5">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>30</v>
       </c>
-      <c r="P5" s="8" cm="1">
-        <f t="array" ref="P5">SUM(IF($E$3:$E$58=E5,$O$3:$O$58))</f>
+      <c r="Q5" s="8" cm="1">
+        <f t="array" ref="Q5">SUM(IF($E$3:$E$58=E5,$P$3:$P$58))</f>
         <v>30</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="R5" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>0</v>
       </c>
-      <c r="R5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="S5" s="8" cm="1">
-        <f t="array" ref="S5">_xlfn.IFS(
-ISTEXT(S4),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D4,ItemEffectTable[[#This Row],['#이름값]]=C4),S4+1,
+      <c r="S5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5" s="8" cm="1">
+        <f t="array" ref="T5">_xlfn.IFS(
+ISTEXT(T4),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D4,ItemEffectTable[[#This Row],['#이름값]]=C4),T4+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D4,0,
-ItemEffectTable[[#This Row],['#Grade]]=D4,S4
+ItemEffectTable[[#This Row],['#Grade]]=D4,T4
 )</f>
         <v>1</v>
       </c>
-      <c r="T5" s="8" t="str">
+      <c r="U5" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U5" s="8">
+      <c r="V5" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>11001</v>
       </c>
-      <c r="V5" s="8">
+      <c r="W5" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>21001</v>
       </c>
-      <c r="W5" s="8" t="str">
+      <c r="X5" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>무지개빛 총공격</v>
       </c>
-      <c r="X5" s="8" t="str">
+      <c r="Y5" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>냥냥냥. 모든 탄환이 적을 관통합니다.</v>
       </c>
     </row>
-    <row r="6" spans="2:24">
+    <row r="6" spans="2:25">
       <c r="B6" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" cm="1">
         <f t="array" ref="E6">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -2035,39 +2069,44 @@
         <v>6002</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>32</v>
+      </c>
+      <c r="H6" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>리소스변경</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>902</v>
       </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
       <c r="J6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>ItemResourceTable</v>
       </c>
-      <c r="L6" s="8" t="str" cm="1">
-        <f t="array" ref="L6">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M6" s="8" t="str" cm="1">
+        <f t="array" ref="M6">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>리소스변경(식별자:902)</v>
       </c>
-      <c r="M6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" s="8" t="str" cm="1">
-        <f t="array" ref="N6">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="8" t="str" cm="1">
+        <f t="array" ref="O6">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -2075,61 +2114,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>예외처리</v>
       </c>
-      <c r="O6" s="8" cm="1">
-        <f t="array" ref="O6">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P6" s="8" cm="1">
+        <f t="array" ref="P6">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>0</v>
       </c>
-      <c r="P6" s="8" cm="1">
-        <f t="array" ref="P6">SUM(IF($E$3:$E$58=E6,$O$3:$O$58))</f>
+      <c r="Q6" s="8" cm="1">
+        <f t="array" ref="Q6">SUM(IF($E$3:$E$58=E6,$P$3:$P$58))</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="R6" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>-3.3333333333333286</v>
       </c>
-      <c r="R6" s="7"/>
-      <c r="S6" s="8" cm="1">
-        <f t="array" ref="S6">_xlfn.IFS(
-ISTEXT(S5),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D5,ItemEffectTable[[#This Row],['#이름값]]=C5),S5+1,
+      <c r="S6" s="7"/>
+      <c r="T6" s="8" cm="1">
+        <f t="array" ref="T6">_xlfn.IFS(
+ISTEXT(T5),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D5,ItemEffectTable[[#This Row],['#이름값]]=C5),T5+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D5,0,
-ItemEffectTable[[#This Row],['#Grade]]=D5,S5
+ItemEffectTable[[#This Row],['#Grade]]=D5,T5
 )</f>
         <v>1</v>
       </c>
-      <c r="T6" s="8" t="str">
+      <c r="U6" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U6" s="8">
+      <c r="V6" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>11002</v>
       </c>
-      <c r="V6" s="8">
+      <c r="W6" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>21002</v>
       </c>
-      <c r="W6" s="8" t="str">
+      <c r="X6" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>트럼펫</v>
       </c>
-      <c r="X6" s="8" t="str">
+      <c r="Y6" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>트럼펫 소리가 납니다. 공격력이 20%증가합니다.</v>
       </c>
     </row>
-    <row r="7" spans="2:24">
+    <row r="7" spans="2:25">
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" cm="1">
         <f t="array" ref="E7">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -2141,39 +2180,47 @@
         <v>6002</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>공격력변경</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1.2</v>
       </c>
-      <c r="I7" t="s">
-        <v>44</v>
-      </c>
       <c r="J7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>45</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterAtkTable</v>
       </c>
-      <c r="L7" s="8" cm="1">
-        <f t="array" ref="L7">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M7" s="8" cm="1">
+        <f t="array" ref="M7">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>1</v>
       </c>
-      <c r="M7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" s="8" cm="1">
-        <f t="array" ref="N7">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="8" cm="1">
+        <f t="array" ref="O7">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -2181,61 +2228,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>1.2</v>
       </c>
-      <c r="O7" s="8" cm="1">
-        <f t="array" ref="O7">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P7" s="8" cm="1">
+        <f t="array" ref="P7">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="P7" s="8" cm="1">
-        <f t="array" ref="P7">SUM(IF($E$3:$E$58=E7,$O$3:$O$58))</f>
+      <c r="Q7" s="8" cm="1">
+        <f t="array" ref="Q7">SUM(IF($E$3:$E$58=E7,$P$3:$P$58))</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="R7" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>-3.3333333333333286</v>
       </c>
-      <c r="R7" s="7"/>
-      <c r="S7" s="8" cm="1">
-        <f t="array" ref="S7">_xlfn.IFS(
-ISTEXT(S6),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D6,ItemEffectTable[[#This Row],['#이름값]]=C6),S6+1,
+      <c r="S7" s="7"/>
+      <c r="T7" s="8" cm="1">
+        <f t="array" ref="T7">_xlfn.IFS(
+ISTEXT(T6),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D6,ItemEffectTable[[#This Row],['#이름값]]=C6),T6+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D6,0,
-ItemEffectTable[[#This Row],['#Grade]]=D6,S6
+ItemEffectTable[[#This Row],['#Grade]]=D6,T6
 )</f>
         <v>2</v>
       </c>
-      <c r="T7" s="8" t="str">
+      <c r="U7" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U7" s="8">
+      <c r="V7" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>11002</v>
       </c>
-      <c r="V7" s="8">
+      <c r="W7" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>21002</v>
       </c>
-      <c r="W7" s="8" t="str">
+      <c r="X7" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>트럼펫</v>
       </c>
-      <c r="X7" s="8" t="str">
+      <c r="Y7" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>트럼펫 소리가 납니다. 공격력이 20%증가합니다.</v>
       </c>
     </row>
-    <row r="8" spans="2:24">
+    <row r="8" spans="2:25">
       <c r="B8" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" cm="1">
         <f t="array" ref="E8">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -2247,39 +2294,47 @@
         <v>7000</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>이동속도변경</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2</v>
       </c>
-      <c r="I8" t="s">
-        <v>48</v>
-      </c>
       <c r="J8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>49</v>
+      </c>
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterTable</v>
       </c>
-      <c r="L8" s="8" cm="1">
-        <f t="array" ref="L8">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M8" s="8" cm="1">
+        <f t="array" ref="M8">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>6</v>
       </c>
-      <c r="M8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" s="8" cm="1">
-        <f t="array" ref="N8">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="8" cm="1">
+        <f t="array" ref="O8">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -2287,61 +2342,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>8</v>
       </c>
-      <c r="O8" s="8" cm="1">
-        <f t="array" ref="O8">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P8" s="8" cm="1">
+        <f t="array" ref="P8">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="P8" s="8" cm="1">
-        <f t="array" ref="P8">SUM(IF($E$3:$E$58=E8,$O$3:$O$58))</f>
+      <c r="Q8" s="8" cm="1">
+        <f t="array" ref="Q8">SUM(IF($E$3:$E$58=E8,$P$3:$P$58))</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="R8" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>-3.3333333333333357</v>
       </c>
-      <c r="R8" s="7"/>
-      <c r="S8" s="8" cm="1">
-        <f t="array" ref="S8">_xlfn.IFS(
-ISTEXT(S7),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D7,ItemEffectTable[[#This Row],['#이름값]]=C7),S7+1,
+      <c r="S8" s="7"/>
+      <c r="T8" s="8" cm="1">
+        <f t="array" ref="T8">_xlfn.IFS(
+ISTEXT(T7),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D7,ItemEffectTable[[#This Row],['#이름값]]=C7),T7+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D7,0,
-ItemEffectTable[[#This Row],['#Grade]]=D7,S7
+ItemEffectTable[[#This Row],['#Grade]]=D7,T7
 )</f>
         <v>0</v>
       </c>
-      <c r="T8" s="8" t="str">
+      <c r="U8" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U8" s="8">
+      <c r="V8" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>12000</v>
       </c>
-      <c r="V8" s="8">
+      <c r="W8" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>22000</v>
       </c>
-      <c r="W8" s="8" t="str">
+      <c r="X8" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>신성한 종</v>
       </c>
-      <c r="X8" s="8" t="str">
+      <c r="Y8" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>이동속도가 조금 빨라집니다.</v>
       </c>
     </row>
-    <row r="9" spans="2:24">
+    <row r="9" spans="2:25">
       <c r="B9" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" cm="1">
         <f t="array" ref="E9">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -2353,39 +2408,47 @@
         <v>7001</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>골드획득량변경</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1.3</v>
       </c>
-      <c r="I9" t="s">
-        <v>44</v>
-      </c>
       <c r="J9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>45</v>
+      </c>
+      <c r="K9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterTable</v>
       </c>
-      <c r="L9" s="8" cm="1">
-        <f t="array" ref="L9">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M9" s="8" cm="1">
+        <f t="array" ref="M9">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>1</v>
       </c>
-      <c r="M9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N9" s="8" cm="1">
-        <f t="array" ref="N9">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="8" cm="1">
+        <f t="array" ref="O9">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -2393,61 +2456,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>1.3</v>
       </c>
-      <c r="O9" s="8" cm="1">
-        <f t="array" ref="O9">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P9" s="8" cm="1">
+        <f t="array" ref="P9">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>30.000000000000004</v>
       </c>
-      <c r="P9" s="8" cm="1">
-        <f t="array" ref="P9">SUM(IF($E$3:$E$58=E9,$O$3:$O$58))</f>
+      <c r="Q9" s="8" cm="1">
+        <f t="array" ref="Q9">SUM(IF($E$3:$E$58=E9,$P$3:$P$58))</f>
         <v>30.000000000000004</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="R9" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>0</v>
       </c>
-      <c r="R9" s="7"/>
-      <c r="S9" s="8" cm="1">
-        <f t="array" ref="S9">_xlfn.IFS(
-ISTEXT(S8),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D8,ItemEffectTable[[#This Row],['#이름값]]=C8),S8+1,
+      <c r="S9" s="7"/>
+      <c r="T9" s="8" cm="1">
+        <f t="array" ref="T9">_xlfn.IFS(
+ISTEXT(T8),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D8,ItemEffectTable[[#This Row],['#이름값]]=C8),T8+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D8,0,
-ItemEffectTable[[#This Row],['#Grade]]=D8,S8
+ItemEffectTable[[#This Row],['#Grade]]=D8,T8
 )</f>
         <v>0</v>
       </c>
-      <c r="T9" s="8" t="str">
+      <c r="U9" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U9" s="8">
+      <c r="V9" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>12001</v>
       </c>
-      <c r="V9" s="8">
+      <c r="W9" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>22001</v>
       </c>
-      <c r="W9" s="8" t="str">
+      <c r="X9" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>미정1</v>
       </c>
-      <c r="X9" s="8" t="str">
+      <c r="Y9" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
-        <v>공격 속도 15% 상승</v>
+        <v>골드를 20% 더 많이 획득할 수 있습니다.</v>
       </c>
     </row>
-    <row r="10" spans="2:24">
+    <row r="10" spans="2:25">
       <c r="B10" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" cm="1">
         <f t="array" ref="E10">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -2459,101 +2522,109 @@
         <v>7002</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>휘두르기 재사용 시간 변경</v>
       </c>
-      <c r="H10">
-        <v>0.8</v>
-      </c>
-      <c r="I10" t="s">
-        <v>44</v>
+      <c r="I10">
+        <v>0.6</v>
       </c>
       <c r="J10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>45</v>
+      </c>
+      <c r="K10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterAtkTable</v>
       </c>
-      <c r="L10" s="8" cm="1">
-        <f t="array" ref="L10">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M10" s="8" cm="1">
+        <f t="array" ref="M10">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
-        <v>50</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N10" s="8" cm="1">
-        <f t="array" ref="N10">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+        <v>0.5</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="8" cm="1">
+        <f t="array" ref="O10">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>40</v>
-      </c>
-      <c r="O10" s="8" cm="1">
-        <f t="array" ref="O10">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+        <v>0.3</v>
+      </c>
+      <c r="P10" s="8" cm="1">
+        <f t="array" ref="P10">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
-)</f>
-        <v>1500</v>
-      </c>
-      <c r="P10" s="8" cm="1">
-        <f t="array" ref="P10">SUM(IF($E$3:$E$58=E10,$O$3:$O$58))</f>
-        <v>1500</v>
-      </c>
-      <c r="Q10" s="8">
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>30</v>
+      </c>
+      <c r="Q10" s="8" cm="1">
+        <f t="array" ref="Q10">SUM(IF($E$3:$E$58=E10,$P$3:$P$58))</f>
+        <v>30</v>
+      </c>
+      <c r="R10" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-1470</v>
-      </c>
-      <c r="R10" s="7"/>
-      <c r="S10" s="8" cm="1">
-        <f t="array" ref="S10">_xlfn.IFS(
-ISTEXT(S9),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D9,ItemEffectTable[[#This Row],['#이름값]]=C9),S9+1,
+        <v>0</v>
+      </c>
+      <c r="S10" s="7"/>
+      <c r="T10" s="8" cm="1">
+        <f t="array" ref="T10">_xlfn.IFS(
+ISTEXT(T9),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D9,ItemEffectTable[[#This Row],['#이름값]]=C9),T9+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D9,0,
-ItemEffectTable[[#This Row],['#Grade]]=D9,S9
+ItemEffectTable[[#This Row],['#Grade]]=D9,T9
 )</f>
         <v>0</v>
       </c>
-      <c r="T10" s="8" t="str">
+      <c r="U10" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U10" s="8">
+      <c r="V10" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>12002</v>
       </c>
-      <c r="V10" s="8">
+      <c r="W10" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>22002</v>
       </c>
-      <c r="W10" s="8" t="str">
+      <c r="X10" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>무언가 담긴병</v>
       </c>
-      <c r="X10" s="8" t="str">
+      <c r="Y10" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>차징 속도 20% 상승</v>
       </c>
     </row>
-    <row r="11" spans="2:24">
+    <row r="11" spans="2:25">
       <c r="B11" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" cm="1">
         <f t="array" ref="E11">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -2565,39 +2636,47 @@
         <v>7003</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>공크기변경</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1.5</v>
       </c>
-      <c r="I11" t="s">
-        <v>48</v>
-      </c>
       <c r="J11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>49</v>
+      </c>
+      <c r="K11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>ProjectileTable</v>
       </c>
-      <c r="L11" s="8" cm="1">
-        <f t="array" ref="L11">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M11" s="8" cm="1">
+        <f t="array" ref="M11">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>0.8</v>
       </c>
-      <c r="M11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N11" s="8" cm="1">
-        <f t="array" ref="N11">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" s="8" cm="1">
+        <f t="array" ref="O11">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -2605,61 +2684,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="O11" s="8" cm="1">
-        <f t="array" ref="O11">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P11" s="8" cm="1">
+        <f t="array" ref="P11">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>29.999999999999996</v>
       </c>
-      <c r="P11" s="8" cm="1">
-        <f t="array" ref="P11">SUM(IF($E$3:$E$58=E11,$O$3:$O$58))</f>
+      <c r="Q11" s="8" cm="1">
+        <f t="array" ref="Q11">SUM(IF($E$3:$E$58=E11,$P$3:$P$58))</f>
         <v>29.999999999999996</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="R11" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>0</v>
       </c>
-      <c r="R11" s="7"/>
-      <c r="S11" s="8" cm="1">
-        <f t="array" ref="S11">_xlfn.IFS(
-ISTEXT(S10),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D10,ItemEffectTable[[#This Row],['#이름값]]=C10),S10+1,
+      <c r="S11" s="7"/>
+      <c r="T11" s="8" cm="1">
+        <f t="array" ref="T11">_xlfn.IFS(
+ISTEXT(T10),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D10,ItemEffectTable[[#This Row],['#이름값]]=C10),T10+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D10,0,
-ItemEffectTable[[#This Row],['#Grade]]=D10,S10
+ItemEffectTable[[#This Row],['#Grade]]=D10,T10
 )</f>
         <v>0</v>
       </c>
-      <c r="T11" s="8" t="str">
+      <c r="U11" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U11" s="8">
+      <c r="V11" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>12003</v>
       </c>
-      <c r="V11" s="8">
+      <c r="W11" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>22003</v>
       </c>
-      <c r="W11" s="8" t="str">
+      <c r="X11" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>아저씨의 금구슬</v>
       </c>
-      <c r="X11" s="8" t="str">
+      <c r="Y11" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>공 크기가 3 커집니다.</v>
       </c>
     </row>
-    <row r="12" spans="2:24">
+    <row r="12" spans="2:25">
       <c r="B12" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" cm="1">
         <f t="array" ref="E12">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -2671,39 +2750,47 @@
         <v>7004</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>차징속도변경-1단계</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-0.2</v>
       </c>
-      <c r="I12" t="s">
-        <v>48</v>
-      </c>
       <c r="J12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>49</v>
+      </c>
+      <c r="K12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterAtkTable</v>
       </c>
-      <c r="L12" s="8" cm="1">
-        <f t="array" ref="L12">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M12" s="8" cm="1">
+        <f t="array" ref="M12">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>0.5</v>
       </c>
-      <c r="M12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N12" s="8" cm="1">
-        <f t="array" ref="N12">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="8" cm="1">
+        <f t="array" ref="O12">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -2711,61 +2798,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>0.3</v>
       </c>
-      <c r="O12" s="8" cm="1">
-        <f t="array" ref="O12">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P12" s="8" cm="1">
+        <f t="array" ref="P12">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>11.111111111111114</v>
       </c>
-      <c r="P12" s="8" cm="1">
-        <f t="array" ref="P12">SUM(IF($E$3:$E$58=E12,$O$3:$O$58))</f>
+      <c r="Q12" s="8" cm="1">
+        <f t="array" ref="Q12">SUM(IF($E$3:$E$58=E12,$P$3:$P$58))</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="R12" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>-3.3333333333333357</v>
       </c>
-      <c r="R12" s="7"/>
-      <c r="S12" s="8" cm="1">
-        <f t="array" ref="S12">_xlfn.IFS(
-ISTEXT(S11),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D11,ItemEffectTable[[#This Row],['#이름값]]=C11),S11+1,
+      <c r="S12" s="7"/>
+      <c r="T12" s="8" cm="1">
+        <f t="array" ref="T12">_xlfn.IFS(
+ISTEXT(T11),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D11,ItemEffectTable[[#This Row],['#이름값]]=C11),T11+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D11,0,
-ItemEffectTable[[#This Row],['#Grade]]=D11,S11
+ItemEffectTable[[#This Row],['#Grade]]=D11,T11
 )</f>
         <v>0</v>
       </c>
-      <c r="T12" s="8" t="str">
+      <c r="U12" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U12" s="8">
+      <c r="V12" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>12004</v>
       </c>
-      <c r="V12" s="8">
+      <c r="W12" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>22004</v>
       </c>
-      <c r="W12" s="8" t="str">
+      <c r="X12" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>작은 십자가</v>
       </c>
-      <c r="X12" s="8" t="str">
+      <c r="Y12" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>공격 범위가 2 증가합니다.</v>
       </c>
     </row>
-    <row r="13" spans="2:24">
+    <row r="13" spans="2:25">
       <c r="B13" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" cm="1">
         <f t="array" ref="E13">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -2777,39 +2864,47 @@
         <v>7004</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>차징속도변경-2단계</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-0.2</v>
       </c>
-      <c r="I13" t="s">
-        <v>48</v>
-      </c>
       <c r="J13" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>49</v>
+      </c>
+      <c r="K13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterAtkTable</v>
       </c>
-      <c r="L13" s="8" cm="1">
-        <f t="array" ref="L13">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M13" s="8" cm="1">
+        <f t="array" ref="M13">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>1</v>
       </c>
-      <c r="M13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N13" s="8" cm="1">
-        <f t="array" ref="N13">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" s="8" cm="1">
+        <f t="array" ref="O13">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -2817,61 +2912,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>0.8</v>
       </c>
-      <c r="O13" s="8" cm="1">
-        <f t="array" ref="O13">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P13" s="8" cm="1">
+        <f t="array" ref="P13">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>11.111111111111111</v>
       </c>
-      <c r="P13" s="8" cm="1">
-        <f t="array" ref="P13">SUM(IF($E$3:$E$58=E13,$O$3:$O$58))</f>
+      <c r="Q13" s="8" cm="1">
+        <f t="array" ref="Q13">SUM(IF($E$3:$E$58=E13,$P$3:$P$58))</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="R13" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>-3.3333333333333357</v>
       </c>
-      <c r="R13" s="7"/>
-      <c r="S13" s="8" cm="1">
-        <f t="array" ref="S13">_xlfn.IFS(
-ISTEXT(S12),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D12,ItemEffectTable[[#This Row],['#이름값]]=C12),S12+1,
+      <c r="S13" s="7"/>
+      <c r="T13" s="8" cm="1">
+        <f t="array" ref="T13">_xlfn.IFS(
+ISTEXT(T12),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D12,ItemEffectTable[[#This Row],['#이름값]]=C12),T12+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D12,0,
-ItemEffectTable[[#This Row],['#Grade]]=D12,S12
+ItemEffectTable[[#This Row],['#Grade]]=D12,T12
 )</f>
         <v>1</v>
       </c>
-      <c r="T13" s="8" t="str">
+      <c r="U13" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U13" s="8">
+      <c r="V13" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>12004</v>
       </c>
-      <c r="V13" s="8">
+      <c r="W13" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>22004</v>
       </c>
-      <c r="W13" s="8" t="str">
+      <c r="X13" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>작은 십자가</v>
       </c>
-      <c r="X13" s="8" t="str">
+      <c r="Y13" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>공격 범위가 2 증가합니다.</v>
       </c>
     </row>
-    <row r="14" spans="2:24">
+    <row r="14" spans="2:25">
       <c r="B14" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E14" cm="1">
         <f t="array" ref="E14">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -2883,39 +2978,47 @@
         <v>7004</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>차징속도변경-3단계</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-0.2</v>
       </c>
-      <c r="I14" t="s">
-        <v>48</v>
-      </c>
       <c r="J14" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>49</v>
+      </c>
+      <c r="K14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterAtkTable</v>
       </c>
-      <c r="L14" s="8" cm="1">
-        <f t="array" ref="L14">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M14" s="8" cm="1">
+        <f t="array" ref="M14">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>1.5</v>
       </c>
-      <c r="M14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N14" s="8" cm="1">
-        <f t="array" ref="N14">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="8" cm="1">
+        <f t="array" ref="O14">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -2923,61 +3026,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>1.3</v>
       </c>
-      <c r="O14" s="8" cm="1">
-        <f t="array" ref="O14">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P14" s="8" cm="1">
+        <f t="array" ref="P14">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>11.111111111111111</v>
       </c>
-      <c r="P14" s="8" cm="1">
-        <f t="array" ref="P14">SUM(IF($E$3:$E$58=E14,$O$3:$O$58))</f>
+      <c r="Q14" s="8" cm="1">
+        <f t="array" ref="Q14">SUM(IF($E$3:$E$58=E14,$P$3:$P$58))</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="R14" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>-3.3333333333333357</v>
       </c>
-      <c r="R14" s="7"/>
-      <c r="S14" s="8" cm="1">
-        <f t="array" ref="S14">_xlfn.IFS(
-ISTEXT(S13),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D13,ItemEffectTable[[#This Row],['#이름값]]=C13),S13+1,
+      <c r="S14" s="7"/>
+      <c r="T14" s="8" cm="1">
+        <f t="array" ref="T14">_xlfn.IFS(
+ISTEXT(T13),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D13,ItemEffectTable[[#This Row],['#이름값]]=C13),T13+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D13,0,
-ItemEffectTable[[#This Row],['#Grade]]=D13,S13
+ItemEffectTable[[#This Row],['#Grade]]=D13,T13
 )</f>
         <v>2</v>
       </c>
-      <c r="T14" s="8" t="str">
+      <c r="U14" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U14" s="8">
+      <c r="V14" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>12004</v>
       </c>
-      <c r="V14" s="8">
+      <c r="W14" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>22004</v>
       </c>
-      <c r="W14" s="8" t="str">
+      <c r="X14" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>작은 십자가</v>
       </c>
-      <c r="X14" s="8" t="str">
+      <c r="Y14" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>공격 범위가 2 증가합니다.</v>
       </c>
     </row>
-    <row r="15" spans="2:24">
+    <row r="15" spans="2:25">
       <c r="B15" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" cm="1">
         <f t="array" ref="E15">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -2989,39 +3092,47 @@
         <v>7005</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>최대체력변경</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>100</v>
       </c>
-      <c r="I15" t="s">
-        <v>48</v>
-      </c>
       <c r="J15" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>49</v>
+      </c>
+      <c r="K15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterTable</v>
       </c>
-      <c r="L15" s="8" cm="1">
-        <f t="array" ref="L15">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M15" s="8" cm="1">
+        <f t="array" ref="M15">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>150</v>
       </c>
-      <c r="M15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N15" s="8" cm="1">
-        <f t="array" ref="N15">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" s="8" cm="1">
+        <f t="array" ref="O15">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -3029,61 +3140,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>250</v>
       </c>
-      <c r="O15" s="8" cm="1">
-        <f t="array" ref="O15">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P15" s="8" cm="1">
+        <f t="array" ref="P15">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="P15" s="8" cm="1">
-        <f t="array" ref="P15">SUM(IF($E$3:$E$58=E15,$O$3:$O$58))</f>
+      <c r="Q15" s="8" cm="1">
+        <f t="array" ref="Q15">SUM(IF($E$3:$E$58=E15,$P$3:$P$58))</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="R15" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>-3.3333333333333286</v>
       </c>
-      <c r="R15" s="7"/>
-      <c r="S15" s="8" cm="1">
-        <f t="array" ref="S15">_xlfn.IFS(
-ISTEXT(S14),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D14,ItemEffectTable[[#This Row],['#이름값]]=C14),S14+1,
+      <c r="S15" s="7"/>
+      <c r="T15" s="8" cm="1">
+        <f t="array" ref="T15">_xlfn.IFS(
+ISTEXT(T14),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D14,ItemEffectTable[[#This Row],['#이름값]]=C14),T14+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D14,0,
-ItemEffectTable[[#This Row],['#Grade]]=D14,S14
+ItemEffectTable[[#This Row],['#Grade]]=D14,T14
 )</f>
         <v>2</v>
       </c>
-      <c r="T15" s="8" t="str">
+      <c r="U15" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U15" s="8">
+      <c r="V15" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>12005</v>
       </c>
-      <c r="V15" s="8">
+      <c r="W15" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>22005</v>
       </c>
-      <c r="W15" s="8" t="str">
+      <c r="X15" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>목없는 갑옷</v>
       </c>
-      <c r="X15" s="8" t="str">
+      <c r="Y15" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>[하트]가 1개 증가합니다.</v>
       </c>
     </row>
-    <row r="16" spans="2:24">
+    <row r="16" spans="2:25">
       <c r="B16" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16" cm="1">
         <f t="array" ref="E16">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -3095,39 +3206,47 @@
         <v>7006</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>공최대소지개수변경</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2</v>
       </c>
-      <c r="I16" t="s">
-        <v>48</v>
-      </c>
       <c r="J16" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>49</v>
+      </c>
+      <c r="K16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterTable</v>
       </c>
-      <c r="L16" s="8" cm="1">
-        <f t="array" ref="L16">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M16" s="8" cm="1">
+        <f t="array" ref="M16">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>1</v>
       </c>
-      <c r="M16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N16" s="8" cm="1">
-        <f t="array" ref="N16">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" s="8" cm="1">
+        <f t="array" ref="O16">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -3135,61 +3254,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>3</v>
       </c>
-      <c r="O16" s="8" cm="1">
-        <f t="array" ref="O16">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P16" s="8" cm="1">
+        <f t="array" ref="P16">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="P16" s="8" cm="1">
-        <f t="array" ref="P16">SUM(IF($E$3:$E$58=E16,$O$3:$O$58))</f>
+      <c r="Q16" s="8" cm="1">
+        <f t="array" ref="Q16">SUM(IF($E$3:$E$58=E16,$P$3:$P$58))</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="R16" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>-3.3333333333333357</v>
       </c>
-      <c r="R16" s="7"/>
-      <c r="S16" s="8" cm="1">
-        <f t="array" ref="S16">_xlfn.IFS(
-ISTEXT(S15),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D15,ItemEffectTable[[#This Row],['#이름값]]=C15),S15+1,
+      <c r="S16" s="7"/>
+      <c r="T16" s="8" cm="1">
+        <f t="array" ref="T16">_xlfn.IFS(
+ISTEXT(T15),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D15,ItemEffectTable[[#This Row],['#이름값]]=C15),T15+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D15,0,
-ItemEffectTable[[#This Row],['#Grade]]=D15,S15
+ItemEffectTable[[#This Row],['#Grade]]=D15,T15
 )</f>
         <v>2</v>
       </c>
-      <c r="T16" s="8" t="str">
+      <c r="U16" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U16" s="8">
+      <c r="V16" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>12006</v>
       </c>
-      <c r="V16" s="8">
+      <c r="W16" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>22006</v>
       </c>
-      <c r="W16" s="8" t="str">
+      <c r="X16" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>미정2</v>
       </c>
-      <c r="X16" s="8" t="str">
+      <c r="Y16" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>공 던지기 가능 개수가 1개 증가합니다.</v>
       </c>
     </row>
-    <row r="17" spans="2:24">
+    <row r="17" spans="2:25">
       <c r="B17" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E17" cm="1">
         <f t="array" ref="E17">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -3201,39 +3320,44 @@
         <v>8000</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>67</v>
+      </c>
+      <c r="H17" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>차징 중 ApplyValue반지름 주변 공을 끌어당김.</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>5</v>
       </c>
-      <c r="I17" t="s">
-        <v>42</v>
-      </c>
       <c r="J17" t="s">
-        <v>67</v>
-      </c>
-      <c r="K17" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>43</v>
+      </c>
+      <c r="K17" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>-</v>
       </c>
-      <c r="L17" s="8" t="str" cm="1">
-        <f t="array" ref="L17">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M17" s="8" t="str" cm="1">
+        <f t="array" ref="M17">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>예외처리</v>
       </c>
-      <c r="M17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N17" s="8" t="str" cm="1">
-        <f t="array" ref="N17">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O17" s="8" t="str" cm="1">
+        <f t="array" ref="O17">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -3241,63 +3365,63 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>예외처리</v>
       </c>
-      <c r="O17" s="8" cm="1">
-        <f t="array" ref="O17">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P17" s="8" cm="1">
+        <f t="array" ref="P17">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>50</v>
       </c>
-      <c r="P17" s="8" cm="1">
-        <f t="array" ref="P17">SUM(IF($E$3:$E$58=E17,$O$3:$O$58))</f>
+      <c r="Q17" s="8" cm="1">
+        <f t="array" ref="Q17">SUM(IF($E$3:$E$58=E17,$P$3:$P$58))</f>
         <v>50</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="R17" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>0</v>
       </c>
-      <c r="R17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="S17" s="8" cm="1">
-        <f t="array" ref="S17">_xlfn.IFS(
-ISTEXT(S16),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D16,ItemEffectTable[[#This Row],['#이름값]]=C16),S16+1,
+      <c r="S17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="T17" s="8" cm="1">
+        <f t="array" ref="T17">_xlfn.IFS(
+ISTEXT(T16),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D16,ItemEffectTable[[#This Row],['#이름값]]=C16),T16+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D16,0,
-ItemEffectTable[[#This Row],['#Grade]]=D16,S16
+ItemEffectTable[[#This Row],['#Grade]]=D16,T16
 )</f>
         <v>0</v>
       </c>
-      <c r="T17" s="8" t="str">
+      <c r="U17" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U17" s="8">
+      <c r="V17" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>13000</v>
       </c>
-      <c r="V17" s="8">
+      <c r="W17" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>23000</v>
       </c>
-      <c r="W17" s="8" t="str">
+      <c r="X17" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>Dys : 0N Mk2</v>
       </c>
-      <c r="X17" s="8" t="str">
+      <c r="Y17" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>차징중에 공을 끌어당김</v>
       </c>
     </row>
-    <row r="18" spans="2:24">
+    <row r="18" spans="2:25">
       <c r="B18" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E18" cm="1">
         <f t="array" ref="E18">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -3309,102 +3433,110 @@
         <v>8001</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>휘두르기 재사용 시간 변경</v>
       </c>
-      <c r="H18" t="s">
-        <v>70</v>
-      </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="J18" t="s">
-        <v>71</v>
-      </c>
-      <c r="K18" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>49</v>
+      </c>
+      <c r="K18" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterAtkTable</v>
       </c>
-      <c r="L18" s="8" cm="1">
-        <f t="array" ref="L18">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M18" s="8" cm="1">
+        <f t="array" ref="M18">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
-        <v>50</v>
-      </c>
-      <c r="M18" s="9" cm="1">
-        <f t="array" ref="M18">[1]!CharacterTable[MovementSpd]*-0.05</f>
+        <v>0.5</v>
+      </c>
+      <c r="N18" s="9" cm="1">
+        <f t="array" ref="N18">[1]!CharacterTable[MovementSpd]*-0.05</f>
         <v>-0.30000000000000004</v>
       </c>
-      <c r="N18" s="8" cm="1">
-        <f t="array" ref="N18">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="O18" s="8" cm="1">
+        <f t="array" ref="O18">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>49.7</v>
-      </c>
-      <c r="O18" s="8" cm="1">
-        <f t="array" ref="O18">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="P18" s="8" cm="1">
+        <f t="array" ref="P18">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
-)</f>
-        <v>44.999999999999574</v>
-      </c>
-      <c r="P18" s="8" cm="1">
-        <f t="array" ref="P18">SUM(IF($E$3:$E$58=E18,$O$3:$O$58))</f>
-        <v>44.999999999999574</v>
-      </c>
-      <c r="Q18" s="8">
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>45.000000000000007</v>
+      </c>
+      <c r="Q18" s="8" cm="1">
+        <f t="array" ref="Q18">SUM(IF($E$3:$E$58=E18,$P$3:$P$58))</f>
+        <v>45.000000000000007</v>
+      </c>
+      <c r="R18" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>5.0000000000004263</v>
-      </c>
-      <c r="R18" s="7"/>
-      <c r="S18" s="8" cm="1">
-        <f t="array" ref="S18">_xlfn.IFS(
-ISTEXT(S17),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D17,ItemEffectTable[[#This Row],['#이름값]]=C17),S17+1,
+        <v>4.9999999999999929</v>
+      </c>
+      <c r="S18" s="7"/>
+      <c r="T18" s="8" cm="1">
+        <f t="array" ref="T18">_xlfn.IFS(
+ISTEXT(T17),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D17,ItemEffectTable[[#This Row],['#이름값]]=C17),T17+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D17,0,
-ItemEffectTable[[#This Row],['#Grade]]=D17,S17
+ItemEffectTable[[#This Row],['#Grade]]=D17,T17
 )</f>
         <v>0</v>
       </c>
-      <c r="T18" s="8" t="str">
+      <c r="U18" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U18" s="8">
+      <c r="V18" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>13001</v>
       </c>
-      <c r="V18" s="8">
+      <c r="W18" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>23001</v>
       </c>
-      <c r="W18" s="8" t="str">
+      <c r="X18" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>무해한 불꽃</v>
       </c>
-      <c r="X18" s="8" t="str">
+      <c r="Y18" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>“실례지만 불타고 계십니다” 현재의 이동속도 비례하여 공격속도 증가</v>
       </c>
     </row>
-    <row r="19" spans="2:24">
+    <row r="19" spans="2:25">
       <c r="B19" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E19" cm="1">
         <f t="array" ref="E19">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -3416,39 +3548,47 @@
         <v>8002</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>차징에 따른 관통샷 변경</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>15</v>
       </c>
-      <c r="I19" t="s">
-        <v>38</v>
-      </c>
       <c r="J19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K19" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>40</v>
+      </c>
+      <c r="K19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterAtkTable</v>
       </c>
-      <c r="L19" s="8" cm="1">
-        <f t="array" ref="L19">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M19" s="8" cm="1">
+        <f t="array" ref="M19">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>8</v>
       </c>
-      <c r="M19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N19" s="8" cm="1">
-        <f t="array" ref="N19">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" s="8" cm="1">
+        <f t="array" ref="O19">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -3456,61 +3596,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>15</v>
       </c>
-      <c r="O19" s="8" cm="1">
-        <f t="array" ref="O19">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P19" s="8" cm="1">
+        <f t="array" ref="P19">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>30</v>
       </c>
-      <c r="P19" s="8" cm="1">
-        <f t="array" ref="P19">SUM(IF($E$3:$E$58=E19,$O$3:$O$58))</f>
+      <c r="Q19" s="8" cm="1">
+        <f t="array" ref="Q19">SUM(IF($E$3:$E$58=E19,$P$3:$P$58))</f>
         <v>50.000000000000021</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="R19" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>0</v>
       </c>
-      <c r="R19" s="7"/>
-      <c r="S19" s="8" cm="1">
-        <f t="array" ref="S19">_xlfn.IFS(
-ISTEXT(S18),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D18,ItemEffectTable[[#This Row],['#이름값]]=C18),S18+1,
+      <c r="S19" s="7"/>
+      <c r="T19" s="8" cm="1">
+        <f t="array" ref="T19">_xlfn.IFS(
+ISTEXT(T18),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D18,ItemEffectTable[[#This Row],['#이름값]]=C18),T18+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D18,0,
-ItemEffectTable[[#This Row],['#Grade]]=D18,S18
+ItemEffectTable[[#This Row],['#Grade]]=D18,T18
 )</f>
         <v>0</v>
       </c>
-      <c r="T19" s="8" t="str">
+      <c r="U19" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U19" s="8">
+      <c r="V19" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>13002</v>
       </c>
-      <c r="V19" s="8">
+      <c r="W19" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>23002</v>
       </c>
-      <c r="W19" s="8" t="str">
+      <c r="X19" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>롱기누스</v>
       </c>
-      <c r="X19" s="8" t="str">
+      <c r="Y19" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>[배트]로 쳐낸 공이 적을 관통합니다.</v>
       </c>
     </row>
-    <row r="20" spans="2:24">
+    <row r="20" spans="2:25">
       <c r="B20" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E20" cm="1">
         <f t="array" ref="E20">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -3522,39 +3662,47 @@
         <v>8002</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>공격력변경</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.12</v>
       </c>
-      <c r="I20" t="s">
-        <v>73</v>
-      </c>
       <c r="J20" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>74</v>
+      </c>
+      <c r="K20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterAtkTable</v>
       </c>
-      <c r="L20" s="8" cm="1">
-        <f t="array" ref="L20">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M20" s="8" cm="1">
+        <f t="array" ref="M20">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>1</v>
       </c>
-      <c r="M20" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N20" s="8" cm="1">
-        <f t="array" ref="N20">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N20" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O20" s="8" cm="1">
+        <f t="array" ref="O20">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -3562,61 +3710,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>1.1200000000000001</v>
       </c>
-      <c r="O20" s="8" cm="1">
-        <f t="array" ref="O20">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P20" s="8" cm="1">
+        <f t="array" ref="P20">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>20.000000000000021</v>
       </c>
-      <c r="P20" s="8" cm="1">
-        <f t="array" ref="P20">SUM(IF($E$3:$E$58=E20,$O$3:$O$58))</f>
+      <c r="Q20" s="8" cm="1">
+        <f t="array" ref="Q20">SUM(IF($E$3:$E$58=E20,$P$3:$P$58))</f>
         <v>50.000000000000021</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="R20" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>0</v>
       </c>
-      <c r="R20" s="7"/>
-      <c r="S20" s="8" cm="1">
-        <f t="array" ref="S20">_xlfn.IFS(
-ISTEXT(S19),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D19,ItemEffectTable[[#This Row],['#이름값]]=C19),S19+1,
+      <c r="S20" s="7"/>
+      <c r="T20" s="8" cm="1">
+        <f t="array" ref="T20">_xlfn.IFS(
+ISTEXT(T19),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D19,ItemEffectTable[[#This Row],['#이름값]]=C19),T19+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D19,0,
-ItemEffectTable[[#This Row],['#Grade]]=D19,S19
+ItemEffectTable[[#This Row],['#Grade]]=D19,T19
 )</f>
         <v>1</v>
       </c>
-      <c r="T20" s="8" t="str">
+      <c r="U20" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U20" s="8">
+      <c r="V20" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>13002</v>
       </c>
-      <c r="V20" s="8">
+      <c r="W20" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>23002</v>
       </c>
-      <c r="W20" s="8" t="str">
+      <c r="X20" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>롱기누스</v>
       </c>
-      <c r="X20" s="8" t="str">
+      <c r="Y20" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>[배트]로 쳐낸 공이 적을 관통합니다.</v>
       </c>
     </row>
-    <row r="21" spans="2:24">
+    <row r="21" spans="2:25">
       <c r="B21" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E21" cm="1">
         <f t="array" ref="E21">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -3628,103 +3776,111 @@
         <v>8004</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>최대체력변경</v>
       </c>
-      <c r="H21">
-        <v>50</v>
-      </c>
-      <c r="I21" t="s">
-        <v>48</v>
+      <c r="I21">
+        <v>75</v>
       </c>
       <c r="J21" t="s">
-        <v>33</v>
-      </c>
-      <c r="K21" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>49</v>
+      </c>
+      <c r="K21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterTable</v>
       </c>
-      <c r="L21" s="8" cm="1">
-        <f t="array" ref="L21">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M21" s="8" cm="1">
+        <f t="array" ref="M21">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>150</v>
       </c>
-      <c r="M21" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N21" s="8" cm="1">
-        <f t="array" ref="N21">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O21" s="8" cm="1">
+        <f t="array" ref="O21">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>200</v>
-      </c>
-      <c r="O21" s="8" cm="1">
-        <f t="array" ref="O21">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+        <v>225</v>
+      </c>
+      <c r="P21" s="8" cm="1">
+        <f t="array" ref="P21">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
-)</f>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="P21" s="8" cm="1">
-        <f t="array" ref="P21">SUM(IF($E$3:$E$58=E21,$O$3:$O$58))</f>
-        <v>1521.6666666666667</v>
-      </c>
-      <c r="Q21" s="8">
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>25</v>
+      </c>
+      <c r="Q21" s="8" cm="1">
+        <f t="array" ref="Q21">SUM(IF($E$3:$E$58=E21,$P$3:$P$58))</f>
+        <v>45.000000000000014</v>
+      </c>
+      <c r="R21" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-1471.6666666666667</v>
-      </c>
-      <c r="R21" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="S21" s="8" cm="1">
-        <f t="array" ref="S21">_xlfn.IFS(
-ISTEXT(S19),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D19,ItemEffectTable[[#This Row],['#이름값]]=C19),S19+1,
+        <v>4.9999999999999858</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="T21" s="8" cm="1">
+        <f t="array" ref="T21">_xlfn.IFS(
+ISTEXT(T19),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D19,ItemEffectTable[[#This Row],['#이름값]]=C19),T19+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D19,0,
-ItemEffectTable[[#This Row],['#Grade]]=D19,S19
+ItemEffectTable[[#This Row],['#Grade]]=D19,T19
 )</f>
         <v>0</v>
       </c>
-      <c r="T21" s="8" t="str">
+      <c r="U21" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="U21" s="8">
+      <c r="V21" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>13004</v>
       </c>
-      <c r="V21" s="8">
+      <c r="W21" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>23004</v>
       </c>
-      <c r="W21" s="8" t="str">
+      <c r="X21" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>거인의 주먹</v>
       </c>
-      <c r="X21" s="8" t="str">
+      <c r="Y21" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>최대 [하트] 1개 당 5% 만큼 피해량이 증가합니다.</v>
       </c>
     </row>
-    <row r="22" spans="2:24">
+    <row r="22" spans="2:25">
       <c r="B22" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E22" cm="1">
         <f t="array" ref="E22">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -3736,39 +3892,47 @@
         <v>8004</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G22" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>이동속도변경</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>1.05</v>
       </c>
-      <c r="I22" t="s">
-        <v>44</v>
-      </c>
       <c r="J22" t="s">
-        <v>33</v>
-      </c>
-      <c r="K22" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>45</v>
+      </c>
+      <c r="K22" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterTable</v>
       </c>
-      <c r="L22" s="8" cm="1">
-        <f t="array" ref="L22">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M22" s="8" cm="1">
+        <f t="array" ref="M22">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>6</v>
       </c>
-      <c r="M22" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N22" s="8" cm="1">
-        <f t="array" ref="N22">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N22" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O22" s="8" cm="1">
+        <f t="array" ref="O22">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -3776,63 +3940,63 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>6.3000000000000007</v>
       </c>
-      <c r="O22" s="8" cm="1">
-        <f t="array" ref="O22">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P22" s="8" cm="1">
+        <f t="array" ref="P22">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>5.0000000000000124</v>
       </c>
-      <c r="P22" s="8" cm="1">
-        <f t="array" ref="P22">SUM(IF($E$3:$E$58=E22,$O$3:$O$58))</f>
-        <v>1521.6666666666667</v>
-      </c>
-      <c r="Q22" s="8">
+      <c r="Q22" s="8" cm="1">
+        <f t="array" ref="Q22">SUM(IF($E$3:$E$58=E22,$P$3:$P$58))</f>
+        <v>45.000000000000014</v>
+      </c>
+      <c r="R22" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-1471.6666666666667</v>
-      </c>
-      <c r="R22" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="S22" s="8" cm="1">
-        <f t="array" ref="S22">_xlfn.IFS(
-ISTEXT(S21),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D21,ItemEffectTable[[#This Row],['#이름값]]=C21),S21+1,
+        <v>4.9999999999999858</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="T22" s="8" cm="1">
+        <f t="array" ref="T22">_xlfn.IFS(
+ISTEXT(T21),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D21,ItemEffectTable[[#This Row],['#이름값]]=C21),T21+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D21,0,
-ItemEffectTable[[#This Row],['#Grade]]=D21,S21
+ItemEffectTable[[#This Row],['#Grade]]=D21,T21
 )</f>
         <v>1</v>
       </c>
-      <c r="T22" s="8" t="str">
+      <c r="U22" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="U22" s="8">
+      <c r="V22" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>13004</v>
       </c>
-      <c r="V22" s="8">
+      <c r="W22" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>23004</v>
       </c>
-      <c r="W22" s="8" t="str">
+      <c r="X22" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>거인의 주먹</v>
       </c>
-      <c r="X22" s="8" t="str">
+      <c r="Y22" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>최대 [하트] 1개 당 5% 만큼 피해량이 증가합니다.</v>
       </c>
     </row>
-    <row r="23" spans="2:24">
+    <row r="23" spans="2:25">
       <c r="B23" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E23" cm="1">
         <f t="array" ref="E23">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -3844,103 +4008,111 @@
         <v>8004</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>휘두르기 재사용 시간 변경</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.8</v>
       </c>
-      <c r="I23" t="s">
-        <v>44</v>
-      </c>
       <c r="J23" t="s">
-        <v>33</v>
-      </c>
-      <c r="K23" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>45</v>
+      </c>
+      <c r="K23" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterAtkTable</v>
       </c>
-      <c r="L23" s="8" cm="1">
-        <f t="array" ref="L23">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M23" s="8" cm="1">
+        <f t="array" ref="M23">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
-        <v>50</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N23" s="8" cm="1">
-        <f t="array" ref="N23">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+        <v>0.5</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O23" s="8" cm="1">
+        <f t="array" ref="O23">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>40</v>
-      </c>
-      <c r="O23" s="8" cm="1">
-        <f t="array" ref="O23">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+        <v>0.4</v>
+      </c>
+      <c r="P23" s="8" cm="1">
+        <f t="array" ref="P23">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
-)</f>
-        <v>1500</v>
-      </c>
-      <c r="P23" s="8" cm="1">
-        <f t="array" ref="P23">SUM(IF($E$3:$E$58=E23,$O$3:$O$58))</f>
-        <v>1521.6666666666667</v>
-      </c>
-      <c r="Q23" s="8">
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>14.999999999999996</v>
+      </c>
+      <c r="Q23" s="8" cm="1">
+        <f t="array" ref="Q23">SUM(IF($E$3:$E$58=E23,$P$3:$P$58))</f>
+        <v>45.000000000000014</v>
+      </c>
+      <c r="R23" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>-1471.6666666666667</v>
-      </c>
-      <c r="R23" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="S23" s="8" cm="1">
-        <f t="array" ref="S23">_xlfn.IFS(
-ISTEXT(S22),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D22,ItemEffectTable[[#This Row],['#이름값]]=C22),S22+1,
+        <v>4.9999999999999858</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="T23" s="8" cm="1">
+        <f t="array" ref="T23">_xlfn.IFS(
+ISTEXT(T22),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D22,ItemEffectTable[[#This Row],['#이름값]]=C22),T22+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D22,0,
-ItemEffectTable[[#This Row],['#Grade]]=D22,S22
+ItemEffectTable[[#This Row],['#Grade]]=D22,T22
 )</f>
         <v>2</v>
       </c>
-      <c r="T23" s="8" t="str">
+      <c r="U23" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="U23" s="8">
+      <c r="V23" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>13004</v>
       </c>
-      <c r="V23" s="8">
+      <c r="W23" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>23004</v>
       </c>
-      <c r="W23" s="8" t="str">
+      <c r="X23" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>거인의 주먹</v>
       </c>
-      <c r="X23" s="8" t="str">
+      <c r="Y23" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>최대 [하트] 1개 당 5% 만큼 피해량이 증가합니다.</v>
       </c>
     </row>
-    <row r="24" spans="2:24">
+    <row r="24" spans="2:25">
       <c r="B24" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E24" cm="1">
         <f t="array" ref="E24">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -3952,40 +4124,48 @@
         <v>8005</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>공격력변경</v>
       </c>
-      <c r="H24" t="s">
-        <v>77</v>
-      </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s">
-        <v>33</v>
-      </c>
-      <c r="K24" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>49</v>
+      </c>
+      <c r="K24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterAtkTable</v>
       </c>
-      <c r="L24" s="8" cm="1">
-        <f t="array" ref="L24">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M24" s="8" cm="1">
+        <f t="array" ref="M24">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>1</v>
       </c>
-      <c r="M24" s="9" cm="1">
-        <f t="array" ref="M24">[1]!CharacterTable[MaxHP]/500</f>
+      <c r="N24" s="9" cm="1">
+        <f t="array" ref="N24">[1]!CharacterTable[MaxHP]/500</f>
         <v>0.3</v>
       </c>
-      <c r="N24" s="8" cm="1">
-        <f t="array" ref="N24">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="O24" s="8" cm="1">
+        <f t="array" ref="O24">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -3993,61 +4173,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>1.3</v>
       </c>
-      <c r="O24" s="8" cm="1">
-        <f t="array" ref="O24">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P24" s="8" cm="1">
+        <f t="array" ref="P24">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>50.000000000000014</v>
       </c>
-      <c r="P24" s="8" cm="1">
-        <f t="array" ref="P24">SUM(IF($E$3:$E$58=E24,$O$3:$O$58))</f>
+      <c r="Q24" s="8" cm="1">
+        <f t="array" ref="Q24">SUM(IF($E$3:$E$58=E24,$P$3:$P$58))</f>
         <v>50.000000000000014</v>
       </c>
-      <c r="Q24" s="8">
+      <c r="R24" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>0</v>
       </c>
-      <c r="R24" s="7"/>
-      <c r="S24" s="8" cm="1">
-        <f t="array" ref="S24">_xlfn.IFS(
-ISTEXT(S23),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D23,ItemEffectTable[[#This Row],['#이름값]]=C23),S23+1,
+      <c r="S24" s="7"/>
+      <c r="T24" s="8" cm="1">
+        <f t="array" ref="T24">_xlfn.IFS(
+ISTEXT(T23),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D23,ItemEffectTable[[#This Row],['#이름값]]=C23),T23+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D23,0,
-ItemEffectTable[[#This Row],['#Grade]]=D23,S23
+ItemEffectTable[[#This Row],['#Grade]]=D23,T23
 )</f>
         <v>2</v>
       </c>
-      <c r="T24" s="8" t="str">
+      <c r="U24" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="U24" s="8">
+      <c r="V24" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>13005</v>
       </c>
-      <c r="V24" s="8">
+      <c r="W24" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>23005</v>
       </c>
-      <c r="W24" s="8" t="str">
+      <c r="X24" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>황금왕의 갑옷</v>
       </c>
-      <c r="X24" s="8" t="str">
+      <c r="Y24" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>골드를 20%씩 더 획득합니다.</v>
       </c>
     </row>
-    <row r="25" spans="2:24">
+    <row r="25" spans="2:25">
       <c r="B25" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E25" cm="1">
         <f t="array" ref="E25">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -4059,39 +4239,47 @@
         <v>8006</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>골드획득량변경</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>0.5</v>
       </c>
-      <c r="I25" t="s">
-        <v>48</v>
-      </c>
       <c r="J25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>49</v>
+      </c>
+      <c r="K25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterTable</v>
       </c>
-      <c r="L25" s="8" cm="1">
-        <f t="array" ref="L25">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M25" s="8" cm="1">
+        <f t="array" ref="M25">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>1</v>
       </c>
-      <c r="M25" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N25" s="8" cm="1">
-        <f t="array" ref="N25">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O25" s="8" cm="1">
+        <f t="array" ref="O25">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -4099,63 +4287,63 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>1.5</v>
       </c>
-      <c r="O25" s="8" cm="1">
-        <f t="array" ref="O25">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P25" s="8" cm="1">
+        <f t="array" ref="P25">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>50</v>
       </c>
-      <c r="P25" s="8" cm="1">
-        <f t="array" ref="P25">SUM(IF($E$3:$E$58=E25,$O$3:$O$58))</f>
+      <c r="Q25" s="8" cm="1">
+        <f t="array" ref="Q25">SUM(IF($E$3:$E$58=E25,$P$3:$P$58))</f>
         <v>50</v>
       </c>
-      <c r="Q25" s="8">
+      <c r="R25" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>0</v>
       </c>
-      <c r="R25" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="S25" s="8" cm="1">
-        <f t="array" ref="S25">_xlfn.IFS(
-ISTEXT(S24),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D24,ItemEffectTable[[#This Row],['#이름값]]=C24),S24+1,
+      <c r="S25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="T25" s="8" cm="1">
+        <f t="array" ref="T25">_xlfn.IFS(
+ISTEXT(T24),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D24,ItemEffectTable[[#This Row],['#이름값]]=C24),T24+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D24,0,
-ItemEffectTable[[#This Row],['#Grade]]=D24,S24
+ItemEffectTable[[#This Row],['#Grade]]=D24,T24
 )</f>
         <v>2</v>
       </c>
-      <c r="T25" s="8" t="str">
+      <c r="U25" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="U25" s="8">
+      <c r="V25" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>13006</v>
       </c>
-      <c r="V25" s="8">
+      <c r="W25" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>23006</v>
       </c>
-      <c r="W25" s="8" t="str">
+      <c r="X25" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>복사기</v>
       </c>
-      <c r="X25" s="8" t="str">
+      <c r="Y25" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>“공이 복사가 된다고” 공 던지기 개수가 2개 증가합니다.</v>
       </c>
     </row>
-    <row r="26" spans="2:24">
+    <row r="26" spans="2:25">
       <c r="B26" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E26" cm="1">
         <f t="array" ref="E26">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -4167,39 +4355,47 @@
         <v>8007</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G26" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>공최대소지개수변경</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>3</v>
       </c>
-      <c r="I26" t="s">
-        <v>48</v>
-      </c>
       <c r="J26" t="s">
-        <v>33</v>
-      </c>
-      <c r="K26" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>49</v>
+      </c>
+      <c r="K26" t="s">
+        <v>34</v>
+      </c>
+      <c r="L26" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterTable</v>
       </c>
-      <c r="L26" s="8" cm="1">
-        <f t="array" ref="L26">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M26" s="8" cm="1">
+        <f t="array" ref="M26">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>1</v>
       </c>
-      <c r="M26" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N26" s="8" cm="1">
-        <f t="array" ref="N26">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O26" s="8" cm="1">
+        <f t="array" ref="O26">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -4207,61 +4403,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>4</v>
       </c>
-      <c r="O26" s="8" cm="1">
-        <f t="array" ref="O26">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P26" s="8" cm="1">
+        <f t="array" ref="P26">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>50</v>
       </c>
-      <c r="P26" s="8" cm="1">
-        <f t="array" ref="P26">SUM(IF($E$3:$E$58=E26,$O$3:$O$58))</f>
+      <c r="Q26" s="8" cm="1">
+        <f t="array" ref="Q26">SUM(IF($E$3:$E$58=E26,$P$3:$P$58))</f>
         <v>50</v>
       </c>
-      <c r="Q26" s="8">
+      <c r="R26" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>0</v>
       </c>
-      <c r="R26" s="7"/>
-      <c r="S26" s="8" cm="1">
-        <f t="array" ref="S26">_xlfn.IFS(
-ISTEXT(S25),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D25,ItemEffectTable[[#This Row],['#이름값]]=C25),S25+1,
+      <c r="S26" s="7"/>
+      <c r="T26" s="8" cm="1">
+        <f t="array" ref="T26">_xlfn.IFS(
+ISTEXT(T25),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D25,ItemEffectTable[[#This Row],['#이름값]]=C25),T25+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D25,0,
-ItemEffectTable[[#This Row],['#Grade]]=D25,S25
+ItemEffectTable[[#This Row],['#Grade]]=D25,T25
 )</f>
         <v>2</v>
       </c>
-      <c r="T26" s="8" t="str">
+      <c r="U26" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="U26" s="8">
+      <c r="V26" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>13007</v>
       </c>
-      <c r="V26" s="8">
+      <c r="W26" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>23007</v>
       </c>
-      <c r="W26" s="8" t="str">
+      <c r="X26" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>어른의 카드</v>
       </c>
-      <c r="X26" s="8" t="str">
+      <c r="Y26" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>소지중인 골드의 1%만큼 데미지 상승</v>
       </c>
     </row>
-    <row r="27" spans="2:24">
+    <row r="27" spans="2:25">
       <c r="B27" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E27" cm="1">
         <f t="array" ref="E27">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -4273,40 +4469,48 @@
         <v>8008</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>공격력변경</v>
       </c>
-      <c r="H27" t="s">
-        <v>83</v>
-      </c>
       <c r="I27" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="J27" t="s">
-        <v>84</v>
-      </c>
-      <c r="K27" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>45</v>
+      </c>
+      <c r="K27" t="s">
+        <v>85</v>
+      </c>
+      <c r="L27" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterAtkTable</v>
       </c>
-      <c r="L27" s="8" cm="1">
-        <f t="array" ref="L27">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M27" s="8" cm="1">
+        <f t="array" ref="M27">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>1</v>
       </c>
-      <c r="M27" s="9">
+      <c r="N27" s="9">
         <f>1+50*0.005</f>
         <v>1.25</v>
       </c>
-      <c r="N27" s="8" cm="1">
-        <f t="array" ref="N27">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="O27" s="8" cm="1">
+        <f t="array" ref="O27">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -4314,63 +4518,63 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>1.25</v>
       </c>
-      <c r="O27" s="8" cm="1">
-        <f t="array" ref="O27">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P27" s="8" cm="1">
+        <f t="array" ref="P27">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>41.666666666666671</v>
       </c>
-      <c r="P27" s="8" cm="1">
-        <f t="array" ref="P27">SUM(IF($E$3:$E$58=E27,$O$3:$O$58))</f>
+      <c r="Q27" s="8" cm="1">
+        <f t="array" ref="Q27">SUM(IF($E$3:$E$58=E27,$P$3:$P$58))</f>
         <v>41.666666666666671</v>
       </c>
-      <c r="Q27" s="8">
+      <c r="R27" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>8.3333333333333286</v>
       </c>
-      <c r="R27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="S27" s="8" cm="1">
-        <f t="array" ref="S27">_xlfn.IFS(
-ISTEXT(S26),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D26,ItemEffectTable[[#This Row],['#이름값]]=C26),S26+1,
+      <c r="S27" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="T27" s="8" cm="1">
+        <f t="array" ref="T27">_xlfn.IFS(
+ISTEXT(T26),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D26,ItemEffectTable[[#This Row],['#이름값]]=C26),T26+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D26,0,
-ItemEffectTable[[#This Row],['#Grade]]=D26,S26
+ItemEffectTable[[#This Row],['#Grade]]=D26,T26
 )</f>
         <v>2</v>
       </c>
-      <c r="T27" s="8" t="str">
+      <c r="U27" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="U27" s="8">
+      <c r="V27" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>13008</v>
       </c>
-      <c r="V27" s="8">
+      <c r="W27" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>23008</v>
       </c>
-      <c r="W27" s="8" t="str">
+      <c r="X27" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>회광반조</v>
       </c>
-      <c r="X27" s="8" t="str">
+      <c r="Y27" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>빈 하트 1개당 피해량 5% 상승</v>
       </c>
     </row>
-    <row r="28" spans="2:24">
+    <row r="28" spans="2:25">
       <c r="B28" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E28" cm="1">
         <f t="array" ref="E28">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -4382,40 +4586,48 @@
         <v>8009</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>공격력변경</v>
       </c>
-      <c r="H28" t="s">
-        <v>87</v>
-      </c>
       <c r="I28" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="J28" t="s">
-        <v>88</v>
-      </c>
-      <c r="K28" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>49</v>
+      </c>
+      <c r="K28" t="s">
+        <v>89</v>
+      </c>
+      <c r="L28" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterAtkTable</v>
       </c>
-      <c r="L28" s="8" cm="1">
-        <f t="array" ref="L28">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M28" s="8" cm="1">
+        <f t="array" ref="M28">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>1</v>
       </c>
-      <c r="M28" s="9" cm="1">
-        <f t="array" ref="M28">([1]!CharacterTable[MaxHP]-50)/500</f>
+      <c r="N28" s="9" cm="1">
+        <f t="array" ref="N28">([1]!CharacterTable[MaxHP]-50)/500</f>
         <v>0.2</v>
       </c>
-      <c r="N28" s="8" cm="1">
-        <f t="array" ref="N28">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="O28" s="8" cm="1">
+        <f t="array" ref="O28">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -4423,61 +4635,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>1.2</v>
       </c>
-      <c r="O28" s="8" cm="1">
-        <f t="array" ref="O28">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P28" s="8" cm="1">
+        <f t="array" ref="P28">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="P28" s="8" cm="1">
-        <f t="array" ref="P28">SUM(IF($E$3:$E$58=E28,$O$3:$O$58))</f>
+      <c r="Q28" s="8" cm="1">
+        <f t="array" ref="Q28">SUM(IF($E$3:$E$58=E28,$P$3:$P$58))</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="Q28" s="8">
+      <c r="R28" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>16.666666666666671</v>
       </c>
-      <c r="R28" s="7"/>
-      <c r="S28" s="8" cm="1">
-        <f t="array" ref="S28">_xlfn.IFS(
-ISTEXT(S27),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D27,ItemEffectTable[[#This Row],['#이름값]]=C27),S27+1,
+      <c r="S28" s="7"/>
+      <c r="T28" s="8" cm="1">
+        <f t="array" ref="T28">_xlfn.IFS(
+ISTEXT(T27),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D27,ItemEffectTable[[#This Row],['#이름값]]=C27),T27+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D27,0,
-ItemEffectTable[[#This Row],['#Grade]]=D27,S27
+ItemEffectTable[[#This Row],['#Grade]]=D27,T27
 )</f>
         <v>2</v>
       </c>
-      <c r="T28" s="8" t="str">
+      <c r="U28" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="U28" s="8">
+      <c r="V28" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>13009</v>
       </c>
-      <c r="V28" s="8">
+      <c r="W28" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>23009</v>
       </c>
-      <c r="W28" s="8" t="str">
+      <c r="X28" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>이카루스의 날개</v>
       </c>
-      <c r="X28" s="8" t="str">
+      <c r="Y28" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>RowCollider을 무시하고 이동함.</v>
       </c>
     </row>
-    <row r="29" spans="2:24">
+    <row r="29" spans="2:25">
       <c r="B29" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E29" cm="1">
         <f t="array" ref="E29">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -4489,39 +4701,44 @@
         <v>8010</v>
       </c>
       <c r="F29" t="s">
-        <v>90</v>
-      </c>
-      <c r="G29" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>91</v>
+      </c>
+      <c r="H29" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>RowColider과 플레이어가 충돌하지 않음.</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>0</v>
-      </c>
-      <c r="I29" t="s">
-        <v>32</v>
       </c>
       <c r="J29" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+      <c r="K29" t="s">
+        <v>34</v>
+      </c>
+      <c r="L29" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>-</v>
       </c>
-      <c r="L29" s="8" t="str" cm="1">
-        <f t="array" ref="L29">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M29" s="8" t="str" cm="1">
+        <f t="array" ref="M29">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>예외처리</v>
       </c>
-      <c r="M29" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N29" s="8" t="str" cm="1">
-        <f t="array" ref="N29">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N29" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O29" s="8" t="str" cm="1">
+        <f t="array" ref="O29">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -4529,61 +4746,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>예외처리</v>
       </c>
-      <c r="O29" s="8" cm="1">
-        <f t="array" ref="O29">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P29" s="8" cm="1">
+        <f t="array" ref="P29">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>50</v>
       </c>
-      <c r="P29" s="8" cm="1">
-        <f t="array" ref="P29">SUM(IF($E$3:$E$58=E29,$O$3:$O$58))</f>
+      <c r="Q29" s="8" cm="1">
+        <f t="array" ref="Q29">SUM(IF($E$3:$E$58=E29,$P$3:$P$58))</f>
         <v>50</v>
       </c>
-      <c r="Q29" s="8">
+      <c r="R29" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>0</v>
       </c>
-      <c r="R29" s="7"/>
-      <c r="S29" s="8" cm="1">
-        <f t="array" ref="S29">_xlfn.IFS(
-ISTEXT(S28),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D28,ItemEffectTable[[#This Row],['#이름값]]=C28),S28+1,
+      <c r="S29" s="7"/>
+      <c r="T29" s="8" cm="1">
+        <f t="array" ref="T29">_xlfn.IFS(
+ISTEXT(T28),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D28,ItemEffectTable[[#This Row],['#이름값]]=C28),T28+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D28,0,
-ItemEffectTable[[#This Row],['#Grade]]=D28,S28
+ItemEffectTable[[#This Row],['#Grade]]=D28,T28
 )</f>
         <v>2</v>
       </c>
-      <c r="T29" s="8" t="str">
+      <c r="U29" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="U29" s="8">
+      <c r="V29" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>13010</v>
       </c>
-      <c r="V29" s="8">
+      <c r="W29" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>23010</v>
       </c>
-      <c r="W29" s="8" t="str">
+      <c r="X29" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>신성한 수류탄</v>
       </c>
-      <c r="X29" s="8" t="str">
+      <c r="Y29" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>피해량이 20% 증가합니다.</v>
       </c>
     </row>
-    <row r="30" spans="2:24">
+    <row r="30" spans="2:25">
       <c r="B30" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E30" cm="1">
         <f t="array" ref="E30">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -4595,39 +4812,47 @@
         <v>8011</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G30" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>공격력변경</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>1.3</v>
       </c>
-      <c r="I30" t="s">
-        <v>44</v>
-      </c>
       <c r="J30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K30" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>45</v>
+      </c>
+      <c r="K30" t="s">
+        <v>34</v>
+      </c>
+      <c r="L30" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterAtkTable</v>
       </c>
-      <c r="L30" s="8" cm="1">
-        <f t="array" ref="L30">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M30" s="8" cm="1">
+        <f t="array" ref="M30">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>1</v>
       </c>
-      <c r="M30" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N30" s="8" cm="1">
-        <f t="array" ref="N30">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N30" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O30" s="8" cm="1">
+        <f t="array" ref="O30">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -4635,63 +4860,63 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>1.3</v>
       </c>
-      <c r="O30" s="8" cm="1">
-        <f t="array" ref="O30">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P30" s="8" cm="1">
+        <f t="array" ref="P30">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>50.000000000000014</v>
       </c>
-      <c r="P30" s="8" cm="1">
-        <f t="array" ref="P30">SUM(IF($E$3:$E$58=E30,$O$3:$O$58))</f>
+      <c r="Q30" s="8" cm="1">
+        <f t="array" ref="Q30">SUM(IF($E$3:$E$58=E30,$P$3:$P$58))</f>
         <v>50.000000000000014</v>
       </c>
-      <c r="Q30" s="8">
+      <c r="R30" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>0</v>
       </c>
-      <c r="R30" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="S30" s="8" cm="1">
-        <f t="array" ref="S30">_xlfn.IFS(
-ISTEXT(S29),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D29,ItemEffectTable[[#This Row],['#이름값]]=C29),S29+1,
+      <c r="S30" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="T30" s="8" cm="1">
+        <f t="array" ref="T30">_xlfn.IFS(
+ISTEXT(T29),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D29,ItemEffectTable[[#This Row],['#이름값]]=C29),T29+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D29,0,
-ItemEffectTable[[#This Row],['#Grade]]=D29,S29
+ItemEffectTable[[#This Row],['#Grade]]=D29,T29
 )</f>
         <v>2</v>
       </c>
-      <c r="T30" s="8" t="str">
+      <c r="U30" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="U30" s="8">
+      <c r="V30" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>13011</v>
       </c>
-      <c r="V30" s="8">
+      <c r="W30" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>23011</v>
       </c>
-      <c r="W30" s="8" t="str">
+      <c r="X30" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>슈퍼콜드</v>
       </c>
-      <c r="X30" s="8" t="str">
+      <c r="Y30" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>이동하지 않을 때 시간이 멈춤</v>
       </c>
     </row>
-    <row r="31" spans="2:24">
+    <row r="31" spans="2:25">
       <c r="B31" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E31" cm="1">
         <f t="array" ref="E31">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -4703,39 +4928,44 @@
         <v>8012</v>
       </c>
       <c r="F31" t="s">
-        <v>94</v>
-      </c>
-      <c r="G31" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>95</v>
+      </c>
+      <c r="H31" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>행동하지 않을 때 시간이 멈춤.</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>0</v>
       </c>
-      <c r="I31" t="s">
-        <v>32</v>
-      </c>
       <c r="J31" t="s">
-        <v>95</v>
-      </c>
-      <c r="K31" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>33</v>
+      </c>
+      <c r="K31" t="s">
+        <v>96</v>
+      </c>
+      <c r="L31" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>-</v>
       </c>
-      <c r="L31" s="8" t="str" cm="1">
-        <f t="array" ref="L31">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M31" s="8" t="str" cm="1">
+        <f t="array" ref="M31">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>예외처리</v>
       </c>
-      <c r="M31" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N31" s="8" t="str" cm="1">
-        <f t="array" ref="N31">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N31" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O31" s="8" t="str" cm="1">
+        <f t="array" ref="O31">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -4743,63 +4973,63 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>예외처리</v>
       </c>
-      <c r="O31" s="8" cm="1">
-        <f t="array" ref="O31">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P31" s="8" cm="1">
+        <f t="array" ref="P31">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>50</v>
       </c>
-      <c r="P31" s="8" cm="1">
-        <f t="array" ref="P31">SUM(IF($E$3:$E$58=E31,$O$3:$O$58))</f>
+      <c r="Q31" s="8" cm="1">
+        <f t="array" ref="Q31">SUM(IF($E$3:$E$58=E31,$P$3:$P$58))</f>
         <v>50</v>
       </c>
-      <c r="Q31" s="8">
+      <c r="R31" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>0</v>
       </c>
-      <c r="R31" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="S31" s="8" cm="1">
-        <f t="array" ref="S31">_xlfn.IFS(
-ISTEXT(S30),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D30,ItemEffectTable[[#This Row],['#이름값]]=C30),S30+1,
+      <c r="S31" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="T31" s="8" cm="1">
+        <f t="array" ref="T31">_xlfn.IFS(
+ISTEXT(T30),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D30,ItemEffectTable[[#This Row],['#이름값]]=C30),T30+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D30,0,
-ItemEffectTable[[#This Row],['#Grade]]=D30,S30
+ItemEffectTable[[#This Row],['#Grade]]=D30,T30
 )</f>
         <v>2</v>
       </c>
-      <c r="T31" s="8" t="str">
+      <c r="U31" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="U31" s="8">
+      <c r="V31" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>13012</v>
       </c>
-      <c r="V31" s="8">
+      <c r="W31" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>23012</v>
       </c>
-      <c r="W31" s="8" t="str">
+      <c r="X31" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>게이볼그</v>
       </c>
-      <c r="X31" s="8" t="str">
+      <c r="Y31" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>공을 칠 때 자동으로 가장 가까운 적을 향해 날라감</v>
       </c>
     </row>
-    <row r="32" spans="2:24">
+    <row r="32" spans="2:25">
       <c r="B32" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32" cm="1">
         <f t="array" ref="E32">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -4811,39 +5041,44 @@
         <v>8013</v>
       </c>
       <c r="F32" t="s">
-        <v>98</v>
-      </c>
-      <c r="G32" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>99</v>
+      </c>
+      <c r="H32" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>가장 가까운 적을 추격</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>0</v>
       </c>
-      <c r="I32" t="s">
-        <v>32</v>
-      </c>
       <c r="J32" t="s">
-        <v>99</v>
-      </c>
-      <c r="K32" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>33</v>
+      </c>
+      <c r="K32" t="s">
+        <v>100</v>
+      </c>
+      <c r="L32" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>-</v>
       </c>
-      <c r="L32" s="8" t="str" cm="1">
-        <f t="array" ref="L32">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M32" s="8" t="str" cm="1">
+        <f t="array" ref="M32">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>예외처리</v>
       </c>
-      <c r="M32" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N32" s="8" t="str" cm="1">
-        <f t="array" ref="N32">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N32" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O32" s="8" t="str" cm="1">
+        <f t="array" ref="O32">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -4851,61 +5086,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>예외처리</v>
       </c>
-      <c r="O32" s="8" cm="1">
-        <f t="array" ref="O32">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P32" s="8" cm="1">
+        <f t="array" ref="P32">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>50</v>
       </c>
-      <c r="P32" s="8" cm="1">
-        <f t="array" ref="P32">SUM(IF($E$3:$E$58=E32,$O$3:$O$58))</f>
+      <c r="Q32" s="8" cm="1">
+        <f t="array" ref="Q32">SUM(IF($E$3:$E$58=E32,$P$3:$P$58))</f>
         <v>50</v>
       </c>
-      <c r="Q32" s="8">
+      <c r="R32" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>0</v>
       </c>
-      <c r="R32" s="7"/>
-      <c r="S32" s="8" cm="1">
-        <f t="array" ref="S32">_xlfn.IFS(
-ISTEXT(S31),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D31,ItemEffectTable[[#This Row],['#이름값]]=C31),S31+1,
+      <c r="S32" s="7"/>
+      <c r="T32" s="8" cm="1">
+        <f t="array" ref="T32">_xlfn.IFS(
+ISTEXT(T31),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D31,ItemEffectTable[[#This Row],['#이름값]]=C31),T31+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D31,0,
-ItemEffectTable[[#This Row],['#Grade]]=D31,S31
+ItemEffectTable[[#This Row],['#Grade]]=D31,T31
 )</f>
         <v>2</v>
       </c>
-      <c r="T32" s="8" t="e">
+      <c r="U32" s="8" t="e">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>#N/A</v>
       </c>
-      <c r="U32" s="8" t="e">
+      <c r="V32" s="8" t="e">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>#N/A</v>
       </c>
-      <c r="V32" s="8" t="e">
+      <c r="W32" s="8" t="e">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>#N/A</v>
       </c>
-      <c r="W32" s="8" t="e">
+      <c r="X32" s="8" t="e">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>#N/A</v>
       </c>
-      <c r="X32" s="8" t="e">
+      <c r="Y32" s="8" t="e">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="2:24">
+    <row r="33" spans="2:25">
       <c r="B33" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E33" cm="1">
         <f t="array" ref="E33">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -4917,39 +5152,47 @@
         <v>9000</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>이동속도변경</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>0.8</v>
       </c>
-      <c r="I33" t="s">
-        <v>44</v>
-      </c>
       <c r="J33" t="s">
-        <v>33</v>
-      </c>
-      <c r="K33" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>45</v>
+      </c>
+      <c r="K33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L33" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterTable</v>
       </c>
-      <c r="L33" s="8" cm="1">
-        <f t="array" ref="L33">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M33" s="8" cm="1">
+        <f t="array" ref="M33">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>6</v>
       </c>
-      <c r="M33" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N33" s="8" cm="1">
-        <f t="array" ref="N33">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N33" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O33" s="8" cm="1">
+        <f t="array" ref="O33">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -4957,61 +5200,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>4.8000000000000007</v>
       </c>
-      <c r="O33" s="8" cm="1">
-        <f t="array" ref="O33">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P33" s="8" cm="1">
+        <f t="array" ref="P33">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>-19.999999999999989</v>
       </c>
-      <c r="P33" s="8" cm="1">
-        <f t="array" ref="P33">SUM(IF($E$3:$E$58=E33,$O$3:$O$58))</f>
+      <c r="Q33" s="8" cm="1">
+        <f t="array" ref="Q33">SUM(IF($E$3:$E$58=E33,$P$3:$P$58))</f>
         <v>46.6666666666667</v>
       </c>
-      <c r="Q33" s="8">
+      <c r="R33" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>3.3333333333333002</v>
       </c>
-      <c r="R33" s="7"/>
-      <c r="S33" s="8" cm="1">
-        <f t="array" ref="S33">_xlfn.IFS(
-ISTEXT(S32),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D32,ItemEffectTable[[#This Row],['#이름값]]=C32),S32+1,
+      <c r="S33" s="7"/>
+      <c r="T33" s="8" cm="1">
+        <f t="array" ref="T33">_xlfn.IFS(
+ISTEXT(T32),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D32,ItemEffectTable[[#This Row],['#이름값]]=C32),T32+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D32,0,
-ItemEffectTable[[#This Row],['#Grade]]=D32,S32
+ItemEffectTable[[#This Row],['#Grade]]=D32,T32
 )</f>
         <v>0</v>
       </c>
-      <c r="T33" s="8" t="str">
+      <c r="U33" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U33" s="8">
+      <c r="V33" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14000</v>
       </c>
-      <c r="V33" s="8">
+      <c r="W33" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24000</v>
       </c>
-      <c r="W33" s="8" t="str">
+      <c r="X33" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>불길한 깃발</v>
       </c>
-      <c r="X33" s="8" t="str">
+      <c r="Y33" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>이동속도가 30% 감소합니다. 차징 속도가 40% 빨라집니다.</v>
       </c>
     </row>
-    <row r="34" spans="2:24">
+    <row r="34" spans="2:25">
       <c r="B34" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E34" cm="1">
         <f t="array" ref="E34">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -5023,39 +5266,47 @@
         <v>9000</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
-      </c>
-      <c r="G34" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G34" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>차징속도변경-1단계</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.6</v>
       </c>
-      <c r="I34" t="s">
-        <v>44</v>
-      </c>
       <c r="J34" t="s">
-        <v>33</v>
-      </c>
-      <c r="K34" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>45</v>
+      </c>
+      <c r="K34" t="s">
+        <v>34</v>
+      </c>
+      <c r="L34" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterAtkTable</v>
       </c>
-      <c r="L34" s="8" cm="1">
-        <f t="array" ref="L34">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M34" s="8" cm="1">
+        <f t="array" ref="M34">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>0.5</v>
       </c>
-      <c r="M34" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N34" s="8" cm="1">
-        <f t="array" ref="N34">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N34" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O34" s="8" cm="1">
+        <f t="array" ref="O34">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -5063,61 +5314,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>0.3</v>
       </c>
-      <c r="O34" s="8" cm="1">
-        <f t="array" ref="O34">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P34" s="8" cm="1">
+        <f t="array" ref="P34">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>11.111111111111114</v>
       </c>
-      <c r="P34" s="8" cm="1">
-        <f t="array" ref="P34">SUM(IF($E$3:$E$58=E34,$O$3:$O$58))</f>
+      <c r="Q34" s="8" cm="1">
+        <f t="array" ref="Q34">SUM(IF($E$3:$E$58=E34,$P$3:$P$58))</f>
         <v>46.6666666666667</v>
       </c>
-      <c r="Q34" s="8">
+      <c r="R34" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>3.3333333333333002</v>
       </c>
-      <c r="R34" s="7"/>
-      <c r="S34" s="8" cm="1">
-        <f t="array" ref="S34">_xlfn.IFS(
-ISTEXT(S33),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D33,ItemEffectTable[[#This Row],['#이름값]]=C33),S33+1,
+      <c r="S34" s="7"/>
+      <c r="T34" s="8" cm="1">
+        <f t="array" ref="T34">_xlfn.IFS(
+ISTEXT(T33),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D33,ItemEffectTable[[#This Row],['#이름값]]=C33),T33+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D33,0,
-ItemEffectTable[[#This Row],['#Grade]]=D33,S33
+ItemEffectTable[[#This Row],['#Grade]]=D33,T33
 )</f>
         <v>1</v>
       </c>
-      <c r="T34" s="8" t="str">
+      <c r="U34" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U34" s="8">
+      <c r="V34" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14000</v>
       </c>
-      <c r="V34" s="8">
+      <c r="W34" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24000</v>
       </c>
-      <c r="W34" s="8" t="str">
+      <c r="X34" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>불길한 깃발</v>
       </c>
-      <c r="X34" s="8" t="str">
+      <c r="Y34" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>이동속도가 30% 감소합니다. 차징 속도가 40% 빨라집니다.</v>
       </c>
     </row>
-    <row r="35" spans="2:24">
+    <row r="35" spans="2:25">
       <c r="B35" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E35" cm="1">
         <f t="array" ref="E35">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -5129,39 +5380,47 @@
         <v>9000</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
-      </c>
-      <c r="G35" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G35" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>차징속도변경-2단계</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>0.6</v>
       </c>
-      <c r="I35" t="s">
-        <v>44</v>
-      </c>
       <c r="J35" t="s">
-        <v>33</v>
-      </c>
-      <c r="K35" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>45</v>
+      </c>
+      <c r="K35" t="s">
+        <v>34</v>
+      </c>
+      <c r="L35" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterAtkTable</v>
       </c>
-      <c r="L35" s="8" cm="1">
-        <f t="array" ref="L35">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M35" s="8" cm="1">
+        <f t="array" ref="M35">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>1</v>
       </c>
-      <c r="M35" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N35" s="8" cm="1">
-        <f t="array" ref="N35">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N35" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O35" s="8" cm="1">
+        <f t="array" ref="O35">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -5169,61 +5428,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>0.6</v>
       </c>
-      <c r="O35" s="8" cm="1">
-        <f t="array" ref="O35">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P35" s="8" cm="1">
+        <f t="array" ref="P35">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>22.222222222222229</v>
       </c>
-      <c r="P35" s="8" cm="1">
-        <f t="array" ref="P35">SUM(IF($E$3:$E$58=E35,$O$3:$O$58))</f>
+      <c r="Q35" s="8" cm="1">
+        <f t="array" ref="Q35">SUM(IF($E$3:$E$58=E35,$P$3:$P$58))</f>
         <v>46.6666666666667</v>
       </c>
-      <c r="Q35" s="8">
+      <c r="R35" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>3.3333333333333002</v>
       </c>
-      <c r="R35" s="7"/>
-      <c r="S35" s="8" cm="1">
-        <f t="array" ref="S35">_xlfn.IFS(
-ISTEXT(S34),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D34,ItemEffectTable[[#This Row],['#이름값]]=C34),S34+1,
+      <c r="S35" s="7"/>
+      <c r="T35" s="8" cm="1">
+        <f t="array" ref="T35">_xlfn.IFS(
+ISTEXT(T34),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D34,ItemEffectTable[[#This Row],['#이름값]]=C34),T34+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D34,0,
-ItemEffectTable[[#This Row],['#Grade]]=D34,S34
+ItemEffectTable[[#This Row],['#Grade]]=D34,T34
 )</f>
         <v>2</v>
       </c>
-      <c r="T35" s="8" t="str">
+      <c r="U35" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U35" s="8">
+      <c r="V35" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14000</v>
       </c>
-      <c r="V35" s="8">
+      <c r="W35" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24000</v>
       </c>
-      <c r="W35" s="8" t="str">
+      <c r="X35" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>불길한 깃발</v>
       </c>
-      <c r="X35" s="8" t="str">
+      <c r="Y35" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>이동속도가 30% 감소합니다. 차징 속도가 40% 빨라집니다.</v>
       </c>
     </row>
-    <row r="36" spans="2:24">
+    <row r="36" spans="2:25">
       <c r="B36" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E36" cm="1">
         <f t="array" ref="E36">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -5235,39 +5494,47 @@
         <v>9000</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G36" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G36" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>차징속도변경-3단계</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>0.6</v>
       </c>
-      <c r="I36" t="s">
-        <v>44</v>
-      </c>
       <c r="J36" t="s">
-        <v>33</v>
-      </c>
-      <c r="K36" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>45</v>
+      </c>
+      <c r="K36" t="s">
+        <v>34</v>
+      </c>
+      <c r="L36" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterAtkTable</v>
       </c>
-      <c r="L36" s="8" cm="1">
-        <f t="array" ref="L36">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M36" s="8" cm="1">
+        <f t="array" ref="M36">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>1.5</v>
       </c>
-      <c r="M36" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N36" s="8" cm="1">
-        <f t="array" ref="N36">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N36" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O36" s="8" cm="1">
+        <f t="array" ref="O36">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -5275,61 +5542,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="O36" s="8" cm="1">
-        <f t="array" ref="O36">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P36" s="8" cm="1">
+        <f t="array" ref="P36">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>33.333333333333343</v>
       </c>
-      <c r="P36" s="8" cm="1">
-        <f t="array" ref="P36">SUM(IF($E$3:$E$58=E36,$O$3:$O$58))</f>
+      <c r="Q36" s="8" cm="1">
+        <f t="array" ref="Q36">SUM(IF($E$3:$E$58=E36,$P$3:$P$58))</f>
         <v>46.6666666666667</v>
       </c>
-      <c r="Q36" s="8">
+      <c r="R36" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>3.3333333333333002</v>
       </c>
-      <c r="R36" s="7"/>
-      <c r="S36" s="8" cm="1">
-        <f t="array" ref="S36">_xlfn.IFS(
-ISTEXT(S35),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D35,ItemEffectTable[[#This Row],['#이름값]]=C35),S35+1,
+      <c r="S36" s="7"/>
+      <c r="T36" s="8" cm="1">
+        <f t="array" ref="T36">_xlfn.IFS(
+ISTEXT(T35),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D35,ItemEffectTable[[#This Row],['#이름값]]=C35),T35+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D35,0,
-ItemEffectTable[[#This Row],['#Grade]]=D35,S35
+ItemEffectTable[[#This Row],['#Grade]]=D35,T35
 )</f>
         <v>3</v>
       </c>
-      <c r="T36" s="8" t="str">
+      <c r="U36" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U36" s="8">
+      <c r="V36" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14000</v>
       </c>
-      <c r="V36" s="8">
+      <c r="W36" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24000</v>
       </c>
-      <c r="W36" s="8" t="str">
+      <c r="X36" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>불길한 깃발</v>
       </c>
-      <c r="X36" s="8" t="str">
+      <c r="Y36" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>이동속도가 30% 감소합니다. 차징 속도가 40% 빨라집니다.</v>
       </c>
     </row>
-    <row r="37" spans="2:24">
+    <row r="37" spans="2:25">
       <c r="B37" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C37" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="E37" cm="1">
         <f t="array" ref="E37">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -5341,39 +5608,47 @@
         <v>9001</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G37" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>이동속도변경</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>1.9</v>
       </c>
-      <c r="I37" t="s">
-        <v>44</v>
-      </c>
       <c r="J37" t="s">
-        <v>33</v>
-      </c>
-      <c r="K37" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>45</v>
+      </c>
+      <c r="K37" t="s">
+        <v>34</v>
+      </c>
+      <c r="L37" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterTable</v>
       </c>
-      <c r="L37" s="8" cm="1">
-        <f t="array" ref="L37">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M37" s="8" cm="1">
+        <f t="array" ref="M37">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>6</v>
       </c>
-      <c r="M37" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N37" s="8" cm="1">
-        <f t="array" ref="N37">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N37" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O37" s="8" cm="1">
+        <f t="array" ref="O37">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -5381,61 +5656,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>11.399999999999999</v>
       </c>
-      <c r="O37" s="8" cm="1">
-        <f t="array" ref="O37">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P37" s="8" cm="1">
+        <f t="array" ref="P37">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>89.999999999999986</v>
       </c>
-      <c r="P37" s="8" cm="1">
-        <f t="array" ref="P37">SUM(IF($E$3:$E$58=E37,$O$3:$O$58))</f>
+      <c r="Q37" s="8" cm="1">
+        <f t="array" ref="Q37">SUM(IF($E$3:$E$58=E37,$P$3:$P$58))</f>
         <v>56.666666666666657</v>
       </c>
-      <c r="Q37" s="8">
+      <c r="R37" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>-6.6666666666666572</v>
       </c>
-      <c r="R37" s="7"/>
-      <c r="S37" s="8" cm="1">
-        <f t="array" ref="S37">_xlfn.IFS(
-ISTEXT(S36),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D36,ItemEffectTable[[#This Row],['#이름값]]=C36),S36+1,
+      <c r="S37" s="7"/>
+      <c r="T37" s="8" cm="1">
+        <f t="array" ref="T37">_xlfn.IFS(
+ISTEXT(T36),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D36,ItemEffectTable[[#This Row],['#이름값]]=C36),T36+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D36,0,
-ItemEffectTable[[#This Row],['#Grade]]=D36,S36
+ItemEffectTable[[#This Row],['#Grade]]=D36,T36
 )</f>
         <v>3</v>
       </c>
-      <c r="T37" s="8" t="str">
+      <c r="U37" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U37" s="8">
+      <c r="V37" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14001</v>
       </c>
-      <c r="V37" s="8">
+      <c r="W37" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24001</v>
       </c>
-      <c r="W37" s="8" t="str">
+      <c r="X37" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>빗바랜 천가죽</v>
       </c>
-      <c r="X37" s="8" t="str">
+      <c r="Y37" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>이동속도가 20% 감소합니다. 피해량이 20% 감소합니다.</v>
       </c>
     </row>
-    <row r="38" spans="2:24">
+    <row r="38" spans="2:25">
       <c r="B38" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C38" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="E38" cm="1">
         <f t="array" ref="E38">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -5447,39 +5722,47 @@
         <v>9001</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
-      </c>
-      <c r="G38" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G38" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>공격력변경</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>0.8</v>
       </c>
-      <c r="I38" t="s">
-        <v>44</v>
-      </c>
       <c r="J38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K38" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>45</v>
+      </c>
+      <c r="K38" t="s">
+        <v>34</v>
+      </c>
+      <c r="L38" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterAtkTable</v>
       </c>
-      <c r="L38" s="8" cm="1">
-        <f t="array" ref="L38">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M38" s="8" cm="1">
+        <f t="array" ref="M38">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>1</v>
       </c>
-      <c r="M38" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N38" s="8" cm="1">
-        <f t="array" ref="N38">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N38" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O38" s="8" cm="1">
+        <f t="array" ref="O38">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -5487,61 +5770,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>0.8</v>
       </c>
-      <c r="O38" s="8" cm="1">
-        <f t="array" ref="O38">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P38" s="8" cm="1">
+        <f t="array" ref="P38">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>-33.333333333333329</v>
       </c>
-      <c r="P38" s="8" cm="1">
-        <f t="array" ref="P38">SUM(IF($E$3:$E$58=E38,$O$3:$O$58))</f>
+      <c r="Q38" s="8" cm="1">
+        <f t="array" ref="Q38">SUM(IF($E$3:$E$58=E38,$P$3:$P$58))</f>
         <v>56.666666666666657</v>
       </c>
-      <c r="Q38" s="8">
+      <c r="R38" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>-6.6666666666666572</v>
       </c>
-      <c r="R38" s="7"/>
-      <c r="S38" s="8" cm="1">
-        <f t="array" ref="S38">_xlfn.IFS(
-ISTEXT(S37),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D37,ItemEffectTable[[#This Row],['#이름값]]=C37),S37+1,
+      <c r="S38" s="7"/>
+      <c r="T38" s="8" cm="1">
+        <f t="array" ref="T38">_xlfn.IFS(
+ISTEXT(T37),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D37,ItemEffectTable[[#This Row],['#이름값]]=C37),T37+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D37,0,
-ItemEffectTable[[#This Row],['#Grade]]=D37,S37
+ItemEffectTable[[#This Row],['#Grade]]=D37,T37
 )</f>
         <v>4</v>
       </c>
-      <c r="T38" s="8" t="str">
+      <c r="U38" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U38" s="8">
+      <c r="V38" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14001</v>
       </c>
-      <c r="V38" s="8">
+      <c r="W38" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24001</v>
       </c>
-      <c r="W38" s="8" t="str">
+      <c r="X38" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>빗바랜 천가죽</v>
       </c>
-      <c r="X38" s="8" t="str">
+      <c r="Y38" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>이동속도가 20% 감소합니다. 피해량이 20% 감소합니다.</v>
       </c>
     </row>
-    <row r="39" spans="2:24">
+    <row r="39" spans="2:25">
       <c r="B39" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E39" cm="1">
         <f t="array" ref="E39">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -5553,101 +5836,109 @@
         <v>9002</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>차징속도변경-1단계</v>
       </c>
-      <c r="H39">
-        <v>1.4</v>
-      </c>
-      <c r="I39" t="s">
-        <v>44</v>
+      <c r="I39">
+        <v>1.1000000000000001</v>
       </c>
       <c r="J39" t="s">
-        <v>33</v>
-      </c>
-      <c r="K39" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>45</v>
+      </c>
+      <c r="K39" t="s">
+        <v>34</v>
+      </c>
+      <c r="L39" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterAtkTable</v>
       </c>
-      <c r="L39" s="8" cm="1">
-        <f t="array" ref="L39">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M39" s="8" cm="1">
+        <f t="array" ref="M39">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>0.5</v>
       </c>
-      <c r="M39" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N39" s="8" cm="1">
-        <f t="array" ref="N39">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N39" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O39" s="8" cm="1">
+        <f t="array" ref="O39">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>0.7</v>
-      </c>
-      <c r="O39" s="8" cm="1">
-        <f t="array" ref="O39">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P39" s="8" cm="1">
+        <f t="array" ref="P39">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
-)</f>
-        <v>-11.111111111111111</v>
-      </c>
-      <c r="P39" s="8" cm="1">
-        <f t="array" ref="P39">SUM(IF($E$3:$E$58=E39,$O$3:$O$58))</f>
-        <v>-9.1666666666666572</v>
-      </c>
-      <c r="Q39" s="8">
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>-2.7777777777777808</v>
+      </c>
+      <c r="Q39" s="8" cm="1">
+        <f t="array" ref="Q39">SUM(IF($E$3:$E$58=E39,$P$3:$P$58))</f>
+        <v>40.833333333333314</v>
+      </c>
+      <c r="R39" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>59.166666666666657</v>
-      </c>
-      <c r="R39" s="7"/>
-      <c r="S39" s="8" cm="1">
-        <f t="array" ref="S39">_xlfn.IFS(
-ISTEXT(S38),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D38,ItemEffectTable[[#This Row],['#이름값]]=C38),S38+1,
+        <v>9.1666666666666856</v>
+      </c>
+      <c r="S39" s="7"/>
+      <c r="T39" s="8" cm="1">
+        <f t="array" ref="T39">_xlfn.IFS(
+ISTEXT(T38),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D38,ItemEffectTable[[#This Row],['#이름값]]=C38),T38+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D38,0,
-ItemEffectTable[[#This Row],['#Grade]]=D38,S38
+ItemEffectTable[[#This Row],['#Grade]]=D38,T38
 )</f>
         <v>4</v>
       </c>
-      <c r="T39" s="8" t="str">
+      <c r="U39" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U39" s="8">
+      <c r="V39" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14002</v>
       </c>
-      <c r="V39" s="8">
+      <c r="W39" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24002</v>
       </c>
-      <c r="W39" s="8" t="str">
+      <c r="X39" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>나자렛의 몽키스패너</v>
       </c>
-      <c r="X39" s="8" t="str">
+      <c r="Y39" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>차징 속도가 40% 느려집니다. 대신 공을 튕겨내는 속도가 30% 상승합니다.</v>
       </c>
     </row>
-    <row r="40" spans="2:24">
+    <row r="40" spans="2:25">
       <c r="B40" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E40" cm="1">
         <f t="array" ref="E40">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -5659,101 +5950,109 @@
         <v>9002</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G40" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G40" t="s">
+        <v>58</v>
+      </c>
+      <c r="H40" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>차징속도변경-2단계</v>
       </c>
-      <c r="H40">
-        <v>1.4</v>
-      </c>
-      <c r="I40" t="s">
-        <v>44</v>
+      <c r="I40">
+        <v>1.1000000000000001</v>
       </c>
       <c r="J40" t="s">
-        <v>33</v>
-      </c>
-      <c r="K40" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>45</v>
+      </c>
+      <c r="K40" t="s">
+        <v>34</v>
+      </c>
+      <c r="L40" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterAtkTable</v>
       </c>
-      <c r="L40" s="8" cm="1">
-        <f t="array" ref="L40">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M40" s="8" cm="1">
+        <f t="array" ref="M40">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>1</v>
       </c>
-      <c r="M40" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N40" s="8" cm="1">
-        <f t="array" ref="N40">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N40" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O40" s="8" cm="1">
+        <f t="array" ref="O40">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>1.4</v>
-      </c>
-      <c r="O40" s="8" cm="1">
-        <f t="array" ref="O40">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P40" s="8" cm="1">
+        <f t="array" ref="P40">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
-)</f>
-        <v>-22.222222222222221</v>
-      </c>
-      <c r="P40" s="8" cm="1">
-        <f t="array" ref="P40">SUM(IF($E$3:$E$58=E40,$O$3:$O$58))</f>
-        <v>-9.1666666666666572</v>
-      </c>
-      <c r="Q40" s="8">
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>-5.5555555555555616</v>
+      </c>
+      <c r="Q40" s="8" cm="1">
+        <f t="array" ref="Q40">SUM(IF($E$3:$E$58=E40,$P$3:$P$58))</f>
+        <v>40.833333333333314</v>
+      </c>
+      <c r="R40" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>59.166666666666657</v>
-      </c>
-      <c r="R40" s="7"/>
-      <c r="S40" s="8" cm="1">
-        <f t="array" ref="S40">_xlfn.IFS(
-ISTEXT(S39),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D39,ItemEffectTable[[#This Row],['#이름값]]=C39),S39+1,
+        <v>9.1666666666666856</v>
+      </c>
+      <c r="S40" s="7"/>
+      <c r="T40" s="8" cm="1">
+        <f t="array" ref="T40">_xlfn.IFS(
+ISTEXT(T39),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D39,ItemEffectTable[[#This Row],['#이름값]]=C39),T39+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D39,0,
-ItemEffectTable[[#This Row],['#Grade]]=D39,S39
+ItemEffectTable[[#This Row],['#Grade]]=D39,T39
 )</f>
         <v>5</v>
       </c>
-      <c r="T40" s="8" t="str">
+      <c r="U40" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U40" s="8">
+      <c r="V40" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14002</v>
       </c>
-      <c r="V40" s="8">
+      <c r="W40" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24002</v>
       </c>
-      <c r="W40" s="8" t="str">
+      <c r="X40" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>나자렛의 몽키스패너</v>
       </c>
-      <c r="X40" s="8" t="str">
+      <c r="Y40" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>차징 속도가 40% 느려집니다. 대신 공을 튕겨내는 속도가 30% 상승합니다.</v>
       </c>
     </row>
-    <row r="41" spans="2:24">
+    <row r="41" spans="2:25">
       <c r="B41" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E41" cm="1">
         <f t="array" ref="E41">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -5765,101 +6064,109 @@
         <v>9002</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
-      </c>
-      <c r="G41" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G41" t="s">
+        <v>59</v>
+      </c>
+      <c r="H41" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>차징속도변경-3단계</v>
       </c>
-      <c r="H41">
-        <v>1.4</v>
-      </c>
-      <c r="I41" t="s">
-        <v>44</v>
+      <c r="I41">
+        <v>1.1000000000000001</v>
       </c>
       <c r="J41" t="s">
-        <v>33</v>
-      </c>
-      <c r="K41" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>45</v>
+      </c>
+      <c r="K41" t="s">
+        <v>34</v>
+      </c>
+      <c r="L41" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterAtkTable</v>
       </c>
-      <c r="L41" s="8" cm="1">
-        <f t="array" ref="L41">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M41" s="8" cm="1">
+        <f t="array" ref="M41">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>1.5</v>
       </c>
-      <c r="M41" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N41" s="8" cm="1">
-        <f t="array" ref="N41">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N41" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O41" s="8" cm="1">
+        <f t="array" ref="O41">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
-        <v>2.0999999999999996</v>
-      </c>
-      <c r="O41" s="8" cm="1">
-        <f t="array" ref="O41">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="P41" s="8" cm="1">
+        <f t="array" ref="P41">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
-)</f>
-        <v>-33.333333333333321</v>
-      </c>
-      <c r="P41" s="8" cm="1">
-        <f t="array" ref="P41">SUM(IF($E$3:$E$58=E41,$O$3:$O$58))</f>
-        <v>-9.1666666666666572</v>
-      </c>
-      <c r="Q41" s="8">
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
+)</f>
+        <v>-8.3333333333333428</v>
+      </c>
+      <c r="Q41" s="8" cm="1">
+        <f t="array" ref="Q41">SUM(IF($E$3:$E$58=E41,$P$3:$P$58))</f>
+        <v>40.833333333333314</v>
+      </c>
+      <c r="R41" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>59.166666666666657</v>
-      </c>
-      <c r="R41" s="7"/>
-      <c r="S41" s="8" cm="1">
-        <f t="array" ref="S41">_xlfn.IFS(
-ISTEXT(S40),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D40,ItemEffectTable[[#This Row],['#이름값]]=C40),S40+1,
+        <v>9.1666666666666856</v>
+      </c>
+      <c r="S41" s="7"/>
+      <c r="T41" s="8" cm="1">
+        <f t="array" ref="T41">_xlfn.IFS(
+ISTEXT(T40),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D40,ItemEffectTable[[#This Row],['#이름값]]=C40),T40+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D40,0,
-ItemEffectTable[[#This Row],['#Grade]]=D40,S40
+ItemEffectTable[[#This Row],['#Grade]]=D40,T40
 )</f>
         <v>6</v>
       </c>
-      <c r="T41" s="8" t="str">
+      <c r="U41" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U41" s="8">
+      <c r="V41" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14002</v>
       </c>
-      <c r="V41" s="8">
+      <c r="W41" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24002</v>
       </c>
-      <c r="W41" s="8" t="str">
+      <c r="X41" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>나자렛의 몽키스패너</v>
       </c>
-      <c r="X41" s="8" t="str">
+      <c r="Y41" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>차징 속도가 40% 느려집니다. 대신 공을 튕겨내는 속도가 30% 상승합니다.</v>
       </c>
     </row>
-    <row r="42" spans="2:24">
+    <row r="42" spans="2:25">
       <c r="B42" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E42" cm="1">
         <f t="array" ref="E42">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -5871,39 +6178,47 @@
         <v>9002</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="G42" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H42" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>튕겨내기탄환속도변경-미차징</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>2</v>
       </c>
-      <c r="I42" t="s">
-        <v>44</v>
-      </c>
       <c r="J42" t="s">
-        <v>33</v>
-      </c>
-      <c r="K42" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>45</v>
+      </c>
+      <c r="K42" t="s">
+        <v>34</v>
+      </c>
+      <c r="L42" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterAtkTable</v>
       </c>
-      <c r="L42" s="8" cm="1">
-        <f t="array" ref="L42">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M42" s="8" cm="1">
+        <f t="array" ref="M42">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>20</v>
       </c>
-      <c r="M42" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N42" s="8" cm="1">
-        <f t="array" ref="N42">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N42" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O42" s="8" cm="1">
+        <f t="array" ref="O42">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -5911,61 +6226,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>40</v>
       </c>
-      <c r="O42" s="8" cm="1">
-        <f t="array" ref="O42">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P42" s="8" cm="1">
+        <f t="array" ref="P42">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>10</v>
       </c>
-      <c r="P42" s="8" cm="1">
-        <f t="array" ref="P42">SUM(IF($E$3:$E$58=E42,$O$3:$O$58))</f>
-        <v>-9.1666666666666572</v>
-      </c>
-      <c r="Q42" s="8">
+      <c r="Q42" s="8" cm="1">
+        <f t="array" ref="Q42">SUM(IF($E$3:$E$58=E42,$P$3:$P$58))</f>
+        <v>40.833333333333314</v>
+      </c>
+      <c r="R42" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>59.166666666666657</v>
-      </c>
-      <c r="R42" s="7"/>
-      <c r="S42" s="8" cm="1">
-        <f t="array" ref="S42">_xlfn.IFS(
-ISTEXT(S41),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D41,ItemEffectTable[[#This Row],['#이름값]]=C41),S41+1,
+        <v>9.1666666666666856</v>
+      </c>
+      <c r="S42" s="7"/>
+      <c r="T42" s="8" cm="1">
+        <f t="array" ref="T42">_xlfn.IFS(
+ISTEXT(T41),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D41,ItemEffectTable[[#This Row],['#이름값]]=C41),T41+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D41,0,
-ItemEffectTable[[#This Row],['#Grade]]=D41,S41
+ItemEffectTable[[#This Row],['#Grade]]=D41,T41
 )</f>
         <v>7</v>
       </c>
-      <c r="T42" s="8" t="str">
+      <c r="U42" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U42" s="8">
+      <c r="V42" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14002</v>
       </c>
-      <c r="V42" s="8">
+      <c r="W42" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24002</v>
       </c>
-      <c r="W42" s="8" t="str">
+      <c r="X42" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>나자렛의 몽키스패너</v>
       </c>
-      <c r="X42" s="8" t="str">
+      <c r="Y42" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>차징 속도가 40% 느려집니다. 대신 공을 튕겨내는 속도가 30% 상승합니다.</v>
       </c>
     </row>
-    <row r="43" spans="2:24">
+    <row r="43" spans="2:25">
       <c r="B43" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E43" cm="1">
         <f t="array" ref="E43">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -5977,39 +6292,47 @@
         <v>9002</v>
       </c>
       <c r="F43" t="s">
-        <v>105</v>
-      </c>
-      <c r="G43" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G43" t="s">
+        <v>106</v>
+      </c>
+      <c r="H43" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>튕겨내기탄환속도변경-1단계</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>2</v>
       </c>
-      <c r="I43" t="s">
-        <v>44</v>
-      </c>
       <c r="J43" t="s">
-        <v>33</v>
-      </c>
-      <c r="K43" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>45</v>
+      </c>
+      <c r="K43" t="s">
+        <v>34</v>
+      </c>
+      <c r="L43" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterAtkTable</v>
       </c>
-      <c r="L43" s="8" cm="1">
-        <f t="array" ref="L43">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M43" s="8" cm="1">
+        <f t="array" ref="M43">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>25</v>
       </c>
-      <c r="M43" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N43" s="8" cm="1">
-        <f t="array" ref="N43">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N43" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O43" s="8" cm="1">
+        <f t="array" ref="O43">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -6017,61 +6340,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>50</v>
       </c>
-      <c r="O43" s="8" cm="1">
-        <f t="array" ref="O43">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P43" s="8" cm="1">
+        <f t="array" ref="P43">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>12.5</v>
       </c>
-      <c r="P43" s="8" cm="1">
-        <f t="array" ref="P43">SUM(IF($E$3:$E$58=E43,$O$3:$O$58))</f>
-        <v>-9.1666666666666572</v>
-      </c>
-      <c r="Q43" s="8">
+      <c r="Q43" s="8" cm="1">
+        <f t="array" ref="Q43">SUM(IF($E$3:$E$58=E43,$P$3:$P$58))</f>
+        <v>40.833333333333314</v>
+      </c>
+      <c r="R43" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>59.166666666666657</v>
-      </c>
-      <c r="R43" s="7"/>
-      <c r="S43" s="8" cm="1">
-        <f t="array" ref="S43">_xlfn.IFS(
-ISTEXT(S42),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D42,ItemEffectTable[[#This Row],['#이름값]]=C42),S42+1,
+        <v>9.1666666666666856</v>
+      </c>
+      <c r="S43" s="7"/>
+      <c r="T43" s="8" cm="1">
+        <f t="array" ref="T43">_xlfn.IFS(
+ISTEXT(T42),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D42,ItemEffectTable[[#This Row],['#이름값]]=C42),T42+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D42,0,
-ItemEffectTable[[#This Row],['#Grade]]=D42,S42
+ItemEffectTable[[#This Row],['#Grade]]=D42,T42
 )</f>
         <v>8</v>
       </c>
-      <c r="T43" s="8" t="str">
+      <c r="U43" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U43" s="8">
+      <c r="V43" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14002</v>
       </c>
-      <c r="V43" s="8">
+      <c r="W43" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24002</v>
       </c>
-      <c r="W43" s="8" t="str">
+      <c r="X43" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>나자렛의 몽키스패너</v>
       </c>
-      <c r="X43" s="8" t="str">
+      <c r="Y43" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>차징 속도가 40% 느려집니다. 대신 공을 튕겨내는 속도가 30% 상승합니다.</v>
       </c>
     </row>
-    <row r="44" spans="2:24">
+    <row r="44" spans="2:25">
       <c r="B44" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E44" cm="1">
         <f t="array" ref="E44">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -6083,39 +6406,47 @@
         <v>9002</v>
       </c>
       <c r="F44" t="s">
-        <v>106</v>
-      </c>
-      <c r="G44" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G44" t="s">
+        <v>107</v>
+      </c>
+      <c r="H44" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>튕겨내기탄환속도변경-2단계</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>2</v>
       </c>
-      <c r="I44" t="s">
-        <v>44</v>
-      </c>
       <c r="J44" t="s">
-        <v>33</v>
-      </c>
-      <c r="K44" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>45</v>
+      </c>
+      <c r="K44" t="s">
+        <v>34</v>
+      </c>
+      <c r="L44" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterAtkTable</v>
       </c>
-      <c r="L44" s="8" cm="1">
-        <f t="array" ref="L44">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M44" s="8" cm="1">
+        <f t="array" ref="M44">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>30</v>
       </c>
-      <c r="M44" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N44" s="8" cm="1">
-        <f t="array" ref="N44">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N44" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O44" s="8" cm="1">
+        <f t="array" ref="O44">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -6123,61 +6454,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>60</v>
       </c>
-      <c r="O44" s="8" cm="1">
-        <f t="array" ref="O44">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P44" s="8" cm="1">
+        <f t="array" ref="P44">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>15</v>
       </c>
-      <c r="P44" s="8" cm="1">
-        <f t="array" ref="P44">SUM(IF($E$3:$E$58=E44,$O$3:$O$58))</f>
-        <v>-9.1666666666666572</v>
-      </c>
-      <c r="Q44" s="8">
+      <c r="Q44" s="8" cm="1">
+        <f t="array" ref="Q44">SUM(IF($E$3:$E$58=E44,$P$3:$P$58))</f>
+        <v>40.833333333333314</v>
+      </c>
+      <c r="R44" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>59.166666666666657</v>
-      </c>
-      <c r="R44" s="7"/>
-      <c r="S44" s="8" cm="1">
-        <f t="array" ref="S44">_xlfn.IFS(
-ISTEXT(S43),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D43,ItemEffectTable[[#This Row],['#이름값]]=C43),S43+1,
+        <v>9.1666666666666856</v>
+      </c>
+      <c r="S44" s="7"/>
+      <c r="T44" s="8" cm="1">
+        <f t="array" ref="T44">_xlfn.IFS(
+ISTEXT(T43),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D43,ItemEffectTable[[#This Row],['#이름값]]=C43),T43+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D43,0,
-ItemEffectTable[[#This Row],['#Grade]]=D43,S43
+ItemEffectTable[[#This Row],['#Grade]]=D43,T43
 )</f>
         <v>9</v>
       </c>
-      <c r="T44" s="8" t="str">
+      <c r="U44" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U44" s="8">
+      <c r="V44" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14002</v>
       </c>
-      <c r="V44" s="8">
+      <c r="W44" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24002</v>
       </c>
-      <c r="W44" s="8" t="str">
+      <c r="X44" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>나자렛의 몽키스패너</v>
       </c>
-      <c r="X44" s="8" t="str">
+      <c r="Y44" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>차징 속도가 40% 느려집니다. 대신 공을 튕겨내는 속도가 30% 상승합니다.</v>
       </c>
     </row>
-    <row r="45" spans="2:24">
+    <row r="45" spans="2:25">
       <c r="B45" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E45" cm="1">
         <f t="array" ref="E45">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -6189,39 +6520,47 @@
         <v>9002</v>
       </c>
       <c r="F45" t="s">
-        <v>107</v>
-      </c>
-      <c r="G45" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G45" t="s">
+        <v>108</v>
+      </c>
+      <c r="H45" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>튕겨내기탄환속도변경-3단계</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>2</v>
       </c>
-      <c r="I45" t="s">
-        <v>44</v>
-      </c>
       <c r="J45" t="s">
-        <v>33</v>
-      </c>
-      <c r="K45" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>45</v>
+      </c>
+      <c r="K45" t="s">
+        <v>34</v>
+      </c>
+      <c r="L45" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterAtkTable</v>
       </c>
-      <c r="L45" s="8" cm="1">
-        <f t="array" ref="L45">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M45" s="8" cm="1">
+        <f t="array" ref="M45">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>40</v>
       </c>
-      <c r="M45" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N45" s="8" cm="1">
-        <f t="array" ref="N45">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N45" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O45" s="8" cm="1">
+        <f t="array" ref="O45">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -6229,61 +6568,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>80</v>
       </c>
-      <c r="O45" s="8" cm="1">
-        <f t="array" ref="O45">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P45" s="8" cm="1">
+        <f t="array" ref="P45">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>20</v>
       </c>
-      <c r="P45" s="8" cm="1">
-        <f t="array" ref="P45">SUM(IF($E$3:$E$58=E45,$O$3:$O$58))</f>
-        <v>-9.1666666666666572</v>
-      </c>
-      <c r="Q45" s="8">
+      <c r="Q45" s="8" cm="1">
+        <f t="array" ref="Q45">SUM(IF($E$3:$E$58=E45,$P$3:$P$58))</f>
+        <v>40.833333333333314</v>
+      </c>
+      <c r="R45" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
-        <v>59.166666666666657</v>
-      </c>
-      <c r="R45" s="7"/>
-      <c r="S45" s="8" cm="1">
-        <f t="array" ref="S45">_xlfn.IFS(
-ISTEXT(S44),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D44,ItemEffectTable[[#This Row],['#이름값]]=C44),S44+1,
+        <v>9.1666666666666856</v>
+      </c>
+      <c r="S45" s="7"/>
+      <c r="T45" s="8" cm="1">
+        <f t="array" ref="T45">_xlfn.IFS(
+ISTEXT(T44),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D44,ItemEffectTable[[#This Row],['#이름값]]=C44),T44+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D44,0,
-ItemEffectTable[[#This Row],['#Grade]]=D44,S44
+ItemEffectTable[[#This Row],['#Grade]]=D44,T44
 )</f>
         <v>10</v>
       </c>
-      <c r="T45" s="8" t="str">
+      <c r="U45" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U45" s="8">
+      <c r="V45" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14002</v>
       </c>
-      <c r="V45" s="8">
+      <c r="W45" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24002</v>
       </c>
-      <c r="W45" s="8" t="str">
+      <c r="X45" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>나자렛의 몽키스패너</v>
       </c>
-      <c r="X45" s="8" t="str">
+      <c r="Y45" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>차징 속도가 40% 느려집니다. 대신 공을 튕겨내는 속도가 30% 상승합니다.</v>
       </c>
     </row>
-    <row r="46" spans="2:24">
+    <row r="46" spans="2:25">
       <c r="B46" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E46" cm="1">
         <f t="array" ref="E46">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -6295,39 +6634,47 @@
         <v>9003</v>
       </c>
       <c r="F46" t="s">
-        <v>109</v>
-      </c>
-      <c r="G46" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G46" t="s">
+        <v>110</v>
+      </c>
+      <c r="H46" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>최대체력변경</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>3</v>
       </c>
-      <c r="I46" t="s">
-        <v>44</v>
-      </c>
       <c r="J46" t="s">
-        <v>33</v>
-      </c>
-      <c r="K46" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>45</v>
+      </c>
+      <c r="K46" t="s">
+        <v>34</v>
+      </c>
+      <c r="L46" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterTable</v>
       </c>
-      <c r="L46" s="8" cm="1">
-        <f t="array" ref="L46">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M46" s="8" cm="1">
+        <f t="array" ref="M46">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>150</v>
       </c>
-      <c r="M46" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N46" s="8" cm="1">
-        <f t="array" ref="N46">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N46" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O46" s="8" cm="1">
+        <f t="array" ref="O46">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -6335,61 +6682,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>450</v>
       </c>
-      <c r="O46" s="8" cm="1">
-        <f t="array" ref="O46">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P46" s="8" cm="1">
+        <f t="array" ref="P46">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>100</v>
       </c>
-      <c r="P46" s="8" cm="1">
-        <f t="array" ref="P46">SUM(IF($E$3:$E$58=E46,$O$3:$O$58))</f>
+      <c r="Q46" s="8" cm="1">
+        <f t="array" ref="Q46">SUM(IF($E$3:$E$58=E46,$P$3:$P$58))</f>
         <v>50</v>
       </c>
-      <c r="Q46" s="8">
+      <c r="R46" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>0</v>
       </c>
-      <c r="R46" s="7"/>
-      <c r="S46" s="8" cm="1">
-        <f t="array" ref="S46">_xlfn.IFS(
-ISTEXT(S45),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D45,ItemEffectTable[[#This Row],['#이름값]]=C45),S45+1,
+      <c r="S46" s="7"/>
+      <c r="T46" s="8" cm="1">
+        <f t="array" ref="T46">_xlfn.IFS(
+ISTEXT(T45),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D45,ItemEffectTable[[#This Row],['#이름값]]=C45),T45+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D45,0,
-ItemEffectTable[[#This Row],['#Grade]]=D45,S45
+ItemEffectTable[[#This Row],['#Grade]]=D45,T45
 )</f>
         <v>10</v>
       </c>
-      <c r="T46" s="8" t="str">
+      <c r="U46" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U46" s="8">
+      <c r="V46" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14003</v>
       </c>
-      <c r="V46" s="8">
+      <c r="W46" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24003</v>
       </c>
-      <c r="W46" s="8" t="str">
+      <c r="X46" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>저주받은 갑옷</v>
       </c>
-      <c r="X46" s="8" t="str">
+      <c r="Y46" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>[하트]가 3개 증가, 이동속도가 40% 느려집니다.</v>
       </c>
     </row>
-    <row r="47" spans="2:24">
+    <row r="47" spans="2:25">
       <c r="B47" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E47" cm="1">
         <f t="array" ref="E47">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -6401,39 +6748,47 @@
         <v>9003</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
-      </c>
-      <c r="G47" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G47" t="s">
+        <v>48</v>
+      </c>
+      <c r="H47" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>이동속도변경</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>0.5</v>
       </c>
-      <c r="I47" t="s">
-        <v>44</v>
-      </c>
       <c r="J47" t="s">
-        <v>33</v>
-      </c>
-      <c r="K47" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>45</v>
+      </c>
+      <c r="K47" t="s">
+        <v>34</v>
+      </c>
+      <c r="L47" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterTable</v>
       </c>
-      <c r="L47" s="8" cm="1">
-        <f t="array" ref="L47">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M47" s="8" cm="1">
+        <f t="array" ref="M47">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>6</v>
       </c>
-      <c r="M47" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N47" s="8" cm="1">
-        <f t="array" ref="N47">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N47" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O47" s="8" cm="1">
+        <f t="array" ref="O47">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -6441,61 +6796,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>3</v>
       </c>
-      <c r="O47" s="8" cm="1">
-        <f t="array" ref="O47">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P47" s="8" cm="1">
+        <f t="array" ref="P47">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>-50</v>
       </c>
-      <c r="P47" s="8" cm="1">
-        <f t="array" ref="P47">SUM(IF($E$3:$E$58=E47,$O$3:$O$58))</f>
+      <c r="Q47" s="8" cm="1">
+        <f t="array" ref="Q47">SUM(IF($E$3:$E$58=E47,$P$3:$P$58))</f>
         <v>50</v>
       </c>
-      <c r="Q47" s="8">
+      <c r="R47" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>0</v>
       </c>
-      <c r="R47" s="7"/>
-      <c r="S47" s="8" cm="1">
-        <f t="array" ref="S47">_xlfn.IFS(
-ISTEXT(S46),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D46,ItemEffectTable[[#This Row],['#이름값]]=C46),S46+1,
+      <c r="S47" s="7"/>
+      <c r="T47" s="8" cm="1">
+        <f t="array" ref="T47">_xlfn.IFS(
+ISTEXT(T46),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D46,ItemEffectTable[[#This Row],['#이름값]]=C46),T46+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D46,0,
-ItemEffectTable[[#This Row],['#Grade]]=D46,S46
+ItemEffectTable[[#This Row],['#Grade]]=D46,T46
 )</f>
         <v>11</v>
       </c>
-      <c r="T47" s="8" t="str">
+      <c r="U47" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U47" s="8">
+      <c r="V47" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14003</v>
       </c>
-      <c r="V47" s="8">
+      <c r="W47" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24003</v>
       </c>
-      <c r="W47" s="8" t="str">
+      <c r="X47" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>저주받은 갑옷</v>
       </c>
-      <c r="X47" s="8" t="str">
+      <c r="Y47" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>[하트]가 3개 증가, 이동속도가 40% 느려집니다.</v>
       </c>
     </row>
-    <row r="48" spans="2:24">
+    <row r="48" spans="2:25">
       <c r="B48" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E48" cm="1">
         <f t="array" ref="E48">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -6507,39 +6862,47 @@
         <v>9004</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
-      </c>
-      <c r="G48" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G48" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>공격력변경</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>1.6</v>
       </c>
-      <c r="I48" t="s">
-        <v>44</v>
-      </c>
       <c r="J48" t="s">
-        <v>33</v>
-      </c>
-      <c r="K48" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>45</v>
+      </c>
+      <c r="K48" t="s">
+        <v>34</v>
+      </c>
+      <c r="L48" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterAtkTable</v>
       </c>
-      <c r="L48" s="8" cm="1">
-        <f t="array" ref="L48">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M48" s="8" cm="1">
+        <f t="array" ref="M48">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>1</v>
       </c>
-      <c r="M48" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N48" s="8" cm="1">
-        <f t="array" ref="N48">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N48" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O48" s="8" cm="1">
+        <f t="array" ref="O48">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -6547,61 +6910,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>1.6</v>
       </c>
-      <c r="O48" s="8" cm="1">
-        <f t="array" ref="O48">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P48" s="8" cm="1">
+        <f t="array" ref="P48">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>100.00000000000003</v>
       </c>
-      <c r="P48" s="8" cm="1">
-        <f t="array" ref="P48">SUM(IF($E$3:$E$58=E48,$O$3:$O$58))</f>
+      <c r="Q48" s="8" cm="1">
+        <f t="array" ref="Q48">SUM(IF($E$3:$E$58=E48,$P$3:$P$58))</f>
         <v>50.000000000000028</v>
       </c>
-      <c r="Q48" s="8">
+      <c r="R48" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>0</v>
       </c>
-      <c r="R48" s="7"/>
-      <c r="S48" s="8" cm="1">
-        <f t="array" ref="S48">_xlfn.IFS(
-ISTEXT(S47),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D47,ItemEffectTable[[#This Row],['#이름값]]=C47),S47+1,
+      <c r="S48" s="7"/>
+      <c r="T48" s="8" cm="1">
+        <f t="array" ref="T48">_xlfn.IFS(
+ISTEXT(T47),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D47,ItemEffectTable[[#This Row],['#이름값]]=C47),T47+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D47,0,
-ItemEffectTable[[#This Row],['#Grade]]=D47,S47
+ItemEffectTable[[#This Row],['#Grade]]=D47,T47
 )</f>
         <v>11</v>
       </c>
-      <c r="T48" s="8" t="str">
+      <c r="U48" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U48" s="8">
+      <c r="V48" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14004</v>
       </c>
-      <c r="V48" s="8">
+      <c r="W48" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24004</v>
       </c>
-      <c r="W48" s="8" t="str">
+      <c r="X48" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>유리 대포</v>
       </c>
-      <c r="X48" s="8" t="str">
+      <c r="Y48" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>[하트]가 3개 감소, 피해량이 35% 증가합니다.</v>
       </c>
     </row>
-    <row r="49" spans="2:24">
+    <row r="49" spans="2:25">
       <c r="B49" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E49" cm="1">
         <f t="array" ref="E49">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -6613,39 +6976,47 @@
         <v>9004</v>
       </c>
       <c r="F49" t="s">
-        <v>60</v>
-      </c>
-      <c r="G49" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G49" t="s">
+        <v>61</v>
+      </c>
+      <c r="H49" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>최대체력변경</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>-150</v>
       </c>
-      <c r="I49" t="s">
-        <v>48</v>
-      </c>
       <c r="J49" t="s">
-        <v>33</v>
-      </c>
-      <c r="K49" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>49</v>
+      </c>
+      <c r="K49" t="s">
+        <v>34</v>
+      </c>
+      <c r="L49" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterTable</v>
       </c>
-      <c r="L49" s="8" cm="1">
-        <f t="array" ref="L49">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M49" s="8" cm="1">
+        <f t="array" ref="M49">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>150</v>
       </c>
-      <c r="M49" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N49" s="8" cm="1">
-        <f t="array" ref="N49">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N49" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O49" s="8" cm="1">
+        <f t="array" ref="O49">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -6653,61 +7024,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>0</v>
       </c>
-      <c r="O49" s="8" cm="1">
-        <f t="array" ref="O49">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P49" s="8" cm="1">
+        <f t="array" ref="P49">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>-50</v>
       </c>
-      <c r="P49" s="8" cm="1">
-        <f t="array" ref="P49">SUM(IF($E$3:$E$58=E49,$O$3:$O$58))</f>
+      <c r="Q49" s="8" cm="1">
+        <f t="array" ref="Q49">SUM(IF($E$3:$E$58=E49,$P$3:$P$58))</f>
         <v>50.000000000000028</v>
       </c>
-      <c r="Q49" s="8">
+      <c r="R49" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>0</v>
       </c>
-      <c r="R49" s="7"/>
-      <c r="S49" s="8" cm="1">
-        <f t="array" ref="S49">_xlfn.IFS(
-ISTEXT(S48),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D48,ItemEffectTable[[#This Row],['#이름값]]=C48),S48+1,
+      <c r="S49" s="7"/>
+      <c r="T49" s="8" cm="1">
+        <f t="array" ref="T49">_xlfn.IFS(
+ISTEXT(T48),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D48,ItemEffectTable[[#This Row],['#이름값]]=C48),T48+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D48,0,
-ItemEffectTable[[#This Row],['#Grade]]=D48,S48
+ItemEffectTable[[#This Row],['#Grade]]=D48,T48
 )</f>
         <v>12</v>
       </c>
-      <c r="T49" s="8" t="str">
+      <c r="U49" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U49" s="8">
+      <c r="V49" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14004</v>
       </c>
-      <c r="V49" s="8">
+      <c r="W49" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24004</v>
       </c>
-      <c r="W49" s="8" t="str">
+      <c r="X49" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>유리 대포</v>
       </c>
-      <c r="X49" s="8" t="str">
+      <c r="Y49" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>[하트]가 3개 감소, 피해량이 35% 증가합니다.</v>
       </c>
     </row>
-    <row r="50" spans="2:24">
+    <row r="50" spans="2:25">
       <c r="B50" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E50" cm="1">
         <f t="array" ref="E50">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -6719,39 +7090,44 @@
         <v>9005</v>
       </c>
       <c r="F50" t="s">
-        <v>112</v>
-      </c>
-      <c r="G50" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>113</v>
+      </c>
+      <c r="H50" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>공격 방향이 반대 방향이 됨.</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>180</v>
       </c>
-      <c r="I50" t="s">
-        <v>42</v>
-      </c>
       <c r="J50" t="s">
-        <v>99</v>
-      </c>
-      <c r="K50" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>43</v>
+      </c>
+      <c r="K50" t="s">
+        <v>100</v>
+      </c>
+      <c r="L50" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>-</v>
       </c>
-      <c r="L50" s="8" t="str" cm="1">
-        <f t="array" ref="L50">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M50" s="8" t="str" cm="1">
+        <f t="array" ref="M50">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>예외처리</v>
       </c>
-      <c r="M50" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N50" s="8" t="str" cm="1">
-        <f t="array" ref="N50">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N50" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O50" s="8" t="str" cm="1">
+        <f t="array" ref="O50">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -6759,63 +7135,63 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>예외처리</v>
       </c>
-      <c r="O50" s="8" cm="1">
-        <f t="array" ref="O50">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P50" s="8" cm="1">
+        <f t="array" ref="P50">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>-25</v>
       </c>
-      <c r="P50" s="8" cm="1">
-        <f t="array" ref="P50">SUM(IF($E$3:$E$58=E50,$O$3:$O$58))</f>
+      <c r="Q50" s="8" cm="1">
+        <f t="array" ref="Q50">SUM(IF($E$3:$E$58=E50,$P$3:$P$58))</f>
         <v>50</v>
       </c>
-      <c r="Q50" s="8">
+      <c r="R50" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>0</v>
       </c>
-      <c r="R50" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="S50" s="8" cm="1">
-        <f t="array" ref="S50">_xlfn.IFS(
-ISTEXT(S49),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D49,ItemEffectTable[[#This Row],['#이름값]]=C49),S49+1,
+      <c r="S50" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="T50" s="8" cm="1">
+        <f t="array" ref="T50">_xlfn.IFS(
+ISTEXT(T49),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D49,ItemEffectTable[[#This Row],['#이름값]]=C49),T49+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D49,0,
-ItemEffectTable[[#This Row],['#Grade]]=D49,S49
+ItemEffectTable[[#This Row],['#Grade]]=D49,T49
 )</f>
         <v>12</v>
       </c>
-      <c r="T50" s="8" t="str">
+      <c r="U50" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U50" s="8">
+      <c r="V50" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14005</v>
       </c>
-      <c r="V50" s="8">
+      <c r="W50" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24005</v>
       </c>
-      <c r="W50" s="8" t="str">
+      <c r="X50" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>청개구리 총</v>
       </c>
-      <c r="X50" s="8" t="str">
+      <c r="Y50" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>공격을 반대로 합니다. 대신 피해량이 25% 증가합니다.</v>
       </c>
     </row>
-    <row r="51" spans="2:24">
+    <row r="51" spans="2:25">
       <c r="B51" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E51" cm="1">
         <f t="array" ref="E51">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -6827,39 +7203,47 @@
         <v>9005</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
-      </c>
-      <c r="G51" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G51" t="s">
+        <v>44</v>
+      </c>
+      <c r="H51" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>공격력변경</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>0.45</v>
       </c>
-      <c r="I51" t="s">
-        <v>48</v>
-      </c>
       <c r="J51" t="s">
-        <v>33</v>
-      </c>
-      <c r="K51" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>49</v>
+      </c>
+      <c r="K51" t="s">
+        <v>34</v>
+      </c>
+      <c r="L51" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterAtkTable</v>
       </c>
-      <c r="L51" s="8" cm="1">
-        <f t="array" ref="L51">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M51" s="8" cm="1">
+        <f t="array" ref="M51">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>1</v>
       </c>
-      <c r="M51" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N51" s="8" cm="1">
-        <f t="array" ref="N51">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N51" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O51" s="8" cm="1">
+        <f t="array" ref="O51">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -6867,63 +7251,63 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>1.45</v>
       </c>
-      <c r="O51" s="8" cm="1">
-        <f t="array" ref="O51">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P51" s="8" cm="1">
+        <f t="array" ref="P51">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>75</v>
       </c>
-      <c r="P51" s="8" cm="1">
-        <f t="array" ref="P51">SUM(IF($E$3:$E$58=E51,$O$3:$O$58))</f>
+      <c r="Q51" s="8" cm="1">
+        <f t="array" ref="Q51">SUM(IF($E$3:$E$58=E51,$P$3:$P$58))</f>
         <v>50</v>
       </c>
-      <c r="Q51" s="8">
+      <c r="R51" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>0</v>
       </c>
-      <c r="R51" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="S51" s="8" cm="1">
-        <f t="array" ref="S51">_xlfn.IFS(
-ISTEXT(S50),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D50,ItemEffectTable[[#This Row],['#이름값]]=C50),S50+1,
+      <c r="S51" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="T51" s="8" cm="1">
+        <f t="array" ref="T51">_xlfn.IFS(
+ISTEXT(T50),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D50,ItemEffectTable[[#This Row],['#이름값]]=C50),T50+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D50,0,
-ItemEffectTable[[#This Row],['#Grade]]=D50,S50
+ItemEffectTable[[#This Row],['#Grade]]=D50,T50
 )</f>
         <v>13</v>
       </c>
-      <c r="T51" s="8" t="str">
+      <c r="U51" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U51" s="8">
+      <c r="V51" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14005</v>
       </c>
-      <c r="V51" s="8">
+      <c r="W51" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24005</v>
       </c>
-      <c r="W51" s="8" t="str">
+      <c r="X51" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>청개구리 총</v>
       </c>
-      <c r="X51" s="8" t="str">
+      <c r="Y51" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>공격을 반대로 합니다. 대신 피해량이 25% 증가합니다.</v>
       </c>
     </row>
-    <row r="52" spans="2:24">
+    <row r="52" spans="2:25">
       <c r="B52" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E52" cm="1">
         <f t="array" ref="E52">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -6935,39 +7319,47 @@
         <v>9006</v>
       </c>
       <c r="F52" t="s">
-        <v>79</v>
-      </c>
-      <c r="G52" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G52" t="s">
+        <v>80</v>
+      </c>
+      <c r="H52" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>골드획득량변경</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>0</v>
       </c>
-      <c r="I52" t="s">
-        <v>115</v>
-      </c>
       <c r="J52" t="s">
-        <v>33</v>
-      </c>
-      <c r="K52" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>116</v>
+      </c>
+      <c r="K52" t="s">
+        <v>34</v>
+      </c>
+      <c r="L52" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterTable</v>
       </c>
-      <c r="L52" s="8" cm="1">
-        <f t="array" ref="L52">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M52" s="8" cm="1">
+        <f t="array" ref="M52">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>1</v>
       </c>
-      <c r="M52" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N52" s="8" cm="1">
-        <f t="array" ref="N52">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N52" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O52" s="8" cm="1">
+        <f t="array" ref="O52">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -6975,61 +7367,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>0</v>
       </c>
-      <c r="O52" s="8" cm="1">
-        <f t="array" ref="O52">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P52" s="8" cm="1">
+        <f t="array" ref="P52">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>-100</v>
       </c>
-      <c r="P52" s="8" cm="1">
-        <f t="array" ref="P52">SUM(IF($E$3:$E$58=E52,$O$3:$O$58))</f>
+      <c r="Q52" s="8" cm="1">
+        <f t="array" ref="Q52">SUM(IF($E$3:$E$58=E52,$P$3:$P$58))</f>
         <v>50</v>
       </c>
-      <c r="Q52" s="8">
+      <c r="R52" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>0</v>
       </c>
-      <c r="R52" s="7"/>
-      <c r="S52" s="8" cm="1">
-        <f t="array" ref="S52">_xlfn.IFS(
-ISTEXT(S51),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D51,ItemEffectTable[[#This Row],['#이름값]]=C51),S51+1,
+      <c r="S52" s="7"/>
+      <c r="T52" s="8" cm="1">
+        <f t="array" ref="T52">_xlfn.IFS(
+ISTEXT(T51),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D51,ItemEffectTable[[#This Row],['#이름값]]=C51),T51+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D51,0,
-ItemEffectTable[[#This Row],['#Grade]]=D51,S51
+ItemEffectTable[[#This Row],['#Grade]]=D51,T51
 )</f>
         <v>13</v>
       </c>
-      <c r="T52" s="8" t="str">
+      <c r="U52" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U52" s="8">
+      <c r="V52" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14006</v>
       </c>
-      <c r="V52" s="8">
+      <c r="W52" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24006</v>
       </c>
-      <c r="W52" s="8" t="str">
+      <c r="X52" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>불운의 황금상</v>
       </c>
-      <c r="X52" s="8" t="str">
+      <c r="Y52" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>더 이상 골드를 획득할 수 없습니다. 데미지가 30% 상승합니다.</v>
       </c>
     </row>
-    <row r="53" spans="2:24">
+    <row r="53" spans="2:25">
       <c r="B53" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E53" cm="1">
         <f t="array" ref="E53">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -7041,39 +7433,47 @@
         <v>9006</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
-      </c>
-      <c r="G53" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G53" t="s">
+        <v>44</v>
+      </c>
+      <c r="H53" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>공격력변경</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>1.9</v>
       </c>
-      <c r="I53" t="s">
-        <v>115</v>
-      </c>
       <c r="J53" t="s">
-        <v>33</v>
-      </c>
-      <c r="K53" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>116</v>
+      </c>
+      <c r="K53" t="s">
+        <v>34</v>
+      </c>
+      <c r="L53" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterAtkTable</v>
       </c>
-      <c r="L53" s="8" cm="1">
-        <f t="array" ref="L53">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M53" s="8" cm="1">
+        <f t="array" ref="M53">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>1</v>
       </c>
-      <c r="M53" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N53" s="8" cm="1">
-        <f t="array" ref="N53">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N53" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O53" s="8" cm="1">
+        <f t="array" ref="O53">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -7081,61 +7481,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>1.9</v>
       </c>
-      <c r="O53" s="8" cm="1">
-        <f t="array" ref="O53">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P53" s="8" cm="1">
+        <f t="array" ref="P53">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>150</v>
       </c>
-      <c r="P53" s="8" cm="1">
-        <f t="array" ref="P53">SUM(IF($E$3:$E$58=E53,$O$3:$O$58))</f>
+      <c r="Q53" s="8" cm="1">
+        <f t="array" ref="Q53">SUM(IF($E$3:$E$58=E53,$P$3:$P$58))</f>
         <v>50</v>
       </c>
-      <c r="Q53" s="8">
+      <c r="R53" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>0</v>
       </c>
-      <c r="R53" s="7"/>
-      <c r="S53" s="8" cm="1">
-        <f t="array" ref="S53">_xlfn.IFS(
-ISTEXT(S52),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D52,ItemEffectTable[[#This Row],['#이름값]]=C52),S52+1,
+      <c r="S53" s="7"/>
+      <c r="T53" s="8" cm="1">
+        <f t="array" ref="T53">_xlfn.IFS(
+ISTEXT(T52),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D52,ItemEffectTable[[#This Row],['#이름값]]=C52),T52+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D52,0,
-ItemEffectTable[[#This Row],['#Grade]]=D52,S52
+ItemEffectTable[[#This Row],['#Grade]]=D52,T52
 )</f>
         <v>14</v>
       </c>
-      <c r="T53" s="8" t="str">
+      <c r="U53" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U53" s="8">
+      <c r="V53" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14006</v>
       </c>
-      <c r="V53" s="8">
+      <c r="W53" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24006</v>
       </c>
-      <c r="W53" s="8" t="str">
+      <c r="X53" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>불운의 황금상</v>
       </c>
-      <c r="X53" s="8" t="str">
+      <c r="Y53" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>더 이상 골드를 획득할 수 없습니다. 데미지가 30% 상승합니다.</v>
       </c>
     </row>
-    <row r="54" spans="2:24">
+    <row r="54" spans="2:25">
       <c r="B54" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E54" cm="1">
         <f t="array" ref="E54">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -7147,39 +7547,47 @@
         <v>9007</v>
       </c>
       <c r="F54" t="s">
-        <v>62</v>
-      </c>
-      <c r="G54" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G54" t="s">
+        <v>63</v>
+      </c>
+      <c r="H54" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>공최대소지개수변경</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>-3</v>
       </c>
-      <c r="I54" t="s">
-        <v>48</v>
-      </c>
       <c r="J54" t="s">
-        <v>33</v>
-      </c>
-      <c r="K54" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>49</v>
+      </c>
+      <c r="K54" t="s">
+        <v>34</v>
+      </c>
+      <c r="L54" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterTable</v>
       </c>
-      <c r="L54" s="8" cm="1">
-        <f t="array" ref="L54">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M54" s="8" cm="1">
+        <f t="array" ref="M54">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>1</v>
       </c>
-      <c r="M54" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N54" s="8" cm="1">
-        <f t="array" ref="N54">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N54" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O54" s="8" cm="1">
+        <f t="array" ref="O54">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -7187,61 +7595,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>-2</v>
       </c>
-      <c r="O54" s="8" cm="1">
-        <f t="array" ref="O54">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P54" s="8" cm="1">
+        <f t="array" ref="P54">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>-50</v>
       </c>
-      <c r="P54" s="8" cm="1">
-        <f t="array" ref="P54">SUM(IF($E$3:$E$58=E54,$O$3:$O$58))</f>
+      <c r="Q54" s="8" cm="1">
+        <f t="array" ref="Q54">SUM(IF($E$3:$E$58=E54,$P$3:$P$58))</f>
         <v>50.499999999999979</v>
       </c>
-      <c r="Q54" s="8">
+      <c r="R54" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>-0.49999999999997868</v>
       </c>
-      <c r="R54" s="7"/>
-      <c r="S54" s="8" cm="1">
-        <f t="array" ref="S54">_xlfn.IFS(
-ISTEXT(S53),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D53,ItemEffectTable[[#This Row],['#이름값]]=C53),S53+1,
+      <c r="S54" s="7"/>
+      <c r="T54" s="8" cm="1">
+        <f t="array" ref="T54">_xlfn.IFS(
+ISTEXT(T53),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D53,ItemEffectTable[[#This Row],['#이름값]]=C53),T53+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D53,0,
-ItemEffectTable[[#This Row],['#Grade]]=D53,S53
+ItemEffectTable[[#This Row],['#Grade]]=D53,T53
 )</f>
         <v>14</v>
       </c>
-      <c r="T54" s="8" t="str">
+      <c r="U54" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U54" s="8">
+      <c r="V54" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14007</v>
       </c>
-      <c r="V54" s="8">
+      <c r="W54" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24007</v>
       </c>
-      <c r="W54" s="8" t="str">
+      <c r="X54" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>저주받은 테니스채</v>
       </c>
-      <c r="X54" s="8" t="str">
+      <c r="Y54" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>공 던지기 개수 3개 감소. 직접 공격 데미지가 450% 상승합니다.</v>
       </c>
     </row>
-    <row r="55" spans="2:24">
+    <row r="55" spans="2:25">
       <c r="B55" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E55" cm="1">
         <f t="array" ref="E55">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -7253,39 +7661,47 @@
         <v>9007</v>
       </c>
       <c r="F55" t="s">
-        <v>117</v>
-      </c>
-      <c r="G55" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G55" t="s">
+        <v>118</v>
+      </c>
+      <c r="H55" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>직접공격피해량-미차징</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>1.67</v>
       </c>
-      <c r="I55" t="s">
-        <v>44</v>
-      </c>
       <c r="J55" t="s">
-        <v>33</v>
-      </c>
-      <c r="K55" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>45</v>
+      </c>
+      <c r="K55" t="s">
+        <v>34</v>
+      </c>
+      <c r="L55" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterAtkTable</v>
       </c>
-      <c r="L55" s="8" cm="1">
-        <f t="array" ref="L55">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M55" s="8" cm="1">
+        <f t="array" ref="M55">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>10</v>
       </c>
-      <c r="M55" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N55" s="8" cm="1">
-        <f t="array" ref="N55">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N55" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O55" s="8" cm="1">
+        <f t="array" ref="O55">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -7293,61 +7709,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>16.7</v>
       </c>
-      <c r="O55" s="8" cm="1">
-        <f t="array" ref="O55">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P55" s="8" cm="1">
+        <f t="array" ref="P55">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>13.399999999999999</v>
       </c>
-      <c r="P55" s="8" cm="1">
-        <f t="array" ref="P55">SUM(IF($E$3:$E$58=E55,$O$3:$O$58))</f>
+      <c r="Q55" s="8" cm="1">
+        <f t="array" ref="Q55">SUM(IF($E$3:$E$58=E55,$P$3:$P$58))</f>
         <v>50.499999999999979</v>
       </c>
-      <c r="Q55" s="8">
+      <c r="R55" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>-0.49999999999997868</v>
       </c>
-      <c r="R55" s="7"/>
-      <c r="S55" s="8" cm="1">
-        <f t="array" ref="S55">_xlfn.IFS(
-ISTEXT(S54),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D54,ItemEffectTable[[#This Row],['#이름값]]=C54),S54+1,
+      <c r="S55" s="7"/>
+      <c r="T55" s="8" cm="1">
+        <f t="array" ref="T55">_xlfn.IFS(
+ISTEXT(T54),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D54,ItemEffectTable[[#This Row],['#이름값]]=C54),T54+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D54,0,
-ItemEffectTable[[#This Row],['#Grade]]=D54,S54
+ItemEffectTable[[#This Row],['#Grade]]=D54,T54
 )</f>
         <v>15</v>
       </c>
-      <c r="T55" s="8" t="str">
+      <c r="U55" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U55" s="8">
+      <c r="V55" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14007</v>
       </c>
-      <c r="V55" s="8">
+      <c r="W55" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24007</v>
       </c>
-      <c r="W55" s="8" t="str">
+      <c r="X55" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>저주받은 테니스채</v>
       </c>
-      <c r="X55" s="8" t="str">
+      <c r="Y55" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>공 던지기 개수 3개 감소. 직접 공격 데미지가 450% 상승합니다.</v>
       </c>
     </row>
-    <row r="56" spans="2:24">
+    <row r="56" spans="2:25">
       <c r="B56" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E56" cm="1">
         <f t="array" ref="E56">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -7359,39 +7775,47 @@
         <v>9007</v>
       </c>
       <c r="F56" t="s">
-        <v>118</v>
-      </c>
-      <c r="G56" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G56" t="s">
+        <v>119</v>
+      </c>
+      <c r="H56" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>직접공격피해량-1단계</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>1.67</v>
       </c>
-      <c r="I56" t="s">
-        <v>44</v>
-      </c>
       <c r="J56" t="s">
-        <v>33</v>
-      </c>
-      <c r="K56" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>45</v>
+      </c>
+      <c r="K56" t="s">
+        <v>34</v>
+      </c>
+      <c r="L56" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterAtkTable</v>
       </c>
-      <c r="L56" s="8" cm="1">
-        <f t="array" ref="L56">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M56" s="8" cm="1">
+        <f t="array" ref="M56">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>15</v>
       </c>
-      <c r="M56" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N56" s="8" cm="1">
-        <f t="array" ref="N56">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N56" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O56" s="8" cm="1">
+        <f t="array" ref="O56">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -7399,61 +7823,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>25.049999999999997</v>
       </c>
-      <c r="O56" s="8" cm="1">
-        <f t="array" ref="O56">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P56" s="8" cm="1">
+        <f t="array" ref="P56">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>20.099999999999994</v>
       </c>
-      <c r="P56" s="8" cm="1">
-        <f t="array" ref="P56">SUM(IF($E$3:$E$58=E56,$O$3:$O$58))</f>
+      <c r="Q56" s="8" cm="1">
+        <f t="array" ref="Q56">SUM(IF($E$3:$E$58=E56,$P$3:$P$58))</f>
         <v>50.499999999999979</v>
       </c>
-      <c r="Q56" s="8">
+      <c r="R56" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>-0.49999999999997868</v>
       </c>
-      <c r="R56" s="7"/>
-      <c r="S56" s="8" cm="1">
-        <f t="array" ref="S56">_xlfn.IFS(
-ISTEXT(S55),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D55,ItemEffectTable[[#This Row],['#이름값]]=C55),S55+1,
+      <c r="S56" s="7"/>
+      <c r="T56" s="8" cm="1">
+        <f t="array" ref="T56">_xlfn.IFS(
+ISTEXT(T55),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D55,ItemEffectTable[[#This Row],['#이름값]]=C55),T55+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D55,0,
-ItemEffectTable[[#This Row],['#Grade]]=D55,S55
+ItemEffectTable[[#This Row],['#Grade]]=D55,T55
 )</f>
         <v>16</v>
       </c>
-      <c r="T56" s="8" t="str">
+      <c r="U56" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U56" s="8">
+      <c r="V56" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14007</v>
       </c>
-      <c r="V56" s="8">
+      <c r="W56" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24007</v>
       </c>
-      <c r="W56" s="8" t="str">
+      <c r="X56" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>저주받은 테니스채</v>
       </c>
-      <c r="X56" s="8" t="str">
+      <c r="Y56" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>공 던지기 개수 3개 감소. 직접 공격 데미지가 450% 상승합니다.</v>
       </c>
     </row>
-    <row r="57" spans="2:24">
+    <row r="57" spans="2:25">
       <c r="B57" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E57" cm="1">
         <f t="array" ref="E57">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -7465,39 +7889,47 @@
         <v>9007</v>
       </c>
       <c r="F57" t="s">
-        <v>119</v>
-      </c>
-      <c r="G57" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G57" t="s">
+        <v>120</v>
+      </c>
+      <c r="H57" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>직접공격피해량-2단계</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>1.67</v>
       </c>
-      <c r="I57" t="s">
-        <v>44</v>
-      </c>
       <c r="J57" t="s">
-        <v>33</v>
-      </c>
-      <c r="K57" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>45</v>
+      </c>
+      <c r="K57" t="s">
+        <v>34</v>
+      </c>
+      <c r="L57" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterAtkTable</v>
       </c>
-      <c r="L57" s="8" cm="1">
-        <f t="array" ref="L57">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M57" s="8" cm="1">
+        <f t="array" ref="M57">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>20</v>
       </c>
-      <c r="M57" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N57" s="8" cm="1">
-        <f t="array" ref="N57">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N57" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O57" s="8" cm="1">
+        <f t="array" ref="O57">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -7505,61 +7937,61 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>33.4</v>
       </c>
-      <c r="O57" s="8" cm="1">
-        <f t="array" ref="O57">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P57" s="8" cm="1">
+        <f t="array" ref="P57">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>26.799999999999997</v>
       </c>
-      <c r="P57" s="8" cm="1">
-        <f t="array" ref="P57">SUM(IF($E$3:$E$58=E57,$O$3:$O$58))</f>
+      <c r="Q57" s="8" cm="1">
+        <f t="array" ref="Q57">SUM(IF($E$3:$E$58=E57,$P$3:$P$58))</f>
         <v>50.499999999999979</v>
       </c>
-      <c r="Q57" s="8">
+      <c r="R57" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>-0.49999999999997868</v>
       </c>
-      <c r="R57" s="7"/>
-      <c r="S57" s="8" cm="1">
-        <f t="array" ref="S57">_xlfn.IFS(
-ISTEXT(S56),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D56,ItemEffectTable[[#This Row],['#이름값]]=C56),S56+1,
+      <c r="S57" s="7"/>
+      <c r="T57" s="8" cm="1">
+        <f t="array" ref="T57">_xlfn.IFS(
+ISTEXT(T56),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D56,ItemEffectTable[[#This Row],['#이름값]]=C56),T56+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D56,0,
-ItemEffectTable[[#This Row],['#Grade]]=D56,S56
+ItemEffectTable[[#This Row],['#Grade]]=D56,T56
 )</f>
         <v>17</v>
       </c>
-      <c r="T57" s="8" t="str">
+      <c r="U57" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U57" s="8">
+      <c r="V57" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14007</v>
       </c>
-      <c r="V57" s="8">
+      <c r="W57" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24007</v>
       </c>
-      <c r="W57" s="8" t="str">
+      <c r="X57" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>저주받은 테니스채</v>
       </c>
-      <c r="X57" s="8" t="str">
+      <c r="Y57" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>공 던지기 개수 3개 감소. 직접 공격 데미지가 450% 상승합니다.</v>
       </c>
     </row>
-    <row r="58" spans="2:24">
+    <row r="58" spans="2:25">
       <c r="B58" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E58" cm="1">
         <f t="array" ref="E58">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
@@ -7571,39 +8003,47 @@
         <v>9007</v>
       </c>
       <c r="F58" t="s">
-        <v>120</v>
-      </c>
-      <c r="G58" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>38</v>
+      </c>
+      <c r="G58" t="s">
+        <v>121</v>
+      </c>
+      <c r="H58" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>직접공격피해량-3단계</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>1.67</v>
       </c>
-      <c r="I58" t="s">
-        <v>44</v>
-      </c>
       <c r="J58" t="s">
-        <v>33</v>
-      </c>
-      <c r="K58" s="8" t="str">
-        <f>INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))</f>
+        <v>45</v>
+      </c>
+      <c r="K58" t="s">
+        <v>34</v>
+      </c>
+      <c r="L58" s="8" t="str">
+        <f>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
+INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
+)</f>
         <v>CharacterAtkTable</v>
       </c>
-      <c r="L58" s="8" cm="1">
-        <f t="array" ref="L58">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterAtkTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!CharacterTable[#Headers],0) ),
-ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!ProjectileTable[#Headers],0) ),
+      <c r="M58" s="8" cm="1">
+        <f t="array" ref="M58">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
+ItemEffectTable[[#This Row],['#참조 테이블]]="ProjectileTable", INDEX([1]!ProjectileTable[#Data], MATCH([1]!CharacterTable[DefaultBallDataId],[1]!ProjectileTable[Index],0), MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!ProjectileTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</f>
         <v>30</v>
       </c>
-      <c r="M58" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N58" s="8" cm="1">
-        <f t="array" ref="N58">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
+      <c r="N58" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O58" s="8" cm="1">
+        <f t="array" ref="O58">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition",ItemEffectTable[[#This Row],[ApplyValue]]+ItemEffectTable[[#This Row],['#기본값]],
@@ -7611,48 +8051,48 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</f>
         <v>50.099999999999994</v>
       </c>
-      <c r="O58" s="8" cm="1">
-        <f t="array" ref="O58">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
+      <c r="P58" s="8" cm="1">
+        <f t="array" ref="P58">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
-TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)))
+TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</f>
         <v>40.199999999999989</v>
       </c>
-      <c r="P58" s="8" cm="1">
-        <f t="array" ref="P58">SUM(IF($E$3:$E$58=E58,$O$3:$O$58))</f>
+      <c r="Q58" s="8" cm="1">
+        <f t="array" ref="Q58">SUM(IF($E$3:$E$58=E58,$P$3:$P$58))</f>
         <v>50.499999999999979</v>
       </c>
-      <c r="Q58" s="8">
+      <c r="R58" s="8">
         <f>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</f>
         <v>-0.49999999999997868</v>
       </c>
-      <c r="R58" s="7"/>
-      <c r="S58" s="8" cm="1">
-        <f t="array" ref="S58">_xlfn.IFS(
-ISTEXT(S57),0,
-AND(ItemEffectTable[[#This Row],['#Grade]]=D57,ItemEffectTable[[#This Row],['#이름값]]=C57),S57+1,
+      <c r="S58" s="7"/>
+      <c r="T58" s="8" cm="1">
+        <f t="array" ref="T58">_xlfn.IFS(
+ISTEXT(T57),0,
+AND(ItemEffectTable[[#This Row],['#Grade]]=D57,ItemEffectTable[[#This Row],['#이름값]]=C57),T57+1,
 ItemEffectTable[[#This Row],['#Grade]]&lt;&gt;D57,0,
-ItemEffectTable[[#This Row],['#Grade]]=D57,S57
+ItemEffectTable[[#This Row],['#Grade]]=D57,T57
 )</f>
         <v>18</v>
       </c>
-      <c r="T58" s="8" t="str">
+      <c r="U58" s="8" t="str">
         <f>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="U58" s="8">
+      <c r="V58" s="8">
         <f>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>14007</v>
       </c>
-      <c r="V58" s="8">
+      <c r="W58" s="8">
         <f>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</f>
         <v>24007</v>
       </c>
-      <c r="W58" s="8" t="str">
+      <c r="X58" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</f>
         <v>저주받은 테니스채</v>
       </c>
-      <c r="X58" s="8" t="str">
+      <c r="Y58" s="8" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</f>
         <v>공 던지기 개수 3개 감소. 직접 공격 데미지가 450% 상승합니다.</v>
       </c>

--- a/_GameData/ItemEffectGameData.xlsx
+++ b/_GameData/ItemEffectGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{614CB03E-6942-457A-BE35-701A32105DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD80C201-C1B4-4FC7-B3AB-CD42F6A864DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{438CC09E-D1DD-4D51-AFA0-BE6809F7ECFB}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C69FEDDB-449E-4543-B61E-14FDD9AA4CE0}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemEffectGameData" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <author>Kim_Dongju</author>
   </authors>
   <commentList>
-    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{7726194B-9193-436C-ADA7-959504F89332}">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{A29B740B-8D45-41E2-B903-4975F3FE396C}">
       <text>
         <r>
           <rPr>
@@ -1119,7 +1119,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{DA530C73-EDEB-4B27-B064-016C57560451}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{A78C63A1-DEA1-4B49-B2CB-F367C2C7AD90}">
       <tableStyleElement type="wholeTable" dxfId="23"/>
       <tableStyleElement type="headerRow" dxfId="22"/>
       <tableStyleElement type="firstRowStripe" dxfId="21"/>
@@ -1184,13 +1184,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18B1206E-2855-467A-A98B-3D12D55EED2E}" name="ItemEffectTable" displayName="ItemEffectTable" ref="B2:Y58" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E32631F6-3826-4C96-8A2A-7ED079C57781}" name="ItemEffectTable" displayName="ItemEffectTable" ref="B2:Y58" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="B2:Y58" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{7D3B23D4-1DF5-42C8-AA3D-B8626644D27E}" name="#개발여부" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{7C9A0EB2-4851-4422-9433-E60CC2A95A49}" name="#이름값" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{4449C716-511B-4B42-AB5D-27F9F76BE0E1}" name="#Grade" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{F5F4EF44-8928-44E4-897C-AC40E108BA9F}" name="Index" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{384F0E47-40E2-4F7A-A624-960F785B5E74}" name="#개발여부" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{3B1EA57D-0545-40F6-AC7C-F70741E4AEB1}" name="#이름값" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{A37C5A3F-B585-4E86-9732-F3B2F3076160}" name="#Grade" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{C22A9C27-BE06-4615-9E96-A8A8CD2A3141}" name="Index" dataDxfId="15">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#Grade]]="Weapon",6000,
 ItemEffectTable[[#This Row],['#Grade]]="Normal",7000,
 ItemEffectTable[[#This Row],['#Grade]]="Rare",8000,
@@ -1198,23 +1198,23 @@
 + COUNTIF($D$3:D3,ItemEffectTable[[#This Row],['#Grade]])
 -ItemEffectTable[[#This Row],['#인덱스 수식용]]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{563FCC4C-9B54-49A5-8525-A08E563B6FD6}" name="ApplyType"/>
-    <tableColumn id="24" xr3:uid="{0DD52243-B9B5-4A6B-9CE7-C7D8072786CD}" name="ApplyStat"/>
-    <tableColumn id="3" xr3:uid="{4A9EF51A-7F47-404C-8BBA-F8916BA5C417}" name="#효과 한글" dataDxfId="14">
+    <tableColumn id="8" xr3:uid="{A5E44C90-44BC-4958-BA1F-F4BBD4419E5E}" name="ApplyType"/>
+    <tableColumn id="24" xr3:uid="{AD17E201-BAAA-43E6-BF89-496E666F638D}" name="ApplyStat"/>
+    <tableColumn id="3" xr3:uid="{E5C2F830-9117-4F1E-B8B1-F91CDBC4D447}" name="#효과 한글" dataDxfId="14">
       <calculatedColumnFormula>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",
 INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
 INDEX([1]!스텟별가치[설명],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{97DF0730-D31D-4434-ACD8-91C93D5802DD}" name="ApplyValue"/>
-    <tableColumn id="9" xr3:uid="{78F50F1D-1278-4A1A-A695-C8794D985992}" name="ValueOperatorType"/>
-    <tableColumn id="11" xr3:uid="{84F2B34A-D925-4A01-A7B6-5821966F3914}" name="ApplyPoint"/>
-    <tableColumn id="20" xr3:uid="{1FDEF80E-624D-4CED-8DC5-618E7DD00794}" name="#참조 테이블" dataDxfId="13">
+    <tableColumn id="10" xr3:uid="{ACA4FDB5-FA7B-4DFC-9868-31C55EB855B2}" name="ApplyValue"/>
+    <tableColumn id="9" xr3:uid="{4714E484-05BD-42F8-A12F-3FC94D7AD57E}" name="ValueOperatorType"/>
+    <tableColumn id="11" xr3:uid="{E3ED47BC-6B68-4B93-86EF-5B102864CF23}" name="ApplyPoint"/>
+    <tableColumn id="20" xr3:uid="{C9B57561-5893-4F3C-AA04-13627FA8101D}" name="#참조 테이블" dataDxfId="13">
       <calculatedColumnFormula>IF(ItemEffectTable[[#This Row],[ApplyType]]="StatChange",INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)),
 INDEX([1]!스텟별가치[참조 테이블],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0))
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{F64A0AC8-1C7C-418F-BC09-D58F1EA876CD}" name="#기본값" dataDxfId="12">
+    <tableColumn id="21" xr3:uid="{9B6CCC2D-F425-445E-8093-C5376BCF71FF}" name="#기본값" dataDxfId="12">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#참조 테이블]]="-","예외처리",
 ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterAtkTable", INDEX([1]!CharacterAtkTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterAtkTable[#Headers],0) ),
 ItemEffectTable[[#This Row],['#참조 테이블]]="CharacterTable", INDEX([1]!CharacterTable[#Data], 1,MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!CharacterTable[#Headers],0) ),
@@ -1222,10 +1222,10 @@
 ItemEffectTable[[#This Row],['#참조 테이블]]="ItemResourceTable",_xlfn.CONCAT("리소스변경(식별자:",ItemEffectTable[[#This Row],[ApplyValue]],")")
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{D394961C-6803-4E74-AAB6-6B2313400828}" name="#ApplyValue 수식" dataDxfId="11">
+    <tableColumn id="23" xr3:uid="{1C7C6D62-E073-497A-9868-354150BF6148}" name="#ApplyValue 수식" dataDxfId="11">
       <calculatedColumnFormula array="1">[1]!CharacterTable[MovementSpd]*0.01</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{BD563CC0-0557-46DD-AC29-CCFC17CC7A2A}" name="#적용 후" dataDxfId="10">
+    <tableColumn id="17" xr3:uid="{C1855C5F-6FA1-486F-9E8D-C7F8CDD64ADE}" name="#적용 후" dataDxfId="10">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Addition"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]+ItemEffectTable[[#This Row],['#기본값]],
 AND(ISTEXT(ItemEffectTable[[#This Row],[ApplyValue]]),ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply"),ItemEffectTable[[#This Row],['#ApplyValue 수식]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="None","예외처리",
@@ -1233,20 +1233,20 @@
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Multiply",ItemEffectTable[[#This Row],[ApplyValue]]*ItemEffectTable[[#This Row],['#기본값]],
 ItemEffectTable[[#This Row],[ValueOperatorType]]="Hard",ItemEffectTable[[#This Row],[ApplyValue]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4B388212-D5AA-4423-800A-B0563A577069}" name="#효력 가치" dataDxfId="9">
+    <tableColumn id="19" xr3:uid="{72B00181-E0CE-4923-93AD-6D3BF0440172}" name="#효력 가치" dataDxfId="9">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemEffectTable[[#This Row],['#적용 후]]="수식",ItemEffectTable[[#This Row],['#ApplyValue 수식]],
 ItemEffectTable[[#This Row],['#적용 후]]="예외처리", INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyType]],[1]!스텟별가치[스텟],0)),
 TRUE,((ItemEffectTable[[#This Row],['#적용 후]]-ItemEffectTable[[#This Row],['#기본값]])*INDEX([1]!스텟별가치[Value 1당 가치],MATCH(ItemEffectTable[[#This Row],[ApplyStat]],[1]!스텟별가치[스텟],0)))
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{32AD4CE5-5896-4E80-81BC-B8AC4FB2FBC6}" name="#총 효력가치" dataDxfId="8">
+    <tableColumn id="22" xr3:uid="{F7C4A50C-CF83-42C7-8B2E-0DD7EEF4722F}" name="#총 효력가치" dataDxfId="8">
       <calculatedColumnFormula array="1">SUM(IF($E$3:$E$58=E3,$P$3:$P$58))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{C51A7077-D78A-4520-9E55-6861CC1EEEE2}" name="#오차값" dataDxfId="7">
+    <tableColumn id="18" xr3:uid="{14E95255-A355-43D4-9509-D3789B607157}" name="#오차값" dataDxfId="7">
       <calculatedColumnFormula>INDEX([1]!표9[#Data],MATCH(ItemEffectTable[[#This Row],['#Grade]],[1]!표9[#Headers],0))-ItemEffectTable[[#This Row],['#총 효력가치]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D8C450A2-7BEB-4AF4-9033-4FEEDB136F20}" name="#패러디" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{03378488-23D5-4793-8008-715FA46EFBEC}" name="#인덱스 수식용" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{68BA8061-993F-4EBC-9CA9-32080B6E3FC9}" name="#패러디" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{B149EEE1-45DB-4518-8C16-AD032456D90B}" name="#인덱스 수식용" dataDxfId="5">
       <calculatedColumnFormula array="1">_xlfn.IFS(
 ISTEXT(T2),0,
 AND(ItemEffectTable[[#This Row],['#Grade]]=D2,ItemEffectTable[[#This Row],['#이름값]]=C2),T2+1,
@@ -1254,19 +1254,19 @@
 ItemEffectTable[[#This Row],['#Grade]]=D2,T2
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{67F76481-2D75-406A-9668-F44F9E26DD06}" name="#이름 일치 여부" dataDxfId="4">
+    <tableColumn id="13" xr3:uid="{57FDF17E-E11C-4FAE-8F06-2C85B212CF28}" name="#이름 일치 여부" dataDxfId="4">
       <calculatedColumnFormula>IF(ItemEffectTable[[#This Row],['#이름값]]=ItemEffectTable[[#This Row],['#Name]],"TRUE","FALSE")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7BB73DC5-3404-41C1-9872-41BFB82E4EE6}" name="#NameIndex" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{F457FD45-C5E2-4045-B3C6-2E12A8164459}" name="#NameIndex" dataDxfId="3">
       <calculatedColumnFormula>INDEX([1]!ItemTable[Name],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3B917D59-9E73-4020-8E3E-4C6781CC1E80}" name="#DescIndex" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{ADF68A6A-3AF2-4FBA-9739-43607421B411}" name="#DescIndex" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!ItemTable[Desc],MATCH(ItemEffectTable[[#This Row],[Index]],[1]!ItemTable[ItemEffectDataId],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{D420DECA-5092-43EB-9BED-4C901BDA840B}" name="#Name" dataDxfId="1">
+    <tableColumn id="15" xr3:uid="{49446C8A-C606-4A33-9E17-8EA4D66C9D35}" name="#Name" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#NameIndex]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{2F029F98-7CB4-4CEB-910A-AE7B7F156854}" name="#Desc" dataDxfId="0">
+    <tableColumn id="16" xr3:uid="{25BD1CFD-DB5E-4384-9E83-C29804EC4ACE}" name="#Desc" dataDxfId="0">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemEffectTable[[#This Row],['#DescIndex]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1570,7 +1570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7483F4C5-9C1C-4F97-BB2F-E1FC7E034820}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921EA554-65EE-4992-895E-9B8CAA24110C}">
   <sheetPr codeName="Sheet7">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ItemEffectGameData.xlsx
+++ b/_GameData/ItemEffectGameData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bangseoghyeon/Develop/QT_Proto/_GameData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4AC578-6DEC-1E4D-A8D8-C043481B4480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0B47EB-6272-A24A-A76C-4850BC9A25DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30240" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{499C068C-FDA6-48F3-A504-904A943C1564}"/>
   </bookViews>
@@ -95,7 +95,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(HP.Base-HP)</t>
+    <t>(HP/HP.Base)*MovementSpd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,7 +609,7 @@
   <dimension ref="B1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -617,7 +617,7 @@
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.1640625" customWidth="1"/>
-    <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
     <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
